--- a/output/Combined.xlsx
+++ b/output/Combined.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,6 +657,1225 @@
         <v/>
       </c>
     </row>
+    <row r="9" ht="80" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Development of Bankable Project Pipeline of Low-carbon Buildings in India, ALCBT Project</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1577247/development-of-bankable-project-pipeline-of-low-carbon-buildings-in-india-alcbt-project", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="80" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Institutionalization of the Building Emission Assessment Tool and Establishment of Building Registry Pilot in 5 States and Bureau of Energy Efficiency of India to Support Implementation of Energy Conservation &amp; Sustainable Building Code</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Governance, Climate</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr"/>
+      <c r="F10" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1581627/institutionalization-of-the-building-emission-assessment-tool-and-establishment-of-building-registry", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="80" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Preparatory Survey on Participatory Forestry Capacity Development Project in Jharkhand, India [Fee Account Technical Assistance] (QCBS-Lump Sum Type)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1578242/preparatory-survey-on-participatory-forestry-capacity-development-project-in-jharkhand-india-fee-acc", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="80" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Short Term Consultant-Portuguese Translator</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr"/>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr"/>
+      <c r="F12" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1592867/short-term-consultant-portuguese-translator", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="80" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>RFP-002-IND-2026 - Development of a detailed Adaptation Project</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1590957/rfp-002-ind-2026-development-of-a-detailed-adaptation-project", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="80" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Procurement of Ergonomic office chairs and visitor chairs for UN Women India</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1592909/procurement-of-ergonomic-office-chairs-and-visitor-chairs-for-un-women-india", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="80" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>81322699-Communications support for the City Climate Finance Gap Fund</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr"/>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1585540/81322699-communications-support-for-the-city-climate-finance-gap-fund", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="80" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>LOAN-4291 IND: Himachal Pradesh Subtropical Horticulture, Irrigation, and Value Addition Project - CS 13 Detailed design and Construction Supervision Consultant for Farmers Enterprise Innovation Centre (FEIC) and Farmers Advisory and Capacity Development Centre (FACDC) (53189-002)</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr"/>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1588620/loan-4291-ind-himachal-pradesh-subtropical-horticulture-irrigation-and-value-addition-project-cs-13", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" ht="80" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>81322717 Development of training programs for the mobility of skilled workforce to Germany</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1586182/81322717-development-of-training-programs-for-the-mobility-of-skilled-workforce-to-germany", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="80" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>Call for External Collaborator – Strengthening Social Protection Provisions in BLAs/MoUs (South Asia–GCC Corridor)</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr"/>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1587863/call-for-external-collaborator-strengthening-social-protection-provisions-in-blasmous-south-asia-gcc", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" ht="80" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project: Appointment of Consultants to Develop and Operationalize a Communication Strategy and Public Information Cell (PIC) for KERA Project</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>Governance, Climate</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1591516/kerala-climate-resilient-agri-value-chain-modernization-kera-project-appointment-of-consultants-to-d", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="80" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Supporting the UN to increase meaningful participation of women in peace operations</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr"/>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr"/>
+      <c r="F20" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1592214/supporting-the-un-to-increase-meaningful-participation-of-women-in-peace-operations", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="80" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Kerala Solid Waste Management Project: Renovation and Extension of Existing Rrf in Ward 65 Kaloor</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Governance, Climate</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1592425/kerala-solid-waste-management-project-renovation-and-extension-of-existing-rrf-in-ward-65-kaloor", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="80" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>RFQ - for Consultancy Services – Baseline and Scoping Study in 40 Gram Panchayats of Sheopur and Shivpuri Districts</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1592382/rfq-for-consultancy-services-baseline-and-scoping-study-in-40-gram-panchayats-of-sheopur-and-shivpur", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="80" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>RFQ - for Consultancy Services – Baseline and Scoping Study in 40 Gram Panchayats of Dhar and Dewas Districts</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1592387/rfq-for-consultancy-services-baseline-and-scoping-study-in-40-gram-panchayats-of-dhar-and-dewas-dist", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="80" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>Kerala Solid Waste Management Project: Procurement of Two Covered Tipper vehicles for the Transportation of Bio- Waste for Kozhikode Corporation</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>Governance, Climate</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr"/>
+      <c r="F24" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1591279/kerala-solid-waste-management-project-procurement-of-two-covered-tipper-vehicles-for-the-transportat", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="80" customHeight="1">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>Kerala Solid Waste Management Project: Procurement of Five covered Mini Tipper Vehicles for the Transportation of Bio-waste for Kozhikode Corporation</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr"/>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>Governance, Climate</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1591291/kerala-solid-waste-management-project-procurement-of-five-covered-mini-tipper-vehicles-for-the-trans", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="80" customHeight="1">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Assam Resilient Rural Bridges Program: “Consultancy Services for construction supervision of about 1184 Bridges in 4(Four) zones (Zone A, Zone B, Zone C, Zone D) in 34 districts of Assam under the World Bank financed Assam Resilient Rural Bridges Program (ARRBP)"</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1319230/assam-resilient-rural-bridges-program-consultancy-services-for-construction-supervision-of-about-118", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="80" customHeight="1">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>West Bengal Accelerated Development of Minor Irrigation Project - Phase II: Engagement of a NGO named as Sigma Foundation for Consultancy Services to develop a Strategy Note on Institutionalizing Water User Association (WUA) Cell in WRIDD on Single Source Selection (SSS) basis under WBADMI Project</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr"/>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1591615/west-bengal-accelerated-development-of-minor-irrigation-project-phase-ii-engagement-of-a-ngo-named-a", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="80" customHeight="1">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Kerala Solid Waste Management Project: Replacement of existing vehicle for NBDW</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>Governance, Climate</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1591262/kerala-solid-waste-management-project-replacement-of-existing-vehicle-for-nbdw", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" ht="80" customHeight="1">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>Punjab Municipal Services Improvement Project: Modernisation of 1R Disty of Sidhwan Canal to provide water to MC Ludhiana</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr"/>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr"/>
+      <c r="F29" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1592402/punjab-municipal-services-improvement-project-modernisation-of-1r-disty-of-sidhwan-canal-to-provide", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="80" customHeight="1">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Kerala Solid Waste Management Project: Electrification of MCF &amp; RRF building at Mattanur municipality</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr"/>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>Governance, Climate</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1591146/kerala-solid-waste-management-project-electrification-of-mcf-rrf-building-at-mattanur-municipality", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" ht="80" customHeight="1">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>Assam State Secondary Healthcare Initiative for Service Delivery Transformation (ASSIST) Project: Hiring of Creative Multimedia Communication Agency for Content Development and Management of Communication Materials  using various tools and mediums of  communication for  General  IEC , Citizen Engagement &amp; Behavior Change Communication under AHIDMS.</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr"/>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1591188/assam-state-secondary-healthcare-initiative-for-service-delivery-transformation-assist-project-hirin", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" ht="80" customHeight="1">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Research for Evidence-Based Planning, Mapping, Improvement, &amp; Development of IIPs of ITIs</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr"/>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1592079/research-for-evidence-based-planning-mapping-improvement-development-of-iips-of-itis", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" ht="80" customHeight="1">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>West Bengal Inland Water Transport, Logistics and Spatial Development Project: Construction of 4 Nos SRC and 1 ICCC. (5 Lots)</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1591193/west-bengal-inland-water-transport-logistics-and-spatial-development-project-construction-of-4-nos-s", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" ht="80" customHeight="1">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>RFP-001-IND-2026 - Agency for Development of An Implementation Roadmap</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr"/>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1591862/rfp-001-ind-2026-agency-for-development-of-an-implementation-roadmap", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" ht="80" customHeight="1">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>TA-10244 IND: Supporting the Transformation of the Indian Agriculture System - PMDDK-02 PMDDKY - Agriculture Sector Development Consultant-02 (57198-001)</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr"/>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1591097/ta-10244-ind-supporting-the-transformation-of-the-indian-agriculture-system-pmddk-02-pmddky-agricult", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" ht="80" customHeight="1">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>TA-10244 IND: Supporting the Transformation of the Indian Agriculture System - PMDDK-01 PMDDKY - Agriculture Sector Development Consultant-01 (57198-001)</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr"/>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1591096/ta-10244-ind-supporting-the-transformation-of-the-indian-agriculture-system-pmddk-01-pmddky-agricult", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" ht="80" customHeight="1">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>TA-10162 REG: Promoting Energy Transition through Regional Cooperation and Integration in South Asia - Techical Specialist - Energy Sector/Regional Cooperation (International) (57116-001)</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr"/>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1591094/ta-10162-reg-promoting-energy-transition-through-regional-cooperation-and-integration-in-south-asia", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" ht="80" customHeight="1">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Public Service Capability Enhancement Project: Empanelment of Individual Subject Matter Experts (SMEs) for Content Review and Curation for iGOT portal of Karmayogi Bharat for 7 Sectors</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr"/>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1344099/public-service-capability-enhancement-project-empanelment-of-individual-subject-matter-experts-smes", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" ht="80" customHeight="1">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Enhancing Landscape and Ecosystem Management (ELEMENT) Project: Hiring of agency for assistance in development of CLMP Toolkit, Training and Mobile App</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr"/>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1591694/enhancing-landscape-and-ecosystem-management-element-project-hiring-of-agency-for-assistance-in-deve", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" ht="80" customHeight="1">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>TA-10720 REG: UHC PEERS Coordination Health Expert (59388-001)</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr"/>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1591087/ta-10720-reg-uhc-peers-coordination-health-expert-59388-001", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" ht="80" customHeight="1">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>TA-10244 IND: Supporting the Transformation of the Indian Agriculture System - PMDDK-03 PMDDKY - Senior Agriculture Sector Development Consultant-03 (57198-001)</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr"/>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1591082/ta-10244-ind-supporting-the-transformation-of-the-indian-agriculture-system-pmddk-03-pmddky-senior-a", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" ht="80" customHeight="1">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>LOAN 59312-001 IND: Puducherry Integrated Urban Livability Improvement Project - CS1 Project Management and Supervision Consultant (PMSC)</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr"/>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr"/>
+      <c r="F42" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1579250/loan-59312-001-ind-puducherry-integrated-urban-livability-improvement-project-cs1-project-management", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" ht="80" customHeight="1">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>Assam Disaster Resilient Hill Area Roads Development Project (ADRHARDP): Project Management Consultancy (PMC) services for implementation of Assam Disaster Resilient Hill Area Road Development Project (ADRHARDP) in Dima Hasao District,Assam</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr"/>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>Governance, Learning, Climate</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr"/>
+      <c r="F43" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1512219/assam-disaster-resilient-hill-area-roads-development-project-adrhardp-project-management-consultancy", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" ht="80" customHeight="1">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>Assam Disaster Resilient Hill Area Roads Development Project (ADRHARDP): Upgradation and 4-year maintenance of Corridor-2 (Thongikro – Moulkang - Simtuilong – Semkhor – Maibang - Gunjung - Jorai – Longkuk Section in Dima Hasao District): Semkhor (Km. 30/700) to Near Maibang (Km 54/476) under ADRHARDP, Package Length=23.546 km</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>Learning, Climate</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr"/>
+      <c r="F44" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1487758/assam-disaster-resilient-hill-area-roads-development-project-adrhardp-upgradation-and-4-year-mainten", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" ht="80" customHeight="1">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>Assam Disaster Resilient Hill Area Roads Development Project (ADRHARDP): Upgradation and 4-year maintenance of Corridor-1 (Thongikro – Bonkhai - kolaidisa – Khejurbond – Dehangi - New Sangbar - Umrongso – khandong Section in Dima Hasao District): Dikrangso (km. 122/000) to Umrangso (Km 158/000) (Length – 36.00 kms) under Assam</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr"/>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>Learning, Climate</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr"/>
+      <c r="F45" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1487759/assam-disaster-resilient-hill-area-roads-development-project-adrhardp-upgradation-and-4-year-mainten", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" ht="80" customHeight="1">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>Assam Disaster Resilient Hill Area Roads Development Project (ADRHARDP): Upgradation and 4-year maintenance of Corridor-2 : Near Maibang (Km. 54/476) to Near Gunjung (Km 82/100)(Excluding the section from Km 78+530 to Km 79+960 [1.43 km]) under ADRHARDP (Total Length: 26.194 km). Pkg. 4</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr"/>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>Learning, Climate</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr"/>
+      <c r="F46" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1474865/assam-disaster-resilient-hill-area-roads-development-project-adrhardp-upgradation-and-4-year-mainten", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" ht="80" customHeight="1">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>Assam Disaster Resilient Hill Area Roads Development Project (ADRHARDP): Upgradation and 4-year maintenance of Corridor-1:(Thongikro – Bonkhai – Kolaidisa – Khejurbond – Dehangi – New Sangbar – Umrongso – Khandong Section in Dima Hasao District): From Km 98+000 (Thaiplungdisa) to Km 122+000 (Dikrangso) Pkg. 3</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr"/>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>Learning, Climate</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr"/>
+      <c r="F47" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1487761/assam-disaster-resilient-hill-area-roads-development-project-adrhardp-upgradation-and-4-year-mainten", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" ht="80" customHeight="1">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>Assam Disaster Resilient Hill Area Roads Development Project (ADRHARDP): Upgradation and 4-year maintenance of Corridor-2:(Thongikro – Bonkhai – Kolaidisa – Khejurbond – Dehangi – New Sangbar – Umrongso – Khandong Section in Dima Hasao District): from Km 15+860 (near Girijanapur) to Km 30+700 (Semkhor) under the ADRHARDP,Pkg.5</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr"/>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>Learning, Climate</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr"/>
+      <c r="F48" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1487754/assam-disaster-resilient-hill-area-roads-development-project-adrhardp-upgradation-and-4-year-mainten", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" ht="80" customHeight="1">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>55262-002 - Jharkhand Action for Generating Responsive and Inclusive Transformations in Health Infrastructure (JAGRITI)</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr"/>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr"/>
+      <c r="F49" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1591018/55262-002-jharkhand-action-for-generating-responsive-and-inclusive-transformations-in-health-infrast", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" ht="80" customHeight="1">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>58363-001 - Tripura Renewable Energy Development and Integration Project</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr"/>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>Learning, Climate</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr"/>
+      <c r="F50" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1591008/58363-001-tripura-renewable-energy-development-and-integration-project", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" ht="80" customHeight="1">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>59369-001 - Nagaland Hydropower Development Project</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr"/>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr"/>
+      <c r="F51" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1590979/59369-001-nagaland-hydropower-development-project", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" ht="80" customHeight="1">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>RFP - Pedagogical Review of Multilingual Educational Content (25 languages)</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr"/>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr"/>
+      <c r="F52" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1590908/rfp-pedagogical-review-of-multilingual-educational-content-25-languages", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" ht="80" customHeight="1">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>NDRWPL Equity - Commercial Property - Industrial</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr"/>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr"/>
+      <c r="F53" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1590828/ndrwpl-equity-commercial-property-industrial", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" ht="80" customHeight="1">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>TA-10504 REG: Strengthening Knowledge and Capacity of Country Safeguard Systems and Private Sector Clients - Social Safeguard Specialist - International Grievance Redress Mechanism Capacity Building Specialist (58360-001)</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr"/>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr"/>
+      <c r="F54" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1590564/ta-10504-reg-strengthening-knowledge-and-capacity-of-country-safeguard-systems-and-private-sector-cl", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" ht="80" customHeight="1">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>Strengthening Teaching-Learning And Results for States - P166868</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr"/>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr"/>
+      <c r="F55" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/373491/strengthening-secondary-education-in-focus-states", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" ht="80" customHeight="1">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>IP Orderly Migration for Ensuring Social Sustainability in Sugar Supply Chain</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr"/>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr"/>
+      <c r="F56" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1590669/ip-orderly-migration-for-ensuring-social-sustainability-in-sugar-supply-chain", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" ht="80" customHeight="1">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>Terms of Reference (TOR) Energy for Health – Launch Video &amp; Photo Documentation Sikkim, Nagaland &amp; Manipur</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr"/>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>Safety, Climate</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr"/>
+      <c r="F57" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1590543/terms-of-reference-tor-energy-for-health-launch-video-photo-documentation-sikkim-nagaland-manipur", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" ht="80" customHeight="1">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>Terms of Reference (TOR) Energy for Health &amp; Livelihoods – Video &amp; Photo Documentation Arunachal Pradesh</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr"/>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>Safety, Climate</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr"/>
+      <c r="F58" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1590545/terms-of-reference-tor-energy-for-health-livelihoods-video-photo-documentation-arunachal-pradesh", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" ht="80" customHeight="1">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>Provision of South Asia and Afghanistan Practitioner Level Core Curriculum for the FCDO International Academy</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr"/>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr"/>
+      <c r="F59" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1590549/provision-of-south-asia-and-afghanistan-practitioner-level-core-curriculum-for-the-fcdo-internationa", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" ht="80" customHeight="1">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>RFQ - for restoration and retrofitting of WASH infrastructure in five schools located in Taluka Ambegaon, Pune District</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr"/>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr"/>
+      <c r="F60" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1590489/rfq-for-restoration-and-retrofitting-of-wash-infrastructure-in-five-schools-located-in-taluka-ambega", "Apply")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" ht="80" customHeight="1">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>Food security in Canada and Sri Lanka</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr"/>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr"/>
+      <c r="F61" s="2">
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1590272/food-security-in-canada-and-sri-lanka", "Apply")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/Combined.xlsx
+++ b/output/Combined.xlsx
@@ -455,7 +455,7 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Posting_Date</t>
+          <t>Deadline</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -479,7 +479,7 @@
       <c r="D2" s="1" t="inlineStr"/>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>02/04/2026</t>
+          <t>02/19/2026, 04:59 AM</t>
         </is>
       </c>
       <c r="F2" s="1">

--- a/output/Combined.xlsx
+++ b/output/Combined.xlsx
@@ -479,7 +479,7 @@
       <c r="D2" s="1" t="inlineStr"/>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>02/19/2026, 04:59 AM</t>
+          <t>02/04/2026</t>
         </is>
       </c>
       <c r="F2" s="1">

--- a/output/Combined.xlsx
+++ b/output/Combined.xlsx
@@ -479,7 +479,7 @@
       <c r="D2" s="1" t="inlineStr"/>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>02/04/2026</t>
+          <t>02/19/2026, 04:59 AM</t>
         </is>
       </c>
       <c r="F2" s="1">

--- a/output/Combined.xlsx
+++ b/output/Combined.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,18 +684,18 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
+          <t>LOAN-4411 IND: Building India's Clean Plant Program - IARI-staff-C S09 IARI staff - virologists and other staff - Young Professional-II (04) (Project Data Management) (57041-001)</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr"/>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr"/>
       <c r="F10" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1609019/ausbau-erneuerbarer-energien-expansion-of-renewable-energies", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1602444/loan-4411-ind-building-indias-clean-plant-program-iari-staff-c-s09-iari-staff-virologists-and-other", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -707,7 +707,7 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Integrated Urban Climate Action for Low-Carbon &amp; Resilient Cities (Urban-Act)</t>
+          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr"/>
@@ -718,7 +718,7 @@
       </c>
       <c r="E11" s="1" t="inlineStr"/>
       <c r="F11" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608947/integrated-urban-climate-action-for-low-carbon-resilient-cities-urban-act", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1609019/ausbau-erneuerbarer-energien-expansion-of-renewable-energies", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing dry stone check barriers in project GP,s of Sirmour Distt.</t>
+          <t>Integrated Urban Climate Action for Low-Carbon &amp; Resilient Cities (Urban-Act)</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr"/>
@@ -741,7 +741,7 @@
       </c>
       <c r="E12" s="1" t="inlineStr"/>
       <c r="F12" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608977/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608947/integrated-urban-climate-action-for-low-carbon-resilient-cities-urban-act", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing crate wire check barriers in project GP,s of Sirmour Distt.</t>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing dry stone check barriers in project GP,s of Sirmour Distt.</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr"/>
@@ -764,7 +764,7 @@
       </c>
       <c r="E13" s="1" t="inlineStr"/>
       <c r="F13" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1579382/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608977/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>TA-9849 IND: TA 9849-IND: India Urban and Water Projects Support Facility (53067-002) - Environment Safeguards Expert (53067-002)</t>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing crate wire check barriers in project GP,s of Sirmour Distt.</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr"/>
@@ -787,7 +787,7 @@
       </c>
       <c r="E14" s="1" t="inlineStr"/>
       <c r="F14" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608441/ta-9849-ind-ta-9849-ind-india-urban-and-water-projects-support-facility-53067-002-environment-safegu", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1579382/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -799,18 +799,18 @@
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>TA-10721 IND: Support for Development of Sustainable Metro Rail Projects for Nagpur Metro Rail Project (Phase 2) - B/CS-1 Consulting services to design and develop a large battery storage system of 8 MW per day capacity and undertake technology demonstration pilot projects at two locations with 15 years of operation and (59279-001)</t>
+          <t>TA-9849 IND: TA 9849-IND: India Urban and Water Projects Support Facility (53067-002) - Environment Safeguards Expert (53067-002)</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr"/>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr"/>
       <c r="F15" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608429/ta-10721-ind-support-for-development-of-sustainable-metro-rail-projects-for-nagpur-metro-rail-projec", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608441/ta-9849-ind-ta-9849-ind-india-urban-and-water-projects-support-facility-53067-002-environment-safegu", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -822,18 +822,18 @@
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>81322849 - Capacity development and organisational support for convergent implementation of measures to improve water security in rural India</t>
+          <t>TA-10721 IND: Support for Development of Sustainable Metro Rail Projects for Nagpur Metro Rail Project (Phase 2) - B/CS-1 Consulting services to design and develop a large battery storage system of 8 MW per day capacity and undertake technology demonstration pilot projects at two locations with 15 years of operation and (59279-001)</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr"/>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Safety</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr"/>
       <c r="F16" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1593414/81322849-capacity-development-and-organisational-support-for-convergent-implementation-of-measures-t", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608429/ta-10721-ind-support-for-development-of-sustainable-metro-rail-projects-for-nagpur-metro-rail-projec", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -845,18 +845,18 @@
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Consulting, Feasibility Study (Climate Resilience and Ecosystem Services in Forest Landscapes)</t>
+          <t>81322849 - Capacity development and organisational support for convergent implementation of measures to improve water security in rural India</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr"/>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance, Learning, Safety</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr"/>
       <c r="F17" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608627/consulting-feasibility-study-climate-resilience-and-ecosystem-services-in-forest-landscapes", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1593414/81322849-capacity-development-and-organisational-support-for-convergent-implementation-of-measures-t", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -868,18 +868,18 @@
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4322 IND: Enhancing Connectivity and Sustainability in Bihar Roads Project - 1 Expression of Interest for procurement of services for survey, data collection, design, development, implementation, operation and maintenance of road asset management system (54364-001)</t>
+          <t>Consulting, Feasibility Study (Climate Resilience and Ecosystem Services in Forest Landscapes)</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr"/>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Climate</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr"/>
       <c r="F18" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1605060/loan-4322-ind-enhancing-connectivity-and-sustainability-in-bihar-roads-project-1-expression-of-inter", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608627/consulting-feasibility-study-climate-resilience-and-ecosystem-services-in-forest-landscapes", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -891,18 +891,18 @@
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>TA-10469 IND: Knowledge and Capacity Building for Catalyzing Green Growth and Strengthening Climate Resilience - Climate Risk Assessment and Bamboo Resource Mapping for Climate Strategies and Agriculture Investment Planning in Maharashtra, India (58389-001)</t>
+          <t>LOAN-4322 IND: Enhancing Connectivity and Sustainability in Bihar Roads Project - 1 Expression of Interest for procurement of services for survey, data collection, design, development, implementation, operation and maintenance of road asset management system (54364-001)</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr"/>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance, Learning, Climate</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr"/>
       <c r="F19" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1603067/ta-10469-ind-knowledge-and-capacity-building-for-catalyzing-green-growth-and-strengthening-climate-r", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1605060/loan-4322-ind-enhancing-connectivity-and-sustainability-in-bihar-roads-project-1-expression-of-inter", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -914,18 +914,18 @@
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Expression of Interest for Selection of Business Associate(s) / Partner(s)/ JV / Consortium / partnership, for exploring Consulting / OEM assignments in Middle East, Africa, Europe, India and Southeast Asian Countries.</t>
+          <t>TA-10469 IND: Knowledge and Capacity Building for Catalyzing Green Growth and Strengthening Climate Resilience - Climate Risk Assessment and Bamboo Resource Mapping for Climate Strategies and Agriculture Investment Planning in Maharashtra, India (58389-001)</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr"/>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr"/>
       <c r="F20" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608411/expression-of-interest-for-selection-of-business-associates-partners-jv-consortium-partnership-for-e", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1603067/ta-10469-ind-knowledge-and-capacity-building-for-catalyzing-green-growth-and-strengthening-climate-r", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>43253-025 - Karnataka Integrated Urban Water Management Investment Program - Tranche 1</t>
+          <t>Expression of Interest for Selection of Business Associate(s) / Partner(s)/ JV / Consortium / partnership, for exploring Consulting / OEM assignments in Middle East, Africa, Europe, India and Southeast Asian Countries.</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr"/>
@@ -948,7 +948,7 @@
       </c>
       <c r="E21" s="1" t="inlineStr"/>
       <c r="F21" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608368/43253-025-karnataka-integrated-urban-water-management-investment-program-tranche-1", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608411/expression-of-interest-for-selection-of-business-associates-partners-jv-consortium-partnership-for-e", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -960,7 +960,7 @@
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Punjab Municipal Services Improvement Project: Direct RFP for hiring of Agency for Communication, Outreach, Digital Media Management &amp; Stakeholders Engagement in Municipal Corporation Amritsar and Ludhiana under PMSIP</t>
+          <t>43253-025 - Karnataka Integrated Urban Water Management Investment Program - Tranche 1</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr"/>
@@ -971,7 +971,7 @@
       </c>
       <c r="E22" s="1" t="inlineStr"/>
       <c r="F22" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1606067/punjab-municipal-services-improvement-project-direct-rfp-for-hiring-of-agency-for-communication-outr", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608368/43253-025-karnataka-integrated-urban-water-management-investment-program-tranche-1", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -983,18 +983,18 @@
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>46166-003 - Supporting Human Capital Development in Meghalaya (Phase 2) Project: Procurement Plan</t>
+          <t>Punjab Municipal Services Improvement Project: Direct RFP for hiring of Agency for Communication, Outreach, Digital Media Management &amp; Stakeholders Engagement in Municipal Corporation Amritsar and Ludhiana under PMSIP</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr"/>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr"/>
       <c r="F23" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1411799/46166-003-supporting-human-capital-development-in-meghalaya-phase-2-project-procurement-plan", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1606067/punjab-municipal-services-improvement-project-direct-rfp-for-hiring-of-agency-for-communication-outr", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Construction of Swiss Pavilion for AI Summit as per the design and space provided at Pragati Maidan, New Delhi</t>
+          <t>46166-003 - Supporting Human Capital Development in Meghalaya (Phase 2) Project: Procurement Plan</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr"/>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E24" s="1" t="inlineStr"/>
       <c r="F24" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608266/construction-of-swiss-pavilion-for-ai-summit-as-per-the-design-and-space-provided-at-pragati-maidan-", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1411799/46166-003-supporting-human-capital-development-in-meghalaya-phase-2-project-procurement-plan", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1029,18 +1029,18 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>P168310 - State of Maharashtra's Agribusiness and Rural Transformation Project - Procurement Plan (Project Coordination Management Unit (PCMU-SMART))</t>
+          <t>Construction of Swiss Pavilion for AI Summit as per the design and space provided at Pragati Maidan, New Delhi</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr"/>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr"/>
       <c r="F25" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/435581/india-south-asia-p168310-state-of-maharashtras-agribusiness-and-rural-transformation-project-procure", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608266/construction-of-swiss-pavilion-for-ai-summit-as-per-the-design-and-space-provided-at-pragati-maidan-", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1052,18 +1052,18 @@
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat, Rice and Millets under Public Distribution System - Agri-market Assessment Expert (55154-002)</t>
+          <t>P168310 - State of Maharashtra's Agribusiness and Rural Transformation Project - Procurement Plan (Project Coordination Management Unit (PCMU-SMART))</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr"/>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr"/>
       <c r="F26" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607893/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/435581/india-south-asia-p168310-state-of-maharashtras-agribusiness-and-rural-transformation-project-procure", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1075,18 +1075,18 @@
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Transport Sector Expert (55154-002)</t>
+          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat, Rice and Millets under Public Distribution System - Agri-market Assessment Expert (55154-002)</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr"/>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Safety</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr"/>
       <c r="F27" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607892/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607893/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1098,18 +1098,18 @@
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>TA-9950 REG: PF: Data Science Expert - PF: Data Scientist PF: Data Science Expert (54079-001)</t>
+          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Transport Sector Expert (55154-002)</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr"/>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Learning, Safety</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr"/>
       <c r="F28" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607886/ta-9950-reg-pf-data-science-expert-pf-data-scientist-pf-data-science-expert-54079-001", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607892/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1121,18 +1121,18 @@
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4623 IND: Assam Urban Sector Development Project - AUSDP/CS/COM Community Mobilization Consultant (CMC) (57262-001)</t>
+          <t>TA-9950 REG: PF: Data Science Expert - PF: Data Scientist PF: Data Science Expert (54079-001)</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr"/>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr"/>
       <c r="F29" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607884/loan-4623-ind-assam-urban-sector-development-project-ausdpcscom-community-mobilization-consultant-cm", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607886/ta-9950-reg-pf-data-science-expert-pf-data-scientist-pf-data-science-expert-54079-001", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1144,18 +1144,18 @@
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>TA-10488 REG: City Resilience, Affordable Housing, Sustainable Tourism, and Inclusive Economic Growth for Livable Cities - Structural Engineer (58349-002)</t>
+          <t>LOAN-4623 IND: Assam Urban Sector Development Project - AUSDP/CS/COM Community Mobilization Consultant (CMC) (57262-001)</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr"/>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr"/>
       <c r="F30" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1605066/ta-10488-reg-city-resilience-affordable-housing-sustainable-tourism-and-inclusive-economic-growth-fo", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607884/loan-4623-ind-assam-urban-sector-development-project-ausdpcscom-community-mobilization-consultant-cm", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1167,18 +1167,18 @@
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Hiring of Event Management Agency For organisation of Two Workshops for the ILO in February 2026 in Bangalore</t>
+          <t>TA-10488 REG: City Resilience, Affordable Housing, Sustainable Tourism, and Inclusive Economic Growth for Livable Cities - Structural Engineer (58349-002)</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr"/>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr"/>
       <c r="F31" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608036/hiring-of-event-management-agency-for-organisation-of-two-workshops-for-the-ilo-in-february-2026-in", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1605066/ta-10488-reg-city-resilience-affordable-housing-sustainable-tourism-and-inclusive-economic-growth-fo", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1190,18 +1190,18 @@
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Punjab Outcomes-Acceleration In School Education Operation - P500564</t>
+          <t>Hiring of Event Management Agency For organisation of Two Workshops for the ILO in February 2026 in Bangalore</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr"/>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr"/>
       <c r="F32" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1335085/punjab-outcomes-acceleration-in-school-education-operation-p500564", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608036/hiring-of-event-management-agency-for-organisation-of-two-workshops-for-the-ilo-in-february-2026-in", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1213,18 +1213,18 @@
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>Strengthening Coastal Resilience and the Economy Project: Consultancy Service for Supervision of Construction of Turtle, Dugong &amp; Mangrove and International Bird Conservation Centre under TN SHORE Project</t>
+          <t>Punjab Outcomes-Acceleration In School Education Operation - P500564</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr"/>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr"/>
       <c r="F33" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607773/strengthening-coastal-resilience-and-the-economy-project-consultancy-service-for-supervision-of-cons", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1335085/punjab-outcomes-acceleration-in-school-education-operation-p500564", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1236,18 +1236,18 @@
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>RFP for for Developing Integrated One Health Portal for enhanced collaborative Surveillance</t>
+          <t>Strengthening Coastal Resilience and the Economy Project: Consultancy Service for Supervision of Construction of Turtle, Dugong &amp; Mangrove and International Bird Conservation Centre under TN SHORE Project</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr"/>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr"/>
       <c r="F34" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607851/rfp-for-for-developing-integrated-one-health-portal-for-enhanced-collaborative-s", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607773/strengthening-coastal-resilience-and-the-economy-project-consultancy-service-for-supervision-of-cons", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1259,18 +1259,18 @@
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Implementation and Operation of FLR Monitoring, Evaluation, and Reporting Frameworks for Forest Landscape Restoration (FLR)</t>
+          <t>RFP for for Developing Integrated One Health Portal for enhanced collaborative Surveillance</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr"/>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr"/>
       <c r="F35" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1531583/implementation-and-operation-of-flr-monitoring-evaluation-and-reporting-frameworks-for-forest-landsc", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607851/rfp-for-for-developing-integrated-one-health-portal-for-enhanced-collaborative-s", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1282,18 +1282,18 @@
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>81319406 - Engagement of Agency/Consortium for the 'Global Best Practices and Climate Risk Finance for Heatwave Management</t>
+          <t>Implementation and Operation of FLR Monitoring, Evaluation, and Reporting Frameworks for Forest Landscape Restoration (FLR)</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr"/>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr"/>
       <c r="F36" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1534310/81319406-engagement-of-agencyconsortium-for-the-global-best-practices-and-climate-risk-finance-for-h", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1531583/implementation-and-operation-of-flr-monitoring-evaluation-and-reporting-frameworks-for-forest-landsc", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1305,18 +1305,18 @@
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Renewable Energy Policy Advisory Services and Capacity Development of Government Officials in Indian States</t>
+          <t>81319406 - Engagement of Agency/Consortium for the 'Global Best Practices and Climate Risk Finance for Heatwave Management</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr"/>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Climate</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr"/>
       <c r="F37" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1528202/renewable-energy-policy-advisory-services-and-capacity-development-of-government-officials-in-indian", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1534310/81319406-engagement-of-agencyconsortium-for-the-global-best-practices-and-climate-risk-finance-for-h", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1328,18 +1328,18 @@
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>Unterstützung für die Partnerschaft für Grüne und Nachhaltige Entwicklung / Support for the Partnership for Green and Sustainable Development</t>
+          <t>Renewable Energy Policy Advisory Services and Capacity Development of Government Officials in Indian States</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr"/>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance, Learning, Climate</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr"/>
       <c r="F38" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607814/unterstutzung-fur-die-partnerschaft-fur-grune-und-nachhaltige-entwicklung-support-for-the-partnershi", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1528202/renewable-energy-policy-advisory-services-and-capacity-development-of-government-officials-in-indian", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1351,18 +1351,18 @@
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>RFP - River Health and Water Dependency Assessment Betwa River Basin</t>
+          <t>Unterstützung für die Partnerschaft für Grüne und Nachhaltige Entwicklung / Support for the Partnership for Green and Sustainable Development</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr"/>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr"/>
       <c r="F39" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607571/rfp-river-health-and-water-dependency-assessment-betwa-river-basin", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607814/unterstutzung-fur-die-partnerschaft-fur-grune-und-nachhaltige-entwicklung-support-for-the-partnershi", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1374,18 +1374,18 @@
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>P172213 - Nagaland: Enhancing Classroom Teaching and Resources - Procurement Plan (Department of School Education (DSE))</t>
+          <t>RFP - River Health and Water Dependency Assessment Betwa River Basin</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr"/>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr"/>
       <c r="F40" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/539175/india-south-asia-p172213-nagaland-enhancing-classroom-teaching-and-resources-procurement-plan", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607571/rfp-river-health-and-water-dependency-assessment-betwa-river-basin", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1397,18 +1397,18 @@
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Logistics Sector Expert (55154-002)</t>
+          <t>P172213 - Nagaland: Enhancing Classroom Teaching and Resources - Procurement Plan (Department of School Education (DSE))</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr"/>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr"/>
       <c r="F41" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607502/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/539175/india-south-asia-p172213-nagaland-enhancing-classroom-teaching-and-resources-procurement-plan", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Final evaluation of the Market Development Facility Phase 2 (Asia Pacific)</t>
+          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Logistics Sector Expert (55154-002)</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr"/>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="E42" s="1" t="inlineStr"/>
       <c r="F42" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1583551/final-evaluation-of-the-market-development-facility-phase-2-asia-pacific", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607502/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1443,18 +1443,18 @@
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>Integrated Urban Climate Action for Low-Carbon &amp; Resilient Cities (Urban-Act)</t>
+          <t>Final evaluation of the Market Development Facility Phase 2 (Asia Pacific)</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr"/>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr"/>
       <c r="F43" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607171/integrated-urban-climate-action-for-low-carbon-resilient-cities-urban-act", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1583551/final-evaluation-of-the-market-development-facility-phase-2-asia-pacific", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1466,18 +1466,18 @@
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>RFP - Audio Quality Annotation of Student Voice Recordings</t>
+          <t>Integrated Urban Climate Action for Low-Carbon &amp; Resilient Cities (Urban-Act)</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr"/>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr"/>
       <c r="F44" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607022/rfp-audio-quality-annotation-of-student-voice-recordings", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607171/integrated-urban-climate-action-for-low-carbon-resilient-cities-urban-act", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1489,18 +1489,18 @@
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>UNICEF Chhattisgarh is seeking manufacturers for the development and production of an innovative feeding tool (Complementary feeding bowl with spoon) to improve the diets of young children in CG</t>
+          <t>RFP - Audio Quality Annotation of Student Voice Recordings</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr"/>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Safety</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr"/>
       <c r="F45" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607202/unicef-chhattisgarh-is-seeking-manufacturers-for-the-development-and-production-of-an-innovative-fee", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607022/rfp-audio-quality-annotation-of-student-voice-recordings", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1512,18 +1512,18 @@
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>P178418 - Tripura Rural Economic Growth and Service Delivery Project - Procurement Plan (Public Works Department, Roads and Bridges)</t>
+          <t>UNICEF Chhattisgarh is seeking manufacturers for the development and production of an innovative feeding tool (Complementary feeding bowl with spoon) to improve the diets of young children in CG</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr"/>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Learning, Safety</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr"/>
       <c r="F46" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/978729/india-south-asia-p178418-tripura-rural-economic-growth-and-service-delivery-project-public-works-dep", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607202/unicef-chhattisgarh-is-seeking-manufacturers-for-the-development-and-production-of-an-innovative-fee", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1535,18 +1535,18 @@
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>P178418- Tripura Rural Economic Growth and Service Delivery Project- Procurement Plan  (Samagra Shiksha Abhiyan (Education))</t>
+          <t>P178418 - Tripura Rural Economic Growth and Service Delivery Project - Procurement Plan (Public Works Department, Roads and Bridges)</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr"/>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr"/>
       <c r="F47" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1016520/india-south-asia-p178418-tripura-rural-economic-growth-and-service-delivery-project-samagra-shiksha", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/978729/india-south-asia-p178418-tripura-rural-economic-growth-and-service-delivery-project-public-works-dep", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1558,18 +1558,18 @@
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>37909-045 - Trade and Supply Chain Finance Capacity Development: Technical Assistance</t>
+          <t>P178418- Tripura Rural Economic Growth and Service Delivery Project- Procurement Plan  (Samagra Shiksha Abhiyan (Education))</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr"/>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr"/>
       <c r="F48" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1584610/37909-045-trade-and-supply-chain-finance-capacity-development-technical-assistance", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1016520/india-south-asia-p178418-tripura-rural-economic-growth-and-service-delivery-project-samagra-shiksha", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1581,18 +1581,18 @@
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>Meghalaya Multisectoral Project for Adolescent Wellbeing, Empowerment and Resilience (MPOWER): GD-8/Procurement of Furniture and Electrical Items for Office Setup of SPMU under MPOWER, MBMA</t>
+          <t>37909-045 - Trade and Supply Chain Finance Capacity Development: Technical Assistance</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr"/>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>Safety, Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr"/>
       <c r="F49" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607091/meghalaya-multisectoral-project-for-adolescent-wellbeing-empowerment-and-resilience-mpower-gd-8procu", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1584610/37909-045-trade-and-supply-chain-finance-capacity-development-technical-assistance", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1604,18 +1604,18 @@
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>P154990- Jhelum and Tawi Flood Recovery Project - Procurement Plan (Jammu and Kashmir Medical Supplies Corporation Limited)</t>
+          <t>Meghalaya Multisectoral Project for Adolescent Wellbeing, Empowerment and Resilience (MPOWER): GD-8/Procurement of Furniture and Electrical Items for Office Setup of SPMU under MPOWER, MBMA</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr"/>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Safety, Climate</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr"/>
       <c r="F50" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/577045/india-south-asia-p154990-jhelum-and-tawi-flood-recovery-project-jammu-and-kashmir-medical-supplies-c", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607091/meghalaya-multisectoral-project-for-adolescent-wellbeing-empowerment-and-resilience-mpower-gd-8procu", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1627,18 +1627,18 @@
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Team Leader and Agri Expert (55154-002)</t>
+          <t>P154990- Jhelum and Tawi Flood Recovery Project - Procurement Plan (Jammu and Kashmir Medical Supplies Corporation Limited)</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr"/>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr"/>
       <c r="F51" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1606567/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/577045/india-south-asia-p154990-jhelum-and-tawi-flood-recovery-project-jammu-and-kashmir-medical-supplies-c", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1650,18 +1650,18 @@
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar</t>
+          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Team Leader and Agri Expert (55154-002)</t>
         </is>
       </c>
       <c r="C52" s="1" t="inlineStr"/>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr"/>
       <c r="F52" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1606912/rfp-supply-installation-testing-commissioning-and-comprehensive-maintenance-of-solar-energy-solution", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1606567/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>TA-9970 IND: Maharashtra Rural High Voltage Distribution System Expansion Program - Social Sector Expert Social Sector Expert (Green Livelihoods Expert) (50193-003)</t>
+          <t>RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr"/>
@@ -1684,7 +1684,7 @@
       </c>
       <c r="E53" s="1" t="inlineStr"/>
       <c r="F53" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1606542/ta-9970-ind-maharashtra-rural-high-voltage-distribution-system-expansion-program-social-sector-exper", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1606912/rfp-supply-installation-testing-commissioning-and-comprehensive-maintenance-of-solar-energy-solution", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1696,18 +1696,18 @@
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>57230-001: Sikkim Integrated Urban Development Project: Comprehensive Water Supply &amp; Sanitation Improvement Works including WTP of 6.0 MLD and STP of 3.5, 1.5 MLD, for Rangpo including O&amp;M for 5 years</t>
+          <t>TA-9970 IND: Maharashtra Rural High Voltage Distribution System Expansion Program - Social Sector Expert Social Sector Expert (Green Livelihoods Expert) (50193-003)</t>
         </is>
       </c>
       <c r="C54" s="1" t="inlineStr"/>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr"/>
       <c r="F54" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1448434/57230-001-sikkim-integrated-urban-development-project", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1606542/ta-9970-ind-maharashtra-rural-high-voltage-distribution-system-expansion-program-social-sector-exper", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>57230-001: Sikkim Integrated Urban Development Project: Comprehensive Water Supply &amp; Sanitation Improvement Works, including WTP 4.0, MLD and STP 1.5 MLD, for Pakyong including O&amp;M for 5 years</t>
+          <t>57230-001: Sikkim Integrated Urban Development Project: Comprehensive Water Supply &amp; Sanitation Improvement Works including WTP of 6.0 MLD and STP of 3.5, 1.5 MLD, for Rangpo including O&amp;M for 5 years</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr"/>
@@ -1730,7 +1730,7 @@
       </c>
       <c r="E55" s="1" t="inlineStr"/>
       <c r="F55" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1448435/57230-001-sikkim-integrated-urban-development-project", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1448434/57230-001-sikkim-integrated-urban-development-project", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>57230-001: Sikkim Integrated Urban Development Project: Comprehensive Water Supply &amp; Sanitation Improvement Works including STP of 2.5 MLD, for Singtam including O&amp;M for 5 years</t>
+          <t>57230-001: Sikkim Integrated Urban Development Project: Comprehensive Water Supply &amp; Sanitation Improvement Works, including WTP 4.0, MLD and STP 1.5 MLD, for Pakyong including O&amp;M for 5 years</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr"/>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="E56" s="1" t="inlineStr"/>
       <c r="F56" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1448436/57230-001-sikkim-integrated-urban-development-project", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1448435/57230-001-sikkim-integrated-urban-development-project", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>57262-IND: Assam Urban Sector Development Project: AUSDP/WS/Bongaigaon/01: Construction and Ten-Year Operation and Maintenance of Water Supply Scheme for Bongaigaon Town in Assam</t>
+          <t>57230-001: Sikkim Integrated Urban Development Project: Comprehensive Water Supply &amp; Sanitation Improvement Works including STP of 2.5 MLD, for Singtam including O&amp;M for 5 years</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr"/>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="E57" s="1" t="inlineStr"/>
       <c r="F57" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1445726/57262-ind-assam-urban-sector-development-project", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1448436/57230-001-sikkim-integrated-urban-development-project", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>57262-IND: Assam Urban Sector Development Project: AUSDP/WS/Goalpara/01: Construction and Ten-Year Operation and Maintenance of Water Supply Scheme for Goalpara Town in Assam</t>
+          <t>57262-IND: Assam Urban Sector Development Project: AUSDP/WS/Bongaigaon/01: Construction and Ten-Year Operation and Maintenance of Water Supply Scheme for Bongaigaon Town in Assam</t>
         </is>
       </c>
       <c r="C58" s="1" t="inlineStr"/>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="E58" s="1" t="inlineStr"/>
       <c r="F58" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1418982/57262-ind-assam-urban-sector-development-project", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1445726/57262-ind-assam-urban-sector-development-project", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>57262-IND: Assam Urban Sector Development Project: AUSDP/WS/Barpeta/01: Augmentation with Ten-Year Operation and Maintenance of Water Supply Scheme for Barpeta Town in Assam</t>
+          <t>57262-IND: Assam Urban Sector Development Project: AUSDP/WS/Goalpara/01: Construction and Ten-Year Operation and Maintenance of Water Supply Scheme for Goalpara Town in Assam</t>
         </is>
       </c>
       <c r="C59" s="1" t="inlineStr"/>
@@ -1822,7 +1822,7 @@
       </c>
       <c r="E59" s="1" t="inlineStr"/>
       <c r="F59" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1404713/57262-ind-assam-urban-sector-development-project", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1418982/57262-ind-assam-urban-sector-development-project", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>57262-IND: Assam Urban Sector Development Project: AUSDP/WS/Nalbari/01: Augmentation with Ten-Year Operation and Maintenance of Water Supply Scheme for Nalbari Town in Assam</t>
+          <t>57262-IND: Assam Urban Sector Development Project: AUSDP/WS/Barpeta/01: Augmentation with Ten-Year Operation and Maintenance of Water Supply Scheme for Barpeta Town in Assam</t>
         </is>
       </c>
       <c r="C60" s="1" t="inlineStr"/>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="E60" s="1" t="inlineStr"/>
       <c r="F60" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1404712/57262-ind-assam-urban-sector-development-project", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1404713/57262-ind-assam-urban-sector-development-project", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1857,18 +1857,18 @@
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>Inclusive, Resilient, and Sustainable Housing for Urban Poor Sector Project in Tamil Nadu: Development of three Working Women Hostels (St. Thomas Mount, Hosur, and Thiruvanamalai) by Tamil Nadu Working Women's Hostels Corporation Limited (53067-004)</t>
+          <t>57262-IND: Assam Urban Sector Development Project: AUSDP/WS/Nalbari/01: Augmentation with Ten-Year Operation and Maintenance of Water Supply Scheme for Nalbari Town in Assam</t>
         </is>
       </c>
       <c r="C61" s="1" t="inlineStr"/>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>Learning, Safety</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr"/>
       <c r="F61" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1606477/inclusive-resilient-and-sustainable-housing-for-urban-poor-sector-project-in-tamil-nadu-development", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1404712/57262-ind-assam-urban-sector-development-project", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1880,18 +1880,18 @@
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>Information gathering and confirmation survey on AI human resource development and ecosystem formation for the global South (QCBS-lump sum type)</t>
+          <t>Inclusive, Resilient, and Sustainable Housing for Urban Poor Sector Project in Tamil Nadu: Development of three Working Women Hostels (St. Thomas Mount, Hosur, and Thiruvanamalai) by Tamil Nadu Working Women's Hostels Corporation Limited (53067-004)</t>
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr"/>
       <c r="D62" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Learning, Safety</t>
         </is>
       </c>
       <c r="E62" s="1" t="inlineStr"/>
       <c r="F62" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1600803/information-gathering-and-confirmation-survey-on-ai-human-resource-development-and-ecosystem-formati", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1606477/inclusive-resilient-and-sustainable-housing-for-urban-poor-sector-project-in-tamil-nadu-development", "Apply")</f>
         <v/>
       </c>
     </row>
@@ -1903,110 +1903,18 @@
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>Request For Proposal For Hiring of Technical Partner Agency for Designing, Development and Implementation of AI-Enabled Learning and Knowledge Sharing Platform for ISA</t>
+          <t>Information gathering and confirmation survey on AI human resource development and ecosystem formation for the global South (QCBS-lump sum type)</t>
         </is>
       </c>
       <c r="C63" s="1" t="inlineStr"/>
       <c r="D63" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E63" s="1" t="inlineStr"/>
       <c r="F63" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1589295/request-for-proposal-for-hiring-of-technical-partner-agency-for-designing-development-and-implementa", "Apply")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" ht="80" customHeight="1">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>DevelopmentAid</t>
-        </is>
-      </c>
-      <c r="B64" s="1" t="inlineStr">
-        <is>
-          <t>P168633- Kerala Solid Waste Management Project - Procurement Plan (Suchitwa Mission (State PMU))</t>
-        </is>
-      </c>
-      <c r="C64" s="1" t="inlineStr"/>
-      <c r="D64" s="1" t="inlineStr">
-        <is>
-          <t>Governance, Climate</t>
-        </is>
-      </c>
-      <c r="E64" s="1" t="inlineStr"/>
-      <c r="F64" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/738375/india-south-asia-p168633-kerala-solid-waste-management-project-procurement-plan", "Apply")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="65" ht="80" customHeight="1">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>DevelopmentAid</t>
-        </is>
-      </c>
-      <c r="B65" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Proposal for Digital Learning Centres – School Program</t>
-        </is>
-      </c>
-      <c r="C65" s="1" t="inlineStr"/>
-      <c r="D65" s="1" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="E65" s="1" t="inlineStr"/>
-      <c r="F65" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1606272/rfp-proposal-for-digital-learning-centres-school-program", "Apply")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="66" ht="80" customHeight="1">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>DevelopmentAid</t>
-        </is>
-      </c>
-      <c r="B66" s="1" t="inlineStr">
-        <is>
-          <t>P507066 - Meghalaya Multisectoral Project for Adolescent Wellbeing, Empowerment and Resilience (MPOWER) - Procurement Plan (MPOWER-SPMU-MBMA)</t>
-        </is>
-      </c>
-      <c r="C66" s="1" t="inlineStr"/>
-      <c r="D66" s="1" t="inlineStr">
-        <is>
-          <t>Safety, Climate</t>
-        </is>
-      </c>
-      <c r="E66" s="1" t="inlineStr"/>
-      <c r="F66" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1351308/p507066-mpower-procurement-plan-mpower-spmu-mbma", "Apply")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="67" ht="80" customHeight="1">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>DevelopmentAid</t>
-        </is>
-      </c>
-      <c r="B67" s="1" t="inlineStr">
-        <is>
-          <t>Request for Proposals (RFP): Consulting Agency for Identifying High Growth Livelihoods and Market Access Challenges</t>
-        </is>
-      </c>
-      <c r="C67" s="1" t="inlineStr"/>
-      <c r="D67" s="1" t="inlineStr">
-        <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="E67" s="1" t="inlineStr"/>
-      <c r="F67" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1598904/request-for-proposals-rfp-consulting-agency-for-identifying-high-growth-livelihoods-and-market-acces", "Apply")</f>
+        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1600803/information-gathering-and-confirmation-survey-on-ai-human-resource-development-and-ecosystem-formati", "Apply")</f>
         <v/>
       </c>
     </row>

--- a/output/Combined.xlsx
+++ b/output/Combined.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,9 +482,10 @@
           <t>02/19/2026, 04:59 AM</t>
         </is>
       </c>
-      <c r="F2" s="1">
-        <f>HYPERLINK("https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/28371/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location", "Apply")</f>
-        <v/>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/28371/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="80" customHeight="1">
@@ -684,7 +685,7 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4411 IND: Building India's Clean Plant Program - IARI-staff-C S09 IARI staff - virologists and other staff - Young Professional-II (04) (Project Data Management) (57041-001)</t>
+          <t>Support in the Implementation of Basin Management Measures and District Ganga Plans</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr"/>
@@ -694,9 +695,10 @@
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr"/>
-      <c r="F10" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1602444/loan-4411-ind-building-indias-clean-plant-program-iari-staff-c-s09-iari-staff-virologists-and-other", "Apply")</f>
-        <v/>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1550511/support-in-the-implementation-of-basin-management-measures-and-district-ganga-plans</t>
+        </is>
       </c>
     </row>
     <row r="11" ht="80" customHeight="1">
@@ -707,19 +709,20 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
+          <t>EoI - For Empanelment of agencies for Impact Assessment / Evaluation Services under Programmes for Development and Impact</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr"/>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr"/>
-      <c r="F11" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1609019/ausbau-erneuerbarer-energien-expansion-of-renewable-energies", "Apply")</f>
-        <v/>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1609663/eoi-for-empanelment-of-agencies-for-impact-assessment-evaluation-services-under-programmes-for-devel</t>
+        </is>
       </c>
     </row>
     <row r="12" ht="80" customHeight="1">
@@ -730,19 +733,20 @@
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Integrated Urban Climate Action for Low-Carbon &amp; Resilient Cities (Urban-Act)</t>
+          <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr"/>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr"/>
-      <c r="F12" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608947/integrated-urban-climate-action-for-low-carbon-resilient-cities-urban-act", "Apply")</f>
-        <v/>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1609606/rfp-early-stage-impact-assessment-cdri-swp-23-26</t>
+        </is>
       </c>
     </row>
     <row r="13" ht="80" customHeight="1">
@@ -753,7 +757,7 @@
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing dry stone check barriers in project GP,s of Sirmour Distt.</t>
+          <t>Mirova Energy Transition Emerging Asia (METEA)</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr"/>
@@ -763,9 +767,10 @@
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr"/>
-      <c r="F13" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608977/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal", "Apply")</f>
-        <v/>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1609692/mirova-energy-transition-emerging-asia-metea</t>
+        </is>
       </c>
     </row>
     <row r="14" ht="80" customHeight="1">
@@ -776,7 +781,7 @@
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing crate wire check barriers in project GP,s of Sirmour Distt.</t>
+          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr"/>
@@ -786,9 +791,10 @@
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr"/>
-      <c r="F14" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1579382/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal", "Apply")</f>
-        <v/>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1609597/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
+        </is>
       </c>
     </row>
     <row r="15" ht="80" customHeight="1">
@@ -799,19 +805,20 @@
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>TA-9849 IND: TA 9849-IND: India Urban and Water Projects Support Facility (53067-002) - Environment Safeguards Expert (53067-002)</t>
+          <t>Hiring consultancy firm for filing GST, VAT, IGST Refund Claims and related tasks for the ILO New Delhi office</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr"/>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr"/>
-      <c r="F15" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608441/ta-9849-ind-ta-9849-ind-india-urban-and-water-projects-support-facility-53067-002-environment-safegu", "Apply")</f>
-        <v/>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1609700/hiring-consultancy-firm-for-filing-gst-vat-igst-refund-claims-and-related-tasks-for-the-ilo-new-delh</t>
+        </is>
       </c>
     </row>
     <row r="16" ht="80" customHeight="1">
@@ -822,19 +829,20 @@
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>TA-10721 IND: Support for Development of Sustainable Metro Rail Projects for Nagpur Metro Rail Project (Phase 2) - B/CS-1 Consulting services to design and develop a large battery storage system of 8 MW per day capacity and undertake technology demonstration pilot projects at two locations with 15 years of operation and (59279-001)</t>
+          <t>LOAN-4411 IND: Building India's Clean Plant Program - IARI-staff-C S09 IARI staff - virologists and other staff - Lab Assistant (02) (Plant Material Management) (57041-001)</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr"/>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr"/>
-      <c r="F16" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608429/ta-10721-ind-support-for-development-of-sustainable-metro-rail-projects-for-nagpur-metro-rail-projec", "Apply")</f>
-        <v/>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1602442/loan-4411-ind-building-indias-clean-plant-program-iari-staff-c-s09-iari-staff-virologists-and-other</t>
+        </is>
       </c>
     </row>
     <row r="17" ht="80" customHeight="1">
@@ -845,19 +853,20 @@
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>81322849 - Capacity development and organisational support for convergent implementation of measures to improve water security in rural India</t>
+          <t>LOAN-4291 IND: Himachal Pradesh Subtropical Horticulture, Irrigation, and Value Addition Project - CS 10 Communications and digital contents for Information Education and Knowledge Management under HPSHIVA Project (53189-002)</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr"/>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Safety</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr"/>
-      <c r="F17" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1593414/81322849-capacity-development-and-organisational-support-for-convergent-implementation-of-measures-t", "Apply")</f>
-        <v/>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1609118/loan-4291-ind-himachal-pradesh-subtropical-horticulture-irrigation-and-value-addition-project-cs-10</t>
+        </is>
       </c>
     </row>
     <row r="18" ht="80" customHeight="1">
@@ -868,19 +877,20 @@
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Consulting, Feasibility Study (Climate Resilience and Ecosystem Services in Forest Landscapes)</t>
+          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Knowledge and Learning Specialist (National) (58369-001)</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr"/>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr"/>
-      <c r="F18" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608627/consulting-feasibility-study-climate-resilience-and-ecosystem-services-in-forest-landscapes", "Apply")</f>
-        <v/>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1609114/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-knowledge-and-learning-speci</t>
+        </is>
       </c>
     </row>
     <row r="19" ht="80" customHeight="1">
@@ -891,19 +901,20 @@
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4322 IND: Enhancing Connectivity and Sustainability in Bihar Roads Project - 1 Expression of Interest for procurement of services for survey, data collection, design, development, implementation, operation and maintenance of road asset management system (54364-001)</t>
+          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Fecal Sludge Management and Urban Institutional Expert (National) (58369-001)</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr"/>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr"/>
-      <c r="F19" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1605060/loan-4322-ind-enhancing-connectivity-and-sustainability-in-bihar-roads-project-1-expression-of-inter", "Apply")</f>
-        <v/>
+      <c r="F19" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1609113/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-fecal-sludge-management-and</t>
+        </is>
       </c>
     </row>
     <row r="20" ht="80" customHeight="1">
@@ -914,19 +925,20 @@
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>TA-10469 IND: Knowledge and Capacity Building for Catalyzing Green Growth and Strengthening Climate Resilience - Climate Risk Assessment and Bamboo Resource Mapping for Climate Strategies and Agriculture Investment Planning in Maharashtra, India (58389-001)</t>
+          <t>Request For Proposal For Hiring of Technical Partner Agency for Designing, Development and Implementation of AI-Enabled Learning and Knowledge Sharing Platform for ISA</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr"/>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr"/>
-      <c r="F20" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1603067/ta-10469-ind-knowledge-and-capacity-building-for-catalyzing-green-growth-and-strengthening-climate-r", "Apply")</f>
-        <v/>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1589295/request-for-proposal-for-hiring-of-technical-partner-agency-for-designing-development-and-implementa</t>
+        </is>
       </c>
     </row>
     <row r="21" ht="80" customHeight="1">
@@ -937,19 +949,20 @@
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Expression of Interest for Selection of Business Associate(s) / Partner(s)/ JV / Consortium / partnership, for exploring Consulting / OEM assignments in Middle East, Africa, Europe, India and Southeast Asian Countries.</t>
+          <t>P168633- Kerala Solid Waste Management Project (ULB PGT PALAKKAD)</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr"/>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr"/>
-      <c r="F21" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608411/expression-of-interest-for-selection-of-business-associates-partners-jv-consortium-partnership-for-e", "Apply")</f>
-        <v/>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1095526/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-pgt-palakkad-procurement-plan</t>
+        </is>
       </c>
     </row>
     <row r="22" ht="80" customHeight="1">
@@ -960,19 +973,20 @@
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>43253-025 - Karnataka Integrated Urban Water Management Investment Program - Tranche 1</t>
+          <t>P166020 - West Bengal Transport and Logistics Spatial Development Project - Procurement Plan (West Bengal Transport Infrastructure Development Corporation Limited)</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr"/>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning, Safety</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr"/>
-      <c r="F22" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608368/43253-025-karnataka-integrated-urban-water-management-investment-program-tranche-1", "Apply")</f>
-        <v/>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/485630/india-south-asia-p166020-west-bengal-transport-and-logistics-spatial-development-project-procurement</t>
+        </is>
       </c>
     </row>
     <row r="23" ht="80" customHeight="1">
@@ -983,19 +997,20 @@
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Punjab Municipal Services Improvement Project: Direct RFP for hiring of Agency for Communication, Outreach, Digital Media Management &amp; Stakeholders Engagement in Municipal Corporation Amritsar and Ludhiana under PMSIP</t>
+          <t>P179935- Enhancing Landscape and Ecosystem Management (ELEMENT) Project - Procurement Plan (State Forest Development Agency, Tripura)</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr"/>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr"/>
-      <c r="F23" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1606067/punjab-municipal-services-improvement-project-direct-rfp-for-hiring-of-agency-for-communication-outr", "Apply")</f>
-        <v/>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1161054/india-south-asia-p179935-enhancing-landscape-and-ecosystem-management-project-procurement-plan-engli</t>
+        </is>
       </c>
     </row>
     <row r="24" ht="80" customHeight="1">
@@ -1006,19 +1021,20 @@
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>46166-003 - Supporting Human Capital Development in Meghalaya (Phase 2) Project: Procurement Plan</t>
+          <t>Request for Proposals (RFP): Consulting Agency for Identifying High Growth Livelihoods and Market Access Challenges</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr"/>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr"/>
-      <c r="F24" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1411799/46166-003-supporting-human-capital-development-in-meghalaya-phase-2-project-procurement-plan", "Apply")</f>
-        <v/>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1598904/request-for-proposals-rfp-consulting-agency-for-identifying-high-growth-livelihoods-and-market-acces</t>
+        </is>
       </c>
     </row>
     <row r="25" ht="80" customHeight="1">
@@ -1029,19 +1045,20 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Construction of Swiss Pavilion for AI Summit as per the design and space provided at Pragati Maidan, New Delhi</t>
+          <t>LOAN-4411 IND: Building India's Clean Plant Program - IARI-staff-C S09 IARI staff - virologists and other staff - Young Professional-II (04) (Project Data Management) (57041-001)</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr"/>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr"/>
-      <c r="F25" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608266/construction-of-swiss-pavilion-for-ai-summit-as-per-the-design-and-space-provided-at-pragati-maidan-", "Apply")</f>
-        <v/>
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1602444/loan-4411-ind-building-indias-clean-plant-program-iari-staff-c-s09-iari-staff-virologists-and-other</t>
+        </is>
       </c>
     </row>
     <row r="26" ht="80" customHeight="1">
@@ -1052,19 +1069,20 @@
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>P168310 - State of Maharashtra's Agribusiness and Rural Transformation Project - Procurement Plan (Project Coordination Management Unit (PCMU-SMART))</t>
+          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr"/>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr"/>
-      <c r="F26" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/435581/india-south-asia-p168310-state-of-maharashtras-agribusiness-and-rural-transformation-project-procure", "Apply")</f>
-        <v/>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1609019/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
+        </is>
       </c>
     </row>
     <row r="27" ht="80" customHeight="1">
@@ -1075,19 +1093,20 @@
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat, Rice and Millets under Public Distribution System - Agri-market Assessment Expert (55154-002)</t>
+          <t>Integrated Urban Climate Action for Low-Carbon &amp; Resilient Cities (Urban-Act)</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr"/>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr"/>
-      <c r="F27" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607893/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s", "Apply")</f>
-        <v/>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1608947/integrated-urban-climate-action-for-low-carbon-resilient-cities-urban-act</t>
+        </is>
       </c>
     </row>
     <row r="28" ht="80" customHeight="1">
@@ -1098,19 +1117,20 @@
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Transport Sector Expert (55154-002)</t>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing dry stone check barriers in project GP,s of Sirmour Distt.</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr"/>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Safety</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr"/>
-      <c r="F28" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607892/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s", "Apply")</f>
-        <v/>
+      <c r="F28" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1608977/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+        </is>
       </c>
     </row>
     <row r="29" ht="80" customHeight="1">
@@ -1121,19 +1141,20 @@
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>TA-9950 REG: PF: Data Science Expert - PF: Data Scientist PF: Data Science Expert (54079-001)</t>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing crate wire check barriers in project GP,s of Sirmour Distt.</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr"/>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr"/>
-      <c r="F29" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607886/ta-9950-reg-pf-data-science-expert-pf-data-scientist-pf-data-science-expert-54079-001", "Apply")</f>
-        <v/>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1579382/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+        </is>
       </c>
     </row>
     <row r="30" ht="80" customHeight="1">
@@ -1144,19 +1165,20 @@
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4623 IND: Assam Urban Sector Development Project - AUSDP/CS/COM Community Mobilization Consultant (CMC) (57262-001)</t>
+          <t>TA-9849 IND: TA 9849-IND: India Urban and Water Projects Support Facility (53067-002) - Environment Safeguards Expert (53067-002)</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr"/>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr"/>
-      <c r="F30" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607884/loan-4623-ind-assam-urban-sector-development-project-ausdpcscom-community-mobilization-consultant-cm", "Apply")</f>
-        <v/>
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1608441/ta-9849-ind-ta-9849-ind-india-urban-and-water-projects-support-facility-53067-002-environment-safegu</t>
+        </is>
       </c>
     </row>
     <row r="31" ht="80" customHeight="1">
@@ -1167,19 +1189,20 @@
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>TA-10488 REG: City Resilience, Affordable Housing, Sustainable Tourism, and Inclusive Economic Growth for Livable Cities - Structural Engineer (58349-002)</t>
+          <t>TA-10721 IND: Support for Development of Sustainable Metro Rail Projects for Nagpur Metro Rail Project (Phase 2) - B/CS-1 Consulting services to design and develop a large battery storage system of 8 MW per day capacity and undertake technology demonstration pilot projects at two locations with 15 years of operation and (59279-001)</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr"/>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr"/>
-      <c r="F31" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1605066/ta-10488-reg-city-resilience-affordable-housing-sustainable-tourism-and-inclusive-economic-growth-fo", "Apply")</f>
-        <v/>
+      <c r="F31" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1608429/ta-10721-ind-support-for-development-of-sustainable-metro-rail-projects-for-nagpur-metro-rail-projec</t>
+        </is>
       </c>
     </row>
     <row r="32" ht="80" customHeight="1">
@@ -1190,19 +1213,20 @@
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Hiring of Event Management Agency For organisation of Two Workshops for the ILO in February 2026 in Bangalore</t>
+          <t>81322849 - Capacity development and organisational support for convergent implementation of measures to improve water security in rural India</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr"/>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Learning, Safety</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr"/>
-      <c r="F32" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1608036/hiring-of-event-management-agency-for-organisation-of-two-workshops-for-the-ilo-in-february-2026-in", "Apply")</f>
-        <v/>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1593414/81322849-capacity-development-and-organisational-support-for-convergent-implementation-of-measures-t</t>
+        </is>
       </c>
     </row>
     <row r="33" ht="80" customHeight="1">
@@ -1213,19 +1237,20 @@
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>Punjab Outcomes-Acceleration In School Education Operation - P500564</t>
+          <t>Consulting, Feasibility Study (Climate Resilience and Ecosystem Services in Forest Landscapes)</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr"/>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr"/>
-      <c r="F33" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1335085/punjab-outcomes-acceleration-in-school-education-operation-p500564", "Apply")</f>
-        <v/>
+      <c r="F33" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1608627/consulting-feasibility-study-climate-resilience-and-ecosystem-services-in-forest-landscapes</t>
+        </is>
       </c>
     </row>
     <row r="34" ht="80" customHeight="1">
@@ -1236,19 +1261,20 @@
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Strengthening Coastal Resilience and the Economy Project: Consultancy Service for Supervision of Construction of Turtle, Dugong &amp; Mangrove and International Bird Conservation Centre under TN SHORE Project</t>
+          <t>LOAN-4322 IND: Enhancing Connectivity and Sustainability in Bihar Roads Project - 1 Expression of Interest for procurement of services for survey, data collection, design, development, implementation, operation and maintenance of road asset management system (54364-001)</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr"/>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance, Learning, Climate</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr"/>
-      <c r="F34" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607773/strengthening-coastal-resilience-and-the-economy-project-consultancy-service-for-supervision-of-cons", "Apply")</f>
-        <v/>
+      <c r="F34" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1605060/loan-4322-ind-enhancing-connectivity-and-sustainability-in-bihar-roads-project-1-expression-of-inter</t>
+        </is>
       </c>
     </row>
     <row r="35" ht="80" customHeight="1">
@@ -1259,19 +1285,20 @@
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>RFP for for Developing Integrated One Health Portal for enhanced collaborative Surveillance</t>
+          <t>TA-10469 IND: Knowledge and Capacity Building for Catalyzing Green Growth and Strengthening Climate Resilience - Climate Risk Assessment and Bamboo Resource Mapping for Climate Strategies and Agriculture Investment Planning in Maharashtra, India (58389-001)</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr"/>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr"/>
-      <c r="F35" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607851/rfp-for-for-developing-integrated-one-health-portal-for-enhanced-collaborative-s", "Apply")</f>
-        <v/>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1603067/ta-10469-ind-knowledge-and-capacity-building-for-catalyzing-green-growth-and-strengthening-climate-r</t>
+        </is>
       </c>
     </row>
     <row r="36" ht="80" customHeight="1">
@@ -1282,7 +1309,7 @@
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Implementation and Operation of FLR Monitoring, Evaluation, and Reporting Frameworks for Forest Landscape Restoration (FLR)</t>
+          <t>Expression of Interest for Selection of Business Associate(s) / Partner(s)/ JV / Consortium / partnership, for exploring Consulting / OEM assignments in Middle East, Africa, Europe, India and Southeast Asian Countries.</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr"/>
@@ -1292,9 +1319,10 @@
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr"/>
-      <c r="F36" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1531583/implementation-and-operation-of-flr-monitoring-evaluation-and-reporting-frameworks-for-forest-landsc", "Apply")</f>
-        <v/>
+      <c r="F36" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1608411/expression-of-interest-for-selection-of-business-associates-partners-jv-consortium-partnership-for-e</t>
+        </is>
       </c>
     </row>
     <row r="37" ht="80" customHeight="1">
@@ -1305,19 +1333,20 @@
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>81319406 - Engagement of Agency/Consortium for the 'Global Best Practices and Climate Risk Finance for Heatwave Management</t>
+          <t>43253-025 - Karnataka Integrated Urban Water Management Investment Program - Tranche 1</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr"/>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr"/>
-      <c r="F37" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1534310/81319406-engagement-of-agencyconsortium-for-the-global-best-practices-and-climate-risk-finance-for-h", "Apply")</f>
-        <v/>
+      <c r="F37" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1608368/43253-025-karnataka-integrated-urban-water-management-investment-program-tranche-1</t>
+        </is>
       </c>
     </row>
     <row r="38" ht="80" customHeight="1">
@@ -1328,19 +1357,20 @@
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>Renewable Energy Policy Advisory Services and Capacity Development of Government Officials in Indian States</t>
+          <t>Punjab Municipal Services Improvement Project: Direct RFP for hiring of Agency for Communication, Outreach, Digital Media Management &amp; Stakeholders Engagement in Municipal Corporation Amritsar and Ludhiana under PMSIP</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr"/>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr"/>
-      <c r="F38" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1528202/renewable-energy-policy-advisory-services-and-capacity-development-of-government-officials-in-indian", "Apply")</f>
-        <v/>
+      <c r="F38" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1606067/punjab-municipal-services-improvement-project-direct-rfp-for-hiring-of-agency-for-communication-outr</t>
+        </is>
       </c>
     </row>
     <row r="39" ht="80" customHeight="1">
@@ -1351,19 +1381,20 @@
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>Unterstützung für die Partnerschaft für Grüne und Nachhaltige Entwicklung / Support for the Partnership for Green and Sustainable Development</t>
+          <t>46166-003 - Supporting Human Capital Development in Meghalaya (Phase 2) Project: Procurement Plan</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr"/>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr"/>
-      <c r="F39" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607814/unterstutzung-fur-die-partnerschaft-fur-grune-und-nachhaltige-entwicklung-support-for-the-partnershi", "Apply")</f>
-        <v/>
+      <c r="F39" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1411799/46166-003-supporting-human-capital-development-in-meghalaya-phase-2-project-procurement-plan</t>
+        </is>
       </c>
     </row>
     <row r="40" ht="80" customHeight="1">
@@ -1374,19 +1405,20 @@
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>RFP - River Health and Water Dependency Assessment Betwa River Basin</t>
+          <t>Construction of Swiss Pavilion for AI Summit as per the design and space provided at Pragati Maidan, New Delhi</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr"/>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr"/>
-      <c r="F40" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607571/rfp-river-health-and-water-dependency-assessment-betwa-river-basin", "Apply")</f>
-        <v/>
+      <c r="F40" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1608266/construction-of-swiss-pavilion-for-ai-summit-as-per-the-design-and-space-provided-at-pragati-maidan-</t>
+        </is>
       </c>
     </row>
     <row r="41" ht="80" customHeight="1">
@@ -1397,19 +1429,20 @@
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>P172213 - Nagaland: Enhancing Classroom Teaching and Resources - Procurement Plan (Department of School Education (DSE))</t>
+          <t>P168310 - State of Maharashtra's Agribusiness and Rural Transformation Project - Procurement Plan (Project Coordination Management Unit (PCMU-SMART))</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr"/>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr"/>
-      <c r="F41" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/539175/india-south-asia-p172213-nagaland-enhancing-classroom-teaching-and-resources-procurement-plan", "Apply")</f>
-        <v/>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/435581/india-south-asia-p168310-state-of-maharashtras-agribusiness-and-rural-transformation-project-procure</t>
+        </is>
       </c>
     </row>
     <row r="42" ht="80" customHeight="1">
@@ -1420,7 +1453,7 @@
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Logistics Sector Expert (55154-002)</t>
+          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat, Rice and Millets under Public Distribution System - Agri-market Assessment Expert (55154-002)</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr"/>
@@ -1430,9 +1463,10 @@
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr"/>
-      <c r="F42" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607502/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s", "Apply")</f>
-        <v/>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1607893/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
+        </is>
       </c>
     </row>
     <row r="43" ht="80" customHeight="1">
@@ -1443,19 +1477,20 @@
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>Final evaluation of the Market Development Facility Phase 2 (Asia Pacific)</t>
+          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Transport Sector Expert (55154-002)</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr"/>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance, Learning, Safety</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr"/>
-      <c r="F43" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1583551/final-evaluation-of-the-market-development-facility-phase-2-asia-pacific", "Apply")</f>
-        <v/>
+      <c r="F43" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1607892/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
+        </is>
       </c>
     </row>
     <row r="44" ht="80" customHeight="1">
@@ -1466,19 +1501,20 @@
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>Integrated Urban Climate Action for Low-Carbon &amp; Resilient Cities (Urban-Act)</t>
+          <t>TA-9950 REG: PF: Data Science Expert - PF: Data Scientist PF: Data Science Expert (54079-001)</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr"/>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr"/>
-      <c r="F44" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607171/integrated-urban-climate-action-for-low-carbon-resilient-cities-urban-act", "Apply")</f>
-        <v/>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1607886/ta-9950-reg-pf-data-science-expert-pf-data-scientist-pf-data-science-expert-54079-001</t>
+        </is>
       </c>
     </row>
     <row r="45" ht="80" customHeight="1">
@@ -1489,19 +1525,20 @@
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>RFP - Audio Quality Annotation of Student Voice Recordings</t>
+          <t>LOAN-4623 IND: Assam Urban Sector Development Project - AUSDP/CS/COM Community Mobilization Consultant (CMC) (57262-001)</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr"/>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr"/>
-      <c r="F45" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607022/rfp-audio-quality-annotation-of-student-voice-recordings", "Apply")</f>
-        <v/>
+      <c r="F45" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1607884/loan-4623-ind-assam-urban-sector-development-project-ausdpcscom-community-mobilization-consultant-cm</t>
+        </is>
       </c>
     </row>
     <row r="46" ht="80" customHeight="1">
@@ -1512,19 +1549,20 @@
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>UNICEF Chhattisgarh is seeking manufacturers for the development and production of an innovative feeding tool (Complementary feeding bowl with spoon) to improve the diets of young children in CG</t>
+          <t>TA-10488 REG: City Resilience, Affordable Housing, Sustainable Tourism, and Inclusive Economic Growth for Livable Cities - Structural Engineer (58349-002)</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr"/>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Safety</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr"/>
-      <c r="F46" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607202/unicef-chhattisgarh-is-seeking-manufacturers-for-the-development-and-production-of-an-innovative-fee", "Apply")</f>
-        <v/>
+      <c r="F46" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1605066/ta-10488-reg-city-resilience-affordable-housing-sustainable-tourism-and-inclusive-economic-growth-fo</t>
+        </is>
       </c>
     </row>
     <row r="47" ht="80" customHeight="1">
@@ -1535,7 +1573,7 @@
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>P178418 - Tripura Rural Economic Growth and Service Delivery Project - Procurement Plan (Public Works Department, Roads and Bridges)</t>
+          <t>Hiring of Event Management Agency For organisation of Two Workshops for the ILO in February 2026 in Bangalore</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr"/>
@@ -1545,9 +1583,10 @@
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr"/>
-      <c r="F47" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/978729/india-south-asia-p178418-tripura-rural-economic-growth-and-service-delivery-project-public-works-dep", "Apply")</f>
-        <v/>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1608036/hiring-of-event-management-agency-for-organisation-of-two-workshops-for-the-ilo-in-february-2026-in</t>
+        </is>
       </c>
     </row>
     <row r="48" ht="80" customHeight="1">
@@ -1558,7 +1597,7 @@
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>P178418- Tripura Rural Economic Growth and Service Delivery Project- Procurement Plan  (Samagra Shiksha Abhiyan (Education))</t>
+          <t>Punjab Outcomes-Acceleration In School Education Operation - P500564</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr"/>
@@ -1568,9 +1607,10 @@
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr"/>
-      <c r="F48" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1016520/india-south-asia-p178418-tripura-rural-economic-growth-and-service-delivery-project-samagra-shiksha", "Apply")</f>
-        <v/>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1335085/punjab-outcomes-acceleration-in-school-education-operation-p500564</t>
+        </is>
       </c>
     </row>
     <row r="49" ht="80" customHeight="1">
@@ -1581,19 +1621,20 @@
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>37909-045 - Trade and Supply Chain Finance Capacity Development: Technical Assistance</t>
+          <t>Strengthening Coastal Resilience and the Economy Project: Consultancy Service for Supervision of Construction of Turtle, Dugong &amp; Mangrove and International Bird Conservation Centre under TN SHORE Project</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr"/>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr"/>
-      <c r="F49" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1584610/37909-045-trade-and-supply-chain-finance-capacity-development-technical-assistance", "Apply")</f>
-        <v/>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1607773/strengthening-coastal-resilience-and-the-economy-project-consultancy-service-for-supervision-of-cons</t>
+        </is>
       </c>
     </row>
     <row r="50" ht="80" customHeight="1">
@@ -1604,19 +1645,20 @@
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>Meghalaya Multisectoral Project for Adolescent Wellbeing, Empowerment and Resilience (MPOWER): GD-8/Procurement of Furniture and Electrical Items for Office Setup of SPMU under MPOWER, MBMA</t>
+          <t>RFP for for Developing Integrated One Health Portal for enhanced collaborative Surveillance</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr"/>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>Safety, Climate</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr"/>
-      <c r="F50" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1607091/meghalaya-multisectoral-project-for-adolescent-wellbeing-empowerment-and-resilience-mpower-gd-8procu", "Apply")</f>
-        <v/>
+      <c r="F50" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1607851/rfp-for-for-developing-integrated-one-health-portal-for-enhanced-collaborative-s</t>
+        </is>
       </c>
     </row>
     <row r="51" ht="80" customHeight="1">
@@ -1627,19 +1669,20 @@
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>P154990- Jhelum and Tawi Flood Recovery Project - Procurement Plan (Jammu and Kashmir Medical Supplies Corporation Limited)</t>
+          <t>Implementation and Operation of FLR Monitoring, Evaluation, and Reporting Frameworks for Forest Landscape Restoration (FLR)</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr"/>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr"/>
-      <c r="F51" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/577045/india-south-asia-p154990-jhelum-and-tawi-flood-recovery-project-jammu-and-kashmir-medical-supplies-c", "Apply")</f>
-        <v/>
+      <c r="F51" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1531583/implementation-and-operation-of-flr-monitoring-evaluation-and-reporting-frameworks-for-forest-landsc</t>
+        </is>
       </c>
     </row>
     <row r="52" ht="80" customHeight="1">
@@ -1650,19 +1693,20 @@
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Team Leader and Agri Expert (55154-002)</t>
+          <t>81319406 - Engagement of Agency/Consortium for the 'Global Best Practices and Climate Risk Finance for Heatwave Management</t>
         </is>
       </c>
       <c r="C52" s="1" t="inlineStr"/>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr"/>
-      <c r="F52" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1606567/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s", "Apply")</f>
-        <v/>
+      <c r="F52" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1534310/81319406-engagement-of-agencyconsortium-for-the-global-best-practices-and-climate-risk-finance-for-h</t>
+        </is>
       </c>
     </row>
     <row r="53" ht="80" customHeight="1">
@@ -1673,19 +1717,20 @@
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar</t>
+          <t>Renewable Energy Policy Advisory Services and Capacity Development of Government Officials in Indian States</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr"/>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning, Climate</t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr"/>
-      <c r="F53" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1606912/rfp-supply-installation-testing-commissioning-and-comprehensive-maintenance-of-solar-energy-solution", "Apply")</f>
-        <v/>
+      <c r="F53" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1528202/renewable-energy-policy-advisory-services-and-capacity-development-of-government-officials-in-indian</t>
+        </is>
       </c>
     </row>
     <row r="54" ht="80" customHeight="1">
@@ -1696,19 +1741,20 @@
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>TA-9970 IND: Maharashtra Rural High Voltage Distribution System Expansion Program - Social Sector Expert Social Sector Expert (Green Livelihoods Expert) (50193-003)</t>
+          <t>Unterstützung für die Partnerschaft für Grüne und Nachhaltige Entwicklung / Support for the Partnership for Green and Sustainable Development</t>
         </is>
       </c>
       <c r="C54" s="1" t="inlineStr"/>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr"/>
-      <c r="F54" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1606542/ta-9970-ind-maharashtra-rural-high-voltage-distribution-system-expansion-program-social-sector-exper", "Apply")</f>
-        <v/>
+      <c r="F54" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1607814/unterstutzung-fur-die-partnerschaft-fur-grune-und-nachhaltige-entwicklung-support-for-the-partnershi</t>
+        </is>
       </c>
     </row>
     <row r="55" ht="80" customHeight="1">
@@ -1719,19 +1765,20 @@
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>57230-001: Sikkim Integrated Urban Development Project: Comprehensive Water Supply &amp; Sanitation Improvement Works including WTP of 6.0 MLD and STP of 3.5, 1.5 MLD, for Rangpo including O&amp;M for 5 years</t>
+          <t>RFP - River Health and Water Dependency Assessment Betwa River Basin</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr"/>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr"/>
-      <c r="F55" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1448434/57230-001-sikkim-integrated-urban-development-project", "Apply")</f>
-        <v/>
+      <c r="F55" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1607571/rfp-river-health-and-water-dependency-assessment-betwa-river-basin</t>
+        </is>
       </c>
     </row>
     <row r="56" ht="80" customHeight="1">
@@ -1742,7 +1789,7 @@
       </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>57230-001: Sikkim Integrated Urban Development Project: Comprehensive Water Supply &amp; Sanitation Improvement Works, including WTP 4.0, MLD and STP 1.5 MLD, for Pakyong including O&amp;M for 5 years</t>
+          <t>P172213 - Nagaland: Enhancing Classroom Teaching and Resources - Procurement Plan (Department of School Education (DSE))</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr"/>
@@ -1752,9 +1799,10 @@
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr"/>
-      <c r="F56" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1448435/57230-001-sikkim-integrated-urban-development-project", "Apply")</f>
-        <v/>
+      <c r="F56" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/539175/india-south-asia-p172213-nagaland-enhancing-classroom-teaching-and-resources-procurement-plan</t>
+        </is>
       </c>
     </row>
     <row r="57" ht="80" customHeight="1">
@@ -1765,19 +1813,20 @@
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>57230-001: Sikkim Integrated Urban Development Project: Comprehensive Water Supply &amp; Sanitation Improvement Works including STP of 2.5 MLD, for Singtam including O&amp;M for 5 years</t>
+          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Logistics Sector Expert (55154-002)</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr"/>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr"/>
-      <c r="F57" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1448436/57230-001-sikkim-integrated-urban-development-project", "Apply")</f>
-        <v/>
+      <c r="F57" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1607502/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
+        </is>
       </c>
     </row>
     <row r="58" ht="80" customHeight="1">
@@ -1788,19 +1837,20 @@
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>57262-IND: Assam Urban Sector Development Project: AUSDP/WS/Bongaigaon/01: Construction and Ten-Year Operation and Maintenance of Water Supply Scheme for Bongaigaon Town in Assam</t>
+          <t>Final evaluation of the Market Development Facility Phase 2 (Asia Pacific)</t>
         </is>
       </c>
       <c r="C58" s="1" t="inlineStr"/>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E58" s="1" t="inlineStr"/>
-      <c r="F58" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1445726/57262-ind-assam-urban-sector-development-project", "Apply")</f>
-        <v/>
+      <c r="F58" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1583551/final-evaluation-of-the-market-development-facility-phase-2-asia-pacific</t>
+        </is>
       </c>
     </row>
     <row r="59" ht="80" customHeight="1">
@@ -1811,19 +1861,20 @@
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>57262-IND: Assam Urban Sector Development Project: AUSDP/WS/Goalpara/01: Construction and Ten-Year Operation and Maintenance of Water Supply Scheme for Goalpara Town in Assam</t>
+          <t>Integrated Urban Climate Action for Low-Carbon &amp; Resilient Cities (Urban-Act)</t>
         </is>
       </c>
       <c r="C59" s="1" t="inlineStr"/>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E59" s="1" t="inlineStr"/>
-      <c r="F59" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1418982/57262-ind-assam-urban-sector-development-project", "Apply")</f>
-        <v/>
+      <c r="F59" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1607171/integrated-urban-climate-action-for-low-carbon-resilient-cities-urban-act</t>
+        </is>
       </c>
     </row>
     <row r="60" ht="80" customHeight="1">
@@ -1834,7 +1885,7 @@
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>57262-IND: Assam Urban Sector Development Project: AUSDP/WS/Barpeta/01: Augmentation with Ten-Year Operation and Maintenance of Water Supply Scheme for Barpeta Town in Assam</t>
+          <t>RFP - Audio Quality Annotation of Student Voice Recordings</t>
         </is>
       </c>
       <c r="C60" s="1" t="inlineStr"/>
@@ -1844,9 +1895,10 @@
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr"/>
-      <c r="F60" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1404713/57262-ind-assam-urban-sector-development-project", "Apply")</f>
-        <v/>
+      <c r="F60" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1607022/rfp-audio-quality-annotation-of-student-voice-recordings</t>
+        </is>
       </c>
     </row>
     <row r="61" ht="80" customHeight="1">
@@ -1857,19 +1909,20 @@
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>57262-IND: Assam Urban Sector Development Project: AUSDP/WS/Nalbari/01: Augmentation with Ten-Year Operation and Maintenance of Water Supply Scheme for Nalbari Town in Assam</t>
+          <t>UNICEF Chhattisgarh is seeking manufacturers for the development and production of an innovative feeding tool (Complementary feeding bowl with spoon) to improve the diets of young children in CG</t>
         </is>
       </c>
       <c r="C61" s="1" t="inlineStr"/>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Learning, Safety</t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr"/>
-      <c r="F61" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1404712/57262-ind-assam-urban-sector-development-project", "Apply")</f>
-        <v/>
+      <c r="F61" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1607202/unicef-chhattisgarh-is-seeking-manufacturers-for-the-development-and-production-of-an-innovative-fee</t>
+        </is>
       </c>
     </row>
     <row r="62" ht="80" customHeight="1">
@@ -1880,19 +1933,20 @@
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>Inclusive, Resilient, and Sustainable Housing for Urban Poor Sector Project in Tamil Nadu: Development of three Working Women Hostels (St. Thomas Mount, Hosur, and Thiruvanamalai) by Tamil Nadu Working Women's Hostels Corporation Limited (53067-004)</t>
+          <t>P178418 - Tripura Rural Economic Growth and Service Delivery Project - Procurement Plan (Public Works Department, Roads and Bridges)</t>
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr"/>
       <c r="D62" s="1" t="inlineStr">
         <is>
-          <t>Learning, Safety</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E62" s="1" t="inlineStr"/>
-      <c r="F62" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1606477/inclusive-resilient-and-sustainable-housing-for-urban-poor-sector-project-in-tamil-nadu-development", "Apply")</f>
-        <v/>
+      <c r="F62" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/978729/india-south-asia-p178418-tripura-rural-economic-growth-and-service-delivery-project-public-works-dep</t>
+        </is>
       </c>
     </row>
     <row r="63" ht="80" customHeight="1">
@@ -1903,7 +1957,7 @@
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>Information gathering and confirmation survey on AI human resource development and ecosystem formation for the global South (QCBS-lump sum type)</t>
+          <t>P178418- Tripura Rural Economic Growth and Service Delivery Project- Procurement Plan  (Samagra Shiksha Abhiyan (Education))</t>
         </is>
       </c>
       <c r="C63" s="1" t="inlineStr"/>
@@ -1913,9 +1967,154 @@
         </is>
       </c>
       <c r="E63" s="1" t="inlineStr"/>
-      <c r="F63" s="1">
-        <f>HYPERLINK("https://www.developmentaid.org/tenders/view/1600803/information-gathering-and-confirmation-survey-on-ai-human-resource-development-and-ecosystem-formati", "Apply")</f>
-        <v/>
+      <c r="F63" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1016520/india-south-asia-p178418-tripura-rural-economic-growth-and-service-delivery-project-samagra-shiksha</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="80" customHeight="1">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>37909-045 - Trade and Supply Chain Finance Capacity Development: Technical Assistance</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr"/>
+      <c r="D64" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="E64" s="1" t="inlineStr"/>
+      <c r="F64" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1584610/37909-045-trade-and-supply-chain-finance-capacity-development-technical-assistance</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="80" customHeight="1">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>Meghalaya Multisectoral Project for Adolescent Wellbeing, Empowerment and Resilience (MPOWER): GD-8/Procurement of Furniture and Electrical Items for Office Setup of SPMU under MPOWER, MBMA</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr"/>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>Safety, Climate</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="inlineStr"/>
+      <c r="F65" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1607091/meghalaya-multisectoral-project-for-adolescent-wellbeing-empowerment-and-resilience-mpower-gd-8procu</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="80" customHeight="1">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>P154990- Jhelum and Tawi Flood Recovery Project - Procurement Plan (Jammu and Kashmir Medical Supplies Corporation Limited)</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr"/>
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="inlineStr"/>
+      <c r="F66" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/577045/india-south-asia-p154990-jhelum-and-tawi-flood-recovery-project-jammu-and-kashmir-medical-supplies-c</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="80" customHeight="1">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Team Leader and Agri Expert (55154-002)</t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="inlineStr"/>
+      <c r="D67" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="E67" s="1" t="inlineStr"/>
+      <c r="F67" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1606567/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="80" customHeight="1">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar</t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="inlineStr"/>
+      <c r="D68" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E68" s="1" t="inlineStr"/>
+      <c r="F68" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1606912/rfp-supply-installation-testing-commissioning-and-comprehensive-maintenance-of-solar-energy-solution</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="80" customHeight="1">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B69" s="1" t="inlineStr">
+        <is>
+          <t>TA-9970 IND: Maharashtra Rural High Voltage Distribution System Expansion Program - Social Sector Expert Social Sector Expert (Green Livelihoods Expert) (50193-003)</t>
+        </is>
+      </c>
+      <c r="C69" s="1" t="inlineStr"/>
+      <c r="D69" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E69" s="1" t="inlineStr"/>
+      <c r="F69" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1606542/ta-9970-ind-maharashtra-rural-high-voltage-distribution-system-expansion-program-social-sector-exper</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/output/Combined.xlsx
+++ b/output/Combined.xlsx
@@ -510,9 +510,10 @@
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr"/>
-      <c r="F3" s="1">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/697", "Knowledge Officer, C40 Cities Finance Facility (CFF)")</f>
-        <v/>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>https://c40.bamboohr.com/careers/697</t>
+        </is>
       </c>
     </row>
     <row r="4" ht="80" customHeight="1">
@@ -537,9 +538,10 @@
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr"/>
-      <c r="F4" s="1">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/698", "Senior Manager, Data Systems, Regions and Partnerships")</f>
-        <v/>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>https://c40.bamboohr.com/careers/698</t>
+        </is>
       </c>
     </row>
     <row r="5" ht="80" customHeight="1">
@@ -564,9 +566,10 @@
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr"/>
-      <c r="F5" s="1">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/699", "Programme Officer, C40 Cities Finance Facility (CFF)")</f>
-        <v/>
+      <c r="F5" s="1" t="inlineStr">
+        <is>
+          <t>https://c40.bamboohr.com/careers/699</t>
+        </is>
       </c>
     </row>
     <row r="6" ht="80" customHeight="1">
@@ -591,9 +594,10 @@
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr"/>
-      <c r="F6" s="1">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/700", "Operations Manager, GCoM")</f>
-        <v/>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>https://c40.bamboohr.com/careers/700</t>
+        </is>
       </c>
     </row>
     <row r="7" ht="80" customHeight="1">
@@ -618,9 +622,10 @@
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr"/>
-      <c r="F7" s="1">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/701", "IT Helpdesk Technician (Paternity Cover)")</f>
-        <v/>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>https://c40.bamboohr.com/careers/701</t>
+        </is>
       </c>
     </row>
     <row r="8" ht="80" customHeight="1">
@@ -645,9 +650,10 @@
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr"/>
-      <c r="F8" s="1">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/702", "Head of Regional Coordination, GCoM")</f>
-        <v/>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>https://c40.bamboohr.com/careers/702</t>
+        </is>
       </c>
     </row>
     <row r="9" ht="80" customHeight="1">
@@ -672,9 +678,10 @@
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr"/>
-      <c r="F9" s="1">
-        <f>HYPERLINK("https://c40.bamboohr.com/careers/703", "Manager, Adaptation Finance")</f>
-        <v/>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>https://c40.bamboohr.com/careers/703</t>
+        </is>
       </c>
     </row>
     <row r="10" ht="80" customHeight="1">

--- a/output/Combined.xlsx
+++ b/output/Combined.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,23 +496,23 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Knowledge Officer, C40 Cities Finance Facility (CFF)</t>
+          <t>IT Helpdesk Technician (Paternity Cover)</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>Climate Finance, Knowledge and Partnerships - Belgium, Colombia, Denmark, Kenya, South Africa, &amp; UK (Hybrid)</t>
+          <t>Corporate Services - Copenhagen</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr"/>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>https://c40.bamboohr.com/careers/697</t>
+          <t>https://c40.bamboohr.com/careers/701</t>
         </is>
       </c>
     </row>
@@ -524,23 +524,23 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Senior Manager, Data Systems, Regions and Partnerships</t>
+          <t>Head of Regional Coordination, GCoM</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>Global Covenant of Mayors - South Africa, United Kingdom</t>
+          <t>Global Covenant of Mayors - Brussels, London, Johannesburg, Rio de Janeiro</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr"/>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>https://c40.bamboohr.com/careers/698</t>
+          <t>https://c40.bamboohr.com/careers/702</t>
         </is>
       </c>
     </row>
@@ -552,12 +552,12 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Programme Officer, C40 Cities Finance Facility (CFF)</t>
+          <t>Manager, Adaptation Finance</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>Climate Finance, Knowledge and Partnerships - Belgium, Colombia, Denmark, Kenya, South Africa, &amp; UK (Hybrid)</t>
+          <t>Climate Finance, Knowledge and Partnerships - Kenya, South Africa</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
@@ -568,110 +568,94 @@
       <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>https://c40.bamboohr.com/careers/699</t>
+          <t>https://c40.bamboohr.com/careers/703</t>
         </is>
       </c>
     </row>
     <row r="6" ht="80" customHeight="1">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>DevelopmentAid</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>Operations Manager, GCoM</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>Global Covenant of Mayors - Belgium, UK</t>
-        </is>
-      </c>
+          <t>EoI - For Empanelment of agencies for Impact Assessment / Evaluation Services under Programmes for Development and Impact</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr"/>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr"/>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>https://c40.bamboohr.com/careers/700</t>
+          <t>https://www.developmentaid.org/tenders/view/1609663/eoi-for-empanelment-of-agencies-for-impact-assessment-evaluation-services-under-programmes-for-devel</t>
         </is>
       </c>
     </row>
     <row r="7" ht="80" customHeight="1">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>DevelopmentAid</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>IT Helpdesk Technician (Paternity Cover)</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>Corporate Services - Copenhagen</t>
-        </is>
-      </c>
+          <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr"/>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>https://c40.bamboohr.com/careers/701</t>
+          <t>https://www.developmentaid.org/tenders/view/1609606/rfp-early-stage-impact-assessment-cdri-swp-23-26</t>
         </is>
       </c>
     </row>
     <row r="8" ht="80" customHeight="1">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>DevelopmentAid</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Head of Regional Coordination, GCoM</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Global Covenant of Mayors - Brussels, London, Johannesburg, Rio de Janeiro</t>
-        </is>
-      </c>
+          <t>Mirova Energy Transition Emerging Asia (METEA)</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr"/>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr"/>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>https://c40.bamboohr.com/careers/702</t>
+          <t>https://www.developmentaid.org/tenders/view/1609692/mirova-energy-transition-emerging-asia-metea</t>
         </is>
       </c>
     </row>
     <row r="9" ht="80" customHeight="1">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>DevelopmentAid</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Manager, Adaptation Finance</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>Climate Finance, Knowledge and Partnerships - Kenya, South Africa</t>
-        </is>
-      </c>
+          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr"/>
       <c r="D9" s="1" t="inlineStr">
         <is>
           <t>Climate</t>
@@ -680,7 +664,7 @@
       <c r="E9" s="1" t="inlineStr"/>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>https://c40.bamboohr.com/careers/703</t>
+          <t>https://www.developmentaid.org/tenders/view/1609597/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
         </is>
       </c>
     </row>
@@ -692,7 +676,7 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Support in the Implementation of Basin Management Measures and District Ganga Plans</t>
+          <t>Hiring consultancy firm for filing GST, VAT, IGST Refund Claims and related tasks for the ILO New Delhi office</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr"/>
@@ -704,7 +688,7 @@
       <c r="E10" s="1" t="inlineStr"/>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1550511/support-in-the-implementation-of-basin-management-measures-and-district-ganga-plans</t>
+          <t>https://www.developmentaid.org/tenders/view/1609700/hiring-consultancy-firm-for-filing-gst-vat-igst-refund-claims-and-related-tasks-for-the-ilo-new-delh</t>
         </is>
       </c>
     </row>
@@ -716,19 +700,19 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>EoI - For Empanelment of agencies for Impact Assessment / Evaluation Services under Programmes for Development and Impact</t>
+          <t>LOAN-4411 IND: Building India's Clean Plant Program - IARI-staff-C S09 IARI staff - virologists and other staff - Lab Assistant (02) (Plant Material Management) (57041-001)</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr"/>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr"/>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609663/eoi-for-empanelment-of-agencies-for-impact-assessment-evaluation-services-under-programmes-for-devel</t>
+          <t>https://www.developmentaid.org/tenders/view/1602442/loan-4411-ind-building-indias-clean-plant-program-iari-staff-c-s09-iari-staff-virologists-and-other</t>
         </is>
       </c>
     </row>
@@ -740,19 +724,19 @@
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
+          <t>LOAN-4291 IND: Himachal Pradesh Subtropical Horticulture, Irrigation, and Value Addition Project - CS 10 Communications and digital contents for Information Education and Knowledge Management under HPSHIVA Project (53189-002)</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr"/>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr"/>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609606/rfp-early-stage-impact-assessment-cdri-swp-23-26</t>
+          <t>https://www.developmentaid.org/tenders/view/1609118/loan-4291-ind-himachal-pradesh-subtropical-horticulture-irrigation-and-value-addition-project-cs-10</t>
         </is>
       </c>
     </row>
@@ -764,19 +748,19 @@
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Mirova Energy Transition Emerging Asia (METEA)</t>
+          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Knowledge and Learning Specialist (National) (58369-001)</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr"/>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr"/>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609692/mirova-energy-transition-emerging-asia-metea</t>
+          <t>https://www.developmentaid.org/tenders/view/1609114/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-knowledge-and-learning-speci</t>
         </is>
       </c>
     </row>
@@ -788,19 +772,19 @@
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
+          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Fecal Sludge Management and Urban Institutional Expert (National) (58369-001)</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr"/>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr"/>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609597/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
+          <t>https://www.developmentaid.org/tenders/view/1609113/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-fecal-sludge-management-and</t>
         </is>
       </c>
     </row>
@@ -812,19 +796,19 @@
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Hiring consultancy firm for filing GST, VAT, IGST Refund Claims and related tasks for the ILO New Delhi office</t>
+          <t>Request For Proposal For Hiring of Technical Partner Agency for Designing, Development and Implementation of AI-Enabled Learning and Knowledge Sharing Platform for ISA</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr"/>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr"/>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609700/hiring-consultancy-firm-for-filing-gst-vat-igst-refund-claims-and-related-tasks-for-the-ilo-new-delh</t>
+          <t>https://www.developmentaid.org/tenders/view/1589295/request-for-proposal-for-hiring-of-technical-partner-agency-for-designing-development-and-implementa</t>
         </is>
       </c>
     </row>
@@ -836,19 +820,19 @@
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4411 IND: Building India's Clean Plant Program - IARI-staff-C S09 IARI staff - virologists and other staff - Lab Assistant (02) (Plant Material Management) (57041-001)</t>
+          <t>P168633- Kerala Solid Waste Management Project (ULB PGT PALAKKAD)</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr"/>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr"/>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1602442/loan-4411-ind-building-indias-clean-plant-program-iari-staff-c-s09-iari-staff-virologists-and-other</t>
+          <t>https://www.developmentaid.org/tenders/view/1095526/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-pgt-palakkad-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -860,19 +844,19 @@
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4291 IND: Himachal Pradesh Subtropical Horticulture, Irrigation, and Value Addition Project - CS 10 Communications and digital contents for Information Education and Knowledge Management under HPSHIVA Project (53189-002)</t>
+          <t>P166020 - West Bengal Transport and Logistics Spatial Development Project - Procurement Plan (West Bengal Transport Infrastructure Development Corporation Limited)</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr"/>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Learning, Safety</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr"/>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609118/loan-4291-ind-himachal-pradesh-subtropical-horticulture-irrigation-and-value-addition-project-cs-10</t>
+          <t>https://www.developmentaid.org/tenders/view/485630/india-south-asia-p166020-west-bengal-transport-and-logistics-spatial-development-project-procurement</t>
         </is>
       </c>
     </row>
@@ -884,7 +868,7 @@
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Knowledge and Learning Specialist (National) (58369-001)</t>
+          <t>P179935- Enhancing Landscape and Ecosystem Management (ELEMENT) Project - Procurement Plan (State Forest Development Agency, Tripura)</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr"/>
@@ -896,7 +880,7 @@
       <c r="E18" s="1" t="inlineStr"/>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609114/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-knowledge-and-learning-speci</t>
+          <t>https://www.developmentaid.org/tenders/view/1161054/india-south-asia-p179935-enhancing-landscape-and-ecosystem-management-project-procurement-plan-engli</t>
         </is>
       </c>
     </row>
@@ -908,7 +892,7 @@
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Fecal Sludge Management and Urban Institutional Expert (National) (58369-001)</t>
+          <t>Request for Proposals (RFP): Consulting Agency for Identifying High Growth Livelihoods and Market Access Challenges</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr"/>
@@ -920,7 +904,7 @@
       <c r="E19" s="1" t="inlineStr"/>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609113/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-fecal-sludge-management-and</t>
+          <t>https://www.developmentaid.org/tenders/view/1598904/request-for-proposals-rfp-consulting-agency-for-identifying-high-growth-livelihoods-and-market-acces</t>
         </is>
       </c>
     </row>
@@ -932,19 +916,19 @@
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Request For Proposal For Hiring of Technical Partner Agency for Designing, Development and Implementation of AI-Enabled Learning and Knowledge Sharing Platform for ISA</t>
+          <t>LOAN-4411 IND: Building India's Clean Plant Program - IARI-staff-C S09 IARI staff - virologists and other staff - Young Professional-II (04) (Project Data Management) (57041-001)</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr"/>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr"/>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1589295/request-for-proposal-for-hiring-of-technical-partner-agency-for-designing-development-and-implementa</t>
+          <t>https://www.developmentaid.org/tenders/view/1602444/loan-4411-ind-building-indias-clean-plant-program-iari-staff-c-s09-iari-staff-virologists-and-other</t>
         </is>
       </c>
     </row>
@@ -956,19 +940,19 @@
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>P168633- Kerala Solid Waste Management Project (ULB PGT PALAKKAD)</t>
+          <t>Integrated Urban Climate Action for Low-Carbon &amp; Resilient Cities (Urban-Act)</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr"/>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr"/>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1095526/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-pgt-palakkad-procurement-plan</t>
+          <t>https://www.developmentaid.org/tenders/view/1608947/integrated-urban-climate-action-for-low-carbon-resilient-cities-urban-act</t>
         </is>
       </c>
     </row>
@@ -980,19 +964,19 @@
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>P166020 - West Bengal Transport and Logistics Spatial Development Project - Procurement Plan (West Bengal Transport Infrastructure Development Corporation Limited)</t>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing dry stone check barriers in project GP,s of Sirmour Distt.</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr"/>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>Learning, Safety</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr"/>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/485630/india-south-asia-p166020-west-bengal-transport-and-logistics-spatial-development-project-procurement</t>
+          <t>https://www.developmentaid.org/tenders/view/1608977/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
         </is>
       </c>
     </row>
@@ -1004,19 +988,19 @@
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>P179935- Enhancing Landscape and Ecosystem Management (ELEMENT) Project - Procurement Plan (State Forest Development Agency, Tripura)</t>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing crate wire check barriers in project GP,s of Sirmour Distt.</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr"/>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr"/>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1161054/india-south-asia-p179935-enhancing-landscape-and-ecosystem-management-project-procurement-plan-engli</t>
+          <t>https://www.developmentaid.org/tenders/view/1579382/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
         </is>
       </c>
     </row>
@@ -1028,19 +1012,19 @@
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Request for Proposals (RFP): Consulting Agency for Identifying High Growth Livelihoods and Market Access Challenges</t>
+          <t>TA-9849 IND: TA 9849-IND: India Urban and Water Projects Support Facility (53067-002) - Environment Safeguards Expert (53067-002)</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr"/>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr"/>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1598904/request-for-proposals-rfp-consulting-agency-for-identifying-high-growth-livelihoods-and-market-acces</t>
+          <t>https://www.developmentaid.org/tenders/view/1608441/ta-9849-ind-ta-9849-ind-india-urban-and-water-projects-support-facility-53067-002-environment-safegu</t>
         </is>
       </c>
     </row>
@@ -1052,19 +1036,19 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4411 IND: Building India's Clean Plant Program - IARI-staff-C S09 IARI staff - virologists and other staff - Young Professional-II (04) (Project Data Management) (57041-001)</t>
+          <t>TA-10721 IND: Support for Development of Sustainable Metro Rail Projects for Nagpur Metro Rail Project (Phase 2) - B/CS-1 Consulting services to design and develop a large battery storage system of 8 MW per day capacity and undertake technology demonstration pilot projects at two locations with 15 years of operation and (59279-001)</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr"/>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr"/>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1602444/loan-4411-ind-building-indias-clean-plant-program-iari-staff-c-s09-iari-staff-virologists-and-other</t>
+          <t>https://www.developmentaid.org/tenders/view/1608429/ta-10721-ind-support-for-development-of-sustainable-metro-rail-projects-for-nagpur-metro-rail-projec</t>
         </is>
       </c>
     </row>
@@ -1076,19 +1060,19 @@
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
+          <t>81322849 - Capacity development and organisational support for convergent implementation of measures to improve water security in rural India</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr"/>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning, Safety</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr"/>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609019/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
+          <t>https://www.developmentaid.org/tenders/view/1593414/81322849-capacity-development-and-organisational-support-for-convergent-implementation-of-measures-t</t>
         </is>
       </c>
     </row>
@@ -1100,19 +1084,19 @@
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Integrated Urban Climate Action for Low-Carbon &amp; Resilient Cities (Urban-Act)</t>
+          <t>Consulting, Feasibility Study (Climate Resilience and Ecosystem Services in Forest Landscapes)</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr"/>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr"/>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608947/integrated-urban-climate-action-for-low-carbon-resilient-cities-urban-act</t>
+          <t>https://www.developmentaid.org/tenders/view/1608627/consulting-feasibility-study-climate-resilience-and-ecosystem-services-in-forest-landscapes</t>
         </is>
       </c>
     </row>
@@ -1124,19 +1108,19 @@
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing dry stone check barriers in project GP,s of Sirmour Distt.</t>
+          <t>LOAN-4322 IND: Enhancing Connectivity and Sustainability in Bihar Roads Project - 1 Expression of Interest for procurement of services for survey, data collection, design, development, implementation, operation and maintenance of road asset management system (54364-001)</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr"/>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning, Climate</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr"/>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608977/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1605060/loan-4322-ind-enhancing-connectivity-and-sustainability-in-bihar-roads-project-1-expression-of-inter</t>
         </is>
       </c>
     </row>
@@ -1148,19 +1132,19 @@
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing crate wire check barriers in project GP,s of Sirmour Distt.</t>
+          <t>TA-10469 IND: Knowledge and Capacity Building for Catalyzing Green Growth and Strengthening Climate Resilience - Climate Risk Assessment and Bamboo Resource Mapping for Climate Strategies and Agriculture Investment Planning in Maharashtra, India (58389-001)</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr"/>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr"/>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1579382/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1603067/ta-10469-ind-knowledge-and-capacity-building-for-catalyzing-green-growth-and-strengthening-climate-r</t>
         </is>
       </c>
     </row>
@@ -1172,19 +1156,19 @@
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>TA-9849 IND: TA 9849-IND: India Urban and Water Projects Support Facility (53067-002) - Environment Safeguards Expert (53067-002)</t>
+          <t>Support in the Implementation of Basin Management Measures and District Ganga Plans</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr"/>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr"/>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608441/ta-9849-ind-ta-9849-ind-india-urban-and-water-projects-support-facility-53067-002-environment-safegu</t>
+          <t>https://www.developmentaid.org/tenders/view/1550511/support-in-the-implementation-of-basin-management-measures-and-district-ganga-plans</t>
         </is>
       </c>
     </row>
@@ -1196,19 +1180,19 @@
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>TA-10721 IND: Support for Development of Sustainable Metro Rail Projects for Nagpur Metro Rail Project (Phase 2) - B/CS-1 Consulting services to design and develop a large battery storage system of 8 MW per day capacity and undertake technology demonstration pilot projects at two locations with 15 years of operation and (59279-001)</t>
+          <t>Expression of Interest for Selection of Business Associate(s) / Partner(s)/ JV / Consortium / partnership, for exploring Consulting / OEM assignments in Middle East, Africa, Europe, India and Southeast Asian Countries.</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr"/>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr"/>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608429/ta-10721-ind-support-for-development-of-sustainable-metro-rail-projects-for-nagpur-metro-rail-projec</t>
+          <t>https://www.developmentaid.org/tenders/view/1608411/expression-of-interest-for-selection-of-business-associates-partners-jv-consortium-partnership-for-e</t>
         </is>
       </c>
     </row>
@@ -1220,19 +1204,19 @@
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>81322849 - Capacity development and organisational support for convergent implementation of measures to improve water security in rural India</t>
+          <t>43253-025 - Karnataka Integrated Urban Water Management Investment Program - Tranche 1</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr"/>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Safety</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr"/>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1593414/81322849-capacity-development-and-organisational-support-for-convergent-implementation-of-measures-t</t>
+          <t>https://www.developmentaid.org/tenders/view/1608368/43253-025-karnataka-integrated-urban-water-management-investment-program-tranche-1</t>
         </is>
       </c>
     </row>
@@ -1244,19 +1228,19 @@
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>Consulting, Feasibility Study (Climate Resilience and Ecosystem Services in Forest Landscapes)</t>
+          <t>Punjab Municipal Services Improvement Project: Direct RFP for hiring of Agency for Communication, Outreach, Digital Media Management &amp; Stakeholders Engagement in Municipal Corporation Amritsar and Ludhiana under PMSIP</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr"/>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr"/>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608627/consulting-feasibility-study-climate-resilience-and-ecosystem-services-in-forest-landscapes</t>
+          <t>https://www.developmentaid.org/tenders/view/1606067/punjab-municipal-services-improvement-project-direct-rfp-for-hiring-of-agency-for-communication-outr</t>
         </is>
       </c>
     </row>
@@ -1268,19 +1252,19 @@
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4322 IND: Enhancing Connectivity and Sustainability in Bihar Roads Project - 1 Expression of Interest for procurement of services for survey, data collection, design, development, implementation, operation and maintenance of road asset management system (54364-001)</t>
+          <t>46166-003 - Supporting Human Capital Development in Meghalaya (Phase 2) Project: Procurement Plan</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr"/>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr"/>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1605060/loan-4322-ind-enhancing-connectivity-and-sustainability-in-bihar-roads-project-1-expression-of-inter</t>
+          <t>https://www.developmentaid.org/tenders/view/1411799/46166-003-supporting-human-capital-development-in-meghalaya-phase-2-project-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -1292,19 +1276,19 @@
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>TA-10469 IND: Knowledge and Capacity Building for Catalyzing Green Growth and Strengthening Climate Resilience - Climate Risk Assessment and Bamboo Resource Mapping for Climate Strategies and Agriculture Investment Planning in Maharashtra, India (58389-001)</t>
+          <t>Construction of Swiss Pavilion for AI Summit as per the design and space provided at Pragati Maidan, New Delhi</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr"/>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr"/>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1603067/ta-10469-ind-knowledge-and-capacity-building-for-catalyzing-green-growth-and-strengthening-climate-r</t>
+          <t>https://www.developmentaid.org/tenders/view/1608266/construction-of-swiss-pavilion-for-ai-summit-as-per-the-design-and-space-provided-at-pragati-maidan-</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1300,7 @@
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Expression of Interest for Selection of Business Associate(s) / Partner(s)/ JV / Consortium / partnership, for exploring Consulting / OEM assignments in Middle East, Africa, Europe, India and Southeast Asian Countries.</t>
+          <t>P168310 - State of Maharashtra's Agribusiness and Rural Transformation Project - Procurement Plan (Project Coordination Management Unit (PCMU-SMART))</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr"/>
@@ -1328,7 +1312,7 @@
       <c r="E36" s="1" t="inlineStr"/>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608411/expression-of-interest-for-selection-of-business-associates-partners-jv-consortium-partnership-for-e</t>
+          <t>https://www.developmentaid.org/tenders/view/435581/india-south-asia-p168310-state-of-maharashtras-agribusiness-and-rural-transformation-project-procure</t>
         </is>
       </c>
     </row>
@@ -1340,19 +1324,19 @@
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>43253-025 - Karnataka Integrated Urban Water Management Investment Program - Tranche 1</t>
+          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat, Rice and Millets under Public Distribution System - Agri-market Assessment Expert (55154-002)</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr"/>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr"/>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608368/43253-025-karnataka-integrated-urban-water-management-investment-program-tranche-1</t>
+          <t>https://www.developmentaid.org/tenders/view/1607893/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
         </is>
       </c>
     </row>
@@ -1364,19 +1348,19 @@
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>Punjab Municipal Services Improvement Project: Direct RFP for hiring of Agency for Communication, Outreach, Digital Media Management &amp; Stakeholders Engagement in Municipal Corporation Amritsar and Ludhiana under PMSIP</t>
+          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Transport Sector Expert (55154-002)</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr"/>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Learning, Safety</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr"/>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1606067/punjab-municipal-services-improvement-project-direct-rfp-for-hiring-of-agency-for-communication-outr</t>
+          <t>https://www.developmentaid.org/tenders/view/1607892/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
         </is>
       </c>
     </row>
@@ -1388,19 +1372,19 @@
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>46166-003 - Supporting Human Capital Development in Meghalaya (Phase 2) Project: Procurement Plan</t>
+          <t>TA-9950 REG: PF: Data Science Expert - PF: Data Scientist PF: Data Science Expert (54079-001)</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr"/>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr"/>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1411799/46166-003-supporting-human-capital-development-in-meghalaya-phase-2-project-procurement-plan</t>
+          <t>https://www.developmentaid.org/tenders/view/1607886/ta-9950-reg-pf-data-science-expert-pf-data-scientist-pf-data-science-expert-54079-001</t>
         </is>
       </c>
     </row>
@@ -1412,19 +1396,19 @@
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>Construction of Swiss Pavilion for AI Summit as per the design and space provided at Pragati Maidan, New Delhi</t>
+          <t>LOAN-4623 IND: Assam Urban Sector Development Project - AUSDP/CS/COM Community Mobilization Consultant (CMC) (57262-001)</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr"/>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr"/>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608266/construction-of-swiss-pavilion-for-ai-summit-as-per-the-design-and-space-provided-at-pragati-maidan-</t>
+          <t>https://www.developmentaid.org/tenders/view/1607884/loan-4623-ind-assam-urban-sector-development-project-ausdpcscom-community-mobilization-consultant-cm</t>
         </is>
       </c>
     </row>
@@ -1436,19 +1420,19 @@
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>P168310 - State of Maharashtra's Agribusiness and Rural Transformation Project - Procurement Plan (Project Coordination Management Unit (PCMU-SMART))</t>
+          <t>TA-10488 REG: City Resilience, Affordable Housing, Sustainable Tourism, and Inclusive Economic Growth for Livable Cities - Structural Engineer (58349-002)</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr"/>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr"/>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/435581/india-south-asia-p168310-state-of-maharashtras-agribusiness-and-rural-transformation-project-procure</t>
+          <t>https://www.developmentaid.org/tenders/view/1605066/ta-10488-reg-city-resilience-affordable-housing-sustainable-tourism-and-inclusive-economic-growth-fo</t>
         </is>
       </c>
     </row>
@@ -1460,19 +1444,19 @@
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat, Rice and Millets under Public Distribution System - Agri-market Assessment Expert (55154-002)</t>
+          <t>Hiring of Event Management Agency For organisation of Two Workshops for the ILO in February 2026 in Bangalore</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr"/>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr"/>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607893/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
+          <t>https://www.developmentaid.org/tenders/view/1608036/hiring-of-event-management-agency-for-organisation-of-two-workshops-for-the-ilo-in-february-2026-in</t>
         </is>
       </c>
     </row>
@@ -1484,19 +1468,19 @@
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Transport Sector Expert (55154-002)</t>
+          <t>Punjab Outcomes-Acceleration In School Education Operation - P500564</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr"/>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Safety</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr"/>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607892/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
+          <t>https://www.developmentaid.org/tenders/view/1335085/punjab-outcomes-acceleration-in-school-education-operation-p500564</t>
         </is>
       </c>
     </row>
@@ -1508,19 +1492,19 @@
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>TA-9950 REG: PF: Data Science Expert - PF: Data Scientist PF: Data Science Expert (54079-001)</t>
+          <t>Strengthening Coastal Resilience and the Economy Project: Consultancy Service for Supervision of Construction of Turtle, Dugong &amp; Mangrove and International Bird Conservation Centre under TN SHORE Project</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr"/>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr"/>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607886/ta-9950-reg-pf-data-science-expert-pf-data-scientist-pf-data-science-expert-54079-001</t>
+          <t>https://www.developmentaid.org/tenders/view/1607773/strengthening-coastal-resilience-and-the-economy-project-consultancy-service-for-supervision-of-cons</t>
         </is>
       </c>
     </row>
@@ -1532,19 +1516,19 @@
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4623 IND: Assam Urban Sector Development Project - AUSDP/CS/COM Community Mobilization Consultant (CMC) (57262-001)</t>
+          <t>RFP for for Developing Integrated One Health Portal for enhanced collaborative Surveillance</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr"/>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr"/>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607884/loan-4623-ind-assam-urban-sector-development-project-ausdpcscom-community-mobilization-consultant-cm</t>
+          <t>https://www.developmentaid.org/tenders/view/1607851/rfp-for-for-developing-integrated-one-health-portal-for-enhanced-collaborative-s</t>
         </is>
       </c>
     </row>
@@ -1556,19 +1540,19 @@
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>TA-10488 REG: City Resilience, Affordable Housing, Sustainable Tourism, and Inclusive Economic Growth for Livable Cities - Structural Engineer (58349-002)</t>
+          <t>Implementation and Operation of FLR Monitoring, Evaluation, and Reporting Frameworks for Forest Landscape Restoration (FLR)</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr"/>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr"/>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1605066/ta-10488-reg-city-resilience-affordable-housing-sustainable-tourism-and-inclusive-economic-growth-fo</t>
+          <t>https://www.developmentaid.org/tenders/view/1531583/implementation-and-operation-of-flr-monitoring-evaluation-and-reporting-frameworks-for-forest-landsc</t>
         </is>
       </c>
     </row>
@@ -1580,19 +1564,19 @@
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>Hiring of Event Management Agency For organisation of Two Workshops for the ILO in February 2026 in Bangalore</t>
+          <t>81319406 - Engagement of Agency/Consortium for the 'Global Best Practices and Climate Risk Finance for Heatwave Management</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr"/>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr"/>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608036/hiring-of-event-management-agency-for-organisation-of-two-workshops-for-the-ilo-in-february-2026-in</t>
+          <t>https://www.developmentaid.org/tenders/view/1534310/81319406-engagement-of-agencyconsortium-for-the-global-best-practices-and-climate-risk-finance-for-h</t>
         </is>
       </c>
     </row>
@@ -1604,19 +1588,19 @@
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>Punjab Outcomes-Acceleration In School Education Operation - P500564</t>
+          <t>Renewable Energy Policy Advisory Services and Capacity Development of Government Officials in Indian States</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr"/>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Learning, Climate</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr"/>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1335085/punjab-outcomes-acceleration-in-school-education-operation-p500564</t>
+          <t>https://www.developmentaid.org/tenders/view/1528202/renewable-energy-policy-advisory-services-and-capacity-development-of-government-officials-in-indian</t>
         </is>
       </c>
     </row>
@@ -1628,19 +1612,19 @@
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>Strengthening Coastal Resilience and the Economy Project: Consultancy Service for Supervision of Construction of Turtle, Dugong &amp; Mangrove and International Bird Conservation Centre under TN SHORE Project</t>
+          <t>Unterstützung für die Partnerschaft für Grüne und Nachhaltige Entwicklung / Support for the Partnership for Green and Sustainable Development</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr"/>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr"/>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607773/strengthening-coastal-resilience-and-the-economy-project-consultancy-service-for-supervision-of-cons</t>
+          <t>https://www.developmentaid.org/tenders/view/1607814/unterstutzung-fur-die-partnerschaft-fur-grune-und-nachhaltige-entwicklung-support-for-the-partnershi</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1636,7 @@
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>RFP for for Developing Integrated One Health Portal for enhanced collaborative Surveillance</t>
+          <t>RFP - River Health and Water Dependency Assessment Betwa River Basin</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr"/>
@@ -1664,7 +1648,7 @@
       <c r="E50" s="1" t="inlineStr"/>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607851/rfp-for-for-developing-integrated-one-health-portal-for-enhanced-collaborative-s</t>
+          <t>https://www.developmentaid.org/tenders/view/1607571/rfp-river-health-and-water-dependency-assessment-betwa-river-basin</t>
         </is>
       </c>
     </row>
@@ -1676,19 +1660,19 @@
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>Implementation and Operation of FLR Monitoring, Evaluation, and Reporting Frameworks for Forest Landscape Restoration (FLR)</t>
+          <t>P172213 - Nagaland: Enhancing Classroom Teaching and Resources - Procurement Plan (Department of School Education (DSE))</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr"/>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr"/>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1531583/implementation-and-operation-of-flr-monitoring-evaluation-and-reporting-frameworks-for-forest-landsc</t>
+          <t>https://www.developmentaid.org/tenders/view/539175/india-south-asia-p172213-nagaland-enhancing-classroom-teaching-and-resources-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -1700,19 +1684,19 @@
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>81319406 - Engagement of Agency/Consortium for the 'Global Best Practices and Climate Risk Finance for Heatwave Management</t>
+          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Logistics Sector Expert (55154-002)</t>
         </is>
       </c>
       <c r="C52" s="1" t="inlineStr"/>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr"/>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1534310/81319406-engagement-of-agencyconsortium-for-the-global-best-practices-and-climate-risk-finance-for-h</t>
+          <t>https://www.developmentaid.org/tenders/view/1607502/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
         </is>
       </c>
     </row>
@@ -1724,19 +1708,19 @@
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>Renewable Energy Policy Advisory Services and Capacity Development of Government Officials in Indian States</t>
+          <t>Final evaluation of the Market Development Facility Phase 2 (Asia Pacific)</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr"/>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr"/>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1528202/renewable-energy-policy-advisory-services-and-capacity-development-of-government-officials-in-indian</t>
+          <t>https://www.developmentaid.org/tenders/view/1583551/final-evaluation-of-the-market-development-facility-phase-2-asia-pacific</t>
         </is>
       </c>
     </row>
@@ -1748,19 +1732,19 @@
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>Unterstützung für die Partnerschaft für Grüne und Nachhaltige Entwicklung / Support for the Partnership for Green and Sustainable Development</t>
+          <t>Integrated Urban Climate Action for Low-Carbon &amp; Resilient Cities (Urban-Act)</t>
         </is>
       </c>
       <c r="C54" s="1" t="inlineStr"/>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr"/>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607814/unterstutzung-fur-die-partnerschaft-fur-grune-und-nachhaltige-entwicklung-support-for-the-partnershi</t>
+          <t>https://www.developmentaid.org/tenders/view/1607171/integrated-urban-climate-action-for-low-carbon-resilient-cities-urban-act</t>
         </is>
       </c>
     </row>
@@ -1772,19 +1756,19 @@
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>RFP - River Health and Water Dependency Assessment Betwa River Basin</t>
+          <t>RFP - Audio Quality Annotation of Student Voice Recordings</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr"/>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr"/>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607571/rfp-river-health-and-water-dependency-assessment-betwa-river-basin</t>
+          <t>https://www.developmentaid.org/tenders/view/1607022/rfp-audio-quality-annotation-of-student-voice-recordings</t>
         </is>
       </c>
     </row>
@@ -1796,19 +1780,19 @@
       </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>P172213 - Nagaland: Enhancing Classroom Teaching and Resources - Procurement Plan (Department of School Education (DSE))</t>
+          <t>UNICEF Chhattisgarh is seeking manufacturers for the development and production of an innovative feeding tool (Complementary feeding bowl with spoon) to improve the diets of young children in CG</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr"/>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Learning, Safety</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr"/>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/539175/india-south-asia-p172213-nagaland-enhancing-classroom-teaching-and-resources-procurement-plan</t>
+          <t>https://www.developmentaid.org/tenders/view/1607202/unicef-chhattisgarh-is-seeking-manufacturers-for-the-development-and-production-of-an-innovative-fee</t>
         </is>
       </c>
     </row>
@@ -1820,19 +1804,19 @@
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Logistics Sector Expert (55154-002)</t>
+          <t>P178418 - Tripura Rural Economic Growth and Service Delivery Project - Procurement Plan (Public Works Department, Roads and Bridges)</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr"/>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr"/>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607502/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
+          <t>https://www.developmentaid.org/tenders/view/978729/india-south-asia-p178418-tripura-rural-economic-growth-and-service-delivery-project-public-works-dep</t>
         </is>
       </c>
     </row>
@@ -1844,19 +1828,19 @@
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>Final evaluation of the Market Development Facility Phase 2 (Asia Pacific)</t>
+          <t>P178418- Tripura Rural Economic Growth and Service Delivery Project- Procurement Plan  (Samagra Shiksha Abhiyan (Education))</t>
         </is>
       </c>
       <c r="C58" s="1" t="inlineStr"/>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E58" s="1" t="inlineStr"/>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1583551/final-evaluation-of-the-market-development-facility-phase-2-asia-pacific</t>
+          <t>https://www.developmentaid.org/tenders/view/1016520/india-south-asia-p178418-tripura-rural-economic-growth-and-service-delivery-project-samagra-shiksha</t>
         </is>
       </c>
     </row>
@@ -1868,19 +1852,19 @@
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>Integrated Urban Climate Action for Low-Carbon &amp; Resilient Cities (Urban-Act)</t>
+          <t>37909-045 - Trade and Supply Chain Finance Capacity Development: Technical Assistance</t>
         </is>
       </c>
       <c r="C59" s="1" t="inlineStr"/>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E59" s="1" t="inlineStr"/>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607171/integrated-urban-climate-action-for-low-carbon-resilient-cities-urban-act</t>
+          <t>https://www.developmentaid.org/tenders/view/1584610/37909-045-trade-and-supply-chain-finance-capacity-development-technical-assistance</t>
         </is>
       </c>
     </row>
@@ -1892,19 +1876,19 @@
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>RFP - Audio Quality Annotation of Student Voice Recordings</t>
+          <t>Meghalaya Multisectoral Project for Adolescent Wellbeing, Empowerment and Resilience (MPOWER): GD-8/Procurement of Furniture and Electrical Items for Office Setup of SPMU under MPOWER, MBMA</t>
         </is>
       </c>
       <c r="C60" s="1" t="inlineStr"/>
       <c r="D60" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Safety, Climate</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr"/>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607022/rfp-audio-quality-annotation-of-student-voice-recordings</t>
+          <t>https://www.developmentaid.org/tenders/view/1607091/meghalaya-multisectoral-project-for-adolescent-wellbeing-empowerment-and-resilience-mpower-gd-8procu</t>
         </is>
       </c>
     </row>
@@ -1916,19 +1900,19 @@
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>UNICEF Chhattisgarh is seeking manufacturers for the development and production of an innovative feeding tool (Complementary feeding bowl with spoon) to improve the diets of young children in CG</t>
+          <t>P154990- Jhelum and Tawi Flood Recovery Project - Procurement Plan (Jammu and Kashmir Medical Supplies Corporation Limited)</t>
         </is>
       </c>
       <c r="C61" s="1" t="inlineStr"/>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Safety</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr"/>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607202/unicef-chhattisgarh-is-seeking-manufacturers-for-the-development-and-production-of-an-innovative-fee</t>
+          <t>https://www.developmentaid.org/tenders/view/577045/india-south-asia-p154990-jhelum-and-tawi-flood-recovery-project-jammu-and-kashmir-medical-supplies-c</t>
         </is>
       </c>
     </row>
@@ -1940,19 +1924,19 @@
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>P178418 - Tripura Rural Economic Growth and Service Delivery Project - Procurement Plan (Public Works Department, Roads and Bridges)</t>
+          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Team Leader and Agri Expert (55154-002)</t>
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr"/>
       <c r="D62" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E62" s="1" t="inlineStr"/>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/978729/india-south-asia-p178418-tripura-rural-economic-growth-and-service-delivery-project-public-works-dep</t>
+          <t>https://www.developmentaid.org/tenders/view/1606567/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
         </is>
       </c>
     </row>
@@ -1964,19 +1948,19 @@
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>P178418- Tripura Rural Economic Growth and Service Delivery Project- Procurement Plan  (Samagra Shiksha Abhiyan (Education))</t>
+          <t>RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar</t>
         </is>
       </c>
       <c r="C63" s="1" t="inlineStr"/>
       <c r="D63" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E63" s="1" t="inlineStr"/>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1016520/india-south-asia-p178418-tripura-rural-economic-growth-and-service-delivery-project-samagra-shiksha</t>
+          <t>https://www.developmentaid.org/tenders/view/1606912/rfp-supply-installation-testing-commissioning-and-comprehensive-maintenance-of-solar-energy-solution</t>
         </is>
       </c>
     </row>
@@ -1988,137 +1972,17 @@
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>37909-045 - Trade and Supply Chain Finance Capacity Development: Technical Assistance</t>
+          <t>TA-9970 IND: Maharashtra Rural High Voltage Distribution System Expansion Program - Social Sector Expert Social Sector Expert (Green Livelihoods Expert) (50193-003)</t>
         </is>
       </c>
       <c r="C64" s="1" t="inlineStr"/>
       <c r="D64" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E64" s="1" t="inlineStr"/>
       <c r="F64" s="1" t="inlineStr">
-        <is>
-          <t>https://www.developmentaid.org/tenders/view/1584610/37909-045-trade-and-supply-chain-finance-capacity-development-technical-assistance</t>
-        </is>
-      </c>
-    </row>
-    <row r="65" ht="80" customHeight="1">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>DevelopmentAid</t>
-        </is>
-      </c>
-      <c r="B65" s="1" t="inlineStr">
-        <is>
-          <t>Meghalaya Multisectoral Project for Adolescent Wellbeing, Empowerment and Resilience (MPOWER): GD-8/Procurement of Furniture and Electrical Items for Office Setup of SPMU under MPOWER, MBMA</t>
-        </is>
-      </c>
-      <c r="C65" s="1" t="inlineStr"/>
-      <c r="D65" s="1" t="inlineStr">
-        <is>
-          <t>Safety, Climate</t>
-        </is>
-      </c>
-      <c r="E65" s="1" t="inlineStr"/>
-      <c r="F65" s="1" t="inlineStr">
-        <is>
-          <t>https://www.developmentaid.org/tenders/view/1607091/meghalaya-multisectoral-project-for-adolescent-wellbeing-empowerment-and-resilience-mpower-gd-8procu</t>
-        </is>
-      </c>
-    </row>
-    <row r="66" ht="80" customHeight="1">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>DevelopmentAid</t>
-        </is>
-      </c>
-      <c r="B66" s="1" t="inlineStr">
-        <is>
-          <t>P154990- Jhelum and Tawi Flood Recovery Project - Procurement Plan (Jammu and Kashmir Medical Supplies Corporation Limited)</t>
-        </is>
-      </c>
-      <c r="C66" s="1" t="inlineStr"/>
-      <c r="D66" s="1" t="inlineStr">
-        <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="E66" s="1" t="inlineStr"/>
-      <c r="F66" s="1" t="inlineStr">
-        <is>
-          <t>https://www.developmentaid.org/tenders/view/577045/india-south-asia-p154990-jhelum-and-tawi-flood-recovery-project-jammu-and-kashmir-medical-supplies-c</t>
-        </is>
-      </c>
-    </row>
-    <row r="67" ht="80" customHeight="1">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>DevelopmentAid</t>
-        </is>
-      </c>
-      <c r="B67" s="1" t="inlineStr">
-        <is>
-          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Team Leader and Agri Expert (55154-002)</t>
-        </is>
-      </c>
-      <c r="C67" s="1" t="inlineStr"/>
-      <c r="D67" s="1" t="inlineStr">
-        <is>
-          <t>Governance, Learning</t>
-        </is>
-      </c>
-      <c r="E67" s="1" t="inlineStr"/>
-      <c r="F67" s="1" t="inlineStr">
-        <is>
-          <t>https://www.developmentaid.org/tenders/view/1606567/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
-        </is>
-      </c>
-    </row>
-    <row r="68" ht="80" customHeight="1">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>DevelopmentAid</t>
-        </is>
-      </c>
-      <c r="B68" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar</t>
-        </is>
-      </c>
-      <c r="C68" s="1" t="inlineStr"/>
-      <c r="D68" s="1" t="inlineStr">
-        <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="E68" s="1" t="inlineStr"/>
-      <c r="F68" s="1" t="inlineStr">
-        <is>
-          <t>https://www.developmentaid.org/tenders/view/1606912/rfp-supply-installation-testing-commissioning-and-comprehensive-maintenance-of-solar-energy-solution</t>
-        </is>
-      </c>
-    </row>
-    <row r="69" ht="80" customHeight="1">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>DevelopmentAid</t>
-        </is>
-      </c>
-      <c r="B69" s="1" t="inlineStr">
-        <is>
-          <t>TA-9970 IND: Maharashtra Rural High Voltage Distribution System Expansion Program - Social Sector Expert Social Sector Expert (Green Livelihoods Expert) (50193-003)</t>
-        </is>
-      </c>
-      <c r="C69" s="1" t="inlineStr"/>
-      <c r="D69" s="1" t="inlineStr">
-        <is>
-          <t>Climate</t>
-        </is>
-      </c>
-      <c r="E69" s="1" t="inlineStr"/>
-      <c r="F69" s="1" t="inlineStr">
         <is>
           <t>https://www.developmentaid.org/tenders/view/1606542/ta-9970-ind-maharashtra-rural-high-voltage-distribution-system-expansion-program-social-sector-exper</t>
         </is>

--- a/output/Combined.xlsx
+++ b/output/Combined.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,19 +580,19 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>EoI - For Empanelment of agencies for Impact Assessment / Evaluation Services under Programmes for Development and Impact</t>
+          <t>TA-10488 REG: City Resilience, Affordable Housing, Sustainable Tourism, and Inclusive Economic Growth for Livable Cities - Structural Engineer (58349-002)</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr"/>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr"/>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609663/eoi-for-empanelment-of-agencies-for-impact-assessment-evaluation-services-under-programmes-for-devel</t>
+          <t>https://www.developmentaid.org/tenders/view/1605066/ta-10488-reg-city-resilience-affordable-housing-sustainable-tourism-and-inclusive-economic-growth-fo</t>
         </is>
       </c>
     </row>
@@ -604,19 +604,19 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
+          <t>55252-001 - Maharashtra Sustainable Climate-Resilient Coastal Protection and Management Project: Procurement Plan</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Safety, Climate</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr"/>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609606/rfp-early-stage-impact-assessment-cdri-swp-23-26</t>
+          <t>https://www.developmentaid.org/tenders/view/1378025/55252-001-maharashtra-sustainable-climate-resilient-coastal-protection-and-management-project-procur</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Mirova Energy Transition Emerging Asia (METEA)</t>
+          <t>Solarenergie im ländlichen Raum Indiens / Solar energy in rural India</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr"/>
@@ -640,7 +640,7 @@
       <c r="E8" s="1" t="inlineStr"/>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609692/mirova-energy-transition-emerging-asia-metea</t>
+          <t>https://www.developmentaid.org/tenders/view/1610293/solarenergie-im-landlichen-raum-indiens-solar-energy-in-rural-india</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
+          <t>56300-002 - Madhya Pradesh Renewable Energy Implementation Support: Technical Assistance</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr"/>
@@ -664,7 +664,7 @@
       <c r="E9" s="1" t="inlineStr"/>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609597/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
+          <t>https://www.developmentaid.org/tenders/view/1610325/56300-002-madhya-pradesh-renewable-energy-implementation-support-technical-assistance</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Hiring consultancy firm for filing GST, VAT, IGST Refund Claims and related tasks for the ILO New Delhi office</t>
+          <t>Call for External Collaborator – The ILO project ‘Strengthening Labour Dispute Resolution in Tamil Nadu’s Electronics Manufacturing Sector’ invites applications from consultants to support develop &amp; deliver capacity building programme for social partners</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr"/>
@@ -688,7 +688,7 @@
       <c r="E10" s="1" t="inlineStr"/>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609700/hiring-consultancy-firm-for-filing-gst-vat-igst-refund-claims-and-related-tasks-for-the-ilo-new-delh</t>
+          <t>https://www.developmentaid.org/tenders/view/1610322/call-for-external-collaborator-the-ilo-project-strengthening-labour-dispute-resolution-in-tamil-nadu</t>
         </is>
       </c>
     </row>
@@ -700,19 +700,19 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4411 IND: Building India's Clean Plant Program - IARI-staff-C S09 IARI staff - virologists and other staff - Lab Assistant (02) (Plant Material Management) (57041-001)</t>
+          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr"/>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr"/>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1602442/loan-4411-ind-building-indias-clean-plant-program-iari-staff-c-s09-iari-staff-virologists-and-other</t>
+          <t>https://www.developmentaid.org/tenders/view/1610299/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
         </is>
       </c>
     </row>
@@ -724,19 +724,19 @@
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4291 IND: Himachal Pradesh Subtropical Horticulture, Irrigation, and Value Addition Project - CS 10 Communications and digital contents for Information Education and Knowledge Management under HPSHIVA Project (53189-002)</t>
+          <t>Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project: Engagement of Project Management Consultant</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr"/>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr"/>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609118/loan-4291-ind-himachal-pradesh-subtropical-horticulture-irrigation-and-value-addition-project-cs-10</t>
+          <t>https://www.developmentaid.org/tenders/view/1463234/kerala-climate-resilient-agri-value-chain-modernization-kera-project-engagement-of-project-managemen</t>
         </is>
       </c>
     </row>
@@ -748,19 +748,19 @@
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Knowledge and Learning Specialist (National) (58369-001)</t>
+          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Pipeline Condition Assessment for Urban Water Supply Networks in Rajasthan (58369-001)</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr"/>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr"/>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609114/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-knowledge-and-learning-speci</t>
+          <t>https://www.developmentaid.org/tenders/view/1583942/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-pipeline-condition-assessmen</t>
         </is>
       </c>
     </row>
@@ -772,19 +772,19 @@
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Fecal Sludge Management and Urban Institutional Expert (National) (58369-001)</t>
+          <t>Call for External Collaborator – Extending Social Protection to Migrant Workers in an Irregular Situation (South Asia–GCC Corridor)</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr"/>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr"/>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609113/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-fecal-sludge-management-and</t>
+          <t>https://www.developmentaid.org/tenders/view/1610212/call-for-external-collaborator-extending-social-protection-to-migrant-workers-in-an-irregular-situat</t>
         </is>
       </c>
     </row>
@@ -796,19 +796,19 @@
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Request For Proposal For Hiring of Technical Partner Agency for Designing, Development and Implementation of AI-Enabled Learning and Knowledge Sharing Platform for ISA</t>
+          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr"/>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr"/>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1589295/request-for-proposal-for-hiring-of-technical-partner-agency-for-designing-development-and-implementa</t>
+          <t>https://www.developmentaid.org/tenders/view/1610092/rfp-odia-annotation-of-student-voice-recordings-from-odisha</t>
         </is>
       </c>
     </row>
@@ -820,19 +820,19 @@
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>P168633- Kerala Solid Waste Management Project (ULB PGT PALAKKAD)</t>
+          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr"/>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr"/>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1095526/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-pgt-palakkad-procurement-plan</t>
+          <t>https://www.developmentaid.org/tenders/view/1610106/rfp-english-annotation-of-student-voice-recordings-from-gujarat</t>
         </is>
       </c>
     </row>
@@ -844,19 +844,19 @@
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>P166020 - West Bengal Transport and Logistics Spatial Development Project - Procurement Plan (West Bengal Transport Infrastructure Development Corporation Limited)</t>
+          <t>EoI - For Empanelment of agencies for Impact Assessment / Evaluation Services under Programmes for Development and Impact</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr"/>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>Learning, Safety</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr"/>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/485630/india-south-asia-p166020-west-bengal-transport-and-logistics-spatial-development-project-procurement</t>
+          <t>https://www.developmentaid.org/tenders/view/1609663/eoi-for-empanelment-of-agencies-for-impact-assessment-evaluation-services-under-programmes-for-devel</t>
         </is>
       </c>
     </row>
@@ -868,19 +868,19 @@
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>P179935- Enhancing Landscape and Ecosystem Management (ELEMENT) Project - Procurement Plan (State Forest Development Agency, Tripura)</t>
+          <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr"/>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr"/>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1161054/india-south-asia-p179935-enhancing-landscape-and-ecosystem-management-project-procurement-plan-engli</t>
+          <t>https://www.developmentaid.org/tenders/view/1609606/rfp-early-stage-impact-assessment-cdri-swp-23-26</t>
         </is>
       </c>
     </row>
@@ -892,19 +892,19 @@
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Request for Proposals (RFP): Consulting Agency for Identifying High Growth Livelihoods and Market Access Challenges</t>
+          <t>Mirova Energy Transition Emerging Asia (METEA)</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr"/>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr"/>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1598904/request-for-proposals-rfp-consulting-agency-for-identifying-high-growth-livelihoods-and-market-acces</t>
+          <t>https://www.developmentaid.org/tenders/view/1609692/mirova-energy-transition-emerging-asia-metea</t>
         </is>
       </c>
     </row>
@@ -916,19 +916,19 @@
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4411 IND: Building India's Clean Plant Program - IARI-staff-C S09 IARI staff - virologists and other staff - Young Professional-II (04) (Project Data Management) (57041-001)</t>
+          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr"/>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr"/>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1602444/loan-4411-ind-building-indias-clean-plant-program-iari-staff-c-s09-iari-staff-virologists-and-other</t>
+          <t>https://www.developmentaid.org/tenders/view/1609597/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
         </is>
       </c>
     </row>
@@ -940,19 +940,19 @@
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Integrated Urban Climate Action for Low-Carbon &amp; Resilient Cities (Urban-Act)</t>
+          <t>Hiring consultancy firm for filing GST, VAT, IGST Refund Claims and related tasks for the ILO New Delhi office</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr"/>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr"/>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608947/integrated-urban-climate-action-for-low-carbon-resilient-cities-urban-act</t>
+          <t>https://www.developmentaid.org/tenders/view/1609700/hiring-consultancy-firm-for-filing-gst-vat-igst-refund-claims-and-related-tasks-for-the-ilo-new-delh</t>
         </is>
       </c>
     </row>
@@ -964,19 +964,19 @@
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing dry stone check barriers in project GP,s of Sirmour Distt.</t>
+          <t>LOAN-4411 IND: Building India's Clean Plant Program - IARI-staff-C S09 IARI staff - virologists and other staff - Lab Assistant (02) (Plant Material Management) (57041-001)</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr"/>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr"/>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608977/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1602442/loan-4411-ind-building-indias-clean-plant-program-iari-staff-c-s09-iari-staff-virologists-and-other</t>
         </is>
       </c>
     </row>
@@ -988,19 +988,19 @@
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing crate wire check barriers in project GP,s of Sirmour Distt.</t>
+          <t>LOAN-4291 IND: Himachal Pradesh Subtropical Horticulture, Irrigation, and Value Addition Project - CS 10 Communications and digital contents for Information Education and Knowledge Management under HPSHIVA Project (53189-002)</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr"/>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr"/>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1579382/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1609118/loan-4291-ind-himachal-pradesh-subtropical-horticulture-irrigation-and-value-addition-project-cs-10</t>
         </is>
       </c>
     </row>
@@ -1012,19 +1012,19 @@
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>TA-9849 IND: TA 9849-IND: India Urban and Water Projects Support Facility (53067-002) - Environment Safeguards Expert (53067-002)</t>
+          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Knowledge and Learning Specialist (National) (58369-001)</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr"/>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr"/>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608441/ta-9849-ind-ta-9849-ind-india-urban-and-water-projects-support-facility-53067-002-environment-safegu</t>
+          <t>https://www.developmentaid.org/tenders/view/1609114/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-knowledge-and-learning-speci</t>
         </is>
       </c>
     </row>
@@ -1036,19 +1036,19 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>TA-10721 IND: Support for Development of Sustainable Metro Rail Projects for Nagpur Metro Rail Project (Phase 2) - B/CS-1 Consulting services to design and develop a large battery storage system of 8 MW per day capacity and undertake technology demonstration pilot projects at two locations with 15 years of operation and (59279-001)</t>
+          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Fecal Sludge Management and Urban Institutional Expert (National) (58369-001)</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr"/>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr"/>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608429/ta-10721-ind-support-for-development-of-sustainable-metro-rail-projects-for-nagpur-metro-rail-projec</t>
+          <t>https://www.developmentaid.org/tenders/view/1609113/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-fecal-sludge-management-and</t>
         </is>
       </c>
     </row>
@@ -1060,19 +1060,19 @@
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>81322849 - Capacity development and organisational support for convergent implementation of measures to improve water security in rural India</t>
+          <t>Request For Proposal For Hiring of Technical Partner Agency for Designing, Development and Implementation of AI-Enabled Learning and Knowledge Sharing Platform for ISA</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr"/>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Safety</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr"/>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1593414/81322849-capacity-development-and-organisational-support-for-convergent-implementation-of-measures-t</t>
+          <t>https://www.developmentaid.org/tenders/view/1589295/request-for-proposal-for-hiring-of-technical-partner-agency-for-designing-development-and-implementa</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Consulting, Feasibility Study (Climate Resilience and Ecosystem Services in Forest Landscapes)</t>
+          <t>P168633- Kerala Solid Waste Management Project (ULB PGT PALAKKAD)</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr"/>
@@ -1096,7 +1096,7 @@
       <c r="E27" s="1" t="inlineStr"/>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608627/consulting-feasibility-study-climate-resilience-and-ecosystem-services-in-forest-landscapes</t>
+          <t>https://www.developmentaid.org/tenders/view/1095526/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-pgt-palakkad-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -1108,19 +1108,19 @@
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4322 IND: Enhancing Connectivity and Sustainability in Bihar Roads Project - 1 Expression of Interest for procurement of services for survey, data collection, design, development, implementation, operation and maintenance of road asset management system (54364-001)</t>
+          <t>P166020 - West Bengal Transport and Logistics Spatial Development Project - Procurement Plan (West Bengal Transport Infrastructure Development Corporation Limited)</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr"/>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Climate</t>
+          <t>Learning, Safety</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr"/>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1605060/loan-4322-ind-enhancing-connectivity-and-sustainability-in-bihar-roads-project-1-expression-of-inter</t>
+          <t>https://www.developmentaid.org/tenders/view/485630/india-south-asia-p166020-west-bengal-transport-and-logistics-spatial-development-project-procurement</t>
         </is>
       </c>
     </row>
@@ -1132,19 +1132,19 @@
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>TA-10469 IND: Knowledge and Capacity Building for Catalyzing Green Growth and Strengthening Climate Resilience - Climate Risk Assessment and Bamboo Resource Mapping for Climate Strategies and Agriculture Investment Planning in Maharashtra, India (58389-001)</t>
+          <t>P179935- Enhancing Landscape and Ecosystem Management (ELEMENT) Project - Procurement Plan (State Forest Development Agency, Tripura)</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr"/>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr"/>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1603067/ta-10469-ind-knowledge-and-capacity-building-for-catalyzing-green-growth-and-strengthening-climate-r</t>
+          <t>https://www.developmentaid.org/tenders/view/1161054/india-south-asia-p179935-enhancing-landscape-and-ecosystem-management-project-procurement-plan-engli</t>
         </is>
       </c>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Support in the Implementation of Basin Management Measures and District Ganga Plans</t>
+          <t>Request for Proposals (RFP): Consulting Agency for Identifying High Growth Livelihoods and Market Access Challenges</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr"/>
@@ -1168,7 +1168,7 @@
       <c r="E30" s="1" t="inlineStr"/>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1550511/support-in-the-implementation-of-basin-management-measures-and-district-ganga-plans</t>
+          <t>https://www.developmentaid.org/tenders/view/1598904/request-for-proposals-rfp-consulting-agency-for-identifying-high-growth-livelihoods-and-market-acces</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Expression of Interest for Selection of Business Associate(s) / Partner(s)/ JV / Consortium / partnership, for exploring Consulting / OEM assignments in Middle East, Africa, Europe, India and Southeast Asian Countries.</t>
+          <t>LOAN-4411 IND: Building India's Clean Plant Program - IARI-staff-C S09 IARI staff - virologists and other staff - Young Professional-II (04) (Project Data Management) (57041-001)</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr"/>
@@ -1192,7 +1192,7 @@
       <c r="E31" s="1" t="inlineStr"/>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608411/expression-of-interest-for-selection-of-business-associates-partners-jv-consortium-partnership-for-e</t>
+          <t>https://www.developmentaid.org/tenders/view/1602444/loan-4411-ind-building-indias-clean-plant-program-iari-staff-c-s09-iari-staff-virologists-and-other</t>
         </is>
       </c>
     </row>
@@ -1204,19 +1204,19 @@
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>43253-025 - Karnataka Integrated Urban Water Management Investment Program - Tranche 1</t>
+          <t>Integrated Urban Climate Action for Low-Carbon &amp; Resilient Cities (Urban-Act)</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr"/>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr"/>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608368/43253-025-karnataka-integrated-urban-water-management-investment-program-tranche-1</t>
+          <t>https://www.developmentaid.org/tenders/view/1608947/integrated-urban-climate-action-for-low-carbon-resilient-cities-urban-act</t>
         </is>
       </c>
     </row>
@@ -1228,19 +1228,19 @@
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>Punjab Municipal Services Improvement Project: Direct RFP for hiring of Agency for Communication, Outreach, Digital Media Management &amp; Stakeholders Engagement in Municipal Corporation Amritsar and Ludhiana under PMSIP</t>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing dry stone check barriers in project GP,s of Sirmour Distt.</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr"/>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr"/>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1606067/punjab-municipal-services-improvement-project-direct-rfp-for-hiring-of-agency-for-communication-outr</t>
+          <t>https://www.developmentaid.org/tenders/view/1608977/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
         </is>
       </c>
     </row>
@@ -1252,19 +1252,19 @@
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>46166-003 - Supporting Human Capital Development in Meghalaya (Phase 2) Project: Procurement Plan</t>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing crate wire check barriers in project GP,s of Sirmour Distt.</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr"/>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr"/>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1411799/46166-003-supporting-human-capital-development-in-meghalaya-phase-2-project-procurement-plan</t>
+          <t>https://www.developmentaid.org/tenders/view/1579382/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
         </is>
       </c>
     </row>
@@ -1276,19 +1276,19 @@
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Construction of Swiss Pavilion for AI Summit as per the design and space provided at Pragati Maidan, New Delhi</t>
+          <t>TA-9849 IND: TA 9849-IND: India Urban and Water Projects Support Facility (53067-002) - Environment Safeguards Expert (53067-002)</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr"/>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr"/>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608266/construction-of-swiss-pavilion-for-ai-summit-as-per-the-design-and-space-provided-at-pragati-maidan-</t>
+          <t>https://www.developmentaid.org/tenders/view/1608441/ta-9849-ind-ta-9849-ind-india-urban-and-water-projects-support-facility-53067-002-environment-safegu</t>
         </is>
       </c>
     </row>
@@ -1300,19 +1300,19 @@
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>P168310 - State of Maharashtra's Agribusiness and Rural Transformation Project - Procurement Plan (Project Coordination Management Unit (PCMU-SMART))</t>
+          <t>TA-10721 IND: Support for Development of Sustainable Metro Rail Projects for Nagpur Metro Rail Project (Phase 2) - B/CS-1 Consulting services to design and develop a large battery storage system of 8 MW per day capacity and undertake technology demonstration pilot projects at two locations with 15 years of operation and (59279-001)</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr"/>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr"/>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/435581/india-south-asia-p168310-state-of-maharashtras-agribusiness-and-rural-transformation-project-procure</t>
+          <t>https://www.developmentaid.org/tenders/view/1608429/ta-10721-ind-support-for-development-of-sustainable-metro-rail-projects-for-nagpur-metro-rail-projec</t>
         </is>
       </c>
     </row>
@@ -1324,19 +1324,19 @@
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat, Rice and Millets under Public Distribution System - Agri-market Assessment Expert (55154-002)</t>
+          <t>81322849 - Capacity development and organisational support for convergent implementation of measures to improve water security in rural India</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr"/>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance, Learning, Safety</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr"/>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607893/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
+          <t>https://www.developmentaid.org/tenders/view/1593414/81322849-capacity-development-and-organisational-support-for-convergent-implementation-of-measures-t</t>
         </is>
       </c>
     </row>
@@ -1348,19 +1348,19 @@
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Transport Sector Expert (55154-002)</t>
+          <t>Consulting, Feasibility Study (Climate Resilience and Ecosystem Services in Forest Landscapes)</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr"/>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Safety</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr"/>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607892/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
+          <t>https://www.developmentaid.org/tenders/view/1608627/consulting-feasibility-study-climate-resilience-and-ecosystem-services-in-forest-landscapes</t>
         </is>
       </c>
     </row>
@@ -1372,19 +1372,19 @@
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>TA-9950 REG: PF: Data Science Expert - PF: Data Scientist PF: Data Science Expert (54079-001)</t>
+          <t>LOAN-4322 IND: Enhancing Connectivity and Sustainability in Bihar Roads Project - 1 Expression of Interest for procurement of services for survey, data collection, design, development, implementation, operation and maintenance of road asset management system (54364-001)</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr"/>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Learning, Climate</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr"/>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607886/ta-9950-reg-pf-data-science-expert-pf-data-scientist-pf-data-science-expert-54079-001</t>
+          <t>https://www.developmentaid.org/tenders/view/1605060/loan-4322-ind-enhancing-connectivity-and-sustainability-in-bihar-roads-project-1-expression-of-inter</t>
         </is>
       </c>
     </row>
@@ -1396,19 +1396,19 @@
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4623 IND: Assam Urban Sector Development Project - AUSDP/CS/COM Community Mobilization Consultant (CMC) (57262-001)</t>
+          <t>TA-10469 IND: Knowledge and Capacity Building for Catalyzing Green Growth and Strengthening Climate Resilience - Climate Risk Assessment and Bamboo Resource Mapping for Climate Strategies and Agriculture Investment Planning in Maharashtra, India (58389-001)</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr"/>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr"/>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607884/loan-4623-ind-assam-urban-sector-development-project-ausdpcscom-community-mobilization-consultant-cm</t>
+          <t>https://www.developmentaid.org/tenders/view/1603067/ta-10469-ind-knowledge-and-capacity-building-for-catalyzing-green-growth-and-strengthening-climate-r</t>
         </is>
       </c>
     </row>
@@ -1420,19 +1420,19 @@
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>TA-10488 REG: City Resilience, Affordable Housing, Sustainable Tourism, and Inclusive Economic Growth for Livable Cities - Structural Engineer (58349-002)</t>
+          <t>Support in the Implementation of Basin Management Measures and District Ganga Plans</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr"/>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr"/>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1605066/ta-10488-reg-city-resilience-affordable-housing-sustainable-tourism-and-inclusive-economic-growth-fo</t>
+          <t>https://www.developmentaid.org/tenders/view/1550511/support-in-the-implementation-of-basin-management-measures-and-district-ganga-plans</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Hiring of Event Management Agency For organisation of Two Workshops for the ILO in February 2026 in Bangalore</t>
+          <t>Expression of Interest for Selection of Business Associate(s) / Partner(s)/ JV / Consortium / partnership, for exploring Consulting / OEM assignments in Middle East, Africa, Europe, India and Southeast Asian Countries.</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr"/>
@@ -1456,7 +1456,7 @@
       <c r="E42" s="1" t="inlineStr"/>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608036/hiring-of-event-management-agency-for-organisation-of-two-workshops-for-the-ilo-in-february-2026-in</t>
+          <t>https://www.developmentaid.org/tenders/view/1608411/expression-of-interest-for-selection-of-business-associates-partners-jv-consortium-partnership-for-e</t>
         </is>
       </c>
     </row>
@@ -1468,19 +1468,19 @@
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>Punjab Outcomes-Acceleration In School Education Operation - P500564</t>
+          <t>43253-025 - Karnataka Integrated Urban Water Management Investment Program - Tranche 1</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr"/>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr"/>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1335085/punjab-outcomes-acceleration-in-school-education-operation-p500564</t>
+          <t>https://www.developmentaid.org/tenders/view/1608368/43253-025-karnataka-integrated-urban-water-management-investment-program-tranche-1</t>
         </is>
       </c>
     </row>
@@ -1492,19 +1492,19 @@
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>Strengthening Coastal Resilience and the Economy Project: Consultancy Service for Supervision of Construction of Turtle, Dugong &amp; Mangrove and International Bird Conservation Centre under TN SHORE Project</t>
+          <t>Punjab Municipal Services Improvement Project: Direct RFP for hiring of Agency for Communication, Outreach, Digital Media Management &amp; Stakeholders Engagement in Municipal Corporation Amritsar and Ludhiana under PMSIP</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr"/>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr"/>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607773/strengthening-coastal-resilience-and-the-economy-project-consultancy-service-for-supervision-of-cons</t>
+          <t>https://www.developmentaid.org/tenders/view/1606067/punjab-municipal-services-improvement-project-direct-rfp-for-hiring-of-agency-for-communication-outr</t>
         </is>
       </c>
     </row>
@@ -1516,19 +1516,19 @@
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>RFP for for Developing Integrated One Health Portal for enhanced collaborative Surveillance</t>
+          <t>46166-003 - Supporting Human Capital Development in Meghalaya (Phase 2) Project: Procurement Plan</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr"/>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr"/>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607851/rfp-for-for-developing-integrated-one-health-portal-for-enhanced-collaborative-s</t>
+          <t>https://www.developmentaid.org/tenders/view/1411799/46166-003-supporting-human-capital-development-in-meghalaya-phase-2-project-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -1540,19 +1540,19 @@
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>Implementation and Operation of FLR Monitoring, Evaluation, and Reporting Frameworks for Forest Landscape Restoration (FLR)</t>
+          <t>Construction of Swiss Pavilion for AI Summit as per the design and space provided at Pragati Maidan, New Delhi</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr"/>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr"/>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1531583/implementation-and-operation-of-flr-monitoring-evaluation-and-reporting-frameworks-for-forest-landsc</t>
+          <t>https://www.developmentaid.org/tenders/view/1608266/construction-of-swiss-pavilion-for-ai-summit-as-per-the-design-and-space-provided-at-pragati-maidan-</t>
         </is>
       </c>
     </row>
@@ -1564,19 +1564,19 @@
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>81319406 - Engagement of Agency/Consortium for the 'Global Best Practices and Climate Risk Finance for Heatwave Management</t>
+          <t>P168310 - State of Maharashtra's Agribusiness and Rural Transformation Project - Procurement Plan (Project Coordination Management Unit (PCMU-SMART))</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr"/>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr"/>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1534310/81319406-engagement-of-agencyconsortium-for-the-global-best-practices-and-climate-risk-finance-for-h</t>
+          <t>https://www.developmentaid.org/tenders/view/435581/india-south-asia-p168310-state-of-maharashtras-agribusiness-and-rural-transformation-project-procure</t>
         </is>
       </c>
     </row>
@@ -1588,19 +1588,19 @@
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>Renewable Energy Policy Advisory Services and Capacity Development of Government Officials in Indian States</t>
+          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat, Rice and Millets under Public Distribution System - Agri-market Assessment Expert (55154-002)</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr"/>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr"/>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1528202/renewable-energy-policy-advisory-services-and-capacity-development-of-government-officials-in-indian</t>
+          <t>https://www.developmentaid.org/tenders/view/1607893/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
         </is>
       </c>
     </row>
@@ -1612,19 +1612,19 @@
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>Unterstützung für die Partnerschaft für Grüne und Nachhaltige Entwicklung / Support for the Partnership for Green and Sustainable Development</t>
+          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Transport Sector Expert (55154-002)</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr"/>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance, Learning, Safety</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr"/>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607814/unterstutzung-fur-die-partnerschaft-fur-grune-und-nachhaltige-entwicklung-support-for-the-partnershi</t>
+          <t>https://www.developmentaid.org/tenders/view/1607892/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
         </is>
       </c>
     </row>
@@ -1636,19 +1636,19 @@
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>RFP - River Health and Water Dependency Assessment Betwa River Basin</t>
+          <t>TA-9950 REG: PF: Data Science Expert - PF: Data Scientist PF: Data Science Expert (54079-001)</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr"/>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr"/>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607571/rfp-river-health-and-water-dependency-assessment-betwa-river-basin</t>
+          <t>https://www.developmentaid.org/tenders/view/1607886/ta-9950-reg-pf-data-science-expert-pf-data-scientist-pf-data-science-expert-54079-001</t>
         </is>
       </c>
     </row>
@@ -1660,19 +1660,19 @@
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>P172213 - Nagaland: Enhancing Classroom Teaching and Resources - Procurement Plan (Department of School Education (DSE))</t>
+          <t>LOAN-4623 IND: Assam Urban Sector Development Project - AUSDP/CS/COM Community Mobilization Consultant (CMC) (57262-001)</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr"/>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr"/>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/539175/india-south-asia-p172213-nagaland-enhancing-classroom-teaching-and-resources-procurement-plan</t>
+          <t>https://www.developmentaid.org/tenders/view/1607884/loan-4623-ind-assam-urban-sector-development-project-ausdpcscom-community-mobilization-consultant-cm</t>
         </is>
       </c>
     </row>
@@ -1684,19 +1684,19 @@
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Logistics Sector Expert (55154-002)</t>
+          <t>Hiring of Event Management Agency For organisation of Two Workshops for the ILO in February 2026 in Bangalore</t>
         </is>
       </c>
       <c r="C52" s="1" t="inlineStr"/>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr"/>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607502/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
+          <t>https://www.developmentaid.org/tenders/view/1608036/hiring-of-event-management-agency-for-organisation-of-two-workshops-for-the-ilo-in-february-2026-in</t>
         </is>
       </c>
     </row>
@@ -1708,19 +1708,19 @@
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>Final evaluation of the Market Development Facility Phase 2 (Asia Pacific)</t>
+          <t>Punjab Outcomes-Acceleration In School Education Operation - P500564</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr"/>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr"/>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1583551/final-evaluation-of-the-market-development-facility-phase-2-asia-pacific</t>
+          <t>https://www.developmentaid.org/tenders/view/1335085/punjab-outcomes-acceleration-in-school-education-operation-p500564</t>
         </is>
       </c>
     </row>
@@ -1732,19 +1732,19 @@
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>Integrated Urban Climate Action for Low-Carbon &amp; Resilient Cities (Urban-Act)</t>
+          <t>Strengthening Coastal Resilience and the Economy Project: Consultancy Service for Supervision of Construction of Turtle, Dugong &amp; Mangrove and International Bird Conservation Centre under TN SHORE Project</t>
         </is>
       </c>
       <c r="C54" s="1" t="inlineStr"/>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr"/>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607171/integrated-urban-climate-action-for-low-carbon-resilient-cities-urban-act</t>
+          <t>https://www.developmentaid.org/tenders/view/1607773/strengthening-coastal-resilience-and-the-economy-project-consultancy-service-for-supervision-of-cons</t>
         </is>
       </c>
     </row>
@@ -1756,19 +1756,19 @@
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>RFP - Audio Quality Annotation of Student Voice Recordings</t>
+          <t>RFP for for Developing Integrated One Health Portal for enhanced collaborative Surveillance</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr"/>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr"/>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607022/rfp-audio-quality-annotation-of-student-voice-recordings</t>
+          <t>https://www.developmentaid.org/tenders/view/1607851/rfp-for-for-developing-integrated-one-health-portal-for-enhanced-collaborative-s</t>
         </is>
       </c>
     </row>
@@ -1780,19 +1780,19 @@
       </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>UNICEF Chhattisgarh is seeking manufacturers for the development and production of an innovative feeding tool (Complementary feeding bowl with spoon) to improve the diets of young children in CG</t>
+          <t>Implementation and Operation of FLR Monitoring, Evaluation, and Reporting Frameworks for Forest Landscape Restoration (FLR)</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr"/>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Safety</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr"/>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607202/unicef-chhattisgarh-is-seeking-manufacturers-for-the-development-and-production-of-an-innovative-fee</t>
+          <t>https://www.developmentaid.org/tenders/view/1531583/implementation-and-operation-of-flr-monitoring-evaluation-and-reporting-frameworks-for-forest-landsc</t>
         </is>
       </c>
     </row>
@@ -1804,19 +1804,19 @@
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>P178418 - Tripura Rural Economic Growth and Service Delivery Project - Procurement Plan (Public Works Department, Roads and Bridges)</t>
+          <t>81319406 - Engagement of Agency/Consortium for the 'Global Best Practices and Climate Risk Finance for Heatwave Management</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr"/>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr"/>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/978729/india-south-asia-p178418-tripura-rural-economic-growth-and-service-delivery-project-public-works-dep</t>
+          <t>https://www.developmentaid.org/tenders/view/1534310/81319406-engagement-of-agencyconsortium-for-the-global-best-practices-and-climate-risk-finance-for-h</t>
         </is>
       </c>
     </row>
@@ -1828,19 +1828,19 @@
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>P178418- Tripura Rural Economic Growth and Service Delivery Project- Procurement Plan  (Samagra Shiksha Abhiyan (Education))</t>
+          <t>Renewable Energy Policy Advisory Services and Capacity Development of Government Officials in Indian States</t>
         </is>
       </c>
       <c r="C58" s="1" t="inlineStr"/>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Learning, Climate</t>
         </is>
       </c>
       <c r="E58" s="1" t="inlineStr"/>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1016520/india-south-asia-p178418-tripura-rural-economic-growth-and-service-delivery-project-samagra-shiksha</t>
+          <t>https://www.developmentaid.org/tenders/view/1528202/renewable-energy-policy-advisory-services-and-capacity-development-of-government-officials-in-indian</t>
         </is>
       </c>
     </row>
@@ -1852,19 +1852,19 @@
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>37909-045 - Trade and Supply Chain Finance Capacity Development: Technical Assistance</t>
+          <t>Unterstützung für die Partnerschaft für Grüne und Nachhaltige Entwicklung / Support for the Partnership for Green and Sustainable Development</t>
         </is>
       </c>
       <c r="C59" s="1" t="inlineStr"/>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E59" s="1" t="inlineStr"/>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1584610/37909-045-trade-and-supply-chain-finance-capacity-development-technical-assistance</t>
+          <t>https://www.developmentaid.org/tenders/view/1607814/unterstutzung-fur-die-partnerschaft-fur-grune-und-nachhaltige-entwicklung-support-for-the-partnershi</t>
         </is>
       </c>
     </row>
@@ -1876,19 +1876,19 @@
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>Meghalaya Multisectoral Project for Adolescent Wellbeing, Empowerment and Resilience (MPOWER): GD-8/Procurement of Furniture and Electrical Items for Office Setup of SPMU under MPOWER, MBMA</t>
+          <t>RFP - River Health and Water Dependency Assessment Betwa River Basin</t>
         </is>
       </c>
       <c r="C60" s="1" t="inlineStr"/>
       <c r="D60" s="1" t="inlineStr">
         <is>
-          <t>Safety, Climate</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr"/>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607091/meghalaya-multisectoral-project-for-adolescent-wellbeing-empowerment-and-resilience-mpower-gd-8procu</t>
+          <t>https://www.developmentaid.org/tenders/view/1607571/rfp-river-health-and-water-dependency-assessment-betwa-river-basin</t>
         </is>
       </c>
     </row>
@@ -1900,19 +1900,19 @@
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>P154990- Jhelum and Tawi Flood Recovery Project - Procurement Plan (Jammu and Kashmir Medical Supplies Corporation Limited)</t>
+          <t>P172213 - Nagaland: Enhancing Classroom Teaching and Resources - Procurement Plan (Department of School Education (DSE))</t>
         </is>
       </c>
       <c r="C61" s="1" t="inlineStr"/>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr"/>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/577045/india-south-asia-p154990-jhelum-and-tawi-flood-recovery-project-jammu-and-kashmir-medical-supplies-c</t>
+          <t>https://www.developmentaid.org/tenders/view/539175/india-south-asia-p172213-nagaland-enhancing-classroom-teaching-and-resources-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -1924,7 +1924,7 @@
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Team Leader and Agri Expert (55154-002)</t>
+          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat Rice and Millets under Public Distribution System - Logistics Sector Expert (55154-002)</t>
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
       <c r="E62" s="1" t="inlineStr"/>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1606567/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
+          <t>https://www.developmentaid.org/tenders/view/1607502/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
         </is>
       </c>
     </row>
@@ -1948,19 +1948,19 @@
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>RFP - Supply, Installation, Testing, Commissioning and Comprehensive Maintenance of Solar Energy Solutions: Grid Connected Rooftop Solar</t>
+          <t>Final evaluation of the Market Development Facility Phase 2 (Asia Pacific)</t>
         </is>
       </c>
       <c r="C63" s="1" t="inlineStr"/>
       <c r="D63" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E63" s="1" t="inlineStr"/>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1606912/rfp-supply-installation-testing-commissioning-and-comprehensive-maintenance-of-solar-energy-solution</t>
+          <t>https://www.developmentaid.org/tenders/view/1583551/final-evaluation-of-the-market-development-facility-phase-2-asia-pacific</t>
         </is>
       </c>
     </row>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>TA-9970 IND: Maharashtra Rural High Voltage Distribution System Expansion Program - Social Sector Expert Social Sector Expert (Green Livelihoods Expert) (50193-003)</t>
+          <t>Integrated Urban Climate Action for Low-Carbon &amp; Resilient Cities (Urban-Act)</t>
         </is>
       </c>
       <c r="C64" s="1" t="inlineStr"/>
@@ -1984,7 +1984,79 @@
       <c r="E64" s="1" t="inlineStr"/>
       <c r="F64" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1606542/ta-9970-ind-maharashtra-rural-high-voltage-distribution-system-expansion-program-social-sector-exper</t>
+          <t>https://www.developmentaid.org/tenders/view/1607171/integrated-urban-climate-action-for-low-carbon-resilient-cities-urban-act</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="80" customHeight="1">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Audio Quality Annotation of Student Voice Recordings</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr"/>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="inlineStr"/>
+      <c r="F65" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1607022/rfp-audio-quality-annotation-of-student-voice-recordings</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="80" customHeight="1">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>UNICEF Chhattisgarh is seeking manufacturers for the development and production of an innovative feeding tool (Complementary feeding bowl with spoon) to improve the diets of young children in CG</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr"/>
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Learning, Safety</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="inlineStr"/>
+      <c r="F66" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1607202/unicef-chhattisgarh-is-seeking-manufacturers-for-the-development-and-production-of-an-innovative-fee</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="80" customHeight="1">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>P178418 - Tripura Rural Economic Growth and Service Delivery Project - Procurement Plan (Public Works Department, Roads and Bridges)</t>
+        </is>
+      </c>
+      <c r="C67" s="1" t="inlineStr"/>
+      <c r="D67" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E67" s="1" t="inlineStr"/>
+      <c r="F67" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/978729/india-south-asia-p178418-tripura-rural-economic-growth-and-service-delivery-project-public-works-dep</t>
         </is>
       </c>
     </row>

--- a/output/Combined.xlsx
+++ b/output/Combined.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,108 +467,1444 @@
     <row r="2" ht="80" customHeight="1">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>ESTM</t>
+          <t>C40</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Specialist – Operations, Fund Risk Management and Oversight (Open to all applicants)</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr"/>
-      <c r="D2" s="1" t="inlineStr"/>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>02/19/2026, 04:59 AM</t>
-        </is>
-      </c>
+          <t>Manager, Adaptation Finance</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Climate Finance, Knowledge and Partnerships - Kenya, South Africa</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr"/>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>https://estm.fa.em2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/job/28371/?location=India&amp;locationId=300000000440677&amp;locationLevel=country&amp;mode=location</t>
+          <t>https://c40.bamboohr.com/careers/703</t>
         </is>
       </c>
     </row>
     <row r="3" ht="80" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>DevelopmentAid</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>IT Helpdesk Technician (Paternity Cover)</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Corporate Services - Copenhagen</t>
-        </is>
-      </c>
+          <t>Procurement of Laboratory Equipment &amp; Consumables for AMR laboratories in India, including delivery, installation, assembly, commissioning of equipment at the installation site and training services</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr"/>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>https://c40.bamboohr.com/careers/701</t>
+          <t>https://www.developmentaid.org/tenders/view/1604282/procurement-of-laboratory-equipment-consumables-for-amr-laboratories-in-india-including-delivery-ins</t>
         </is>
       </c>
     </row>
     <row r="4" ht="80" customHeight="1">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>DevelopmentAid</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Head of Regional Coordination, GCoM</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Global Covenant of Mayors - Brussels, London, Johannesburg, Rio de Janeiro</t>
-        </is>
-      </c>
+          <t>Non-Profit Organizations for Community Mobilization, Capacity Building, Training, Stakeholder Engagement, Convergence, Data Collection and Project Documentation</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr"/>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr"/>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>https://c40.bamboohr.com/careers/702</t>
+          <t>https://www.developmentaid.org/tenders/view/1611610/community-mobilizationawareness-capacity-buildingdata-collectionconvergence</t>
         </is>
       </c>
     </row>
     <row r="5" ht="80" customHeight="1">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>DevelopmentAid</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Manager, Adaptation Finance</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>Climate Finance, Knowledge and Partnerships - Kenya, South Africa</t>
-        </is>
-      </c>
+          <t>RFP-009-IND-2026 RFP for Dissemination and Uptake of the Study ‘AI for Justice</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr"/>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>https://c40.bamboohr.com/careers/703</t>
+          <t>https://www.developmentaid.org/tenders/view/1611609/rfp-009-ind-2026-rfp-for-dissemination-and-uptake-of-the-study-ai-for-justice</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="80" customHeight="1">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>GEF SAGF IV: Growth Equity Fund</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr"/>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr"/>
+      <c r="F6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1611328/gef-sagf-iv-growth-equity-fund</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="80" customHeight="1">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>Consultancy, LiDAR survey of Greater Pamba River Basin, Digital Elevation Model, Flood Modelling and Flood Management Plan</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr"/>
+      <c r="D7" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Climate</t>
+        </is>
+      </c>
+      <c r="E7" s="1" t="inlineStr"/>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1538687/consultancy-lidar-survey-of-greater-pamba-river-basin-digital-elevation-model-flood-modelling-and-fl</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="80" customHeight="1">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Assam Disaster Resilient Hill Roads Development Project - P510002</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr"/>
+      <c r="D8" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Climate</t>
+        </is>
+      </c>
+      <c r="E8" s="1" t="inlineStr"/>
+      <c r="F8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1453551/assam-disaster-resilient-hill-roads-development-project-p510002</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="80" customHeight="1">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>Assam School Education and Adolescent Wellbeing Project (ASAP) - P507865</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr"/>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr"/>
+      <c r="F9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1462940/assam-school-education-and-adolescent-wellbeing-project-asap-p507865</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="80" customHeight="1">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>Terms of Reference for hiring 'Event Management Agency'- PRS Project</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr"/>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr"/>
+      <c r="F10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1611188/terms-of-reference-for-hiring-event-management-agency-prs-project</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="80" customHeight="1">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="inlineStr"/>
+      <c r="D11" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E11" s="1" t="inlineStr"/>
+      <c r="F11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1610971/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="80" customHeight="1">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>Klimaanpassung, Resilienz und Klimafinanzierung im ländlichen Indien / Climate adaptation, resilience and climate finance in rural India</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr"/>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr"/>
+      <c r="F12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1610948/klimaanpassung-resilienz-und-klimafinanzierung-im-landlichen-indien-climate-adaptation-resilience-an</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="80" customHeight="1">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: MPKV Rahuri Development of Crop Weather Calendars, Spectral Libraries, and Irrigation Advisories to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA cluster of Maharashtra</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr"/>
+      <c r="D13" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Climate</t>
+        </is>
+      </c>
+      <c r="E13" s="1" t="inlineStr"/>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1610861/maharashtra-project-on-climate-resilient-agriculture-phase-ii-mpkv-rahuri-development-of-crop-weathe</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="80" customHeight="1">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: Development of Crop Weather Calendars and Databases to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA Clusters of Maharashtra</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr"/>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Climate</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr"/>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1610860/maharashtra-project-on-climate-resilient-agriculture-phase-ii-development-of-crop-weather-calendars</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="80" customHeight="1">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Construction of Primary Water distribution   by laying HDPE/ GI pipes and installing pumps at different Locations in project G.P. 's of Sirmaur District</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="inlineStr"/>
+      <c r="D15" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E15" s="1" t="inlineStr"/>
+      <c r="F15" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1610843/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="80" customHeight="1">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: VNMKV Parbhani - Development of Crop Weather Calendars and Auto Agro-Advisories to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in PoCRA Clusters of Maharashtra</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr"/>
+      <c r="D16" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Climate</t>
+        </is>
+      </c>
+      <c r="E16" s="1" t="inlineStr"/>
+      <c r="F16" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1610856/maharashtra-project-on-climate-resilient-agriculture-phase-ii-vnmkv-parbhani-development-of-crop-wea</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="80" customHeight="1">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: PDKV AKOLA -Development of Crop Weather Calendars, Sowing Advisories and Spectral Response to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA cluster of Maharashtra</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr"/>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Climate</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="inlineStr"/>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1610858/maharashtra-project-on-climate-resilient-agriculture-phase-ii-pdkv-akola-development-of-crop-weather</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="80" customHeight="1">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Construction of Secondary water storage structure for gravity irrigation  Schemes in different G.P.'s under APO Unit Rajgarh of Sirmaur District</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr"/>
+      <c r="D18" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E18" s="1" t="inlineStr"/>
+      <c r="F18" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1610840/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="80" customHeight="1">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing cement concrete check barriers in project GP,s of Sirmour Distt</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr"/>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="inlineStr"/>
+      <c r="F19" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1610839/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="80" customHeight="1">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Renovation of old ponds in Project GP's of Sirmour Distt</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr"/>
+      <c r="D20" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E20" s="1" t="inlineStr"/>
+      <c r="F20" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1610836/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="80" customHeight="1">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>Terms of Reference (tor) for Developing a Visually Appealing Illustrated and Annotated Map Poster (based on Technical Data) Showing the Natural Assets of Delhi Under the Developing 75 Food Gardens in 4 Mega Cities in India Project</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr"/>
+      <c r="D21" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E21" s="1" t="inlineStr"/>
+      <c r="F21" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1610798/terms-of-reference-tor-for-developing-a-visually-appealing-illustrated-and-annotated-map-poster-base</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="80" customHeight="1">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>TA-10488 REG: City Resilience, Affordable Housing, Sustainable Tourism, and Inclusive Economic Growth for Livable Cities - Structural Engineer (58349-002)</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr"/>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="inlineStr"/>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1605066/ta-10488-reg-city-resilience-affordable-housing-sustainable-tourism-and-inclusive-economic-growth-fo</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="80" customHeight="1">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>P179337- Assam State Secondary Healthcare Initiative for Service Delivery Transformation (ASSIST) Project - Procurement Plan (Assam Health Infrastructure Development and Management Society)</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr"/>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Learning, Safety</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr"/>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1080539/india-south-asia-p179337-assam-state-secondary-healthcare-initiative-for-service-delivery-transforma</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="80" customHeight="1">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>55252-001 - Maharashtra Sustainable Climate-Resilient Coastal Protection and Management Project: Procurement Plan</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr"/>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Safety, Climate</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr"/>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1378025/55252-001-maharashtra-sustainable-climate-resilient-coastal-protection-and-management-project-procur</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="80" customHeight="1">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Solarenergie im ländlichen Raum Indiens / Solar energy in rural India</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr"/>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="inlineStr"/>
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1610293/solarenergie-im-landlichen-raum-indiens-solar-energy-in-rural-india</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="80" customHeight="1">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>56300-002 - Madhya Pradesh Renewable Energy Implementation Support: Technical Assistance</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr"/>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr"/>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1610325/56300-002-madhya-pradesh-renewable-energy-implementation-support-technical-assistance</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="80" customHeight="1">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>Call for External Collaborator – The ILO project ‘Strengthening Labour Dispute Resolution in Tamil Nadu’s Electronics Manufacturing Sector’ invites applications from consultants to support develop &amp; deliver capacity building programme for social partners</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr"/>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr"/>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1610322/call-for-external-collaborator-the-ilo-project-strengthening-labour-dispute-resolution-in-tamil-nadu</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="80" customHeight="1">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr"/>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr"/>
+      <c r="F28" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1610299/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="80" customHeight="1">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project: Engagement of Project Management Consultant</t>
+        </is>
+      </c>
+      <c r="C29" s="1" t="inlineStr"/>
+      <c r="D29" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Climate</t>
+        </is>
+      </c>
+      <c r="E29" s="1" t="inlineStr"/>
+      <c r="F29" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1463234/kerala-climate-resilient-agri-value-chain-modernization-kera-project-engagement-of-project-managemen</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="80" customHeight="1">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Pipeline Condition Assessment for Urban Water Supply Networks in Rajasthan (58369-001)</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr"/>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr"/>
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1583942/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-pipeline-condition-assessmen</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="80" customHeight="1">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>Call for External Collaborator – Extending Social Protection to Migrant Workers in an Irregular Situation (South Asia–GCC Corridor)</t>
+        </is>
+      </c>
+      <c r="C31" s="1" t="inlineStr"/>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>Safety</t>
+        </is>
+      </c>
+      <c r="E31" s="1" t="inlineStr"/>
+      <c r="F31" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1610212/call-for-external-collaborator-extending-social-protection-to-migrant-workers-in-an-irregular-situat</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="80" customHeight="1">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
+        </is>
+      </c>
+      <c r="C32" s="1" t="inlineStr"/>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr"/>
+      <c r="F32" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1610092/rfp-odia-annotation-of-student-voice-recordings-from-odisha</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="80" customHeight="1">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
+        </is>
+      </c>
+      <c r="C33" s="1" t="inlineStr"/>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="inlineStr"/>
+      <c r="F33" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1610106/rfp-english-annotation-of-student-voice-recordings-from-gujarat</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="80" customHeight="1">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>EoI - For Empanelment of agencies for Impact Assessment / Evaluation Services under Programmes for Development and Impact</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr"/>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="inlineStr"/>
+      <c r="F34" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1609663/eoi-for-empanelment-of-agencies-for-impact-assessment-evaluation-services-under-programmes-for-devel</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="80" customHeight="1">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr"/>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr"/>
+      <c r="F35" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1609606/rfp-early-stage-impact-assessment-cdri-swp-23-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="80" customHeight="1">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>Mirova Energy Transition Emerging Asia (METEA)</t>
+        </is>
+      </c>
+      <c r="C36" s="1" t="inlineStr"/>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="inlineStr"/>
+      <c r="F36" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1609692/mirova-energy-transition-emerging-asia-metea</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="80" customHeight="1">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
+        </is>
+      </c>
+      <c r="C37" s="1" t="inlineStr"/>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr"/>
+      <c r="F37" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1609597/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="80" customHeight="1">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>Hiring consultancy firm for filing GST, VAT, IGST Refund Claims and related tasks for the ILO New Delhi office</t>
+        </is>
+      </c>
+      <c r="C38" s="1" t="inlineStr"/>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="inlineStr"/>
+      <c r="F38" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1609700/hiring-consultancy-firm-for-filing-gst-vat-igst-refund-claims-and-related-tasks-for-the-ilo-new-delh</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="80" customHeight="1">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>LOAN-4411 IND: Building India's Clean Plant Program - IARI-staff-C S09 IARI staff - virologists and other staff - Lab Assistant (02) (Plant Material Management) (57041-001)</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr"/>
+      <c r="D39" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E39" s="1" t="inlineStr"/>
+      <c r="F39" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1602442/loan-4411-ind-building-indias-clean-plant-program-iari-staff-c-s09-iari-staff-virologists-and-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="80" customHeight="1">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>LOAN-4291 IND: Himachal Pradesh Subtropical Horticulture, Irrigation, and Value Addition Project - CS 10 Communications and digital contents for Information Education and Knowledge Management under HPSHIVA Project (53189-002)</t>
+        </is>
+      </c>
+      <c r="C40" s="1" t="inlineStr"/>
+      <c r="D40" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="E40" s="1" t="inlineStr"/>
+      <c r="F40" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1609118/loan-4291-ind-himachal-pradesh-subtropical-horticulture-irrigation-and-value-addition-project-cs-10</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="80" customHeight="1">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Knowledge and Learning Specialist (National) (58369-001)</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr"/>
+      <c r="D41" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="E41" s="1" t="inlineStr"/>
+      <c r="F41" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1609114/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-knowledge-and-learning-speci</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="80" customHeight="1">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Fecal Sludge Management and Urban Institutional Expert (National) (58369-001)</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr"/>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr"/>
+      <c r="F42" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1609113/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-fecal-sludge-management-and</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="80" customHeight="1">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>Request For Proposal For Hiring of Technical Partner Agency for Designing, Development and Implementation of AI-Enabled Learning and Knowledge Sharing Platform for ISA</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr"/>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr"/>
+      <c r="F43" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1589295/request-for-proposal-for-hiring-of-technical-partner-agency-for-designing-development-and-implementa</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="80" customHeight="1">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>P168633- Kerala Solid Waste Management Project (ULB PGT PALAKKAD)</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr"/>
+      <c r="D44" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Climate</t>
+        </is>
+      </c>
+      <c r="E44" s="1" t="inlineStr"/>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1095526/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-pgt-palakkad-procurement-plan</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="80" customHeight="1">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>P166020 - West Bengal Transport and Logistics Spatial Development Project - Procurement Plan (West Bengal Transport Infrastructure Development Corporation Limited)</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr"/>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Safety</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr"/>
+      <c r="F45" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/485630/india-south-asia-p166020-west-bengal-transport-and-logistics-spatial-development-project-procurement</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="80" customHeight="1">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>P179935- Enhancing Landscape and Ecosystem Management (ELEMENT) Project - Procurement Plan (State Forest Development Agency, Tripura)</t>
+        </is>
+      </c>
+      <c r="C46" s="1" t="inlineStr"/>
+      <c r="D46" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="E46" s="1" t="inlineStr"/>
+      <c r="F46" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1161054/india-south-asia-p179935-enhancing-landscape-and-ecosystem-management-project-procurement-plan-engli</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="80" customHeight="1">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>Request for Proposals (RFP): Consulting Agency for Identifying High Growth Livelihoods and Market Access Challenges</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr"/>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr"/>
+      <c r="F47" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1598904/request-for-proposals-rfp-consulting-agency-for-identifying-high-growth-livelihoods-and-market-acces</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="80" customHeight="1">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>LOAN-4411 IND: Building India's Clean Plant Program - IARI-staff-C S09 IARI staff - virologists and other staff - Young Professional-II (04) (Project Data Management) (57041-001)</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr"/>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr"/>
+      <c r="F48" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1602444/loan-4411-ind-building-indias-clean-plant-program-iari-staff-c-s09-iari-staff-virologists-and-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="80" customHeight="1">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>Integrated Urban Climate Action for Low-Carbon &amp; Resilient Cities (Urban-Act)</t>
+        </is>
+      </c>
+      <c r="C49" s="1" t="inlineStr"/>
+      <c r="D49" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E49" s="1" t="inlineStr"/>
+      <c r="F49" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1608947/integrated-urban-climate-action-for-low-carbon-resilient-cities-urban-act</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="80" customHeight="1">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing dry stone check barriers in project GP,s of Sirmour Distt.</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr"/>
+      <c r="D50" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E50" s="1" t="inlineStr"/>
+      <c r="F50" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1608977/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="80" customHeight="1">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing crate wire check barriers in project GP,s of Sirmour Distt.</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr"/>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr"/>
+      <c r="F51" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1579382/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="80" customHeight="1">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>TA-9849 IND: TA 9849-IND: India Urban and Water Projects Support Facility (53067-002) - Environment Safeguards Expert (53067-002)</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr"/>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="inlineStr"/>
+      <c r="F52" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1608441/ta-9849-ind-ta-9849-ind-india-urban-and-water-projects-support-facility-53067-002-environment-safegu</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="80" customHeight="1">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>TA-10721 IND: Support for Development of Sustainable Metro Rail Projects for Nagpur Metro Rail Project (Phase 2) - B/CS-1 Consulting services to design and develop a large battery storage system of 8 MW per day capacity and undertake technology demonstration pilot projects at two locations with 15 years of operation and (59279-001)</t>
+        </is>
+      </c>
+      <c r="C53" s="1" t="inlineStr"/>
+      <c r="D53" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr"/>
+      <c r="F53" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1608429/ta-10721-ind-support-for-development-of-sustainable-metro-rail-projects-for-nagpur-metro-rail-projec</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" ht="80" customHeight="1">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>81322849 - Capacity development and organisational support for convergent implementation of measures to improve water security in rural India</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr"/>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Learning, Safety</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr"/>
+      <c r="F54" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1593414/81322849-capacity-development-and-organisational-support-for-convergent-implementation-of-measures-t</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="80" customHeight="1">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr">
+        <is>
+          <t>Consulting, Feasibility Study (Climate Resilience and Ecosystem Services in Forest Landscapes)</t>
+        </is>
+      </c>
+      <c r="C55" s="1" t="inlineStr"/>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Climate</t>
+        </is>
+      </c>
+      <c r="E55" s="1" t="inlineStr"/>
+      <c r="F55" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1608627/consulting-feasibility-study-climate-resilience-and-ecosystem-services-in-forest-landscapes</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="80" customHeight="1">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>LOAN-4322 IND: Enhancing Connectivity and Sustainability in Bihar Roads Project - 1 Expression of Interest for procurement of services for survey, data collection, design, development, implementation, operation and maintenance of road asset management system (54364-001)</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr"/>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Learning, Climate</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="inlineStr"/>
+      <c r="F56" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1605060/loan-4322-ind-enhancing-connectivity-and-sustainability-in-bihar-roads-project-1-expression-of-inter</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="80" customHeight="1">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TA-10469 IND: Knowledge and Capacity Building for Catalyzing Green Growth and Strengthening Climate Resilience - Climate Risk Assessment and Bamboo Resource Mapping for Climate Strategies and Agriculture Investment Planning in Maharashtra, India (58389-001)</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr"/>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Climate</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="inlineStr"/>
+      <c r="F57" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1603067/ta-10469-ind-knowledge-and-capacity-building-for-catalyzing-green-growth-and-strengthening-climate-r</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="80" customHeight="1">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>Support in the Implementation of Basin Management Measures and District Ganga Plans</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr"/>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="inlineStr"/>
+      <c r="F58" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1550511/support-in-the-implementation-of-basin-management-measures-and-district-ganga-plans</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="80" customHeight="1">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>Expression of Interest for Selection of Business Associate(s) / Partner(s)/ JV / Consortium / partnership, for exploring Consulting / OEM assignments in Middle East, Africa, Europe, India and Southeast Asian Countries.</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr"/>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="inlineStr"/>
+      <c r="F59" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1608411/expression-of-interest-for-selection-of-business-associates-partners-jv-consortium-partnership-for-e</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="80" customHeight="1">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>43253-025 - Karnataka Integrated Urban Water Management Investment Program - Tranche 1</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr"/>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="inlineStr"/>
+      <c r="F60" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1608368/43253-025-karnataka-integrated-urban-water-management-investment-program-tranche-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="80" customHeight="1">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>Punjab Municipal Services Improvement Project: Direct RFP for hiring of Agency for Communication, Outreach, Digital Media Management &amp; Stakeholders Engagement in Municipal Corporation Amritsar and Ludhiana under PMSIP</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr"/>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="inlineStr"/>
+      <c r="F61" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1606067/punjab-municipal-services-improvement-project-direct-rfp-for-hiring-of-agency-for-communication-outr</t>
         </is>
       </c>
     </row>

--- a/output/Combined.xlsx
+++ b/output/Combined.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,24 +495,28 @@
     <row r="3" ht="80" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>DevelopmentAid</t>
+          <t>C40</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Procurement of Laboratory Equipment &amp; Consumables for AMR laboratories in India, including delivery, installation, assembly, commissioning of equipment at the installation site and training services</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr"/>
+          <t>Media and Communications Senior Manager, GCoM</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Global Covenant of Mayors - Brazil, South Africa</t>
+        </is>
+      </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr"/>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1604282/procurement-of-laboratory-equipment-consumables-for-amr-laboratories-in-india-including-delivery-ins</t>
+          <t>https://c40.bamboohr.com/careers/705</t>
         </is>
       </c>
     </row>
@@ -524,19 +528,19 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Non-Profit Organizations for Community Mobilization, Capacity Building, Training, Stakeholder Engagement, Convergence, Data Collection and Project Documentation</t>
+          <t>Printing of Collaterals’ for State Refresher Training</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr"/>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr"/>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611610/community-mobilizationawareness-capacity-buildingdata-collectionconvergence</t>
+          <t>https://www.developmentaid.org/tenders/view/1612222/printing-of-collaterals-for-state-refresher-training</t>
         </is>
       </c>
     </row>
@@ -548,19 +552,19 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>RFP-009-IND-2026 RFP for Dissemination and Uptake of the Study ‘AI for Justice</t>
+          <t>Deutsch#indisches Programm für Green Skills IGGSP / German-Indian Green Skills Programme IGGSP</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr"/>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611609/rfp-009-ind-2026-rfp-for-dissemination-and-uptake-of-the-study-ai-for-justice</t>
+          <t>https://www.developmentaid.org/tenders/view/1612146/deutschindisches-programm-fur-green-skills-iggsp-german-indian-green-skills-programme-iggsp</t>
         </is>
       </c>
     </row>
@@ -572,19 +576,19 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>GEF SAGF IV: Growth Equity Fund</t>
+          <t>EoI – Mobile Medical Units, Ai-Enabled Tb Screening &amp; Supply Of Medical And Nutritional Support</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr"/>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr"/>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611328/gef-sagf-iv-growth-equity-fund</t>
+          <t>https://www.developmentaid.org/tenders/view/1612050/eoi-mobile-medical-units-ai-enabled-tb-screening-supply-of-medical-and-nutritional-support</t>
         </is>
       </c>
     </row>
@@ -596,19 +600,19 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Consultancy, LiDAR survey of Greater Pamba River Basin, Digital Elevation Model, Flood Modelling and Flood Management Plan</t>
+          <t>RFP - Onboarding Agency for Revamping Assam LMIS Dashboard</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr"/>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1538687/consultancy-lidar-survey-of-greater-pamba-river-basin-digital-elevation-model-flood-modelling-and-fl</t>
+          <t>https://www.developmentaid.org/tenders/view/1612059/rfp-onboarding-agency-for-revamping-assam-lmis-dashboard</t>
         </is>
       </c>
     </row>
@@ -620,19 +624,19 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Assam Disaster Resilient Hill Roads Development Project - P510002</t>
+          <t>RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in MP, MH and TG</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr"/>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance, Learning, Climate</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr"/>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1453551/assam-disaster-resilient-hill-roads-development-project-p510002</t>
+          <t>https://www.developmentaid.org/tenders/view/1612065/rfp-long-term-monitoring-evaluation-me-partnership-for-environment-and-education-programme-in-mp-mh</t>
         </is>
       </c>
     </row>
@@ -644,19 +648,19 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Assam School Education and Adolescent Wellbeing Project (ASAP) - P507865</t>
+          <t>P170873- Second Dam Rehabilitation and Improvement Project - Procurement Plan (Bhakra Beas Management Board)</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr"/>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>Learning, Safety</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr"/>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1462940/assam-school-education-and-adolescent-wellbeing-project-asap-p507865</t>
+          <t>https://www.developmentaid.org/tenders/view/1611929/p170873-second-dam-rehabilitation-and-improvement-project-procurement-plan-bhakra-beas-management-bo</t>
         </is>
       </c>
     </row>
@@ -668,19 +672,19 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Terms of Reference for hiring 'Event Management Agency'- PRS Project</t>
+          <t>P178254- Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project (Agriculture Development and Farmers’ Welfare Department.)</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr"/>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr"/>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611188/terms-of-reference-for-hiring-event-management-agency-prs-project</t>
+          <t>https://www.developmentaid.org/tenders/view/1393178/p178254-kerala-climate-resilient-agri-value-chain-modernization-kera-project-agriculture-development</t>
         </is>
       </c>
     </row>
@@ -692,7 +696,7 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
+          <t>P179749- Uttarakhand Disaster Preparedness and Resilience Project - Procurement Plan (PIU- Rural Works Department)</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr"/>
@@ -704,7 +708,7 @@
       <c r="E11" s="1" t="inlineStr"/>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610971/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
+          <t>https://www.developmentaid.org/tenders/view/1485844/p179749-uttarakhand-disaster-preparedness-and-resilience-project-procurement-plan-piu-rural-works-de</t>
         </is>
       </c>
     </row>
@@ -716,19 +720,19 @@
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Klimaanpassung, Resilienz und Klimafinanzierung im ländlichen Indien / Climate adaptation, resilience and climate finance in rural India</t>
+          <t>P179189- Tamil Nadu Climate Resilient Urban Development Program - Procurement Plan (Tamil Nadu Urban Infrastructure Financial Services Limited)</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr"/>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr"/>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610948/klimaanpassung-resilienz-und-klimafinanzierung-im-landlichen-indien-climate-adaptation-resilience-an</t>
+          <t>https://www.developmentaid.org/tenders/view/1189983/india-south-asia-p179189-tamil-nadu-climate-resilient-urban-development-program-tamil-nadu-urban-inf</t>
         </is>
       </c>
     </row>
@@ -740,19 +744,19 @@
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: MPKV Rahuri Development of Crop Weather Calendars, Spectral Libraries, and Irrigation Advisories to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA cluster of Maharashtra</t>
+          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Capacity Building Coordination Specialist (Internationl) (58369-001)</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr"/>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr"/>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610861/maharashtra-project-on-climate-resilient-agriculture-phase-ii-mpkv-rahuri-development-of-crop-weathe</t>
+          <t>https://www.developmentaid.org/tenders/view/1611636/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-capacity-building-coordinati</t>
         </is>
       </c>
     </row>
@@ -764,19 +768,19 @@
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: Development of Crop Weather Calendars and Databases to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA Clusters of Maharashtra</t>
+          <t>Procurement of Laboratory Equipment &amp; Consumables for AMR laboratories in India, including delivery, installation, assembly, commissioning of equipment at the installation site and training services</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr"/>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr"/>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610860/maharashtra-project-on-climate-resilient-agriculture-phase-ii-development-of-crop-weather-calendars</t>
+          <t>https://www.developmentaid.org/tenders/view/1604282/procurement-of-laboratory-equipment-consumables-for-amr-laboratories-in-india-including-delivery-ins</t>
         </is>
       </c>
     </row>
@@ -788,19 +792,19 @@
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Construction of Primary Water distribution   by laying HDPE/ GI pipes and installing pumps at different Locations in project G.P. 's of Sirmaur District</t>
+          <t>SC 125823 IND: Karnataka Integrated Urban Water Management Investment Program - Tranche 2 - Financial Management Specialist</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr"/>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr"/>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610843/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1589870/sc-125823-ind-karnataka-integrated-urban-water-management-investment-program-tranche-2</t>
         </is>
       </c>
     </row>
@@ -812,19 +816,19 @@
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: VNMKV Parbhani - Development of Crop Weather Calendars and Auto Agro-Advisories to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in PoCRA Clusters of Maharashtra</t>
+          <t>P163533- Odisha Integrated Irrigation Project for Climate Resilient Agriculture - Procurement Plan (Odisha community Tank Development and Management Society)</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr"/>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance, Learning, Climate</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr"/>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610856/maharashtra-project-on-climate-resilient-agriculture-phase-ii-vnmkv-parbhani-development-of-crop-wea</t>
+          <t>https://www.developmentaid.org/tenders/view/484340/india-south-asia-p163533-odisha-integrated-irrigation-project-for-climate-resilient-agriculture-proc</t>
         </is>
       </c>
     </row>
@@ -836,19 +840,19 @@
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: PDKV AKOLA -Development of Crop Weather Calendars, Sowing Advisories and Spectral Response to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA cluster of Maharashtra</t>
+          <t>Non-Profit Organizations for Community Mobilization, Capacity Building, Training, Stakeholder Engagement, Convergence, Data Collection and Project Documentation</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr"/>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr"/>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610858/maharashtra-project-on-climate-resilient-agriculture-phase-ii-pdkv-akola-development-of-crop-weather</t>
+          <t>https://www.developmentaid.org/tenders/view/1611610/community-mobilizationawareness-capacity-buildingdata-collectionconvergence</t>
         </is>
       </c>
     </row>
@@ -860,19 +864,19 @@
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Construction of Secondary water storage structure for gravity irrigation  Schemes in different G.P.'s under APO Unit Rajgarh of Sirmaur District</t>
+          <t>RFP-009-IND-2026 RFP for Dissemination and Uptake of the Study ‘AI for Justice</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr"/>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr"/>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610840/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1611609/rfp-009-ind-2026-rfp-for-dissemination-and-uptake-of-the-study-ai-for-justice</t>
         </is>
       </c>
     </row>
@@ -884,19 +888,19 @@
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing cement concrete check barriers in project GP,s of Sirmour Distt</t>
+          <t>GEF SAGF IV: Growth Equity Fund</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr"/>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr"/>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610839/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1611328/gef-sagf-iv-growth-equity-fund</t>
         </is>
       </c>
     </row>
@@ -908,19 +912,19 @@
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Renovation of old ponds in Project GP's of Sirmour Distt</t>
+          <t>Consultancy, LiDAR survey of Greater Pamba River Basin, Digital Elevation Model, Flood Modelling and Flood Management Plan</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr"/>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr"/>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610836/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1538687/consultancy-lidar-survey-of-greater-pamba-river-basin-digital-elevation-model-flood-modelling-and-fl</t>
         </is>
       </c>
     </row>
@@ -932,19 +936,19 @@
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Terms of Reference (tor) for Developing a Visually Appealing Illustrated and Annotated Map Poster (based on Technical Data) Showing the Natural Assets of Delhi Under the Developing 75 Food Gardens in 4 Mega Cities in India Project</t>
+          <t>Assam Disaster Resilient Hill Roads Development Project - P510002</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr"/>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr"/>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610798/terms-of-reference-tor-for-developing-a-visually-appealing-illustrated-and-annotated-map-poster-base</t>
+          <t>https://www.developmentaid.org/tenders/view/1453551/assam-disaster-resilient-hill-roads-development-project-p510002</t>
         </is>
       </c>
     </row>
@@ -956,19 +960,19 @@
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>TA-10488 REG: City Resilience, Affordable Housing, Sustainable Tourism, and Inclusive Economic Growth for Livable Cities - Structural Engineer (58349-002)</t>
+          <t>Assam School Education and Adolescent Wellbeing Project (ASAP) - P507865</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr"/>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning, Safety</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr"/>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1605066/ta-10488-reg-city-resilience-affordable-housing-sustainable-tourism-and-inclusive-economic-growth-fo</t>
+          <t>https://www.developmentaid.org/tenders/view/1462940/assam-school-education-and-adolescent-wellbeing-project-asap-p507865</t>
         </is>
       </c>
     </row>
@@ -980,19 +984,19 @@
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>P179337- Assam State Secondary Healthcare Initiative for Service Delivery Transformation (ASSIST) Project - Procurement Plan (Assam Health Infrastructure Development and Management Society)</t>
+          <t>Terms of Reference for hiring 'Event Management Agency'- PRS Project</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr"/>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Safety</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr"/>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1080539/india-south-asia-p179337-assam-state-secondary-healthcare-initiative-for-service-delivery-transforma</t>
+          <t>https://www.developmentaid.org/tenders/view/1611188/terms-of-reference-for-hiring-event-management-agency-prs-project</t>
         </is>
       </c>
     </row>
@@ -1004,19 +1008,19 @@
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>55252-001 - Maharashtra Sustainable Climate-Resilient Coastal Protection and Management Project: Procurement Plan</t>
+          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr"/>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>Governance, Safety, Climate</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr"/>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1378025/55252-001-maharashtra-sustainable-climate-resilient-coastal-protection-and-management-project-procur</t>
+          <t>https://www.developmentaid.org/tenders/view/1610971/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
         </is>
       </c>
     </row>
@@ -1028,7 +1032,7 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Solarenergie im ländlichen Raum Indiens / Solar energy in rural India</t>
+          <t>Klimaanpassung, Resilienz und Klimafinanzierung im ländlichen Indien / Climate adaptation, resilience and climate finance in rural India</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr"/>
@@ -1040,7 +1044,7 @@
       <c r="E25" s="1" t="inlineStr"/>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610293/solarenergie-im-landlichen-raum-indiens-solar-energy-in-rural-india</t>
+          <t>https://www.developmentaid.org/tenders/view/1610948/klimaanpassung-resilienz-und-klimafinanzierung-im-landlichen-indien-climate-adaptation-resilience-an</t>
         </is>
       </c>
     </row>
@@ -1052,19 +1056,19 @@
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>56300-002 - Madhya Pradesh Renewable Energy Implementation Support: Technical Assistance</t>
+          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: MPKV Rahuri Development of Crop Weather Calendars, Spectral Libraries, and Irrigation Advisories to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA cluster of Maharashtra</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr"/>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr"/>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610325/56300-002-madhya-pradesh-renewable-energy-implementation-support-technical-assistance</t>
+          <t>https://www.developmentaid.org/tenders/view/1610861/maharashtra-project-on-climate-resilient-agriculture-phase-ii-mpkv-rahuri-development-of-crop-weathe</t>
         </is>
       </c>
     </row>
@@ -1076,19 +1080,19 @@
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Call for External Collaborator – The ILO project ‘Strengthening Labour Dispute Resolution in Tamil Nadu’s Electronics Manufacturing Sector’ invites applications from consultants to support develop &amp; deliver capacity building programme for social partners</t>
+          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: Development of Crop Weather Calendars and Databases to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA Clusters of Maharashtra</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr"/>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr"/>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610322/call-for-external-collaborator-the-ilo-project-strengthening-labour-dispute-resolution-in-tamil-nadu</t>
+          <t>https://www.developmentaid.org/tenders/view/1610860/maharashtra-project-on-climate-resilient-agriculture-phase-ii-development-of-crop-weather-calendars</t>
         </is>
       </c>
     </row>
@@ -1100,7 +1104,7 @@
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Construction of Primary Water distribution   by laying HDPE/ GI pipes and installing pumps at different Locations in project G.P. 's of Sirmaur District</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr"/>
@@ -1112,7 +1116,7 @@
       <c r="E28" s="1" t="inlineStr"/>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610299/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
+          <t>https://www.developmentaid.org/tenders/view/1610843/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
         </is>
       </c>
     </row>
@@ -1124,19 +1128,19 @@
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project: Engagement of Project Management Consultant</t>
+          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: VNMKV Parbhani - Development of Crop Weather Calendars and Auto Agro-Advisories to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in PoCRA Clusters of Maharashtra</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr"/>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr"/>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1463234/kerala-climate-resilient-agri-value-chain-modernization-kera-project-engagement-of-project-managemen</t>
+          <t>https://www.developmentaid.org/tenders/view/1610856/maharashtra-project-on-climate-resilient-agriculture-phase-ii-vnmkv-parbhani-development-of-crop-wea</t>
         </is>
       </c>
     </row>
@@ -1148,19 +1152,19 @@
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Pipeline Condition Assessment for Urban Water Supply Networks in Rajasthan (58369-001)</t>
+          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: PDKV AKOLA -Development of Crop Weather Calendars, Sowing Advisories and Spectral Response to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA cluster of Maharashtra</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr"/>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr"/>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1583942/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-pipeline-condition-assessmen</t>
+          <t>https://www.developmentaid.org/tenders/view/1610858/maharashtra-project-on-climate-resilient-agriculture-phase-ii-pdkv-akola-development-of-crop-weather</t>
         </is>
       </c>
     </row>
@@ -1172,19 +1176,19 @@
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Call for External Collaborator – Extending Social Protection to Migrant Workers in an Irregular Situation (South Asia–GCC Corridor)</t>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Construction of Secondary water storage structure for gravity irrigation  Schemes in different G.P.'s under APO Unit Rajgarh of Sirmaur District</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr"/>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr"/>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610212/call-for-external-collaborator-extending-social-protection-to-migrant-workers-in-an-irregular-situat</t>
+          <t>https://www.developmentaid.org/tenders/view/1610840/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
         </is>
       </c>
     </row>
@@ -1196,19 +1200,19 @@
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing cement concrete check barriers in project GP,s of Sirmour Distt</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr"/>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr"/>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610092/rfp-odia-annotation-of-student-voice-recordings-from-odisha</t>
+          <t>https://www.developmentaid.org/tenders/view/1610839/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
         </is>
       </c>
     </row>
@@ -1220,19 +1224,19 @@
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Renovation of old ponds in Project GP's of Sirmour Distt</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr"/>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr"/>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610106/rfp-english-annotation-of-student-voice-recordings-from-gujarat</t>
+          <t>https://www.developmentaid.org/tenders/view/1610836/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
         </is>
       </c>
     </row>
@@ -1244,19 +1248,19 @@
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>EoI - For Empanelment of agencies for Impact Assessment / Evaluation Services under Programmes for Development and Impact</t>
+          <t>Terms of Reference (tor) for Developing a Visually Appealing Illustrated and Annotated Map Poster (based on Technical Data) Showing the Natural Assets of Delhi Under the Developing 75 Food Gardens in 4 Mega Cities in India Project</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr"/>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr"/>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609663/eoi-for-empanelment-of-agencies-for-impact-assessment-evaluation-services-under-programmes-for-devel</t>
+          <t>https://www.developmentaid.org/tenders/view/1610798/terms-of-reference-tor-for-developing-a-visually-appealing-illustrated-and-annotated-map-poster-base</t>
         </is>
       </c>
     </row>
@@ -1268,19 +1272,19 @@
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
+          <t>TA-10488 REG: City Resilience, Affordable Housing, Sustainable Tourism, and Inclusive Economic Growth for Livable Cities - Structural Engineer (58349-002)</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr"/>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr"/>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609606/rfp-early-stage-impact-assessment-cdri-swp-23-26</t>
+          <t>https://www.developmentaid.org/tenders/view/1605066/ta-10488-reg-city-resilience-affordable-housing-sustainable-tourism-and-inclusive-economic-growth-fo</t>
         </is>
       </c>
     </row>
@@ -1292,19 +1296,19 @@
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Mirova Energy Transition Emerging Asia (METEA)</t>
+          <t>P179337- Assam State Secondary Healthcare Initiative for Service Delivery Transformation (ASSIST) Project - Procurement Plan (Assam Health Infrastructure Development and Management Society)</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr"/>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning, Safety</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr"/>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609692/mirova-energy-transition-emerging-asia-metea</t>
+          <t>https://www.developmentaid.org/tenders/view/1080539/india-south-asia-p179337-assam-state-secondary-healthcare-initiative-for-service-delivery-transforma</t>
         </is>
       </c>
     </row>
@@ -1316,19 +1320,19 @@
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
+          <t>55252-001 - Maharashtra Sustainable Climate-Resilient Coastal Protection and Management Project: Procurement Plan</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr"/>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Safety, Climate</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr"/>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609597/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
+          <t>https://www.developmentaid.org/tenders/view/1378025/55252-001-maharashtra-sustainable-climate-resilient-coastal-protection-and-management-project-procur</t>
         </is>
       </c>
     </row>
@@ -1340,19 +1344,19 @@
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>Hiring consultancy firm for filing GST, VAT, IGST Refund Claims and related tasks for the ILO New Delhi office</t>
+          <t>Solarenergie im ländlichen Raum Indiens / Solar energy in rural India</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr"/>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr"/>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609700/hiring-consultancy-firm-for-filing-gst-vat-igst-refund-claims-and-related-tasks-for-the-ilo-new-delh</t>
+          <t>https://www.developmentaid.org/tenders/view/1610293/solarenergie-im-landlichen-raum-indiens-solar-energy-in-rural-india</t>
         </is>
       </c>
     </row>
@@ -1364,19 +1368,19 @@
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4411 IND: Building India's Clean Plant Program - IARI-staff-C S09 IARI staff - virologists and other staff - Lab Assistant (02) (Plant Material Management) (57041-001)</t>
+          <t>56300-002 - Madhya Pradesh Renewable Energy Implementation Support: Technical Assistance</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr"/>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr"/>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1602442/loan-4411-ind-building-indias-clean-plant-program-iari-staff-c-s09-iari-staff-virologists-and-other</t>
+          <t>https://www.developmentaid.org/tenders/view/1610325/56300-002-madhya-pradesh-renewable-energy-implementation-support-technical-assistance</t>
         </is>
       </c>
     </row>
@@ -1388,19 +1392,19 @@
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4291 IND: Himachal Pradesh Subtropical Horticulture, Irrigation, and Value Addition Project - CS 10 Communications and digital contents for Information Education and Knowledge Management under HPSHIVA Project (53189-002)</t>
+          <t>Call for External Collaborator – The ILO project ‘Strengthening Labour Dispute Resolution in Tamil Nadu’s Electronics Manufacturing Sector’ invites applications from consultants to support develop &amp; deliver capacity building programme for social partners</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr"/>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr"/>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609118/loan-4291-ind-himachal-pradesh-subtropical-horticulture-irrigation-and-value-addition-project-cs-10</t>
+          <t>https://www.developmentaid.org/tenders/view/1610322/call-for-external-collaborator-the-ilo-project-strengthening-labour-dispute-resolution-in-tamil-nadu</t>
         </is>
       </c>
     </row>
@@ -1412,19 +1416,19 @@
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Knowledge and Learning Specialist (National) (58369-001)</t>
+          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr"/>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr"/>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609114/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-knowledge-and-learning-speci</t>
+          <t>https://www.developmentaid.org/tenders/view/1610299/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
         </is>
       </c>
     </row>
@@ -1436,19 +1440,19 @@
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Fecal Sludge Management and Urban Institutional Expert (National) (58369-001)</t>
+          <t>Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project: Engagement of Project Management Consultant</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr"/>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr"/>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609113/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-fecal-sludge-management-and</t>
+          <t>https://www.developmentaid.org/tenders/view/1463234/kerala-climate-resilient-agri-value-chain-modernization-kera-project-engagement-of-project-managemen</t>
         </is>
       </c>
     </row>
@@ -1460,19 +1464,19 @@
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>Request For Proposal For Hiring of Technical Partner Agency for Designing, Development and Implementation of AI-Enabled Learning and Knowledge Sharing Platform for ISA</t>
+          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Pipeline Condition Assessment for Urban Water Supply Networks in Rajasthan (58369-001)</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr"/>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr"/>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1589295/request-for-proposal-for-hiring-of-technical-partner-agency-for-designing-development-and-implementa</t>
+          <t>https://www.developmentaid.org/tenders/view/1583942/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-pipeline-condition-assessmen</t>
         </is>
       </c>
     </row>
@@ -1484,19 +1488,19 @@
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>P168633- Kerala Solid Waste Management Project (ULB PGT PALAKKAD)</t>
+          <t>Call for External Collaborator – Extending Social Protection to Migrant Workers in an Irregular Situation (South Asia–GCC Corridor)</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr"/>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr"/>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1095526/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-pgt-palakkad-procurement-plan</t>
+          <t>https://www.developmentaid.org/tenders/view/1610212/call-for-external-collaborator-extending-social-protection-to-migrant-workers-in-an-irregular-situat</t>
         </is>
       </c>
     </row>
@@ -1508,19 +1512,19 @@
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>P166020 - West Bengal Transport and Logistics Spatial Development Project - Procurement Plan (West Bengal Transport Infrastructure Development Corporation Limited)</t>
+          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr"/>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>Learning, Safety</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr"/>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/485630/india-south-asia-p166020-west-bengal-transport-and-logistics-spatial-development-project-procurement</t>
+          <t>https://www.developmentaid.org/tenders/view/1610092/rfp-odia-annotation-of-student-voice-recordings-from-odisha</t>
         </is>
       </c>
     </row>
@@ -1532,19 +1536,19 @@
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>P179935- Enhancing Landscape and Ecosystem Management (ELEMENT) Project - Procurement Plan (State Forest Development Agency, Tripura)</t>
+          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr"/>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr"/>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1161054/india-south-asia-p179935-enhancing-landscape-and-ecosystem-management-project-procurement-plan-engli</t>
+          <t>https://www.developmentaid.org/tenders/view/1610106/rfp-english-annotation-of-student-voice-recordings-from-gujarat</t>
         </is>
       </c>
     </row>
@@ -1556,19 +1560,19 @@
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>Request for Proposals (RFP): Consulting Agency for Identifying High Growth Livelihoods and Market Access Challenges</t>
+          <t>EoI - For Empanelment of agencies for Impact Assessment / Evaluation Services under Programmes for Development and Impact</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr"/>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr"/>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1598904/request-for-proposals-rfp-consulting-agency-for-identifying-high-growth-livelihoods-and-market-acces</t>
+          <t>https://www.developmentaid.org/tenders/view/1609663/eoi-for-empanelment-of-agencies-for-impact-assessment-evaluation-services-under-programmes-for-devel</t>
         </is>
       </c>
     </row>
@@ -1580,7 +1584,7 @@
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4411 IND: Building India's Clean Plant Program - IARI-staff-C S09 IARI staff - virologists and other staff - Young Professional-II (04) (Project Data Management) (57041-001)</t>
+          <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr"/>
@@ -1592,7 +1596,7 @@
       <c r="E48" s="1" t="inlineStr"/>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1602444/loan-4411-ind-building-indias-clean-plant-program-iari-staff-c-s09-iari-staff-virologists-and-other</t>
+          <t>https://www.developmentaid.org/tenders/view/1609606/rfp-early-stage-impact-assessment-cdri-swp-23-26</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1608,7 @@
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>Integrated Urban Climate Action for Low-Carbon &amp; Resilient Cities (Urban-Act)</t>
+          <t>Mirova Energy Transition Emerging Asia (METEA)</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr"/>
@@ -1616,7 +1620,7 @@
       <c r="E49" s="1" t="inlineStr"/>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608947/integrated-urban-climate-action-for-low-carbon-resilient-cities-urban-act</t>
+          <t>https://www.developmentaid.org/tenders/view/1609692/mirova-energy-transition-emerging-asia-metea</t>
         </is>
       </c>
     </row>
@@ -1628,7 +1632,7 @@
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing dry stone check barriers in project GP,s of Sirmour Distt.</t>
+          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr"/>
@@ -1640,7 +1644,7 @@
       <c r="E50" s="1" t="inlineStr"/>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608977/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1609597/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
         </is>
       </c>
     </row>
@@ -1652,19 +1656,19 @@
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing crate wire check barriers in project GP,s of Sirmour Distt.</t>
+          <t>Hiring consultancy firm for filing GST, VAT, IGST Refund Claims and related tasks for the ILO New Delhi office</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr"/>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr"/>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1579382/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1609700/hiring-consultancy-firm-for-filing-gst-vat-igst-refund-claims-and-related-tasks-for-the-ilo-new-delh</t>
         </is>
       </c>
     </row>
@@ -1676,19 +1680,19 @@
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>TA-9849 IND: TA 9849-IND: India Urban and Water Projects Support Facility (53067-002) - Environment Safeguards Expert (53067-002)</t>
+          <t>LOAN-4411 IND: Building India's Clean Plant Program - IARI-staff-C S09 IARI staff - virologists and other staff - Lab Assistant (02) (Plant Material Management) (57041-001)</t>
         </is>
       </c>
       <c r="C52" s="1" t="inlineStr"/>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr"/>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608441/ta-9849-ind-ta-9849-ind-india-urban-and-water-projects-support-facility-53067-002-environment-safegu</t>
+          <t>https://www.developmentaid.org/tenders/view/1602442/loan-4411-ind-building-indias-clean-plant-program-iari-staff-c-s09-iari-staff-virologists-and-other</t>
         </is>
       </c>
     </row>
@@ -1700,7 +1704,7 @@
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>TA-10721 IND: Support for Development of Sustainable Metro Rail Projects for Nagpur Metro Rail Project (Phase 2) - B/CS-1 Consulting services to design and develop a large battery storage system of 8 MW per day capacity and undertake technology demonstration pilot projects at two locations with 15 years of operation and (59279-001)</t>
+          <t>LOAN-4291 IND: Himachal Pradesh Subtropical Horticulture, Irrigation, and Value Addition Project - CS 10 Communications and digital contents for Information Education and Knowledge Management under HPSHIVA Project (53189-002)</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr"/>
@@ -1712,7 +1716,7 @@
       <c r="E53" s="1" t="inlineStr"/>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608429/ta-10721-ind-support-for-development-of-sustainable-metro-rail-projects-for-nagpur-metro-rail-projec</t>
+          <t>https://www.developmentaid.org/tenders/view/1609118/loan-4291-ind-himachal-pradesh-subtropical-horticulture-irrigation-and-value-addition-project-cs-10</t>
         </is>
       </c>
     </row>
@@ -1724,19 +1728,19 @@
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>81322849 - Capacity development and organisational support for convergent implementation of measures to improve water security in rural India</t>
+          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Knowledge and Learning Specialist (National) (58369-001)</t>
         </is>
       </c>
       <c r="C54" s="1" t="inlineStr"/>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Safety</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr"/>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1593414/81322849-capacity-development-and-organisational-support-for-convergent-implementation-of-measures-t</t>
+          <t>https://www.developmentaid.org/tenders/view/1609114/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-knowledge-and-learning-speci</t>
         </is>
       </c>
     </row>
@@ -1748,19 +1752,19 @@
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>Consulting, Feasibility Study (Climate Resilience and Ecosystem Services in Forest Landscapes)</t>
+          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Fecal Sludge Management and Urban Institutional Expert (National) (58369-001)</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr"/>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr"/>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608627/consulting-feasibility-study-climate-resilience-and-ecosystem-services-in-forest-landscapes</t>
+          <t>https://www.developmentaid.org/tenders/view/1609113/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-fecal-sludge-management-and</t>
         </is>
       </c>
     </row>
@@ -1772,19 +1776,19 @@
       </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4322 IND: Enhancing Connectivity and Sustainability in Bihar Roads Project - 1 Expression of Interest for procurement of services for survey, data collection, design, development, implementation, operation and maintenance of road asset management system (54364-001)</t>
+          <t>Request For Proposal For Hiring of Technical Partner Agency for Designing, Development and Implementation of AI-Enabled Learning and Knowledge Sharing Platform for ISA</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr"/>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr"/>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1605060/loan-4322-ind-enhancing-connectivity-and-sustainability-in-bihar-roads-project-1-expression-of-inter</t>
+          <t>https://www.developmentaid.org/tenders/view/1589295/request-for-proposal-for-hiring-of-technical-partner-agency-for-designing-development-and-implementa</t>
         </is>
       </c>
     </row>
@@ -1796,7 +1800,7 @@
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>TA-10469 IND: Knowledge and Capacity Building for Catalyzing Green Growth and Strengthening Climate Resilience - Climate Risk Assessment and Bamboo Resource Mapping for Climate Strategies and Agriculture Investment Planning in Maharashtra, India (58389-001)</t>
+          <t>P168633- Kerala Solid Waste Management Project (ULB PGT PALAKKAD)</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr"/>
@@ -1808,7 +1812,7 @@
       <c r="E57" s="1" t="inlineStr"/>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1603067/ta-10469-ind-knowledge-and-capacity-building-for-catalyzing-green-growth-and-strengthening-climate-r</t>
+          <t>https://www.developmentaid.org/tenders/view/1095526/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-pgt-palakkad-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -1820,19 +1824,19 @@
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>Support in the Implementation of Basin Management Measures and District Ganga Plans</t>
+          <t>P166020 - West Bengal Transport and Logistics Spatial Development Project - Procurement Plan (West Bengal Transport Infrastructure Development Corporation Limited)</t>
         </is>
       </c>
       <c r="C58" s="1" t="inlineStr"/>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning, Safety</t>
         </is>
       </c>
       <c r="E58" s="1" t="inlineStr"/>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1550511/support-in-the-implementation-of-basin-management-measures-and-district-ganga-plans</t>
+          <t>https://www.developmentaid.org/tenders/view/485630/india-south-asia-p166020-west-bengal-transport-and-logistics-spatial-development-project-procurement</t>
         </is>
       </c>
     </row>
@@ -1844,19 +1848,19 @@
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>Expression of Interest for Selection of Business Associate(s) / Partner(s)/ JV / Consortium / partnership, for exploring Consulting / OEM assignments in Middle East, Africa, Europe, India and Southeast Asian Countries.</t>
+          <t>P179935- Enhancing Landscape and Ecosystem Management (ELEMENT) Project - Procurement Plan (State Forest Development Agency, Tripura)</t>
         </is>
       </c>
       <c r="C59" s="1" t="inlineStr"/>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E59" s="1" t="inlineStr"/>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608411/expression-of-interest-for-selection-of-business-associates-partners-jv-consortium-partnership-for-e</t>
+          <t>https://www.developmentaid.org/tenders/view/1161054/india-south-asia-p179935-enhancing-landscape-and-ecosystem-management-project-procurement-plan-engli</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1872,7 @@
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>43253-025 - Karnataka Integrated Urban Water Management Investment Program - Tranche 1</t>
+          <t>Request for Proposals (RFP): Consulting Agency for Identifying High Growth Livelihoods and Market Access Challenges</t>
         </is>
       </c>
       <c r="C60" s="1" t="inlineStr"/>
@@ -1880,7 +1884,7 @@
       <c r="E60" s="1" t="inlineStr"/>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608368/43253-025-karnataka-integrated-urban-water-management-investment-program-tranche-1</t>
+          <t>https://www.developmentaid.org/tenders/view/1598904/request-for-proposals-rfp-consulting-agency-for-identifying-high-growth-livelihoods-and-market-acces</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1896,7 @@
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>Punjab Municipal Services Improvement Project: Direct RFP for hiring of Agency for Communication, Outreach, Digital Media Management &amp; Stakeholders Engagement in Municipal Corporation Amritsar and Ludhiana under PMSIP</t>
+          <t>LOAN-4411 IND: Building India's Clean Plant Program - IARI-staff-C S09 IARI staff - virologists and other staff - Young Professional-II (04) (Project Data Management) (57041-001)</t>
         </is>
       </c>
       <c r="C61" s="1" t="inlineStr"/>
@@ -1904,7 +1908,31 @@
       <c r="E61" s="1" t="inlineStr"/>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1606067/punjab-municipal-services-improvement-project-direct-rfp-for-hiring-of-agency-for-communication-outr</t>
+          <t>https://www.developmentaid.org/tenders/view/1602444/loan-4411-ind-building-indias-clean-plant-program-iari-staff-c-s09-iari-staff-virologists-and-other</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="80" customHeight="1">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>Integrated Urban Climate Action for Low-Carbon &amp; Resilient Cities (Urban-Act)</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="inlineStr"/>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>Climate</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr"/>
+      <c r="F62" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1608947/integrated-urban-climate-action-for-low-carbon-resilient-cities-urban-act</t>
         </is>
       </c>
     </row>

--- a/output/Combined.xlsx
+++ b/output/Combined.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,51 +472,47 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Manager, Adaptation Finance</t>
+          <t>Media and Communications Senior Manager, GCoM</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Climate Finance, Knowledge and Partnerships - Kenya, South Africa</t>
+          <t>Global Covenant of Mayors - Brazil, South Africa</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr"/>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>https://c40.bamboohr.com/careers/703</t>
+          <t>https://c40.bamboohr.com/careers/705</t>
         </is>
       </c>
     </row>
     <row r="3" ht="80" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>DevelopmentAid</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>Media and Communications Senior Manager, GCoM</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Global Covenant of Mayors - Brazil, South Africa</t>
-        </is>
-      </c>
+          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat, Rice and Millets under Public Distribution System - Agri-market Assessment Expert (55154-002)</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr"/>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr"/>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>https://c40.bamboohr.com/careers/705</t>
+          <t>https://www.developmentaid.org/tenders/view/1607893/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
         </is>
       </c>
     </row>
@@ -528,19 +524,19 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Printing of Collaterals’ for State Refresher Training</t>
+          <t>RFP - Final Evaluation of the Bhoomi Ka Programme</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr"/>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr"/>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612222/printing-of-collaterals-for-state-refresher-training</t>
+          <t>https://www.developmentaid.org/tenders/view/1612729/rfp-final-evaluation-of-the-bhoomi-ka-programme</t>
         </is>
       </c>
     </row>
@@ -552,19 +548,19 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>Deutsch#indisches Programm für Green Skills IGGSP / German-Indian Green Skills Programme IGGSP</t>
+          <t>RFP- for Hiring a Resource Person/Agency Development of MEAL Questionnaires and Processes for CommCare Tool</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr"/>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612146/deutschindisches-programm-fur-green-skills-iggsp-german-indian-green-skills-programme-iggsp</t>
+          <t>https://www.developmentaid.org/tenders/view/1612750/rfp-for-hiring-a-resource-personagency-development-of-meal-questionnaires-and-processes-for-commcare</t>
         </is>
       </c>
     </row>
@@ -576,19 +572,19 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>EoI – Mobile Medical Units, Ai-Enabled Tb Screening &amp; Supply Of Medical And Nutritional Support</t>
+          <t>P178254- Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project - Procurement Plan (State Project Management Unit (Kerala))</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr"/>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr"/>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612050/eoi-mobile-medical-units-ai-enabled-tb-screening-supply-of-medical-and-nutritional-support</t>
+          <t>https://www.developmentaid.org/tenders/view/1612677/p178254-kerala-climate-resilient-agri-value-chain-modernization-kera-project-procurement-plan-state</t>
         </is>
       </c>
     </row>
@@ -600,19 +596,19 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>RFP - Onboarding Agency for Revamping Assam LMIS Dashboard</t>
+          <t>Printing of Collaterals’ for State Refresher Training</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr"/>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612059/rfp-onboarding-agency-for-revamping-assam-lmis-dashboard</t>
+          <t>https://www.developmentaid.org/tenders/view/1612222/printing-of-collaterals-for-state-refresher-training</t>
         </is>
       </c>
     </row>
@@ -624,19 +620,19 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in MP, MH and TG</t>
+          <t>Deutsch#indisches Programm für Green Skills IGGSP / German-Indian Green Skills Programme IGGSP</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr"/>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr"/>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612065/rfp-long-term-monitoring-evaluation-me-partnership-for-environment-and-education-programme-in-mp-mh</t>
+          <t>https://www.developmentaid.org/tenders/view/1612146/deutschindisches-programm-fur-green-skills-iggsp-german-indian-green-skills-programme-iggsp</t>
         </is>
       </c>
     </row>
@@ -648,19 +644,19 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>P170873- Second Dam Rehabilitation and Improvement Project - Procurement Plan (Bhakra Beas Management Board)</t>
+          <t>EoI – Mobile Medical Units, Ai-Enabled Tb Screening &amp; Supply Of Medical And Nutritional Support</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr"/>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr"/>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611929/p170873-second-dam-rehabilitation-and-improvement-project-procurement-plan-bhakra-beas-management-bo</t>
+          <t>https://www.developmentaid.org/tenders/view/1612050/eoi-mobile-medical-units-ai-enabled-tb-screening-supply-of-medical-and-nutritional-support</t>
         </is>
       </c>
     </row>
@@ -672,19 +668,19 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>P178254- Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project (Agriculture Development and Farmers’ Welfare Department.)</t>
+          <t>RFP - Onboarding Agency for Revamping Assam LMIS Dashboard</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr"/>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr"/>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1393178/p178254-kerala-climate-resilient-agri-value-chain-modernization-kera-project-agriculture-development</t>
+          <t>https://www.developmentaid.org/tenders/view/1612059/rfp-onboarding-agency-for-revamping-assam-lmis-dashboard</t>
         </is>
       </c>
     </row>
@@ -696,19 +692,19 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>P179749- Uttarakhand Disaster Preparedness and Resilience Project - Procurement Plan (PIU- Rural Works Department)</t>
+          <t>RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in MP, MH and TG</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr"/>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning, Climate</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr"/>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1485844/p179749-uttarakhand-disaster-preparedness-and-resilience-project-procurement-plan-piu-rural-works-de</t>
+          <t>https://www.developmentaid.org/tenders/view/1612065/rfp-long-term-monitoring-evaluation-me-partnership-for-environment-and-education-programme-in-mp-mh</t>
         </is>
       </c>
     </row>
@@ -720,19 +716,19 @@
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>P179189- Tamil Nadu Climate Resilient Urban Development Program - Procurement Plan (Tamil Nadu Urban Infrastructure Financial Services Limited)</t>
+          <t>P170873- Second Dam Rehabilitation and Improvement Project - Procurement Plan (Bhakra Beas Management Board)</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr"/>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr"/>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1189983/india-south-asia-p179189-tamil-nadu-climate-resilient-urban-development-program-tamil-nadu-urban-inf</t>
+          <t>https://www.developmentaid.org/tenders/view/1611929/p170873-second-dam-rehabilitation-and-improvement-project-procurement-plan-bhakra-beas-management-bo</t>
         </is>
       </c>
     </row>
@@ -744,19 +740,19 @@
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Capacity Building Coordination Specialist (Internationl) (58369-001)</t>
+          <t>P178254- Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project (Agriculture Development and Farmers’ Welfare Department.)</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr"/>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr"/>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611636/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-capacity-building-coordinati</t>
+          <t>https://www.developmentaid.org/tenders/view/1393178/p178254-kerala-climate-resilient-agri-value-chain-modernization-kera-project-agriculture-development</t>
         </is>
       </c>
     </row>
@@ -768,19 +764,19 @@
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>Procurement of Laboratory Equipment &amp; Consumables for AMR laboratories in India, including delivery, installation, assembly, commissioning of equipment at the installation site and training services</t>
+          <t>P179749- Uttarakhand Disaster Preparedness and Resilience Project - Procurement Plan (PIU- Rural Works Department)</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr"/>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr"/>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1604282/procurement-of-laboratory-equipment-consumables-for-amr-laboratories-in-india-including-delivery-ins</t>
+          <t>https://www.developmentaid.org/tenders/view/1485844/p179749-uttarakhand-disaster-preparedness-and-resilience-project-procurement-plan-piu-rural-works-de</t>
         </is>
       </c>
     </row>
@@ -792,19 +788,19 @@
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>SC 125823 IND: Karnataka Integrated Urban Water Management Investment Program - Tranche 2 - Financial Management Specialist</t>
+          <t>P179189- Tamil Nadu Climate Resilient Urban Development Program - Procurement Plan (Tamil Nadu Urban Infrastructure Financial Services Limited)</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr"/>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr"/>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1589870/sc-125823-ind-karnataka-integrated-urban-water-management-investment-program-tranche-2</t>
+          <t>https://www.developmentaid.org/tenders/view/1189983/india-south-asia-p179189-tamil-nadu-climate-resilient-urban-development-program-tamil-nadu-urban-inf</t>
         </is>
       </c>
     </row>
@@ -816,19 +812,19 @@
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>P163533- Odisha Integrated Irrigation Project for Climate Resilient Agriculture - Procurement Plan (Odisha community Tank Development and Management Society)</t>
+          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Capacity Building Coordination Specialist (Internationl) (58369-001)</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr"/>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr"/>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/484340/india-south-asia-p163533-odisha-integrated-irrigation-project-for-climate-resilient-agriculture-proc</t>
+          <t>https://www.developmentaid.org/tenders/view/1611636/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-capacity-building-coordinati</t>
         </is>
       </c>
     </row>
@@ -840,19 +836,19 @@
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Non-Profit Organizations for Community Mobilization, Capacity Building, Training, Stakeholder Engagement, Convergence, Data Collection and Project Documentation</t>
+          <t>Procurement of Laboratory Equipment &amp; Consumables for AMR laboratories in India, including delivery, installation, assembly, commissioning of equipment at the installation site and training services</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr"/>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr"/>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611610/community-mobilizationawareness-capacity-buildingdata-collectionconvergence</t>
+          <t>https://www.developmentaid.org/tenders/view/1604282/procurement-of-laboratory-equipment-consumables-for-amr-laboratories-in-india-including-delivery-ins</t>
         </is>
       </c>
     </row>
@@ -864,19 +860,19 @@
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>RFP-009-IND-2026 RFP for Dissemination and Uptake of the Study ‘AI for Justice</t>
+          <t>SC 125823 IND: Karnataka Integrated Urban Water Management Investment Program - Tranche 2 - Financial Management Specialist</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr"/>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr"/>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611609/rfp-009-ind-2026-rfp-for-dissemination-and-uptake-of-the-study-ai-for-justice</t>
+          <t>https://www.developmentaid.org/tenders/view/1589870/sc-125823-ind-karnataka-integrated-urban-water-management-investment-program-tranche-2</t>
         </is>
       </c>
     </row>
@@ -888,19 +884,19 @@
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>GEF SAGF IV: Growth Equity Fund</t>
+          <t>P163533- Odisha Integrated Irrigation Project for Climate Resilient Agriculture - Procurement Plan (Odisha community Tank Development and Management Society)</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr"/>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Governance, Learning, Climate</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr"/>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611328/gef-sagf-iv-growth-equity-fund</t>
+          <t>https://www.developmentaid.org/tenders/view/484340/india-south-asia-p163533-odisha-integrated-irrigation-project-for-climate-resilient-agriculture-proc</t>
         </is>
       </c>
     </row>
@@ -912,19 +908,19 @@
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Consultancy, LiDAR survey of Greater Pamba River Basin, Digital Elevation Model, Flood Modelling and Flood Management Plan</t>
+          <t>Non-Profit Organizations for Community Mobilization, Capacity Building, Training, Stakeholder Engagement, Convergence, Data Collection and Project Documentation</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr"/>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr"/>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1538687/consultancy-lidar-survey-of-greater-pamba-river-basin-digital-elevation-model-flood-modelling-and-fl</t>
+          <t>https://www.developmentaid.org/tenders/view/1611610/community-mobilizationawareness-capacity-buildingdata-collectionconvergence</t>
         </is>
       </c>
     </row>
@@ -936,19 +932,19 @@
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Assam Disaster Resilient Hill Roads Development Project - P510002</t>
+          <t>RFP-009-IND-2026 RFP for Dissemination and Uptake of the Study ‘AI for Justice</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr"/>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr"/>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1453551/assam-disaster-resilient-hill-roads-development-project-p510002</t>
+          <t>https://www.developmentaid.org/tenders/view/1611609/rfp-009-ind-2026-rfp-for-dissemination-and-uptake-of-the-study-ai-for-justice</t>
         </is>
       </c>
     </row>
@@ -960,19 +956,19 @@
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Assam School Education and Adolescent Wellbeing Project (ASAP) - P507865</t>
+          <t>GEF SAGF IV: Growth Equity Fund</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr"/>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>Learning, Safety</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr"/>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1462940/assam-school-education-and-adolescent-wellbeing-project-asap-p507865</t>
+          <t>https://www.developmentaid.org/tenders/view/1611328/gef-sagf-iv-growth-equity-fund</t>
         </is>
       </c>
     </row>
@@ -984,19 +980,19 @@
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Terms of Reference for hiring 'Event Management Agency'- PRS Project</t>
+          <t>Consultancy, LiDAR survey of Greater Pamba River Basin, Digital Elevation Model, Flood Modelling and Flood Management Plan</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr"/>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr"/>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611188/terms-of-reference-for-hiring-event-management-agency-prs-project</t>
+          <t>https://www.developmentaid.org/tenders/view/1538687/consultancy-lidar-survey-of-greater-pamba-river-basin-digital-elevation-model-flood-modelling-and-fl</t>
         </is>
       </c>
     </row>
@@ -1008,19 +1004,19 @@
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
+          <t>Assam Disaster Resilient Hill Roads Development Project - P510002</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr"/>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr"/>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610971/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
+          <t>https://www.developmentaid.org/tenders/view/1453551/assam-disaster-resilient-hill-roads-development-project-p510002</t>
         </is>
       </c>
     </row>
@@ -1032,19 +1028,19 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Klimaanpassung, Resilienz und Klimafinanzierung im ländlichen Indien / Climate adaptation, resilience and climate finance in rural India</t>
+          <t>Assam School Education and Adolescent Wellbeing Project (ASAP) - P507865</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr"/>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning, Safety</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr"/>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610948/klimaanpassung-resilienz-und-klimafinanzierung-im-landlichen-indien-climate-adaptation-resilience-an</t>
+          <t>https://www.developmentaid.org/tenders/view/1462940/assam-school-education-and-adolescent-wellbeing-project-asap-p507865</t>
         </is>
       </c>
     </row>
@@ -1056,19 +1052,19 @@
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: MPKV Rahuri Development of Crop Weather Calendars, Spectral Libraries, and Irrigation Advisories to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA cluster of Maharashtra</t>
+          <t>Terms of Reference for hiring 'Event Management Agency'- PRS Project</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr"/>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr"/>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610861/maharashtra-project-on-climate-resilient-agriculture-phase-ii-mpkv-rahuri-development-of-crop-weathe</t>
+          <t>https://www.developmentaid.org/tenders/view/1611188/terms-of-reference-for-hiring-event-management-agency-prs-project</t>
         </is>
       </c>
     </row>
@@ -1080,19 +1076,19 @@
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: Development of Crop Weather Calendars and Databases to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA Clusters of Maharashtra</t>
+          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr"/>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr"/>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610860/maharashtra-project-on-climate-resilient-agriculture-phase-ii-development-of-crop-weather-calendars</t>
+          <t>https://www.developmentaid.org/tenders/view/1610971/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
         </is>
       </c>
     </row>
@@ -1104,7 +1100,7 @@
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Construction of Primary Water distribution   by laying HDPE/ GI pipes and installing pumps at different Locations in project G.P. 's of Sirmaur District</t>
+          <t>Klimaanpassung, Resilienz und Klimafinanzierung im ländlichen Indien / Climate adaptation, resilience and climate finance in rural India</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr"/>
@@ -1116,7 +1112,7 @@
       <c r="E28" s="1" t="inlineStr"/>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610843/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1610948/klimaanpassung-resilienz-und-klimafinanzierung-im-landlichen-indien-climate-adaptation-resilience-an</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1124,7 @@
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: VNMKV Parbhani - Development of Crop Weather Calendars and Auto Agro-Advisories to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in PoCRA Clusters of Maharashtra</t>
+          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: MPKV Rahuri Development of Crop Weather Calendars, Spectral Libraries, and Irrigation Advisories to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA cluster of Maharashtra</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr"/>
@@ -1140,7 +1136,7 @@
       <c r="E29" s="1" t="inlineStr"/>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610856/maharashtra-project-on-climate-resilient-agriculture-phase-ii-vnmkv-parbhani-development-of-crop-wea</t>
+          <t>https://www.developmentaid.org/tenders/view/1610861/maharashtra-project-on-climate-resilient-agriculture-phase-ii-mpkv-rahuri-development-of-crop-weathe</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1148,7 @@
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: PDKV AKOLA -Development of Crop Weather Calendars, Sowing Advisories and Spectral Response to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA cluster of Maharashtra</t>
+          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: Development of Crop Weather Calendars and Databases to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA Clusters of Maharashtra</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr"/>
@@ -1164,7 +1160,7 @@
       <c r="E30" s="1" t="inlineStr"/>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610858/maharashtra-project-on-climate-resilient-agriculture-phase-ii-pdkv-akola-development-of-crop-weather</t>
+          <t>https://www.developmentaid.org/tenders/view/1610860/maharashtra-project-on-climate-resilient-agriculture-phase-ii-development-of-crop-weather-calendars</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1172,7 @@
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Construction of Secondary water storage structure for gravity irrigation  Schemes in different G.P.'s under APO Unit Rajgarh of Sirmaur District</t>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Construction of Primary Water distribution   by laying HDPE/ GI pipes and installing pumps at different Locations in project G.P. 's of Sirmaur District</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr"/>
@@ -1188,7 +1184,7 @@
       <c r="E31" s="1" t="inlineStr"/>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610840/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1610843/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
         </is>
       </c>
     </row>
@@ -1200,19 +1196,19 @@
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing cement concrete check barriers in project GP,s of Sirmour Distt</t>
+          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: VNMKV Parbhani - Development of Crop Weather Calendars and Auto Agro-Advisories to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in PoCRA Clusters of Maharashtra</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr"/>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr"/>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610839/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1610856/maharashtra-project-on-climate-resilient-agriculture-phase-ii-vnmkv-parbhani-development-of-crop-wea</t>
         </is>
       </c>
     </row>
@@ -1224,19 +1220,19 @@
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Renovation of old ponds in Project GP's of Sirmour Distt</t>
+          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: PDKV AKOLA -Development of Crop Weather Calendars, Sowing Advisories and Spectral Response to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA cluster of Maharashtra</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr"/>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr"/>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610836/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1610858/maharashtra-project-on-climate-resilient-agriculture-phase-ii-pdkv-akola-development-of-crop-weather</t>
         </is>
       </c>
     </row>
@@ -1248,19 +1244,19 @@
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Terms of Reference (tor) for Developing a Visually Appealing Illustrated and Annotated Map Poster (based on Technical Data) Showing the Natural Assets of Delhi Under the Developing 75 Food Gardens in 4 Mega Cities in India Project</t>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Construction of Secondary water storage structure for gravity irrigation  Schemes in different G.P.'s under APO Unit Rajgarh of Sirmaur District</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr"/>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr"/>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610798/terms-of-reference-tor-for-developing-a-visually-appealing-illustrated-and-annotated-map-poster-base</t>
+          <t>https://www.developmentaid.org/tenders/view/1610840/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1268,7 @@
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>TA-10488 REG: City Resilience, Affordable Housing, Sustainable Tourism, and Inclusive Economic Growth for Livable Cities - Structural Engineer (58349-002)</t>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing cement concrete check barriers in project GP,s of Sirmour Distt</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr"/>
@@ -1284,7 +1280,7 @@
       <c r="E35" s="1" t="inlineStr"/>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1605066/ta-10488-reg-city-resilience-affordable-housing-sustainable-tourism-and-inclusive-economic-growth-fo</t>
+          <t>https://www.developmentaid.org/tenders/view/1610839/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
         </is>
       </c>
     </row>
@@ -1296,19 +1292,19 @@
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>P179337- Assam State Secondary Healthcare Initiative for Service Delivery Transformation (ASSIST) Project - Procurement Plan (Assam Health Infrastructure Development and Management Society)</t>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Renovation of old ponds in Project GP's of Sirmour Distt</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr"/>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Safety</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr"/>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1080539/india-south-asia-p179337-assam-state-secondary-healthcare-initiative-for-service-delivery-transforma</t>
+          <t>https://www.developmentaid.org/tenders/view/1610836/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
         </is>
       </c>
     </row>
@@ -1320,19 +1316,19 @@
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>55252-001 - Maharashtra Sustainable Climate-Resilient Coastal Protection and Management Project: Procurement Plan</t>
+          <t>Terms of Reference (tor) for Developing a Visually Appealing Illustrated and Annotated Map Poster (based on Technical Data) Showing the Natural Assets of Delhi Under the Developing 75 Food Gardens in 4 Mega Cities in India Project</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr"/>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>Governance, Safety, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr"/>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1378025/55252-001-maharashtra-sustainable-climate-resilient-coastal-protection-and-management-project-procur</t>
+          <t>https://www.developmentaid.org/tenders/view/1610798/terms-of-reference-tor-for-developing-a-visually-appealing-illustrated-and-annotated-map-poster-base</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1340,7 @@
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>Solarenergie im ländlichen Raum Indiens / Solar energy in rural India</t>
+          <t>TA-10488 REG: City Resilience, Affordable Housing, Sustainable Tourism, and Inclusive Economic Growth for Livable Cities - Structural Engineer (58349-002)</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr"/>
@@ -1356,7 +1352,7 @@
       <c r="E38" s="1" t="inlineStr"/>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610293/solarenergie-im-landlichen-raum-indiens-solar-energy-in-rural-india</t>
+          <t>https://www.developmentaid.org/tenders/view/1605066/ta-10488-reg-city-resilience-affordable-housing-sustainable-tourism-and-inclusive-economic-growth-fo</t>
         </is>
       </c>
     </row>
@@ -1368,19 +1364,19 @@
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>56300-002 - Madhya Pradesh Renewable Energy Implementation Support: Technical Assistance</t>
+          <t>P179337- Assam State Secondary Healthcare Initiative for Service Delivery Transformation (ASSIST) Project - Procurement Plan (Assam Health Infrastructure Development and Management Society)</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr"/>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning, Safety</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr"/>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610325/56300-002-madhya-pradesh-renewable-energy-implementation-support-technical-assistance</t>
+          <t>https://www.developmentaid.org/tenders/view/1080539/india-south-asia-p179337-assam-state-secondary-healthcare-initiative-for-service-delivery-transforma</t>
         </is>
       </c>
     </row>
@@ -1392,19 +1388,19 @@
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>Call for External Collaborator – The ILO project ‘Strengthening Labour Dispute Resolution in Tamil Nadu’s Electronics Manufacturing Sector’ invites applications from consultants to support develop &amp; deliver capacity building programme for social partners</t>
+          <t>55252-001 - Maharashtra Sustainable Climate-Resilient Coastal Protection and Management Project: Procurement Plan</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr"/>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Safety, Climate</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr"/>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610322/call-for-external-collaborator-the-ilo-project-strengthening-labour-dispute-resolution-in-tamil-nadu</t>
+          <t>https://www.developmentaid.org/tenders/view/1378025/55252-001-maharashtra-sustainable-climate-resilient-coastal-protection-and-management-project-procur</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1412,7 @@
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
+          <t>Solarenergie im ländlichen Raum Indiens / Solar energy in rural India</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr"/>
@@ -1428,7 +1424,7 @@
       <c r="E41" s="1" t="inlineStr"/>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610299/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
+          <t>https://www.developmentaid.org/tenders/view/1610293/solarenergie-im-landlichen-raum-indiens-solar-energy-in-rural-india</t>
         </is>
       </c>
     </row>
@@ -1440,19 +1436,19 @@
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project: Engagement of Project Management Consultant</t>
+          <t>56300-002 - Madhya Pradesh Renewable Energy Implementation Support: Technical Assistance</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr"/>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr"/>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1463234/kerala-climate-resilient-agri-value-chain-modernization-kera-project-engagement-of-project-managemen</t>
+          <t>https://www.developmentaid.org/tenders/view/1610325/56300-002-madhya-pradesh-renewable-energy-implementation-support-technical-assistance</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1460,7 @@
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Pipeline Condition Assessment for Urban Water Supply Networks in Rajasthan (58369-001)</t>
+          <t>Call for External Collaborator – The ILO project ‘Strengthening Labour Dispute Resolution in Tamil Nadu’s Electronics Manufacturing Sector’ invites applications from consultants to support develop &amp; deliver capacity building programme for social partners</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr"/>
@@ -1476,7 +1472,7 @@
       <c r="E43" s="1" t="inlineStr"/>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1583942/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-pipeline-condition-assessmen</t>
+          <t>https://www.developmentaid.org/tenders/view/1610322/call-for-external-collaborator-the-ilo-project-strengthening-labour-dispute-resolution-in-tamil-nadu</t>
         </is>
       </c>
     </row>
@@ -1488,19 +1484,19 @@
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>Call for External Collaborator – Extending Social Protection to Migrant Workers in an Irregular Situation (South Asia–GCC Corridor)</t>
+          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr"/>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr"/>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610212/call-for-external-collaborator-extending-social-protection-to-migrant-workers-in-an-irregular-situat</t>
+          <t>https://www.developmentaid.org/tenders/view/1610299/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
         </is>
       </c>
     </row>
@@ -1512,19 +1508,19 @@
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
+          <t>Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project: Engagement of Project Management Consultant</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr"/>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr"/>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610092/rfp-odia-annotation-of-student-voice-recordings-from-odisha</t>
+          <t>https://www.developmentaid.org/tenders/view/1463234/kerala-climate-resilient-agri-value-chain-modernization-kera-project-engagement-of-project-managemen</t>
         </is>
       </c>
     </row>
@@ -1536,19 +1532,19 @@
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
+          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Pipeline Condition Assessment for Urban Water Supply Networks in Rajasthan (58369-001)</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr"/>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr"/>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610106/rfp-english-annotation-of-student-voice-recordings-from-gujarat</t>
+          <t>https://www.developmentaid.org/tenders/view/1583942/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-pipeline-condition-assessmen</t>
         </is>
       </c>
     </row>
@@ -1560,19 +1556,19 @@
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>EoI - For Empanelment of agencies for Impact Assessment / Evaluation Services under Programmes for Development and Impact</t>
+          <t>Call for External Collaborator – Extending Social Protection to Migrant Workers in an Irregular Situation (South Asia–GCC Corridor)</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr"/>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr"/>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609663/eoi-for-empanelment-of-agencies-for-impact-assessment-evaluation-services-under-programmes-for-devel</t>
+          <t>https://www.developmentaid.org/tenders/view/1610212/call-for-external-collaborator-extending-social-protection-to-migrant-workers-in-an-irregular-situat</t>
         </is>
       </c>
     </row>
@@ -1584,19 +1580,19 @@
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
+          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr"/>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr"/>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609606/rfp-early-stage-impact-assessment-cdri-swp-23-26</t>
+          <t>https://www.developmentaid.org/tenders/view/1610092/rfp-odia-annotation-of-student-voice-recordings-from-odisha</t>
         </is>
       </c>
     </row>
@@ -1608,19 +1604,19 @@
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>Mirova Energy Transition Emerging Asia (METEA)</t>
+          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr"/>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr"/>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609692/mirova-energy-transition-emerging-asia-metea</t>
+          <t>https://www.developmentaid.org/tenders/view/1610106/rfp-english-annotation-of-student-voice-recordings-from-gujarat</t>
         </is>
       </c>
     </row>
@@ -1632,19 +1628,19 @@
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
+          <t>EoI - For Empanelment of agencies for Impact Assessment / Evaluation Services under Programmes for Development and Impact</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr"/>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr"/>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609597/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
+          <t>https://www.developmentaid.org/tenders/view/1609663/eoi-for-empanelment-of-agencies-for-impact-assessment-evaluation-services-under-programmes-for-devel</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1652,7 @@
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>Hiring consultancy firm for filing GST, VAT, IGST Refund Claims and related tasks for the ILO New Delhi office</t>
+          <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr"/>
@@ -1668,7 +1664,7 @@
       <c r="E51" s="1" t="inlineStr"/>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609700/hiring-consultancy-firm-for-filing-gst-vat-igst-refund-claims-and-related-tasks-for-the-ilo-new-delh</t>
+          <t>https://www.developmentaid.org/tenders/view/1609606/rfp-early-stage-impact-assessment-cdri-swp-23-26</t>
         </is>
       </c>
     </row>
@@ -1680,19 +1676,19 @@
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4411 IND: Building India's Clean Plant Program - IARI-staff-C S09 IARI staff - virologists and other staff - Lab Assistant (02) (Plant Material Management) (57041-001)</t>
+          <t>Mirova Energy Transition Emerging Asia (METEA)</t>
         </is>
       </c>
       <c r="C52" s="1" t="inlineStr"/>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr"/>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1602442/loan-4411-ind-building-indias-clean-plant-program-iari-staff-c-s09-iari-staff-virologists-and-other</t>
+          <t>https://www.developmentaid.org/tenders/view/1609692/mirova-energy-transition-emerging-asia-metea</t>
         </is>
       </c>
     </row>
@@ -1704,19 +1700,19 @@
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4291 IND: Himachal Pradesh Subtropical Horticulture, Irrigation, and Value Addition Project - CS 10 Communications and digital contents for Information Education and Knowledge Management under HPSHIVA Project (53189-002)</t>
+          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr"/>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr"/>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609118/loan-4291-ind-himachal-pradesh-subtropical-horticulture-irrigation-and-value-addition-project-cs-10</t>
+          <t>https://www.developmentaid.org/tenders/view/1609597/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
         </is>
       </c>
     </row>
@@ -1728,19 +1724,19 @@
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Knowledge and Learning Specialist (National) (58369-001)</t>
+          <t>Hiring consultancy firm for filing GST, VAT, IGST Refund Claims and related tasks for the ILO New Delhi office</t>
         </is>
       </c>
       <c r="C54" s="1" t="inlineStr"/>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr"/>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609114/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-knowledge-and-learning-speci</t>
+          <t>https://www.developmentaid.org/tenders/view/1609700/hiring-consultancy-firm-for-filing-gst-vat-igst-refund-claims-and-related-tasks-for-the-ilo-new-delh</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1748,7 @@
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Fecal Sludge Management and Urban Institutional Expert (National) (58369-001)</t>
+          <t>LOAN-4411 IND: Building India's Clean Plant Program - IARI-staff-C S09 IARI staff - virologists and other staff - Lab Assistant (02) (Plant Material Management) (57041-001)</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr"/>
@@ -1764,7 +1760,7 @@
       <c r="E55" s="1" t="inlineStr"/>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609113/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-fecal-sludge-management-and</t>
+          <t>https://www.developmentaid.org/tenders/view/1602442/loan-4411-ind-building-indias-clean-plant-program-iari-staff-c-s09-iari-staff-virologists-and-other</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1772,7 @@
       </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>Request For Proposal For Hiring of Technical Partner Agency for Designing, Development and Implementation of AI-Enabled Learning and Knowledge Sharing Platform for ISA</t>
+          <t>LOAN-4291 IND: Himachal Pradesh Subtropical Horticulture, Irrigation, and Value Addition Project - CS 10 Communications and digital contents for Information Education and Knowledge Management under HPSHIVA Project (53189-002)</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr"/>
@@ -1788,7 +1784,7 @@
       <c r="E56" s="1" t="inlineStr"/>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1589295/request-for-proposal-for-hiring-of-technical-partner-agency-for-designing-development-and-implementa</t>
+          <t>https://www.developmentaid.org/tenders/view/1609118/loan-4291-ind-himachal-pradesh-subtropical-horticulture-irrigation-and-value-addition-project-cs-10</t>
         </is>
       </c>
     </row>
@@ -1800,19 +1796,19 @@
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>P168633- Kerala Solid Waste Management Project (ULB PGT PALAKKAD)</t>
+          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Knowledge and Learning Specialist (National) (58369-001)</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr"/>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr"/>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1095526/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-pgt-palakkad-procurement-plan</t>
+          <t>https://www.developmentaid.org/tenders/view/1609114/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-knowledge-and-learning-speci</t>
         </is>
       </c>
     </row>
@@ -1824,19 +1820,19 @@
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>P166020 - West Bengal Transport and Logistics Spatial Development Project - Procurement Plan (West Bengal Transport Infrastructure Development Corporation Limited)</t>
+          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Fecal Sludge Management and Urban Institutional Expert (National) (58369-001)</t>
         </is>
       </c>
       <c r="C58" s="1" t="inlineStr"/>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>Learning, Safety</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E58" s="1" t="inlineStr"/>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/485630/india-south-asia-p166020-west-bengal-transport-and-logistics-spatial-development-project-procurement</t>
+          <t>https://www.developmentaid.org/tenders/view/1609113/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-fecal-sludge-management-and</t>
         </is>
       </c>
     </row>
@@ -1848,7 +1844,7 @@
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>P179935- Enhancing Landscape and Ecosystem Management (ELEMENT) Project - Procurement Plan (State Forest Development Agency, Tripura)</t>
+          <t>Request For Proposal For Hiring of Technical Partner Agency for Designing, Development and Implementation of AI-Enabled Learning and Knowledge Sharing Platform for ISA</t>
         </is>
       </c>
       <c r="C59" s="1" t="inlineStr"/>
@@ -1860,7 +1856,7 @@
       <c r="E59" s="1" t="inlineStr"/>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1161054/india-south-asia-p179935-enhancing-landscape-and-ecosystem-management-project-procurement-plan-engli</t>
+          <t>https://www.developmentaid.org/tenders/view/1589295/request-for-proposal-for-hiring-of-technical-partner-agency-for-designing-development-and-implementa</t>
         </is>
       </c>
     </row>
@@ -1872,19 +1868,19 @@
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>Request for Proposals (RFP): Consulting Agency for Identifying High Growth Livelihoods and Market Access Challenges</t>
+          <t>P168633- Kerala Solid Waste Management Project (ULB PGT PALAKKAD)</t>
         </is>
       </c>
       <c r="C60" s="1" t="inlineStr"/>
       <c r="D60" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr"/>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1598904/request-for-proposals-rfp-consulting-agency-for-identifying-high-growth-livelihoods-and-market-acces</t>
+          <t>https://www.developmentaid.org/tenders/view/1095526/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-pgt-palakkad-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -1896,19 +1892,19 @@
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4411 IND: Building India's Clean Plant Program - IARI-staff-C S09 IARI staff - virologists and other staff - Young Professional-II (04) (Project Data Management) (57041-001)</t>
+          <t>P166020 - West Bengal Transport and Logistics Spatial Development Project - Procurement Plan (West Bengal Transport Infrastructure Development Corporation Limited)</t>
         </is>
       </c>
       <c r="C61" s="1" t="inlineStr"/>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning, Safety</t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr"/>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1602444/loan-4411-ind-building-indias-clean-plant-program-iari-staff-c-s09-iari-staff-virologists-and-other</t>
+          <t>https://www.developmentaid.org/tenders/view/485630/india-south-asia-p166020-west-bengal-transport-and-logistics-spatial-development-project-procurement</t>
         </is>
       </c>
     </row>
@@ -1920,19 +1916,43 @@
       </c>
       <c r="B62" s="1" t="inlineStr">
         <is>
-          <t>Integrated Urban Climate Action for Low-Carbon &amp; Resilient Cities (Urban-Act)</t>
+          <t>P179935- Enhancing Landscape and Ecosystem Management (ELEMENT) Project - Procurement Plan (State Forest Development Agency, Tripura)</t>
         </is>
       </c>
       <c r="C62" s="1" t="inlineStr"/>
       <c r="D62" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E62" s="1" t="inlineStr"/>
       <c r="F62" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1608947/integrated-urban-climate-action-for-low-carbon-resilient-cities-urban-act</t>
+          <t>https://www.developmentaid.org/tenders/view/1161054/india-south-asia-p179935-enhancing-landscape-and-ecosystem-management-project-procurement-plan-engli</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="80" customHeight="1">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>Request for Proposals (RFP): Consulting Agency for Identifying High Growth Livelihoods and Market Access Challenges</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr"/>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="inlineStr"/>
+      <c r="F63" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1598904/request-for-proposals-rfp-consulting-agency-for-identifying-high-growth-livelihoods-and-market-acces</t>
         </is>
       </c>
     </row>

--- a/output/Combined.xlsx
+++ b/output/Combined.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,47 +472,51 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Media and Communications Senior Manager, GCoM</t>
+          <t>Senior Manager, Data System Development</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Global Covenant of Mayors - Brazil, South Africa</t>
+          <t>Business Planning, Measurement and Innovation - Brazil, Colombia, Denmark, US, UK</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr"/>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>https://c40.bamboohr.com/careers/705</t>
+          <t>https://c40.bamboohr.com/careers/704</t>
         </is>
       </c>
     </row>
     <row r="3" ht="80" customHeight="1">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>DevelopmentAid</t>
+          <t>C40</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat, Rice and Millets under Public Distribution System - Agri-market Assessment Expert (55154-002)</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr"/>
+          <t>Media and Communications Senior Manager, GCoM</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Global Covenant of Mayors - Brazil, South Africa</t>
+        </is>
+      </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr"/>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607893/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
+          <t>https://c40.bamboohr.com/careers/705</t>
         </is>
       </c>
     </row>
@@ -524,7 +528,7 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>RFP - Final Evaluation of the Bhoomi Ka Programme</t>
+          <t>Call for External Collaborator – The ILO project ‘Strengthening Labour Dispute Resolution in Tamil Nadu’s Electronics Manufacturing Sector’ invites applications from consultants to support develop &amp; deliver capacity building programme for social partners</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr"/>
@@ -536,7 +540,7 @@
       <c r="E4" s="1" t="inlineStr"/>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612729/rfp-final-evaluation-of-the-bhoomi-ka-programme</t>
+          <t>https://www.developmentaid.org/tenders/view/1610322/call-for-external-collaborator-the-ilo-project-strengthening-labour-dispute-resolution-in-tamil-nadu</t>
         </is>
       </c>
     </row>
@@ -548,19 +552,19 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>RFP- for Hiring a Resource Person/Agency Development of MEAL Questionnaires and Processes for CommCare Tool</t>
+          <t>56283-002 - Climate Resilient Brahmaputra Integrated Flood and Riverbank Erosion Risk Management Project in Assam - Additional Financing</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr"/>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612750/rfp-for-hiring-a-resource-personagency-development-of-meal-questionnaires-and-processes-for-commcare</t>
+          <t>https://www.developmentaid.org/tenders/view/1543921/56283-002-climate-resilient-brahmaputra-integrated-flood-and-riverbank-erosion-risk-management-proje</t>
         </is>
       </c>
     </row>
@@ -572,7 +576,7 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>P178254- Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project - Procurement Plan (State Project Management Unit (Kerala))</t>
+          <t>59459-001 - Building Knowledge-Based Innovative Solutions for Sustainable and Clean Energy in Asia and the Pacific: Technical Assistance</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr"/>
@@ -584,7 +588,7 @@
       <c r="E6" s="1" t="inlineStr"/>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612677/p178254-kerala-climate-resilient-agri-value-chain-modernization-kera-project-procurement-plan-state</t>
+          <t>https://www.developmentaid.org/tenders/view/1584578/59459-001-building-knowledge-based-innovative-solutions-for-sustainable-and-clean-energy-in-asia-and</t>
         </is>
       </c>
     </row>
@@ -596,19 +600,19 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Printing of Collaterals’ for State Refresher Training</t>
+          <t>59305-001 - Catalyzing Sustainable Transport Initiatives in Asia and the Pacific: Technical Assistance</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr"/>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612222/printing-of-collaterals-for-state-refresher-training</t>
+          <t>https://www.developmentaid.org/tenders/view/1552965/59305-001-catalyzing-sustainable-transport-initiatives-in-asia-and-the-pacific-technical-assistance</t>
         </is>
       </c>
     </row>
@@ -620,19 +624,19 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Deutsch#indisches Programm für Green Skills IGGSP / German-Indian Green Skills Programme IGGSP</t>
+          <t>59388-001 - Accelerating and Sustaining Universal Health Coverage (UHC) through UHC Practitioners and Experts knowledge Exchange and Resources (UHC PEERS) Network: Technical Assistance</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr"/>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance, Safety</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr"/>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612146/deutschindisches-programm-fur-green-skills-iggsp-german-indian-green-skills-programme-iggsp</t>
+          <t>https://www.developmentaid.org/tenders/view/1572727/59388-001-accelerating-and-sustaining-universal-health-coverage-uhc-through-uhc-practitioners-and-ex</t>
         </is>
       </c>
     </row>
@@ -644,19 +648,19 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>EoI – Mobile Medical Units, Ai-Enabled Tb Screening &amp; Supply Of Medical And Nutritional Support</t>
+          <t>59384-001 - Strengthening Quality, Sustainability and Value for Money through Implementation of the 2026 Procurement Directive for ADB Borrowers: Technical Assistance</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr"/>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr"/>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612050/eoi-mobile-medical-units-ai-enabled-tb-screening-supply-of-medical-and-nutritional-support</t>
+          <t>https://www.developmentaid.org/tenders/view/1613609/59384-001-strengthening-quality-sustainability-and-value-for-money-through-implementation-of-the-202</t>
         </is>
       </c>
     </row>
@@ -668,19 +672,19 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>RFP - Onboarding Agency for Revamping Assam LMIS Dashboard</t>
+          <t>Onboarding of a Consultancy / Research Firm for Economic Impact Analysis of Public Health Supply Chain Strengthening</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr"/>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Safety</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr"/>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612059/rfp-onboarding-agency-for-revamping-assam-lmis-dashboard</t>
+          <t>https://www.developmentaid.org/tenders/view/1613408/rfp-2026-in-01-agency-for-economic-impact-analysis</t>
         </is>
       </c>
     </row>
@@ -692,19 +696,19 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in MP, MH and TG</t>
+          <t>57133-001 - Sustainable and Inclusive Tourism Development Project in Himachal Pradesh: Procurement Plan</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr"/>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr"/>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612065/rfp-long-term-monitoring-evaluation-me-partnership-for-environment-and-education-programme-in-mp-mh</t>
+          <t>https://www.developmentaid.org/tenders/view/1377325/57133-001-sustainable-and-inclusive-tourism-development-project-in-himachal-pradesh-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -716,19 +720,19 @@
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>P170873- Second Dam Rehabilitation and Improvement Project - Procurement Plan (Bhakra Beas Management Board)</t>
+          <t>Evidence for AI in Health (EVAH)</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr"/>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning, Safety</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr"/>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611929/p170873-second-dam-rehabilitation-and-improvement-project-procurement-plan-bhakra-beas-management-bo</t>
+          <t>https://www.developmentaid.org/tenders/view/1613299/evidence-for-ai-in-health-evah</t>
         </is>
       </c>
     </row>
@@ -740,19 +744,19 @@
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>P178254- Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project (Agriculture Development and Farmers’ Welfare Department.)</t>
+          <t>P179749- Uttarakhand Disaster Preparedness and Resilience Project - Procurement Plan (PIU- Rural Works Department)</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr"/>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr"/>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1393178/p178254-kerala-climate-resilient-agri-value-chain-modernization-kera-project-agriculture-development</t>
+          <t>https://www.developmentaid.org/tenders/view/1485844/p179749-uttarakhand-disaster-preparedness-and-resilience-project-procurement-plan-piu-rural-works-de</t>
         </is>
       </c>
     </row>
@@ -764,19 +768,19 @@
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>P179749- Uttarakhand Disaster Preparedness and Resilience Project - Procurement Plan (PIU- Rural Works Department)</t>
+          <t>P178581 - Assam Resilient Rural Bridges Program - Procurement Plan (Public Works Roads Department, Assam)</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr"/>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr"/>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1485844/p179749-uttarakhand-disaster-preparedness-and-resilience-project-procurement-plan-piu-rural-works-de</t>
+          <t>https://www.developmentaid.org/tenders/view/1189984/india-south-asia-p178581-assam-resilient-rural-bridges-program-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -788,19 +792,19 @@
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>P179189- Tamil Nadu Climate Resilient Urban Development Program - Procurement Plan (Tamil Nadu Urban Infrastructure Financial Services Limited)</t>
+          <t>P180932 - Strengthening Coastal Resilience and the Economy - Procurement Plan (Tamil Nadu Green Climate Company (TNGCC))</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr"/>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr"/>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1189983/india-south-asia-p179189-tamil-nadu-climate-resilient-urban-development-program-tamil-nadu-urban-inf</t>
+          <t>https://www.developmentaid.org/tenders/view/1326097/india-south-asia-p180932-strengthening-coastal-resilience-and-the-economy-tamil-nadu-green-climate-c</t>
         </is>
       </c>
     </row>
@@ -812,19 +816,19 @@
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Capacity Building Coordination Specialist (Internationl) (58369-001)</t>
+          <t>P179935 - Enhancing Landscape and Ecosystem Management Project - Procurement Plan (Society for Climate Resilient Agriculture in Nagaland)</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr"/>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr"/>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611636/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-capacity-building-coordinati</t>
+          <t>https://www.developmentaid.org/tenders/view/1145475/india-south-asia-p179935-enhancing-landscape-and-ecosystem-management-project-society-for-climate-re</t>
         </is>
       </c>
     </row>
@@ -836,19 +840,19 @@
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Procurement of Laboratory Equipment &amp; Consumables for AMR laboratories in India, including delivery, installation, assembly, commissioning of equipment at the installation site and training services</t>
+          <t>P163533- Odisha Integrated Irrigation Project for Climate Resilient Agriculture - Procurement Plan (Odisha community Tank Development and Management Society)</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr"/>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Learning, Climate</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr"/>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1604282/procurement-of-laboratory-equipment-consumables-for-amr-laboratories-in-india-including-delivery-ins</t>
+          <t>https://www.developmentaid.org/tenders/view/484340/india-south-asia-p163533-odisha-integrated-irrigation-project-for-climate-resilient-agriculture-proc</t>
         </is>
       </c>
     </row>
@@ -860,19 +864,19 @@
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>SC 125823 IND: Karnataka Integrated Urban Water Management Investment Program - Tranche 2 - Financial Management Specialist</t>
+          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat, Rice and Millets under Public Distribution System - Agri-market Assessment Expert (55154-002)</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr"/>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr"/>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1589870/sc-125823-ind-karnataka-integrated-urban-water-management-investment-program-tranche-2</t>
+          <t>https://www.developmentaid.org/tenders/view/1607893/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
         </is>
       </c>
     </row>
@@ -884,19 +888,19 @@
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>P163533- Odisha Integrated Irrigation Project for Climate Resilient Agriculture - Procurement Plan (Odisha community Tank Development and Management Society)</t>
+          <t>RFP - Final Evaluation of the Bhoomi Ka Programme</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr"/>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr"/>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/484340/india-south-asia-p163533-odisha-integrated-irrigation-project-for-climate-resilient-agriculture-proc</t>
+          <t>https://www.developmentaid.org/tenders/view/1612729/rfp-final-evaluation-of-the-bhoomi-ka-programme</t>
         </is>
       </c>
     </row>
@@ -908,7 +912,7 @@
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Non-Profit Organizations for Community Mobilization, Capacity Building, Training, Stakeholder Engagement, Convergence, Data Collection and Project Documentation</t>
+          <t>RFP- for Hiring a Resource Person/Agency Development of MEAL Questionnaires and Processes for CommCare Tool</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr"/>
@@ -920,7 +924,7 @@
       <c r="E20" s="1" t="inlineStr"/>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611610/community-mobilizationawareness-capacity-buildingdata-collectionconvergence</t>
+          <t>https://www.developmentaid.org/tenders/view/1612750/rfp-for-hiring-a-resource-personagency-development-of-meal-questionnaires-and-processes-for-commcare</t>
         </is>
       </c>
     </row>
@@ -932,19 +936,19 @@
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>RFP-009-IND-2026 RFP for Dissemination and Uptake of the Study ‘AI for Justice</t>
+          <t>P178254- Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project - Procurement Plan (State Project Management Unit (Kerala))</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr"/>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr"/>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611609/rfp-009-ind-2026-rfp-for-dissemination-and-uptake-of-the-study-ai-for-justice</t>
+          <t>https://www.developmentaid.org/tenders/view/1612677/p178254-kerala-climate-resilient-agri-value-chain-modernization-kera-project-procurement-plan-state</t>
         </is>
       </c>
     </row>
@@ -956,19 +960,19 @@
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>GEF SAGF IV: Growth Equity Fund</t>
+          <t>Printing of Collaterals’ for State Refresher Training</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr"/>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr"/>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611328/gef-sagf-iv-growth-equity-fund</t>
+          <t>https://www.developmentaid.org/tenders/view/1612222/printing-of-collaterals-for-state-refresher-training</t>
         </is>
       </c>
     </row>
@@ -980,19 +984,19 @@
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Consultancy, LiDAR survey of Greater Pamba River Basin, Digital Elevation Model, Flood Modelling and Flood Management Plan</t>
+          <t>Deutsch#indisches Programm für Green Skills IGGSP / German-Indian Green Skills Programme IGGSP</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr"/>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr"/>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1538687/consultancy-lidar-survey-of-greater-pamba-river-basin-digital-elevation-model-flood-modelling-and-fl</t>
+          <t>https://www.developmentaid.org/tenders/view/1612146/deutschindisches-programm-fur-green-skills-iggsp-german-indian-green-skills-programme-iggsp</t>
         </is>
       </c>
     </row>
@@ -1004,19 +1008,19 @@
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Assam Disaster Resilient Hill Roads Development Project - P510002</t>
+          <t>EoI – Mobile Medical Units, Ai-Enabled Tb Screening &amp; Supply Of Medical And Nutritional Support</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr"/>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr"/>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1453551/assam-disaster-resilient-hill-roads-development-project-p510002</t>
+          <t>https://www.developmentaid.org/tenders/view/1612050/eoi-mobile-medical-units-ai-enabled-tb-screening-supply-of-medical-and-nutritional-support</t>
         </is>
       </c>
     </row>
@@ -1028,19 +1032,19 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Assam School Education and Adolescent Wellbeing Project (ASAP) - P507865</t>
+          <t>RFP - Onboarding Agency for Revamping Assam LMIS Dashboard</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr"/>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>Learning, Safety</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr"/>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1462940/assam-school-education-and-adolescent-wellbeing-project-asap-p507865</t>
+          <t>https://www.developmentaid.org/tenders/view/1612059/rfp-onboarding-agency-for-revamping-assam-lmis-dashboard</t>
         </is>
       </c>
     </row>
@@ -1052,19 +1056,19 @@
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>Terms of Reference for hiring 'Event Management Agency'- PRS Project</t>
+          <t>RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in MP, MH and TG</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr"/>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Learning, Climate</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr"/>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611188/terms-of-reference-for-hiring-event-management-agency-prs-project</t>
+          <t>https://www.developmentaid.org/tenders/view/1612065/rfp-long-term-monitoring-evaluation-me-partnership-for-environment-and-education-programme-in-mp-mh</t>
         </is>
       </c>
     </row>
@@ -1076,19 +1080,19 @@
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
+          <t>P170873- Second Dam Rehabilitation and Improvement Project - Procurement Plan (Bhakra Beas Management Board)</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr"/>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr"/>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610971/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
+          <t>https://www.developmentaid.org/tenders/view/1611929/p170873-second-dam-rehabilitation-and-improvement-project-procurement-plan-bhakra-beas-management-bo</t>
         </is>
       </c>
     </row>
@@ -1100,19 +1104,19 @@
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Klimaanpassung, Resilienz und Klimafinanzierung im ländlichen Indien / Climate adaptation, resilience and climate finance in rural India</t>
+          <t>P178254- Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project (Agriculture Development and Farmers’ Welfare Department.)</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr"/>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr"/>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610948/klimaanpassung-resilienz-und-klimafinanzierung-im-landlichen-indien-climate-adaptation-resilience-an</t>
+          <t>https://www.developmentaid.org/tenders/view/1393178/p178254-kerala-climate-resilient-agri-value-chain-modernization-kera-project-agriculture-development</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1128,7 @@
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: MPKV Rahuri Development of Crop Weather Calendars, Spectral Libraries, and Irrigation Advisories to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA cluster of Maharashtra</t>
+          <t>P179189- Tamil Nadu Climate Resilient Urban Development Program - Procurement Plan (Tamil Nadu Urban Infrastructure Financial Services Limited)</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr"/>
@@ -1136,7 +1140,7 @@
       <c r="E29" s="1" t="inlineStr"/>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610861/maharashtra-project-on-climate-resilient-agriculture-phase-ii-mpkv-rahuri-development-of-crop-weathe</t>
+          <t>https://www.developmentaid.org/tenders/view/1189983/india-south-asia-p179189-tamil-nadu-climate-resilient-urban-development-program-tamil-nadu-urban-inf</t>
         </is>
       </c>
     </row>
@@ -1148,19 +1152,19 @@
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: Development of Crop Weather Calendars and Databases to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA Clusters of Maharashtra</t>
+          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Capacity Building Coordination Specialist (Internationl) (58369-001)</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr"/>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr"/>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610860/maharashtra-project-on-climate-resilient-agriculture-phase-ii-development-of-crop-weather-calendars</t>
+          <t>https://www.developmentaid.org/tenders/view/1611636/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-capacity-building-coordinati</t>
         </is>
       </c>
     </row>
@@ -1172,19 +1176,19 @@
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Construction of Primary Water distribution   by laying HDPE/ GI pipes and installing pumps at different Locations in project G.P. 's of Sirmaur District</t>
+          <t>Procurement of Laboratory Equipment &amp; Consumables for AMR laboratories in India, including delivery, installation, assembly, commissioning of equipment at the installation site and training services</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr"/>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr"/>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610843/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1604282/procurement-of-laboratory-equipment-consumables-for-amr-laboratories-in-india-including-delivery-ins</t>
         </is>
       </c>
     </row>
@@ -1196,19 +1200,19 @@
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: VNMKV Parbhani - Development of Crop Weather Calendars and Auto Agro-Advisories to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in PoCRA Clusters of Maharashtra</t>
+          <t>SC 125823 IND: Karnataka Integrated Urban Water Management Investment Program - Tranche 2 - Financial Management Specialist</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr"/>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr"/>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610856/maharashtra-project-on-climate-resilient-agriculture-phase-ii-vnmkv-parbhani-development-of-crop-wea</t>
+          <t>https://www.developmentaid.org/tenders/view/1589870/sc-125823-ind-karnataka-integrated-urban-water-management-investment-program-tranche-2</t>
         </is>
       </c>
     </row>
@@ -1220,19 +1224,19 @@
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: PDKV AKOLA -Development of Crop Weather Calendars, Sowing Advisories and Spectral Response to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA cluster of Maharashtra</t>
+          <t>Non-Profit Organizations for Community Mobilization, Capacity Building, Training, Stakeholder Engagement, Convergence, Data Collection and Project Documentation</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr"/>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr"/>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610858/maharashtra-project-on-climate-resilient-agriculture-phase-ii-pdkv-akola-development-of-crop-weather</t>
+          <t>https://www.developmentaid.org/tenders/view/1611610/community-mobilizationawareness-capacity-buildingdata-collectionconvergence</t>
         </is>
       </c>
     </row>
@@ -1244,19 +1248,19 @@
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Construction of Secondary water storage structure for gravity irrigation  Schemes in different G.P.'s under APO Unit Rajgarh of Sirmaur District</t>
+          <t>RFP-009-IND-2026 RFP for Dissemination and Uptake of the Study ‘AI for Justice</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr"/>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr"/>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610840/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1611609/rfp-009-ind-2026-rfp-for-dissemination-and-uptake-of-the-study-ai-for-justice</t>
         </is>
       </c>
     </row>
@@ -1268,19 +1272,19 @@
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing cement concrete check barriers in project GP,s of Sirmour Distt</t>
+          <t>GEF SAGF IV: Growth Equity Fund</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr"/>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr"/>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610839/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1611328/gef-sagf-iv-growth-equity-fund</t>
         </is>
       </c>
     </row>
@@ -1292,19 +1296,19 @@
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Renovation of old ponds in Project GP's of Sirmour Distt</t>
+          <t>Consultancy, LiDAR survey of Greater Pamba River Basin, Digital Elevation Model, Flood Modelling and Flood Management Plan</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr"/>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr"/>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610836/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1538687/consultancy-lidar-survey-of-greater-pamba-river-basin-digital-elevation-model-flood-modelling-and-fl</t>
         </is>
       </c>
     </row>
@@ -1316,19 +1320,19 @@
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Terms of Reference (tor) for Developing a Visually Appealing Illustrated and Annotated Map Poster (based on Technical Data) Showing the Natural Assets of Delhi Under the Developing 75 Food Gardens in 4 Mega Cities in India Project</t>
+          <t>Assam Disaster Resilient Hill Roads Development Project - P510002</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr"/>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr"/>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610798/terms-of-reference-tor-for-developing-a-visually-appealing-illustrated-and-annotated-map-poster-base</t>
+          <t>https://www.developmentaid.org/tenders/view/1453551/assam-disaster-resilient-hill-roads-development-project-p510002</t>
         </is>
       </c>
     </row>
@@ -1340,19 +1344,19 @@
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>TA-10488 REG: City Resilience, Affordable Housing, Sustainable Tourism, and Inclusive Economic Growth for Livable Cities - Structural Engineer (58349-002)</t>
+          <t>Assam School Education and Adolescent Wellbeing Project (ASAP) - P507865</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr"/>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning, Safety</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr"/>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1605066/ta-10488-reg-city-resilience-affordable-housing-sustainable-tourism-and-inclusive-economic-growth-fo</t>
+          <t>https://www.developmentaid.org/tenders/view/1462940/assam-school-education-and-adolescent-wellbeing-project-asap-p507865</t>
         </is>
       </c>
     </row>
@@ -1364,19 +1368,19 @@
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>P179337- Assam State Secondary Healthcare Initiative for Service Delivery Transformation (ASSIST) Project - Procurement Plan (Assam Health Infrastructure Development and Management Society)</t>
+          <t>Terms of Reference for hiring 'Event Management Agency'- PRS Project</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr"/>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Safety</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr"/>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1080539/india-south-asia-p179337-assam-state-secondary-healthcare-initiative-for-service-delivery-transforma</t>
+          <t>https://www.developmentaid.org/tenders/view/1611188/terms-of-reference-for-hiring-event-management-agency-prs-project</t>
         </is>
       </c>
     </row>
@@ -1388,19 +1392,19 @@
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>55252-001 - Maharashtra Sustainable Climate-Resilient Coastal Protection and Management Project: Procurement Plan</t>
+          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr"/>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>Governance, Safety, Climate</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr"/>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1378025/55252-001-maharashtra-sustainable-climate-resilient-coastal-protection-and-management-project-procur</t>
+          <t>https://www.developmentaid.org/tenders/view/1610971/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
         </is>
       </c>
     </row>
@@ -1412,7 +1416,7 @@
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>Solarenergie im ländlichen Raum Indiens / Solar energy in rural India</t>
+          <t>Klimaanpassung, Resilienz und Klimafinanzierung im ländlichen Indien / Climate adaptation, resilience and climate finance in rural India</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr"/>
@@ -1424,7 +1428,7 @@
       <c r="E41" s="1" t="inlineStr"/>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610293/solarenergie-im-landlichen-raum-indiens-solar-energy-in-rural-india</t>
+          <t>https://www.developmentaid.org/tenders/view/1610948/klimaanpassung-resilienz-und-klimafinanzierung-im-landlichen-indien-climate-adaptation-resilience-an</t>
         </is>
       </c>
     </row>
@@ -1436,19 +1440,19 @@
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>56300-002 - Madhya Pradesh Renewable Energy Implementation Support: Technical Assistance</t>
+          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: MPKV Rahuri Development of Crop Weather Calendars, Spectral Libraries, and Irrigation Advisories to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA cluster of Maharashtra</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr"/>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr"/>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610325/56300-002-madhya-pradesh-renewable-energy-implementation-support-technical-assistance</t>
+          <t>https://www.developmentaid.org/tenders/view/1610861/maharashtra-project-on-climate-resilient-agriculture-phase-ii-mpkv-rahuri-development-of-crop-weathe</t>
         </is>
       </c>
     </row>
@@ -1460,19 +1464,19 @@
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>Call for External Collaborator – The ILO project ‘Strengthening Labour Dispute Resolution in Tamil Nadu’s Electronics Manufacturing Sector’ invites applications from consultants to support develop &amp; deliver capacity building programme for social partners</t>
+          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: Development of Crop Weather Calendars and Databases to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA Clusters of Maharashtra</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr"/>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr"/>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610322/call-for-external-collaborator-the-ilo-project-strengthening-labour-dispute-resolution-in-tamil-nadu</t>
+          <t>https://www.developmentaid.org/tenders/view/1610860/maharashtra-project-on-climate-resilient-agriculture-phase-ii-development-of-crop-weather-calendars</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1488,7 @@
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Construction of Primary Water distribution   by laying HDPE/ GI pipes and installing pumps at different Locations in project G.P. 's of Sirmaur District</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr"/>
@@ -1496,7 +1500,7 @@
       <c r="E44" s="1" t="inlineStr"/>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610299/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
+          <t>https://www.developmentaid.org/tenders/view/1610843/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
         </is>
       </c>
     </row>
@@ -1508,19 +1512,19 @@
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project: Engagement of Project Management Consultant</t>
+          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: VNMKV Parbhani - Development of Crop Weather Calendars and Auto Agro-Advisories to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in PoCRA Clusters of Maharashtra</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr"/>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr"/>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1463234/kerala-climate-resilient-agri-value-chain-modernization-kera-project-engagement-of-project-managemen</t>
+          <t>https://www.developmentaid.org/tenders/view/1610856/maharashtra-project-on-climate-resilient-agriculture-phase-ii-vnmkv-parbhani-development-of-crop-wea</t>
         </is>
       </c>
     </row>
@@ -1532,19 +1536,19 @@
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Pipeline Condition Assessment for Urban Water Supply Networks in Rajasthan (58369-001)</t>
+          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: PDKV AKOLA -Development of Crop Weather Calendars, Sowing Advisories and Spectral Response to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA cluster of Maharashtra</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr"/>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr"/>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1583942/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-pipeline-condition-assessmen</t>
+          <t>https://www.developmentaid.org/tenders/view/1610858/maharashtra-project-on-climate-resilient-agriculture-phase-ii-pdkv-akola-development-of-crop-weather</t>
         </is>
       </c>
     </row>
@@ -1556,19 +1560,19 @@
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>Call for External Collaborator – Extending Social Protection to Migrant Workers in an Irregular Situation (South Asia–GCC Corridor)</t>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Construction of Secondary water storage structure for gravity irrigation  Schemes in different G.P.'s under APO Unit Rajgarh of Sirmaur District</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr"/>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr"/>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610212/call-for-external-collaborator-extending-social-protection-to-migrant-workers-in-an-irregular-situat</t>
+          <t>https://www.developmentaid.org/tenders/view/1610840/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
         </is>
       </c>
     </row>
@@ -1580,19 +1584,19 @@
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing cement concrete check barriers in project GP,s of Sirmour Distt</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr"/>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr"/>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610092/rfp-odia-annotation-of-student-voice-recordings-from-odisha</t>
+          <t>https://www.developmentaid.org/tenders/view/1610839/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
         </is>
       </c>
     </row>
@@ -1604,19 +1608,19 @@
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Renovation of old ponds in Project GP's of Sirmour Distt</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr"/>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr"/>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610106/rfp-english-annotation-of-student-voice-recordings-from-gujarat</t>
+          <t>https://www.developmentaid.org/tenders/view/1610836/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
         </is>
       </c>
     </row>
@@ -1628,19 +1632,19 @@
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>EoI - For Empanelment of agencies for Impact Assessment / Evaluation Services under Programmes for Development and Impact</t>
+          <t>Terms of Reference (tor) for Developing a Visually Appealing Illustrated and Annotated Map Poster (based on Technical Data) Showing the Natural Assets of Delhi Under the Developing 75 Food Gardens in 4 Mega Cities in India Project</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr"/>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr"/>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609663/eoi-for-empanelment-of-agencies-for-impact-assessment-evaluation-services-under-programmes-for-devel</t>
+          <t>https://www.developmentaid.org/tenders/view/1610798/terms-of-reference-tor-for-developing-a-visually-appealing-illustrated-and-annotated-map-poster-base</t>
         </is>
       </c>
     </row>
@@ -1652,19 +1656,19 @@
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>RFP - Early-Stage Impact Assessment-CDRI SWP 23-26</t>
+          <t>TA-10488 REG: City Resilience, Affordable Housing, Sustainable Tourism, and Inclusive Economic Growth for Livable Cities - Structural Engineer (58349-002)</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr"/>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr"/>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609606/rfp-early-stage-impact-assessment-cdri-swp-23-26</t>
+          <t>https://www.developmentaid.org/tenders/view/1605066/ta-10488-reg-city-resilience-affordable-housing-sustainable-tourism-and-inclusive-economic-growth-fo</t>
         </is>
       </c>
     </row>
@@ -1676,19 +1680,19 @@
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>Mirova Energy Transition Emerging Asia (METEA)</t>
+          <t>P179337- Assam State Secondary Healthcare Initiative for Service Delivery Transformation (ASSIST) Project - Procurement Plan (Assam Health Infrastructure Development and Management Society)</t>
         </is>
       </c>
       <c r="C52" s="1" t="inlineStr"/>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning, Safety</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr"/>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609692/mirova-energy-transition-emerging-asia-metea</t>
+          <t>https://www.developmentaid.org/tenders/view/1080539/india-south-asia-p179337-assam-state-secondary-healthcare-initiative-for-service-delivery-transforma</t>
         </is>
       </c>
     </row>
@@ -1700,19 +1704,19 @@
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
+          <t>55252-001 - Maharashtra Sustainable Climate-Resilient Coastal Protection and Management Project: Procurement Plan</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr"/>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Safety, Climate</t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr"/>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609597/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
+          <t>https://www.developmentaid.org/tenders/view/1378025/55252-001-maharashtra-sustainable-climate-resilient-coastal-protection-and-management-project-procur</t>
         </is>
       </c>
     </row>
@@ -1724,19 +1728,19 @@
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>Hiring consultancy firm for filing GST, VAT, IGST Refund Claims and related tasks for the ILO New Delhi office</t>
+          <t>Solarenergie im ländlichen Raum Indiens / Solar energy in rural India</t>
         </is>
       </c>
       <c r="C54" s="1" t="inlineStr"/>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr"/>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609700/hiring-consultancy-firm-for-filing-gst-vat-igst-refund-claims-and-related-tasks-for-the-ilo-new-delh</t>
+          <t>https://www.developmentaid.org/tenders/view/1610293/solarenergie-im-landlichen-raum-indiens-solar-energy-in-rural-india</t>
         </is>
       </c>
     </row>
@@ -1748,19 +1752,19 @@
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4411 IND: Building India's Clean Plant Program - IARI-staff-C S09 IARI staff - virologists and other staff - Lab Assistant (02) (Plant Material Management) (57041-001)</t>
+          <t>56300-002 - Madhya Pradesh Renewable Energy Implementation Support: Technical Assistance</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr"/>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr"/>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1602442/loan-4411-ind-building-indias-clean-plant-program-iari-staff-c-s09-iari-staff-virologists-and-other</t>
+          <t>https://www.developmentaid.org/tenders/view/1610325/56300-002-madhya-pradesh-renewable-energy-implementation-support-technical-assistance</t>
         </is>
       </c>
     </row>
@@ -1772,19 +1776,19 @@
       </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4291 IND: Himachal Pradesh Subtropical Horticulture, Irrigation, and Value Addition Project - CS 10 Communications and digital contents for Information Education and Knowledge Management under HPSHIVA Project (53189-002)</t>
+          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr"/>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr"/>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609118/loan-4291-ind-himachal-pradesh-subtropical-horticulture-irrigation-and-value-addition-project-cs-10</t>
+          <t>https://www.developmentaid.org/tenders/view/1610299/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
         </is>
       </c>
     </row>
@@ -1796,19 +1800,19 @@
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Knowledge and Learning Specialist (National) (58369-001)</t>
+          <t>Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project: Engagement of Project Management Consultant</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr"/>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr"/>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609114/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-knowledge-and-learning-speci</t>
+          <t>https://www.developmentaid.org/tenders/view/1463234/kerala-climate-resilient-agri-value-chain-modernization-kera-project-engagement-of-project-managemen</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1824,7 @@
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Fecal Sludge Management and Urban Institutional Expert (National) (58369-001)</t>
+          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Pipeline Condition Assessment for Urban Water Supply Networks in Rajasthan (58369-001)</t>
         </is>
       </c>
       <c r="C58" s="1" t="inlineStr"/>
@@ -1832,7 +1836,7 @@
       <c r="E58" s="1" t="inlineStr"/>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1609113/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-fecal-sludge-management-and</t>
+          <t>https://www.developmentaid.org/tenders/view/1583942/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-pipeline-condition-assessmen</t>
         </is>
       </c>
     </row>
@@ -1844,19 +1848,19 @@
       </c>
       <c r="B59" s="1" t="inlineStr">
         <is>
-          <t>Request For Proposal For Hiring of Technical Partner Agency for Designing, Development and Implementation of AI-Enabled Learning and Knowledge Sharing Platform for ISA</t>
+          <t>Call for External Collaborator – Extending Social Protection to Migrant Workers in an Irregular Situation (South Asia–GCC Corridor)</t>
         </is>
       </c>
       <c r="C59" s="1" t="inlineStr"/>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="E59" s="1" t="inlineStr"/>
       <c r="F59" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1589295/request-for-proposal-for-hiring-of-technical-partner-agency-for-designing-development-and-implementa</t>
+          <t>https://www.developmentaid.org/tenders/view/1610212/call-for-external-collaborator-extending-social-protection-to-migrant-workers-in-an-irregular-situat</t>
         </is>
       </c>
     </row>
@@ -1868,19 +1872,19 @@
       </c>
       <c r="B60" s="1" t="inlineStr">
         <is>
-          <t>P168633- Kerala Solid Waste Management Project (ULB PGT PALAKKAD)</t>
+          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
         </is>
       </c>
       <c r="C60" s="1" t="inlineStr"/>
       <c r="D60" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E60" s="1" t="inlineStr"/>
       <c r="F60" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1095526/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-pgt-palakkad-procurement-plan</t>
+          <t>https://www.developmentaid.org/tenders/view/1610092/rfp-odia-annotation-of-student-voice-recordings-from-odisha</t>
         </is>
       </c>
     </row>
@@ -1892,67 +1896,19 @@
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>P166020 - West Bengal Transport and Logistics Spatial Development Project - Procurement Plan (West Bengal Transport Infrastructure Development Corporation Limited)</t>
+          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
         </is>
       </c>
       <c r="C61" s="1" t="inlineStr"/>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>Learning, Safety</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr"/>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/485630/india-south-asia-p166020-west-bengal-transport-and-logistics-spatial-development-project-procurement</t>
-        </is>
-      </c>
-    </row>
-    <row r="62" ht="80" customHeight="1">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>DevelopmentAid</t>
-        </is>
-      </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>P179935- Enhancing Landscape and Ecosystem Management (ELEMENT) Project - Procurement Plan (State Forest Development Agency, Tripura)</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr"/>
-      <c r="D62" s="1" t="inlineStr">
-        <is>
-          <t>Governance, Learning</t>
-        </is>
-      </c>
-      <c r="E62" s="1" t="inlineStr"/>
-      <c r="F62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.developmentaid.org/tenders/view/1161054/india-south-asia-p179935-enhancing-landscape-and-ecosystem-management-project-procurement-plan-engli</t>
-        </is>
-      </c>
-    </row>
-    <row r="63" ht="80" customHeight="1">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>DevelopmentAid</t>
-        </is>
-      </c>
-      <c r="B63" s="1" t="inlineStr">
-        <is>
-          <t>Request for Proposals (RFP): Consulting Agency for Identifying High Growth Livelihoods and Market Access Challenges</t>
-        </is>
-      </c>
-      <c r="C63" s="1" t="inlineStr"/>
-      <c r="D63" s="1" t="inlineStr">
-        <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="E63" s="1" t="inlineStr"/>
-      <c r="F63" s="1" t="inlineStr">
-        <is>
-          <t>https://www.developmentaid.org/tenders/view/1598904/request-for-proposals-rfp-consulting-agency-for-identifying-high-growth-livelihoods-and-market-acces</t>
+          <t>https://www.developmentaid.org/tenders/view/1610106/rfp-english-annotation-of-student-voice-recordings-from-gujarat</t>
         </is>
       </c>
     </row>

--- a/output/Combined.xlsx
+++ b/output/Combined.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,19 +528,19 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Call for External Collaborator – The ILO project ‘Strengthening Labour Dispute Resolution in Tamil Nadu’s Electronics Manufacturing Sector’ invites applications from consultants to support develop &amp; deliver capacity building programme for social partners</t>
+          <t>Skills: National ITI Upgradation Program - P507910</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr"/>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr"/>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610322/call-for-external-collaborator-the-ilo-project-strengthening-labour-dispute-resolution-in-tamil-nadu</t>
+          <t>https://www.developmentaid.org/tenders/view/1425157/skills-national-iti-upgradation-program-p507910</t>
         </is>
       </c>
     </row>
@@ -552,19 +552,19 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>56283-002 - Climate Resilient Brahmaputra Integrated Flood and Riverbank Erosion Risk Management Project in Assam - Additional Financing</t>
+          <t>57230-001: Sikkim Integrated Urban Development Project: 04. SIUDP /DRY/THCC-01 - Design Build: Three Transit hubs cum community complex (THCCs) in Rangpo (Lot - 1), Ranipool (Lot - 2), and Pakyong (Lot - 3)</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr"/>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1543921/56283-002-climate-resilient-brahmaputra-integrated-flood-and-riverbank-erosion-risk-management-proje</t>
+          <t>https://www.developmentaid.org/tenders/view/1438614/57230-001-sikkim-integrated-urban-development-project</t>
         </is>
       </c>
     </row>
@@ -576,19 +576,19 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>59459-001 - Building Knowledge-Based Innovative Solutions for Sustainable and Clean Energy in Asia and the Pacific: Technical Assistance</t>
+          <t>LOAN 57262-001 IND: Assam Urban Sector Development Project - AUSDP/CMS/01 Project Management and Supervision Consultants (PMSC)</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr"/>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr"/>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1584578/59459-001-building-knowledge-based-innovative-solutions-for-sustainable-and-clean-energy-in-asia-and</t>
+          <t>https://www.developmentaid.org/tenders/view/1266713/loan-57262-001-ind-assam-urban-sector-development-project-ausdpcms01-project-management-and-supervis</t>
         </is>
       </c>
     </row>
@@ -600,19 +600,19 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>59305-001 - Catalyzing Sustainable Transport Initiatives in Asia and the Pacific: Technical Assistance</t>
+          <t>Hiring of an Agency for Development of an Operational &amp; Implementation Plan for Solar Global Capability Center (GCC)</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr"/>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1552965/59305-001-catalyzing-sustainable-transport-initiatives-in-asia-and-the-pacific-technical-assistance</t>
+          <t>https://www.developmentaid.org/tenders/view/1614087/hiring-of-an-agency-for-development-of-an-operational-implementation-plan-for-solar-global-capabilit</t>
         </is>
       </c>
     </row>
@@ -624,19 +624,19 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>59388-001 - Accelerating and Sustaining Universal Health Coverage (UHC) through UHC Practitioners and Experts knowledge Exchange and Resources (UHC PEERS) Network: Technical Assistance</t>
+          <t>TA-9844 IND: Supporting Education and Skills Development Facility - Financial Management Specialist (53277-001)</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr"/>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Governance, Safety</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr"/>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1572727/59388-001-accelerating-and-sustaining-universal-health-coverage-uhc-through-uhc-practitioners-and-ex</t>
+          <t>https://www.developmentaid.org/tenders/view/1613681/ta-9844-ind-supporting-education-and-skills-development-facility-financial-management-specialist-532</t>
         </is>
       </c>
     </row>
@@ -648,19 +648,19 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>59384-001 - Strengthening Quality, Sustainability and Value for Money through Implementation of the 2026 Procurement Directive for ADB Borrowers: Technical Assistance</t>
+          <t>RFP-011-IND-2026 - Agency for Development of a Gender-Responsive SDG framework</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr"/>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning, Safety</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr"/>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1613609/59384-001-strengthening-quality-sustainability-and-value-for-money-through-implementation-of-the-202</t>
+          <t>https://www.developmentaid.org/tenders/view/1614135/rfp-011-ind-2026-agency-for-development-of-a-gender-responsive-sdg-framework</t>
         </is>
       </c>
     </row>
@@ -672,19 +672,19 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>Onboarding of a Consultancy / Research Firm for Economic Impact Analysis of Public Health Supply Chain Strengthening</t>
+          <t>TA-10416 IND: Promoting Disaster Risk Insurance (54081-001)</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr"/>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>Governance, Safety</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr"/>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1613408/rfp-2026-in-01-agency-for-economic-impact-analysis</t>
+          <t>https://www.developmentaid.org/tenders/view/1613677/ta-10416-ind-promoting-disaster-risk-insurance-54081-001</t>
         </is>
       </c>
     </row>
@@ -696,19 +696,19 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>57133-001 - Sustainable and Inclusive Tourism Development Project in Himachal Pradesh: Procurement Plan</t>
+          <t>RFP for for Developing Integrated One Health Portal for enhanced collaborative Surveillance</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr"/>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr"/>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1377325/57133-001-sustainable-and-inclusive-tourism-development-project-in-himachal-pradesh-procurement-plan</t>
+          <t>https://www.developmentaid.org/tenders/view/1607851/rfp-for-for-developing-integrated-one-health-portal-for-enhanced-collaborative-s</t>
         </is>
       </c>
     </row>
@@ -720,19 +720,19 @@
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Evidence for AI in Health (EVAH)</t>
+          <t>Carpl.AI, Inc</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr"/>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>Learning, Safety</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr"/>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1613299/evidence-for-ai-in-health-evah</t>
+          <t>https://www.developmentaid.org/tenders/view/1614052/carplai-inc</t>
         </is>
       </c>
     </row>
@@ -744,19 +744,19 @@
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>P179749- Uttarakhand Disaster Preparedness and Resilience Project - Procurement Plan (PIU- Rural Works Department)</t>
+          <t>RFQ - Final Evaluation of the UNESCO-Guerlain Women for Bees project</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr"/>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Safety</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr"/>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1485844/p179749-uttarakhand-disaster-preparedness-and-resilience-project-procurement-plan-piu-rural-works-de</t>
+          <t>https://www.developmentaid.org/tenders/view/1614000/rfq-final-evaluation-of-the-unesco-guerlain-women-for-bees-project</t>
         </is>
       </c>
     </row>
@@ -768,19 +768,19 @@
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>P178581 - Assam Resilient Rural Bridges Program - Procurement Plan (Public Works Roads Department, Assam)</t>
+          <t>TA-6742 REG: Building Coastal Resilience through Nature-Based and Integrated Solutions - Project Evaluation Specialist (54212-001)</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr"/>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr"/>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1189984/india-south-asia-p178581-assam-resilient-rural-bridges-program-procurement-plan</t>
+          <t>https://www.developmentaid.org/tenders/view/1613663/ta-6742-reg-building-coastal-resilience-through-nature-based-and-integrated-solutions-project-evalua</t>
         </is>
       </c>
     </row>
@@ -792,19 +792,19 @@
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>P180932 - Strengthening Coastal Resilience and the Economy - Procurement Plan (Tamil Nadu Green Climate Company (TNGCC))</t>
+          <t>Call for External Collaborator – The ILO project ‘Strengthening Labour Dispute Resolution in Tamil Nadu’s Electronics Manufacturing Sector’ invites applications from consultants to support develop &amp; deliver capacity building programme for social partners</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr"/>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr"/>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1326097/india-south-asia-p180932-strengthening-coastal-resilience-and-the-economy-tamil-nadu-green-climate-c</t>
+          <t>https://www.developmentaid.org/tenders/view/1610322/call-for-external-collaborator-the-ilo-project-strengthening-labour-dispute-resolution-in-tamil-nadu</t>
         </is>
       </c>
     </row>
@@ -816,19 +816,19 @@
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>P179935 - Enhancing Landscape and Ecosystem Management Project - Procurement Plan (Society for Climate Resilient Agriculture in Nagaland)</t>
+          <t>P170873- Second Dam Rehabilitation and Improvement Project - Procurement Plan (Bhakra Beas Management Board)</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr"/>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr"/>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1145475/india-south-asia-p179935-enhancing-landscape-and-ecosystem-management-project-society-for-climate-re</t>
+          <t>https://www.developmentaid.org/tenders/view/1611929/p170873-second-dam-rehabilitation-and-improvement-project-procurement-plan-bhakra-beas-management-bo</t>
         </is>
       </c>
     </row>
@@ -840,19 +840,19 @@
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>P163533- Odisha Integrated Irrigation Project for Climate Resilient Agriculture - Procurement Plan (Odisha community Tank Development and Management Society)</t>
+          <t>LOAN-4166 IND: Assam Skill University Project - CS11 Project Management Support for Capacity Development of Assam Civil Service (53277-002)</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr"/>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr"/>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/484340/india-south-asia-p163533-odisha-integrated-irrigation-project-for-climate-resilient-agriculture-proc</t>
+          <t>https://www.developmentaid.org/tenders/view/1599394/loan-4166-ind-assam-skill-university-project-cs11-project-management-support-for-capacity-developmen</t>
         </is>
       </c>
     </row>
@@ -864,19 +864,19 @@
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat, Rice and Millets under Public Distribution System - Agri-market Assessment Expert (55154-002)</t>
+          <t>56283-002 - Climate Resilient Brahmaputra Integrated Flood and Riverbank Erosion Risk Management Project in Assam - Additional Financing</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr"/>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr"/>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607893/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
+          <t>https://www.developmentaid.org/tenders/view/1543921/56283-002-climate-resilient-brahmaputra-integrated-flood-and-riverbank-erosion-risk-management-proje</t>
         </is>
       </c>
     </row>
@@ -888,19 +888,19 @@
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>RFP - Final Evaluation of the Bhoomi Ka Programme</t>
+          <t>59459-001 - Building Knowledge-Based Innovative Solutions for Sustainable and Clean Energy in Asia and the Pacific: Technical Assistance</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr"/>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr"/>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612729/rfp-final-evaluation-of-the-bhoomi-ka-programme</t>
+          <t>https://www.developmentaid.org/tenders/view/1584578/59459-001-building-knowledge-based-innovative-solutions-for-sustainable-and-clean-energy-in-asia-and</t>
         </is>
       </c>
     </row>
@@ -912,19 +912,19 @@
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>RFP- for Hiring a Resource Person/Agency Development of MEAL Questionnaires and Processes for CommCare Tool</t>
+          <t>59305-001 - Catalyzing Sustainable Transport Initiatives in Asia and the Pacific: Technical Assistance</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr"/>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr"/>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612750/rfp-for-hiring-a-resource-personagency-development-of-meal-questionnaires-and-processes-for-commcare</t>
+          <t>https://www.developmentaid.org/tenders/view/1552965/59305-001-catalyzing-sustainable-transport-initiatives-in-asia-and-the-pacific-technical-assistance</t>
         </is>
       </c>
     </row>
@@ -936,19 +936,19 @@
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>P178254- Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project - Procurement Plan (State Project Management Unit (Kerala))</t>
+          <t>59388-001 - Accelerating and Sustaining Universal Health Coverage (UHC) through UHC Practitioners and Experts knowledge Exchange and Resources (UHC PEERS) Network: Technical Assistance</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr"/>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance, Safety</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr"/>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612677/p178254-kerala-climate-resilient-agri-value-chain-modernization-kera-project-procurement-plan-state</t>
+          <t>https://www.developmentaid.org/tenders/view/1572727/59388-001-accelerating-and-sustaining-universal-health-coverage-uhc-through-uhc-practitioners-and-ex</t>
         </is>
       </c>
     </row>
@@ -960,19 +960,19 @@
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>Printing of Collaterals’ for State Refresher Training</t>
+          <t>59384-001 - Strengthening Quality, Sustainability and Value for Money through Implementation of the 2026 Procurement Directive for ADB Borrowers: Technical Assistance</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr"/>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr"/>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612222/printing-of-collaterals-for-state-refresher-training</t>
+          <t>https://www.developmentaid.org/tenders/view/1613609/59384-001-strengthening-quality-sustainability-and-value-for-money-through-implementation-of-the-202</t>
         </is>
       </c>
     </row>
@@ -984,19 +984,19 @@
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Deutsch#indisches Programm für Green Skills IGGSP / German-Indian Green Skills Programme IGGSP</t>
+          <t>Onboarding of a Consultancy / Research Firm for Economic Impact Analysis of Public Health Supply Chain Strengthening</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr"/>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance, Safety</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr"/>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612146/deutschindisches-programm-fur-green-skills-iggsp-german-indian-green-skills-programme-iggsp</t>
+          <t>https://www.developmentaid.org/tenders/view/1613408/rfp-2026-in-01-agency-for-economic-impact-analysis</t>
         </is>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>EoI – Mobile Medical Units, Ai-Enabled Tb Screening &amp; Supply Of Medical And Nutritional Support</t>
+          <t>57133-001 - Sustainable and Inclusive Tourism Development Project in Himachal Pradesh: Procurement Plan</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr"/>
@@ -1020,7 +1020,7 @@
       <c r="E24" s="1" t="inlineStr"/>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612050/eoi-mobile-medical-units-ai-enabled-tb-screening-supply-of-medical-and-nutritional-support</t>
+          <t>https://www.developmentaid.org/tenders/view/1377325/57133-001-sustainable-and-inclusive-tourism-development-project-in-himachal-pradesh-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -1032,19 +1032,19 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>RFP - Onboarding Agency for Revamping Assam LMIS Dashboard</t>
+          <t>Evidence for AI in Health (EVAH)</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr"/>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning, Safety</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr"/>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612059/rfp-onboarding-agency-for-revamping-assam-lmis-dashboard</t>
+          <t>https://www.developmentaid.org/tenders/view/1613299/evidence-for-ai-in-health-evah</t>
         </is>
       </c>
     </row>
@@ -1056,19 +1056,19 @@
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in MP, MH and TG</t>
+          <t>P179749- Uttarakhand Disaster Preparedness and Resilience Project - Procurement Plan (PIU- Rural Works Department)</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr"/>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Climate</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr"/>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612065/rfp-long-term-monitoring-evaluation-me-partnership-for-environment-and-education-programme-in-mp-mh</t>
+          <t>https://www.developmentaid.org/tenders/view/1485844/p179749-uttarakhand-disaster-preparedness-and-resilience-project-procurement-plan-piu-rural-works-de</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>P170873- Second Dam Rehabilitation and Improvement Project - Procurement Plan (Bhakra Beas Management Board)</t>
+          <t>P178581 - Assam Resilient Rural Bridges Program - Procurement Plan (Public Works Roads Department, Assam)</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr"/>
@@ -1092,7 +1092,7 @@
       <c r="E27" s="1" t="inlineStr"/>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611929/p170873-second-dam-rehabilitation-and-improvement-project-procurement-plan-bhakra-beas-management-bo</t>
+          <t>https://www.developmentaid.org/tenders/view/1189984/india-south-asia-p178581-assam-resilient-rural-bridges-program-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -1104,19 +1104,19 @@
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>P178254- Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project (Agriculture Development and Farmers’ Welfare Department.)</t>
+          <t>P180932 - Strengthening Coastal Resilience and the Economy - Procurement Plan (Tamil Nadu Green Climate Company (TNGCC))</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr"/>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr"/>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1393178/p178254-kerala-climate-resilient-agri-value-chain-modernization-kera-project-agriculture-development</t>
+          <t>https://www.developmentaid.org/tenders/view/1326097/india-south-asia-p180932-strengthening-coastal-resilience-and-the-economy-tamil-nadu-green-climate-c</t>
         </is>
       </c>
     </row>
@@ -1128,19 +1128,19 @@
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>P179189- Tamil Nadu Climate Resilient Urban Development Program - Procurement Plan (Tamil Nadu Urban Infrastructure Financial Services Limited)</t>
+          <t>P179935 - Enhancing Landscape and Ecosystem Management Project - Procurement Plan (Society for Climate Resilient Agriculture in Nagaland)</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr"/>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr"/>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1189983/india-south-asia-p179189-tamil-nadu-climate-resilient-urban-development-program-tamil-nadu-urban-inf</t>
+          <t>https://www.developmentaid.org/tenders/view/1145475/india-south-asia-p179935-enhancing-landscape-and-ecosystem-management-project-society-for-climate-re</t>
         </is>
       </c>
     </row>
@@ -1152,19 +1152,19 @@
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Capacity Building Coordination Specialist (Internationl) (58369-001)</t>
+          <t>P163533- Odisha Integrated Irrigation Project for Climate Resilient Agriculture - Procurement Plan (Odisha community Tank Development and Management Society)</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr"/>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Learning, Climate</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr"/>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611636/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-capacity-building-coordinati</t>
+          <t>https://www.developmentaid.org/tenders/view/484340/india-south-asia-p163533-odisha-integrated-irrigation-project-for-climate-resilient-agriculture-proc</t>
         </is>
       </c>
     </row>
@@ -1176,19 +1176,19 @@
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>Procurement of Laboratory Equipment &amp; Consumables for AMR laboratories in India, including delivery, installation, assembly, commissioning of equipment at the installation site and training services</t>
+          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat, Rice and Millets under Public Distribution System - Agri-market Assessment Expert (55154-002)</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr"/>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr"/>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1604282/procurement-of-laboratory-equipment-consumables-for-amr-laboratories-in-india-including-delivery-ins</t>
+          <t>https://www.developmentaid.org/tenders/view/1607893/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
         </is>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>SC 125823 IND: Karnataka Integrated Urban Water Management Investment Program - Tranche 2 - Financial Management Specialist</t>
+          <t>RFP - Final Evaluation of the Bhoomi Ka Programme</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr"/>
@@ -1212,7 +1212,7 @@
       <c r="E32" s="1" t="inlineStr"/>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1589870/sc-125823-ind-karnataka-integrated-urban-water-management-investment-program-tranche-2</t>
+          <t>https://www.developmentaid.org/tenders/view/1612729/rfp-final-evaluation-of-the-bhoomi-ka-programme</t>
         </is>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>Non-Profit Organizations for Community Mobilization, Capacity Building, Training, Stakeholder Engagement, Convergence, Data Collection and Project Documentation</t>
+          <t>RFP- for Hiring a Resource Person/Agency Development of MEAL Questionnaires and Processes for CommCare Tool</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr"/>
@@ -1236,7 +1236,7 @@
       <c r="E33" s="1" t="inlineStr"/>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611610/community-mobilizationawareness-capacity-buildingdata-collectionconvergence</t>
+          <t>https://www.developmentaid.org/tenders/view/1612750/rfp-for-hiring-a-resource-personagency-development-of-meal-questionnaires-and-processes-for-commcare</t>
         </is>
       </c>
     </row>
@@ -1248,19 +1248,19 @@
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>RFP-009-IND-2026 RFP for Dissemination and Uptake of the Study ‘AI for Justice</t>
+          <t>P178254- Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project - Procurement Plan (State Project Management Unit (Kerala))</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr"/>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr"/>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611609/rfp-009-ind-2026-rfp-for-dissemination-and-uptake-of-the-study-ai-for-justice</t>
+          <t>https://www.developmentaid.org/tenders/view/1612677/p178254-kerala-climate-resilient-agri-value-chain-modernization-kera-project-procurement-plan-state</t>
         </is>
       </c>
     </row>
@@ -1272,19 +1272,19 @@
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>GEF SAGF IV: Growth Equity Fund</t>
+          <t>Printing of Collaterals’ for State Refresher Training</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr"/>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr"/>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611328/gef-sagf-iv-growth-equity-fund</t>
+          <t>https://www.developmentaid.org/tenders/view/1612222/printing-of-collaterals-for-state-refresher-training</t>
         </is>
       </c>
     </row>
@@ -1296,19 +1296,19 @@
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Consultancy, LiDAR survey of Greater Pamba River Basin, Digital Elevation Model, Flood Modelling and Flood Management Plan</t>
+          <t>Deutsch#indisches Programm für Green Skills IGGSP / German-Indian Green Skills Programme IGGSP</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr"/>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr"/>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1538687/consultancy-lidar-survey-of-greater-pamba-river-basin-digital-elevation-model-flood-modelling-and-fl</t>
+          <t>https://www.developmentaid.org/tenders/view/1612146/deutschindisches-programm-fur-green-skills-iggsp-german-indian-green-skills-programme-iggsp</t>
         </is>
       </c>
     </row>
@@ -1320,19 +1320,19 @@
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Assam Disaster Resilient Hill Roads Development Project - P510002</t>
+          <t>EoI – Mobile Medical Units, Ai-Enabled Tb Screening &amp; Supply Of Medical And Nutritional Support</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr"/>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr"/>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1453551/assam-disaster-resilient-hill-roads-development-project-p510002</t>
+          <t>https://www.developmentaid.org/tenders/view/1612050/eoi-mobile-medical-units-ai-enabled-tb-screening-supply-of-medical-and-nutritional-support</t>
         </is>
       </c>
     </row>
@@ -1344,19 +1344,19 @@
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>Assam School Education and Adolescent Wellbeing Project (ASAP) - P507865</t>
+          <t>RFP - Onboarding Agency for Revamping Assam LMIS Dashboard</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr"/>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>Learning, Safety</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr"/>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1462940/assam-school-education-and-adolescent-wellbeing-project-asap-p507865</t>
+          <t>https://www.developmentaid.org/tenders/view/1612059/rfp-onboarding-agency-for-revamping-assam-lmis-dashboard</t>
         </is>
       </c>
     </row>
@@ -1368,19 +1368,19 @@
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>Terms of Reference for hiring 'Event Management Agency'- PRS Project</t>
+          <t>RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in MP, MH and TG</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr"/>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Learning, Climate</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr"/>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611188/terms-of-reference-for-hiring-event-management-agency-prs-project</t>
+          <t>https://www.developmentaid.org/tenders/view/1612065/rfp-long-term-monitoring-evaluation-me-partnership-for-environment-and-education-programme-in-mp-mh</t>
         </is>
       </c>
     </row>
@@ -1392,19 +1392,19 @@
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
+          <t>P178254- Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project (Agriculture Development and Farmers’ Welfare Department.)</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr"/>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr"/>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610971/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
+          <t>https://www.developmentaid.org/tenders/view/1393178/p178254-kerala-climate-resilient-agri-value-chain-modernization-kera-project-agriculture-development</t>
         </is>
       </c>
     </row>
@@ -1416,19 +1416,19 @@
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>Klimaanpassung, Resilienz und Klimafinanzierung im ländlichen Indien / Climate adaptation, resilience and climate finance in rural India</t>
+          <t>P179189- Tamil Nadu Climate Resilient Urban Development Program - Procurement Plan (Tamil Nadu Urban Infrastructure Financial Services Limited)</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr"/>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr"/>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610948/klimaanpassung-resilienz-und-klimafinanzierung-im-landlichen-indien-climate-adaptation-resilience-an</t>
+          <t>https://www.developmentaid.org/tenders/view/1189983/india-south-asia-p179189-tamil-nadu-climate-resilient-urban-development-program-tamil-nadu-urban-inf</t>
         </is>
       </c>
     </row>
@@ -1440,19 +1440,19 @@
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: MPKV Rahuri Development of Crop Weather Calendars, Spectral Libraries, and Irrigation Advisories to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA cluster of Maharashtra</t>
+          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Capacity Building Coordination Specialist (Internationl) (58369-001)</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr"/>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr"/>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610861/maharashtra-project-on-climate-resilient-agriculture-phase-ii-mpkv-rahuri-development-of-crop-weathe</t>
+          <t>https://www.developmentaid.org/tenders/view/1611636/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-capacity-building-coordinati</t>
         </is>
       </c>
     </row>
@@ -1464,19 +1464,19 @@
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: Development of Crop Weather Calendars and Databases to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA Clusters of Maharashtra</t>
+          <t>Procurement of Laboratory Equipment &amp; Consumables for AMR laboratories in India, including delivery, installation, assembly, commissioning of equipment at the installation site and training services</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr"/>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr"/>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610860/maharashtra-project-on-climate-resilient-agriculture-phase-ii-development-of-crop-weather-calendars</t>
+          <t>https://www.developmentaid.org/tenders/view/1604282/procurement-of-laboratory-equipment-consumables-for-amr-laboratories-in-india-including-delivery-ins</t>
         </is>
       </c>
     </row>
@@ -1488,19 +1488,19 @@
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Construction of Primary Water distribution   by laying HDPE/ GI pipes and installing pumps at different Locations in project G.P. 's of Sirmaur District</t>
+          <t>Non-Profit Organizations for Community Mobilization, Capacity Building, Training, Stakeholder Engagement, Convergence, Data Collection and Project Documentation</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr"/>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr"/>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610843/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1611610/community-mobilizationawareness-capacity-buildingdata-collectionconvergence</t>
         </is>
       </c>
     </row>
@@ -1512,19 +1512,19 @@
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: VNMKV Parbhani - Development of Crop Weather Calendars and Auto Agro-Advisories to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in PoCRA Clusters of Maharashtra</t>
+          <t>RFP-009-IND-2026 RFP for Dissemination and Uptake of the Study ‘AI for Justice</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr"/>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr"/>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610856/maharashtra-project-on-climate-resilient-agriculture-phase-ii-vnmkv-parbhani-development-of-crop-wea</t>
+          <t>https://www.developmentaid.org/tenders/view/1611609/rfp-009-ind-2026-rfp-for-dissemination-and-uptake-of-the-study-ai-for-justice</t>
         </is>
       </c>
     </row>
@@ -1536,19 +1536,19 @@
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: PDKV AKOLA -Development of Crop Weather Calendars, Sowing Advisories and Spectral Response to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA cluster of Maharashtra</t>
+          <t>GEF SAGF IV: Growth Equity Fund</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr"/>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr"/>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610858/maharashtra-project-on-climate-resilient-agriculture-phase-ii-pdkv-akola-development-of-crop-weather</t>
+          <t>https://www.developmentaid.org/tenders/view/1611328/gef-sagf-iv-growth-equity-fund</t>
         </is>
       </c>
     </row>
@@ -1560,19 +1560,19 @@
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Construction of Secondary water storage structure for gravity irrigation  Schemes in different G.P.'s under APO Unit Rajgarh of Sirmaur District</t>
+          <t>Consultancy, LiDAR survey of Greater Pamba River Basin, Digital Elevation Model, Flood Modelling and Flood Management Plan</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr"/>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr"/>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610840/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1538687/consultancy-lidar-survey-of-greater-pamba-river-basin-digital-elevation-model-flood-modelling-and-fl</t>
         </is>
       </c>
     </row>
@@ -1584,19 +1584,19 @@
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Drainage line treatment by constructing cement concrete check barriers in project GP,s of Sirmour Distt</t>
+          <t>Assam Disaster Resilient Hill Roads Development Project - P510002</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr"/>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr"/>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610839/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1453551/assam-disaster-resilient-hill-roads-development-project-p510002</t>
         </is>
       </c>
     </row>
@@ -1608,19 +1608,19 @@
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Renovation of old ponds in Project GP's of Sirmour Distt</t>
+          <t>Assam School Education and Adolescent Wellbeing Project (ASAP) - P507865</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr"/>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning, Safety</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr"/>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610836/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1462940/assam-school-education-and-adolescent-wellbeing-project-asap-p507865</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>Terms of Reference (tor) for Developing a Visually Appealing Illustrated and Annotated Map Poster (based on Technical Data) Showing the Natural Assets of Delhi Under the Developing 75 Food Gardens in 4 Mega Cities in India Project</t>
+          <t>Terms of Reference for hiring 'Event Management Agency'- PRS Project</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr"/>
@@ -1644,7 +1644,7 @@
       <c r="E50" s="1" t="inlineStr"/>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610798/terms-of-reference-tor-for-developing-a-visually-appealing-illustrated-and-annotated-map-poster-base</t>
+          <t>https://www.developmentaid.org/tenders/view/1611188/terms-of-reference-for-hiring-event-management-agency-prs-project</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>TA-10488 REG: City Resilience, Affordable Housing, Sustainable Tourism, and Inclusive Economic Growth for Livable Cities - Structural Engineer (58349-002)</t>
+          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr"/>
@@ -1668,7 +1668,7 @@
       <c r="E51" s="1" t="inlineStr"/>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1605066/ta-10488-reg-city-resilience-affordable-housing-sustainable-tourism-and-inclusive-economic-growth-fo</t>
+          <t>https://www.developmentaid.org/tenders/view/1610971/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
         </is>
       </c>
     </row>
@@ -1680,19 +1680,19 @@
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>P179337- Assam State Secondary Healthcare Initiative for Service Delivery Transformation (ASSIST) Project - Procurement Plan (Assam Health Infrastructure Development and Management Society)</t>
+          <t>Klimaanpassung, Resilienz und Klimafinanzierung im ländlichen Indien / Climate adaptation, resilience and climate finance in rural India</t>
         </is>
       </c>
       <c r="C52" s="1" t="inlineStr"/>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Safety</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr"/>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1080539/india-south-asia-p179337-assam-state-secondary-healthcare-initiative-for-service-delivery-transforma</t>
+          <t>https://www.developmentaid.org/tenders/view/1610948/klimaanpassung-resilienz-und-klimafinanzierung-im-landlichen-indien-climate-adaptation-resilience-an</t>
         </is>
       </c>
     </row>
@@ -1704,19 +1704,19 @@
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>55252-001 - Maharashtra Sustainable Climate-Resilient Coastal Protection and Management Project: Procurement Plan</t>
+          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: MPKV Rahuri Development of Crop Weather Calendars, Spectral Libraries, and Irrigation Advisories to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA cluster of Maharashtra</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr"/>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>Governance, Safety, Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr"/>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1378025/55252-001-maharashtra-sustainable-climate-resilient-coastal-protection-and-management-project-procur</t>
+          <t>https://www.developmentaid.org/tenders/view/1610861/maharashtra-project-on-climate-resilient-agriculture-phase-ii-mpkv-rahuri-development-of-crop-weathe</t>
         </is>
       </c>
     </row>
@@ -1728,19 +1728,19 @@
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>Solarenergie im ländlichen Raum Indiens / Solar energy in rural India</t>
+          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: Development of Crop Weather Calendars and Databases to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA Clusters of Maharashtra</t>
         </is>
       </c>
       <c r="C54" s="1" t="inlineStr"/>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr"/>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610293/solarenergie-im-landlichen-raum-indiens-solar-energy-in-rural-india</t>
+          <t>https://www.developmentaid.org/tenders/view/1610860/maharashtra-project-on-climate-resilient-agriculture-phase-ii-development-of-crop-weather-calendars</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>56300-002 - Madhya Pradesh Renewable Energy Implementation Support: Technical Assistance</t>
+          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Construction of Primary Water distribution   by laying HDPE/ GI pipes and installing pumps at different Locations in project G.P. 's of Sirmaur District</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr"/>
@@ -1764,7 +1764,7 @@
       <c r="E55" s="1" t="inlineStr"/>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610325/56300-002-madhya-pradesh-renewable-energy-implementation-support-technical-assistance</t>
+          <t>https://www.developmentaid.org/tenders/view/1610843/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
         </is>
       </c>
     </row>
@@ -1776,139 +1776,19 @@
       </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
+          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: VNMKV Parbhani - Development of Crop Weather Calendars and Auto Agro-Advisories to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in PoCRA Clusters of Maharashtra</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr"/>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr"/>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610299/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
-        </is>
-      </c>
-    </row>
-    <row r="57" ht="80" customHeight="1">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>DevelopmentAid</t>
-        </is>
-      </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project: Engagement of Project Management Consultant</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr"/>
-      <c r="D57" s="1" t="inlineStr">
-        <is>
-          <t>Governance, Climate</t>
-        </is>
-      </c>
-      <c r="E57" s="1" t="inlineStr"/>
-      <c r="F57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.developmentaid.org/tenders/view/1463234/kerala-climate-resilient-agri-value-chain-modernization-kera-project-engagement-of-project-managemen</t>
-        </is>
-      </c>
-    </row>
-    <row r="58" ht="80" customHeight="1">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>DevelopmentAid</t>
-        </is>
-      </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Pipeline Condition Assessment for Urban Water Supply Networks in Rajasthan (58369-001)</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr"/>
-      <c r="D58" s="1" t="inlineStr">
-        <is>
-          <t>Governance</t>
-        </is>
-      </c>
-      <c r="E58" s="1" t="inlineStr"/>
-      <c r="F58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.developmentaid.org/tenders/view/1583942/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-pipeline-condition-assessmen</t>
-        </is>
-      </c>
-    </row>
-    <row r="59" ht="80" customHeight="1">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>DevelopmentAid</t>
-        </is>
-      </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>Call for External Collaborator – Extending Social Protection to Migrant Workers in an Irregular Situation (South Asia–GCC Corridor)</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr"/>
-      <c r="D59" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="E59" s="1" t="inlineStr"/>
-      <c r="F59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.developmentaid.org/tenders/view/1610212/call-for-external-collaborator-extending-social-protection-to-migrant-workers-in-an-irregular-situat</t>
-        </is>
-      </c>
-    </row>
-    <row r="60" ht="80" customHeight="1">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>DevelopmentAid</t>
-        </is>
-      </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>RFP - Odia Annotation of Student Voice Recordings from Odisha</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr"/>
-      <c r="D60" s="1" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="E60" s="1" t="inlineStr"/>
-      <c r="F60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.developmentaid.org/tenders/view/1610092/rfp-odia-annotation-of-student-voice-recordings-from-odisha</t>
-        </is>
-      </c>
-    </row>
-    <row r="61" ht="80" customHeight="1">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>DevelopmentAid</t>
-        </is>
-      </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>RFP - English Annotation of Student Voice Recordings from Gujarat</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr"/>
-      <c r="D61" s="1" t="inlineStr">
-        <is>
-          <t>Learning</t>
-        </is>
-      </c>
-      <c r="E61" s="1" t="inlineStr"/>
-      <c r="F61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.developmentaid.org/tenders/view/1610106/rfp-english-annotation-of-student-voice-recordings-from-gujarat</t>
+          <t>https://www.developmentaid.org/tenders/view/1610856/maharashtra-project-on-climate-resilient-agriculture-phase-ii-vnmkv-parbhani-development-of-crop-wea</t>
         </is>
       </c>
     </row>

--- a/output/Combined.xlsx
+++ b/output/Combined.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +528,7 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>Skills: National ITI Upgradation Program - P507910</t>
+          <t>59395-001 - Support for Development and Implementation of the Private Capital Enabled Metric: Technical Assistance</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr"/>
@@ -540,7 +540,7 @@
       <c r="E4" s="1" t="inlineStr"/>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1425157/skills-national-iti-upgradation-program-p507910</t>
+          <t>https://www.developmentaid.org/tenders/view/1601673/59395-001-support-for-development-and-implementation-of-the-private-capital-enabled-metric-technical</t>
         </is>
       </c>
     </row>
@@ -552,19 +552,19 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>57230-001: Sikkim Integrated Urban Development Project: 04. SIUDP /DRY/THCC-01 - Design Build: Three Transit hubs cum community complex (THCCs) in Rangpo (Lot - 1), Ranipool (Lot - 2), and Pakyong (Lot - 3)</t>
+          <t>TA-6586 IND: Green Certification of Self Construction Housing (54340-001)</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr"/>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1438614/57230-001-sikkim-integrated-urban-development-project</t>
+          <t>https://www.developmentaid.org/tenders/view/1512890/ta-6586-ind-green-certification-of-self-construction-housing-54340-001</t>
         </is>
       </c>
     </row>
@@ -576,19 +576,19 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>LOAN 57262-001 IND: Assam Urban Sector Development Project - AUSDP/CMS/01 Project Management and Supervision Consultants (PMSC)</t>
+          <t>RFP - for Supply of Skill Lab Items</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr"/>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr"/>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1266713/loan-57262-001-ind-assam-urban-sector-development-project-ausdpcms01-project-management-and-supervis</t>
+          <t>https://www.developmentaid.org/tenders/view/1614712/rfp-for-supply-of-skill-lab-items</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Hiring of an Agency for Development of an Operational &amp; Implementation Plan for Solar Global Capability Center (GCC)</t>
+          <t>EoI - Construction &amp; Infrastructure Works – Schools Of Pali And Jodhpur Districts, Rajasthan</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr"/>
@@ -612,7 +612,7 @@
       <c r="E7" s="1" t="inlineStr"/>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1614087/hiring-of-an-agency-for-development-of-an-operational-implementation-plan-for-solar-global-capabilit</t>
+          <t>https://www.developmentaid.org/tenders/view/1614736/eoi-construction-infrastructure-works-schools-of-pali-and-jodhpur-districts-rajasthan</t>
         </is>
       </c>
     </row>
@@ -624,19 +624,19 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>TA-9844 IND: Supporting Education and Skills Development Facility - Financial Management Specialist (53277-001)</t>
+          <t>P168633- Kerala Solid Waste Management Project (ULB KOT ETTUMANOOR)</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr"/>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr"/>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1613681/ta-9844-ind-supporting-education-and-skills-development-facility-financial-management-specialist-532</t>
+          <t>https://www.developmentaid.org/tenders/view/1095599/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-kot-ettumanoor-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -648,19 +648,19 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>RFP-011-IND-2026 - Agency for Development of a Gender-Responsive SDG framework</t>
+          <t>P168633- Kerala Solid Waste Management Project - Procurement Plan (ULB TSR IRINJALAKKUDA)</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr"/>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Safety</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr"/>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1614135/rfp-011-ind-2026-agency-for-development-of-a-gender-responsive-sdg-framework</t>
+          <t>https://www.developmentaid.org/tenders/view/1212406/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-tsr-irinjalakkuda-procurement-pla</t>
         </is>
       </c>
     </row>
@@ -672,19 +672,19 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>TA-10416 IND: Promoting Disaster Risk Insurance (54081-001)</t>
+          <t>P178418 - Tripura Rural Economic Growth and Service Delivery Project - Procurement Plan (Public Works Department, Roads and Bridges)</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr"/>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr"/>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1613677/ta-10416-ind-promoting-disaster-risk-insurance-54081-001</t>
+          <t>https://www.developmentaid.org/tenders/view/978729/india-south-asia-p178418-tripura-rural-economic-growth-and-service-delivery-project-public-works-dep</t>
         </is>
       </c>
     </row>
@@ -696,19 +696,19 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>RFP for for Developing Integrated One Health Portal for enhanced collaborative Surveillance</t>
+          <t>P168633- Kerala Solid Waste Management Project (ULB TSR KODUNGALLUR)</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr"/>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr"/>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607851/rfp-for-for-developing-integrated-one-health-portal-for-enhanced-collaborative-s</t>
+          <t>https://www.developmentaid.org/tenders/view/1095626/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-tsr-kodungallur-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -720,19 +720,19 @@
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>Carpl.AI, Inc</t>
+          <t>P168633 - Kerala Solid Waste Management Project) - Procurement Plan (Ulb Mlp Thanur)</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr"/>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr"/>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1614052/carplai-inc</t>
+          <t>https://www.developmentaid.org/tenders/view/1095788/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-mlp-thanur-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -744,19 +744,19 @@
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>RFQ - Final Evaluation of the UNESCO-Guerlain Women for Bees project</t>
+          <t>P168633- Kerala Solid Waste Management Project - Procurement Plan (ULB TSR Guruvayoor)</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr"/>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>Governance, Safety</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr"/>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1614000/rfq-final-evaluation-of-the-unesco-guerlain-women-for-bees-project</t>
+          <t>https://www.developmentaid.org/tenders/view/1202916/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-tsr-guruvayoor-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -768,7 +768,7 @@
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>TA-6742 REG: Building Coastal Resilience through Nature-Based and Integrated Solutions - Project Evaluation Specialist (54212-001)</t>
+          <t>P168633- Kerala Solid Waste Management Project - Procurement Plan (ULB PGT C.T. MANGALAM)</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr"/>
@@ -780,7 +780,7 @@
       <c r="E14" s="1" t="inlineStr"/>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1613663/ta-6742-reg-building-coastal-resilience-through-nature-based-and-integrated-solutions-project-evalua</t>
+          <t>https://www.developmentaid.org/tenders/view/1095582/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-pgt-ct-mangalam-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -792,19 +792,19 @@
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>Call for External Collaborator – The ILO project ‘Strengthening Labour Dispute Resolution in Tamil Nadu’s Electronics Manufacturing Sector’ invites applications from consultants to support develop &amp; deliver capacity building programme for social partners</t>
+          <t>P168633- Kerala Solid Waste Management Project (ULB TSR CHALAKUDY)</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr"/>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr"/>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610322/call-for-external-collaborator-the-ilo-project-strengthening-labour-dispute-resolution-in-tamil-nadu</t>
+          <t>https://www.developmentaid.org/tenders/view/1108720/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-tsr-chalakudy-procurement-plan-en</t>
         </is>
       </c>
     </row>
@@ -816,19 +816,19 @@
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>P170873- Second Dam Rehabilitation and Improvement Project - Procurement Plan (Bhakra Beas Management Board)</t>
+          <t>Enabling Pathways for Long-term Low Emission Development Strategies for the Built Environment in India</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr"/>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr"/>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611929/p170873-second-dam-rehabilitation-and-improvement-project-procurement-plan-bhakra-beas-management-bo</t>
+          <t>https://www.developmentaid.org/tenders/view/1614544/enabling-pathways-for-long-term-low-emission-development-strategies-for-the-built-environment-in-ind</t>
         </is>
       </c>
     </row>
@@ -840,19 +840,19 @@
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4166 IND: Assam Skill University Project - CS11 Project Management Support for Capacity Development of Assam Civil Service (53277-002)</t>
+          <t>Skills: National ITI Upgradation Program - P507910</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr"/>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E17" s="1" t="inlineStr"/>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1599394/loan-4166-ind-assam-skill-university-project-cs11-project-management-support-for-capacity-developmen</t>
+          <t>https://www.developmentaid.org/tenders/view/1425157/skills-national-iti-upgradation-program-p507910</t>
         </is>
       </c>
     </row>
@@ -864,19 +864,19 @@
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>56283-002 - Climate Resilient Brahmaputra Integrated Flood and Riverbank Erosion Risk Management Project in Assam - Additional Financing</t>
+          <t>57230-001: Sikkim Integrated Urban Development Project: 04. SIUDP /DRY/THCC-01 - Design Build: Three Transit hubs cum community complex (THCCs) in Rangpo (Lot - 1), Ranipool (Lot - 2), and Pakyong (Lot - 3)</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr"/>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr"/>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1543921/56283-002-climate-resilient-brahmaputra-integrated-flood-and-riverbank-erosion-risk-management-proje</t>
+          <t>https://www.developmentaid.org/tenders/view/1438614/57230-001-sikkim-integrated-urban-development-project</t>
         </is>
       </c>
     </row>
@@ -888,19 +888,19 @@
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>59459-001 - Building Knowledge-Based Innovative Solutions for Sustainable and Clean Energy in Asia and the Pacific: Technical Assistance</t>
+          <t>LOAN 57262-001 IND: Assam Urban Sector Development Project - AUSDP/CMS/01 Project Management and Supervision Consultants (PMSC)</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr"/>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr"/>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1584578/59459-001-building-knowledge-based-innovative-solutions-for-sustainable-and-clean-energy-in-asia-and</t>
+          <t>https://www.developmentaid.org/tenders/view/1266713/loan-57262-001-ind-assam-urban-sector-development-project-ausdpcms01-project-management-and-supervis</t>
         </is>
       </c>
     </row>
@@ -912,19 +912,19 @@
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>59305-001 - Catalyzing Sustainable Transport Initiatives in Asia and the Pacific: Technical Assistance</t>
+          <t>Hiring of an Agency for Development of an Operational &amp; Implementation Plan for Solar Global Capability Center (GCC)</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr"/>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr"/>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1552965/59305-001-catalyzing-sustainable-transport-initiatives-in-asia-and-the-pacific-technical-assistance</t>
+          <t>https://www.developmentaid.org/tenders/view/1614087/hiring-of-an-agency-for-development-of-an-operational-implementation-plan-for-solar-global-capabilit</t>
         </is>
       </c>
     </row>
@@ -936,19 +936,19 @@
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>59388-001 - Accelerating and Sustaining Universal Health Coverage (UHC) through UHC Practitioners and Experts knowledge Exchange and Resources (UHC PEERS) Network: Technical Assistance</t>
+          <t>TA-9844 IND: Supporting Education and Skills Development Facility - Financial Management Specialist (53277-001)</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr"/>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>Governance, Safety</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr"/>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1572727/59388-001-accelerating-and-sustaining-universal-health-coverage-uhc-through-uhc-practitioners-and-ex</t>
+          <t>https://www.developmentaid.org/tenders/view/1613681/ta-9844-ind-supporting-education-and-skills-development-facility-financial-management-specialist-532</t>
         </is>
       </c>
     </row>
@@ -960,19 +960,19 @@
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>59384-001 - Strengthening Quality, Sustainability and Value for Money through Implementation of the 2026 Procurement Directive for ADB Borrowers: Technical Assistance</t>
+          <t>RFP-011-IND-2026 - Agency for Development of a Gender-Responsive SDG framework</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr"/>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning, Safety</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr"/>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1613609/59384-001-strengthening-quality-sustainability-and-value-for-money-through-implementation-of-the-202</t>
+          <t>https://www.developmentaid.org/tenders/view/1614135/rfp-011-ind-2026-agency-for-development-of-a-gender-responsive-sdg-framework</t>
         </is>
       </c>
     </row>
@@ -984,19 +984,19 @@
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Onboarding of a Consultancy / Research Firm for Economic Impact Analysis of Public Health Supply Chain Strengthening</t>
+          <t>TA-10416 IND: Promoting Disaster Risk Insurance (54081-001)</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr"/>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>Governance, Safety</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr"/>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1613408/rfp-2026-in-01-agency-for-economic-impact-analysis</t>
+          <t>https://www.developmentaid.org/tenders/view/1613677/ta-10416-ind-promoting-disaster-risk-insurance-54081-001</t>
         </is>
       </c>
     </row>
@@ -1008,19 +1008,19 @@
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>57133-001 - Sustainable and Inclusive Tourism Development Project in Himachal Pradesh: Procurement Plan</t>
+          <t>RFP for for Developing Integrated One Health Portal for enhanced collaborative Surveillance</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr"/>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr"/>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1377325/57133-001-sustainable-and-inclusive-tourism-development-project-in-himachal-pradesh-procurement-plan</t>
+          <t>https://www.developmentaid.org/tenders/view/1607851/rfp-for-for-developing-integrated-one-health-portal-for-enhanced-collaborative-s</t>
         </is>
       </c>
     </row>
@@ -1032,19 +1032,19 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Evidence for AI in Health (EVAH)</t>
+          <t>Carpl.AI, Inc</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr"/>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>Learning, Safety</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr"/>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1613299/evidence-for-ai-in-health-evah</t>
+          <t>https://www.developmentaid.org/tenders/view/1614052/carplai-inc</t>
         </is>
       </c>
     </row>
@@ -1056,19 +1056,19 @@
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>P179749- Uttarakhand Disaster Preparedness and Resilience Project - Procurement Plan (PIU- Rural Works Department)</t>
+          <t>RFQ - Final Evaluation of the UNESCO-Guerlain Women for Bees project</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr"/>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Safety</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr"/>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1485844/p179749-uttarakhand-disaster-preparedness-and-resilience-project-procurement-plan-piu-rural-works-de</t>
+          <t>https://www.developmentaid.org/tenders/view/1614000/rfq-final-evaluation-of-the-unesco-guerlain-women-for-bees-project</t>
         </is>
       </c>
     </row>
@@ -1080,19 +1080,19 @@
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>P178581 - Assam Resilient Rural Bridges Program - Procurement Plan (Public Works Roads Department, Assam)</t>
+          <t>TA-6742 REG: Building Coastal Resilience through Nature-Based and Integrated Solutions - Project Evaluation Specialist (54212-001)</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr"/>
       <c r="D27" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E27" s="1" t="inlineStr"/>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1189984/india-south-asia-p178581-assam-resilient-rural-bridges-program-procurement-plan</t>
+          <t>https://www.developmentaid.org/tenders/view/1613663/ta-6742-reg-building-coastal-resilience-through-nature-based-and-integrated-solutions-project-evalua</t>
         </is>
       </c>
     </row>
@@ -1104,19 +1104,19 @@
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>P180932 - Strengthening Coastal Resilience and the Economy - Procurement Plan (Tamil Nadu Green Climate Company (TNGCC))</t>
+          <t>Call for External Collaborator – The ILO project ‘Strengthening Labour Dispute Resolution in Tamil Nadu’s Electronics Manufacturing Sector’ invites applications from consultants to support develop &amp; deliver capacity building programme for social partners</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr"/>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr"/>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1326097/india-south-asia-p180932-strengthening-coastal-resilience-and-the-economy-tamil-nadu-green-climate-c</t>
+          <t>https://www.developmentaid.org/tenders/view/1610322/call-for-external-collaborator-the-ilo-project-strengthening-labour-dispute-resolution-in-tamil-nadu</t>
         </is>
       </c>
     </row>
@@ -1128,19 +1128,19 @@
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>P179935 - Enhancing Landscape and Ecosystem Management Project - Procurement Plan (Society for Climate Resilient Agriculture in Nagaland)</t>
+          <t>P170873- Second Dam Rehabilitation and Improvement Project - Procurement Plan (Bhakra Beas Management Board)</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr"/>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr"/>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1145475/india-south-asia-p179935-enhancing-landscape-and-ecosystem-management-project-society-for-climate-re</t>
+          <t>https://www.developmentaid.org/tenders/view/1611929/p170873-second-dam-rehabilitation-and-improvement-project-procurement-plan-bhakra-beas-management-bo</t>
         </is>
       </c>
     </row>
@@ -1152,19 +1152,19 @@
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>P163533- Odisha Integrated Irrigation Project for Climate Resilient Agriculture - Procurement Plan (Odisha community Tank Development and Management Society)</t>
+          <t>LOAN-4166 IND: Assam Skill University Project - CS11 Project Management Support for Capacity Development of Assam Civil Service (53277-002)</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr"/>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr"/>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/484340/india-south-asia-p163533-odisha-integrated-irrigation-project-for-climate-resilient-agriculture-proc</t>
+          <t>https://www.developmentaid.org/tenders/view/1599394/loan-4166-ind-assam-skill-university-project-cs11-project-management-support-for-capacity-developmen</t>
         </is>
       </c>
     </row>
@@ -1176,19 +1176,19 @@
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat, Rice and Millets under Public Distribution System - Agri-market Assessment Expert (55154-002)</t>
+          <t>56283-002 - Climate Resilient Brahmaputra Integrated Flood and Riverbank Erosion Risk Management Project in Assam - Additional Financing</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr"/>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr"/>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607893/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
+          <t>https://www.developmentaid.org/tenders/view/1543921/56283-002-climate-resilient-brahmaputra-integrated-flood-and-riverbank-erosion-risk-management-proje</t>
         </is>
       </c>
     </row>
@@ -1200,19 +1200,19 @@
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>RFP - Final Evaluation of the Bhoomi Ka Programme</t>
+          <t>59459-001 - Building Knowledge-Based Innovative Solutions for Sustainable and Clean Energy in Asia and the Pacific: Technical Assistance</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr"/>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr"/>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612729/rfp-final-evaluation-of-the-bhoomi-ka-programme</t>
+          <t>https://www.developmentaid.org/tenders/view/1584578/59459-001-building-knowledge-based-innovative-solutions-for-sustainable-and-clean-energy-in-asia-and</t>
         </is>
       </c>
     </row>
@@ -1224,19 +1224,19 @@
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>RFP- for Hiring a Resource Person/Agency Development of MEAL Questionnaires and Processes for CommCare Tool</t>
+          <t>59305-001 - Catalyzing Sustainable Transport Initiatives in Asia and the Pacific: Technical Assistance</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr"/>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr"/>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612750/rfp-for-hiring-a-resource-personagency-development-of-meal-questionnaires-and-processes-for-commcare</t>
+          <t>https://www.developmentaid.org/tenders/view/1552965/59305-001-catalyzing-sustainable-transport-initiatives-in-asia-and-the-pacific-technical-assistance</t>
         </is>
       </c>
     </row>
@@ -1248,19 +1248,19 @@
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>P178254- Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project - Procurement Plan (State Project Management Unit (Kerala))</t>
+          <t>59388-001 - Accelerating and Sustaining Universal Health Coverage (UHC) through UHC Practitioners and Experts knowledge Exchange and Resources (UHC PEERS) Network: Technical Assistance</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr"/>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance, Safety</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr"/>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612677/p178254-kerala-climate-resilient-agri-value-chain-modernization-kera-project-procurement-plan-state</t>
+          <t>https://www.developmentaid.org/tenders/view/1572727/59388-001-accelerating-and-sustaining-universal-health-coverage-uhc-through-uhc-practitioners-and-ex</t>
         </is>
       </c>
     </row>
@@ -1272,19 +1272,19 @@
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>Printing of Collaterals’ for State Refresher Training</t>
+          <t>59384-001 - Strengthening Quality, Sustainability and Value for Money through Implementation of the 2026 Procurement Directive for ADB Borrowers: Technical Assistance</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr"/>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr"/>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612222/printing-of-collaterals-for-state-refresher-training</t>
+          <t>https://www.developmentaid.org/tenders/view/1613609/59384-001-strengthening-quality-sustainability-and-value-for-money-through-implementation-of-the-202</t>
         </is>
       </c>
     </row>
@@ -1296,19 +1296,19 @@
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Deutsch#indisches Programm für Green Skills IGGSP / German-Indian Green Skills Programme IGGSP</t>
+          <t>Onboarding of a Consultancy / Research Firm for Economic Impact Analysis of Public Health Supply Chain Strengthening</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr"/>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance, Safety</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr"/>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612146/deutschindisches-programm-fur-green-skills-iggsp-german-indian-green-skills-programme-iggsp</t>
+          <t>https://www.developmentaid.org/tenders/view/1613408/rfp-2026-in-01-agency-for-economic-impact-analysis</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>EoI – Mobile Medical Units, Ai-Enabled Tb Screening &amp; Supply Of Medical And Nutritional Support</t>
+          <t>57133-001 - Sustainable and Inclusive Tourism Development Project in Himachal Pradesh: Procurement Plan</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr"/>
@@ -1332,7 +1332,7 @@
       <c r="E37" s="1" t="inlineStr"/>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612050/eoi-mobile-medical-units-ai-enabled-tb-screening-supply-of-medical-and-nutritional-support</t>
+          <t>https://www.developmentaid.org/tenders/view/1377325/57133-001-sustainable-and-inclusive-tourism-development-project-in-himachal-pradesh-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -1344,19 +1344,19 @@
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>RFP - Onboarding Agency for Revamping Assam LMIS Dashboard</t>
+          <t>Evidence for AI in Health (EVAH)</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr"/>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning, Safety</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr"/>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612059/rfp-onboarding-agency-for-revamping-assam-lmis-dashboard</t>
+          <t>https://www.developmentaid.org/tenders/view/1613299/evidence-for-ai-in-health-evah</t>
         </is>
       </c>
     </row>
@@ -1368,19 +1368,19 @@
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in MP, MH and TG</t>
+          <t>P179749- Uttarakhand Disaster Preparedness and Resilience Project - Procurement Plan (PIU- Rural Works Department)</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr"/>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Climate</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr"/>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612065/rfp-long-term-monitoring-evaluation-me-partnership-for-environment-and-education-programme-in-mp-mh</t>
+          <t>https://www.developmentaid.org/tenders/view/1485844/p179749-uttarakhand-disaster-preparedness-and-resilience-project-procurement-plan-piu-rural-works-de</t>
         </is>
       </c>
     </row>
@@ -1392,19 +1392,19 @@
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>P178254- Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project (Agriculture Development and Farmers’ Welfare Department.)</t>
+          <t>P178581 - Assam Resilient Rural Bridges Program - Procurement Plan (Public Works Roads Department, Assam)</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr"/>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr"/>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1393178/p178254-kerala-climate-resilient-agri-value-chain-modernization-kera-project-agriculture-development</t>
+          <t>https://www.developmentaid.org/tenders/view/1189984/india-south-asia-p178581-assam-resilient-rural-bridges-program-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -1416,19 +1416,19 @@
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>P179189- Tamil Nadu Climate Resilient Urban Development Program - Procurement Plan (Tamil Nadu Urban Infrastructure Financial Services Limited)</t>
+          <t>P180932 - Strengthening Coastal Resilience and the Economy - Procurement Plan (Tamil Nadu Green Climate Company (TNGCC))</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr"/>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr"/>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1189983/india-south-asia-p179189-tamil-nadu-climate-resilient-urban-development-program-tamil-nadu-urban-inf</t>
+          <t>https://www.developmentaid.org/tenders/view/1326097/india-south-asia-p180932-strengthening-coastal-resilience-and-the-economy-tamil-nadu-green-climate-c</t>
         </is>
       </c>
     </row>
@@ -1440,19 +1440,19 @@
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Capacity Building Coordination Specialist (Internationl) (58369-001)</t>
+          <t>P179935 - Enhancing Landscape and Ecosystem Management Project - Procurement Plan (Society for Climate Resilient Agriculture in Nagaland)</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr"/>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr"/>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611636/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-capacity-building-coordinati</t>
+          <t>https://www.developmentaid.org/tenders/view/1145475/india-south-asia-p179935-enhancing-landscape-and-ecosystem-management-project-society-for-climate-re</t>
         </is>
       </c>
     </row>
@@ -1464,19 +1464,19 @@
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>Procurement of Laboratory Equipment &amp; Consumables for AMR laboratories in India, including delivery, installation, assembly, commissioning of equipment at the installation site and training services</t>
+          <t>P163533- Odisha Integrated Irrigation Project for Climate Resilient Agriculture - Procurement Plan (Odisha community Tank Development and Management Society)</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr"/>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Learning, Climate</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr"/>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1604282/procurement-of-laboratory-equipment-consumables-for-amr-laboratories-in-india-including-delivery-ins</t>
+          <t>https://www.developmentaid.org/tenders/view/484340/india-south-asia-p163533-odisha-integrated-irrigation-project-for-climate-resilient-agriculture-proc</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>Non-Profit Organizations for Community Mobilization, Capacity Building, Training, Stakeholder Engagement, Convergence, Data Collection and Project Documentation</t>
+          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat, Rice and Millets under Public Distribution System - Agri-market Assessment Expert (55154-002)</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr"/>
@@ -1500,7 +1500,7 @@
       <c r="E44" s="1" t="inlineStr"/>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611610/community-mobilizationawareness-capacity-buildingdata-collectionconvergence</t>
+          <t>https://www.developmentaid.org/tenders/view/1607893/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
         </is>
       </c>
     </row>
@@ -1512,19 +1512,19 @@
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>RFP-009-IND-2026 RFP for Dissemination and Uptake of the Study ‘AI for Justice</t>
+          <t>RFP - Final Evaluation of the Bhoomi Ka Programme</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr"/>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr"/>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611609/rfp-009-ind-2026-rfp-for-dissemination-and-uptake-of-the-study-ai-for-justice</t>
+          <t>https://www.developmentaid.org/tenders/view/1612729/rfp-final-evaluation-of-the-bhoomi-ka-programme</t>
         </is>
       </c>
     </row>
@@ -1536,19 +1536,19 @@
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>GEF SAGF IV: Growth Equity Fund</t>
+          <t>RFP- for Hiring a Resource Person/Agency Development of MEAL Questionnaires and Processes for CommCare Tool</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr"/>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr"/>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611328/gef-sagf-iv-growth-equity-fund</t>
+          <t>https://www.developmentaid.org/tenders/view/1612750/rfp-for-hiring-a-resource-personagency-development-of-meal-questionnaires-and-processes-for-commcare</t>
         </is>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>Consultancy, LiDAR survey of Greater Pamba River Basin, Digital Elevation Model, Flood Modelling and Flood Management Plan</t>
+          <t>P178254- Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project - Procurement Plan (State Project Management Unit (Kerala))</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr"/>
@@ -1572,7 +1572,7 @@
       <c r="E47" s="1" t="inlineStr"/>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1538687/consultancy-lidar-survey-of-greater-pamba-river-basin-digital-elevation-model-flood-modelling-and-fl</t>
+          <t>https://www.developmentaid.org/tenders/view/1612677/p178254-kerala-climate-resilient-agri-value-chain-modernization-kera-project-procurement-plan-state</t>
         </is>
       </c>
     </row>
@@ -1584,19 +1584,19 @@
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>Assam Disaster Resilient Hill Roads Development Project - P510002</t>
+          <t>Printing of Collaterals’ for State Refresher Training</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr"/>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr"/>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1453551/assam-disaster-resilient-hill-roads-development-project-p510002</t>
+          <t>https://www.developmentaid.org/tenders/view/1612222/printing-of-collaterals-for-state-refresher-training</t>
         </is>
       </c>
     </row>
@@ -1608,19 +1608,19 @@
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>Assam School Education and Adolescent Wellbeing Project (ASAP) - P507865</t>
+          <t>Deutsch#indisches Programm für Green Skills IGGSP / German-Indian Green Skills Programme IGGSP</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr"/>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>Learning, Safety</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr"/>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1462940/assam-school-education-and-adolescent-wellbeing-project-asap-p507865</t>
+          <t>https://www.developmentaid.org/tenders/view/1612146/deutschindisches-programm-fur-green-skills-iggsp-german-indian-green-skills-programme-iggsp</t>
         </is>
       </c>
     </row>
@@ -1632,19 +1632,19 @@
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>Terms of Reference for hiring 'Event Management Agency'- PRS Project</t>
+          <t>EoI – Mobile Medical Units, Ai-Enabled Tb Screening &amp; Supply Of Medical And Nutritional Support</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr"/>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E50" s="1" t="inlineStr"/>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611188/terms-of-reference-for-hiring-event-management-agency-prs-project</t>
+          <t>https://www.developmentaid.org/tenders/view/1612050/eoi-mobile-medical-units-ai-enabled-tb-screening-supply-of-medical-and-nutritional-support</t>
         </is>
       </c>
     </row>
@@ -1656,19 +1656,19 @@
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>Ausbau Erneuerbarer Energien / Expansion of renewable energies</t>
+          <t>RFP - Onboarding Agency for Revamping Assam LMIS Dashboard</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr"/>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr"/>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610971/ausbau-erneuerbarer-energien-expansion-of-renewable-energies</t>
+          <t>https://www.developmentaid.org/tenders/view/1612059/rfp-onboarding-agency-for-revamping-assam-lmis-dashboard</t>
         </is>
       </c>
     </row>
@@ -1680,19 +1680,19 @@
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>Klimaanpassung, Resilienz und Klimafinanzierung im ländlichen Indien / Climate adaptation, resilience and climate finance in rural India</t>
+          <t>RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in MP, MH and TG</t>
         </is>
       </c>
       <c r="C52" s="1" t="inlineStr"/>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning, Climate</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr"/>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610948/klimaanpassung-resilienz-und-klimafinanzierung-im-landlichen-indien-climate-adaptation-resilience-an</t>
+          <t>https://www.developmentaid.org/tenders/view/1612065/rfp-long-term-monitoring-evaluation-me-partnership-for-environment-and-education-programme-in-mp-mh</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: MPKV Rahuri Development of Crop Weather Calendars, Spectral Libraries, and Irrigation Advisories to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA cluster of Maharashtra</t>
+          <t>P178254- Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project (Agriculture Development and Farmers’ Welfare Department.)</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr"/>
@@ -1716,7 +1716,7 @@
       <c r="E53" s="1" t="inlineStr"/>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610861/maharashtra-project-on-climate-resilient-agriculture-phase-ii-mpkv-rahuri-development-of-crop-weathe</t>
+          <t>https://www.developmentaid.org/tenders/view/1393178/p178254-kerala-climate-resilient-agri-value-chain-modernization-kera-project-agriculture-development</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: Development of Crop Weather Calendars and Databases to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in POCRA Clusters of Maharashtra</t>
+          <t>P179189- Tamil Nadu Climate Resilient Urban Development Program - Procurement Plan (Tamil Nadu Urban Infrastructure Financial Services Limited)</t>
         </is>
       </c>
       <c r="C54" s="1" t="inlineStr"/>
@@ -1740,7 +1740,7 @@
       <c r="E54" s="1" t="inlineStr"/>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610860/maharashtra-project-on-climate-resilient-agriculture-phase-ii-development-of-crop-weather-calendars</t>
+          <t>https://www.developmentaid.org/tenders/view/1189983/india-south-asia-p179189-tamil-nadu-climate-resilient-urban-development-program-tamil-nadu-urban-inf</t>
         </is>
       </c>
     </row>
@@ -1752,19 +1752,19 @@
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>Integrated Project for Source Sustainability and Climate Resilient Rain-fed Agriculture in Himachal: Construction of Primary Water distribution   by laying HDPE/ GI pipes and installing pumps at different Locations in project G.P. 's of Sirmaur District</t>
+          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Capacity Building Coordination Specialist (Internationl) (58369-001)</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr"/>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr"/>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610843/integrated-project-for-source-sustainability-and-climate-resilient-rain-fed-agriculture-in-himachal</t>
+          <t>https://www.developmentaid.org/tenders/view/1611636/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-capacity-building-coordinati</t>
         </is>
       </c>
     </row>
@@ -1776,19 +1776,67 @@
       </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>Maharashtra Project on Climate Resilient Agriculture Phase - II: VNMKV Parbhani - Development of Crop Weather Calendars and Auto Agro-Advisories to Support Parcel-Level Real-Time Autonomous Agro-Advisory System for Farmers in PoCRA Clusters of Maharashtra</t>
+          <t>Procurement of Laboratory Equipment &amp; Consumables for AMR laboratories in India, including delivery, installation, assembly, commissioning of equipment at the installation site and training services</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr"/>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr"/>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610856/maharashtra-project-on-climate-resilient-agriculture-phase-ii-vnmkv-parbhani-development-of-crop-wea</t>
+          <t>https://www.developmentaid.org/tenders/view/1604282/procurement-of-laboratory-equipment-consumables-for-amr-laboratories-in-india-including-delivery-ins</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="80" customHeight="1">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>Non-Profit Organizations for Community Mobilization, Capacity Building, Training, Stakeholder Engagement, Convergence, Data Collection and Project Documentation</t>
+        </is>
+      </c>
+      <c r="C57" s="1" t="inlineStr"/>
+      <c r="D57" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="E57" s="1" t="inlineStr"/>
+      <c r="F57" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1611610/community-mobilizationawareness-capacity-buildingdata-collectionconvergence</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="80" customHeight="1">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>RFP-009-IND-2026 RFP for Dissemination and Uptake of the Study ‘AI for Justice</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr"/>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="inlineStr"/>
+      <c r="F58" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1611609/rfp-009-ind-2026-rfp-for-dissemination-and-uptake-of-the-study-ai-for-justice</t>
         </is>
       </c>
     </row>

--- a/output/Combined.xlsx
+++ b/output/Combined.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,19 +528,19 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>59395-001 - Support for Development and Implementation of the Private Capital Enabled Metric: Technical Assistance</t>
+          <t>Kolkata Municipal Corporation Sustainability, Hygiene, and Resilience (Sector) Project: Spillover works under L3413-IND: KEIIP (T2) - Package SD10T (Sewerage &amp; Drainage Network in Rania Box Catchment [Part of Wards 111, 112 and 113] in Borough XI) (56287-001)</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr"/>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Safety, Climate</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr"/>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1601673/59395-001-support-for-development-and-implementation-of-the-private-capital-enabled-metric-technical</t>
+          <t>https://www.developmentaid.org/tenders/view/1615659/kolkata-municipal-corporation-sustainability-hygiene-and-resilience-sector-project-spillover-works-u</t>
         </is>
       </c>
     </row>
@@ -552,19 +552,19 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>TA-6586 IND: Green Certification of Self Construction Housing (54340-001)</t>
+          <t>Kolkata Municipal Corporation Sustainability, Hygiene, and Resilience (Sector) Project: Spillover works under L3689-IND: KEIIP (T3) - Package SD31L1 (Development of S&amp;D Network in Churial Extension PS Catchment and Diamond Park Catchment and Construction of pumping station [annexed] in Borough XVI [Part of Wards 124, 143 and 144]) (56287-001)</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr"/>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning, Safety, Climate</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr"/>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1512890/ta-6586-ind-green-certification-of-self-construction-housing-54340-001</t>
+          <t>https://www.developmentaid.org/tenders/view/1615657/kolkata-municipal-corporation-sustainability-hygiene-and-resilience-sector-project-spillover-works-u</t>
         </is>
       </c>
     </row>
@@ -576,19 +576,19 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>RFP - for Supply of Skill Lab Items</t>
+          <t>Kolkata Municipal Corporation Sustainability, Hygiene, and Resilience (Sector) Project: Spillover works under L3413-IND: KEIIP (T2) - Package SD11T (Sewerage &amp; Drainage Network in Vivekananda Road Catchment [Part of Wards 113 &amp; 114] and Construction of 1 Pumping Station in Borough XI) (56287-001)</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr"/>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Safety, Climate</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr"/>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1614712/rfp-for-supply-of-skill-lab-items</t>
+          <t>https://www.developmentaid.org/tenders/view/1615647/kolkata-municipal-corporation-sustainability-hygiene-and-resilience-sector-project-spillover-works-u</t>
         </is>
       </c>
     </row>
@@ -600,19 +600,19 @@
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>EoI - Construction &amp; Infrastructure Works – Schools Of Pali And Jodhpur Districts, Rajasthan</t>
+          <t>Kolkata Municipal Corporation Sustainability, Hygiene, and Resilience (Sector) Project: Spillover works under L3689-IND: KEIIP (T3) - Package SD31R2 (Development of S&amp;D Network in Bakrahat Road Catchment [Ward 125] and Laying of RCC Sewer Line along Bakrahat Road and DH Road) (56287-001)</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Learning, Safety, Climate</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr"/>
       <c r="F7" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1614736/eoi-construction-infrastructure-works-schools-of-pali-and-jodhpur-districts-rajasthan</t>
+          <t>https://www.developmentaid.org/tenders/view/1615645/kolkata-municipal-corporation-sustainability-hygiene-and-resilience-sector-project-spillover-works-u</t>
         </is>
       </c>
     </row>
@@ -624,19 +624,19 @@
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>P168633- Kerala Solid Waste Management Project (ULB KOT ETTUMANOOR)</t>
+          <t>Kolkata Municipal Corporation Sustainability, Hygiene, and Resilience (Sector) Project: Spillover works under L3689-IND: KEIIP (T3) - Package SD28 (Construction of WBSETCL Sewage Treatment Plant [45 MLD]) (56287-001)</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr"/>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance, Safety, Climate</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr"/>
       <c r="F8" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1095599/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-kot-ettumanoor-procurement-plan</t>
+          <t>https://www.developmentaid.org/tenders/view/1615644/kolkata-municipal-corporation-sustainability-hygiene-and-resilience-sector-project-spillover-works-u</t>
         </is>
       </c>
     </row>
@@ -648,19 +648,19 @@
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>P168633- Kerala Solid Waste Management Project - Procurement Plan (ULB TSR IRINJALAKKUDA)</t>
+          <t>Kolkata Municipal Corporation Sustainability, Hygiene, and Resilience (Sector) Project: Spillover works under L3689-IND: KEIIP (T3) - Package SD29 (Construction of Sewage Treatment Plant at Bank Plot [40 MLD]) (56287-001)</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr"/>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance, Safety, Climate</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr"/>
       <c r="F9" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1212406/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-tsr-irinjalakkuda-procurement-pla</t>
+          <t>https://www.developmentaid.org/tenders/view/1615642/kolkata-municipal-corporation-sustainability-hygiene-and-resilience-sector-project-spillover-works-u</t>
         </is>
       </c>
     </row>
@@ -672,19 +672,19 @@
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>P178418 - Tripura Rural Economic Growth and Service Delivery Project - Procurement Plan (Public Works Department, Roads and Bridges)</t>
+          <t>Kolkata Municipal Corporation Sustainability, Hygiene, and Resilience (Sector) Project: Spillover works under L3413-IND: KEIIP (T2) - Package SD19 (Development of S&amp;D Network in Tolly's Nullah/Keorapukur Canal Sub-Basin in part of Wards 115 &amp; 122 including construction of SWF PS in Kudghat LS-5 &amp; augmentation of Keorapukur MPS) (56287-001)</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr"/>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Learning, Safety, Climate</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr"/>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/978729/india-south-asia-p178418-tripura-rural-economic-growth-and-service-delivery-project-public-works-dep</t>
+          <t>https://www.developmentaid.org/tenders/view/1615639/kolkata-municipal-corporation-sustainability-hygiene-and-resilience-sector-project-spillover-works-u</t>
         </is>
       </c>
     </row>
@@ -696,19 +696,19 @@
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>P168633- Kerala Solid Waste Management Project (ULB TSR KODUNGALLUR)</t>
+          <t>Kolkata Municipal Corporation Sustainability, Hygiene, and Resilience (Sector) Project: Spillover works under L3689-IND: KEIIP (T3) - Package SD35 (Supply and Installation of Pumping Machineries for KEIIP) (56287-001)</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr"/>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance, Safety, Climate</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr"/>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1095626/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-tsr-kodungallur-procurement-plan</t>
+          <t>https://www.developmentaid.org/tenders/view/1615638/kolkata-municipal-corporation-sustainability-hygiene-and-resilience-sector-project-spillover-works-u</t>
         </is>
       </c>
     </row>
@@ -720,19 +720,19 @@
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>P168633 - Kerala Solid Waste Management Project) - Procurement Plan (Ulb Mlp Thanur)</t>
+          <t>TA-10548 IND: Supporting Institutional Knowledge and Capacity Development for Planning of Climate Resilient and Sustainable Projects - Financial Analysis Specialist - Preparation of the Industrial and Economic Corridor Sector Development Program in West Bengal (59006-001)</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr"/>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance, Learning, Climate</t>
         </is>
       </c>
       <c r="E12" s="1" t="inlineStr"/>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1095788/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-mlp-thanur-procurement-plan</t>
+          <t>https://www.developmentaid.org/tenders/view/1615071/ta-10548-ind-supporting-institutional-knowledge-and-capacity-development-for-planning-of-climate-res</t>
         </is>
       </c>
     </row>
@@ -744,19 +744,19 @@
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>P168633- Kerala Solid Waste Management Project - Procurement Plan (ULB TSR Guruvayoor)</t>
+          <t>P513815- Resilient Action for Development and Disaster Recovery Himachal Pradesh - Procurement Plan (Department of Revenue)</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr"/>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E13" s="1" t="inlineStr"/>
       <c r="F13" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1202916/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-tsr-guruvayoor-procurement-plan</t>
+          <t>https://www.developmentaid.org/tenders/view/1615347/p513815-resilient-action-for-development-and-disaster-recovery-himachal-pradesh-procurement-plan-dep</t>
         </is>
       </c>
     </row>
@@ -768,19 +768,19 @@
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>P168633- Kerala Solid Waste Management Project - Procurement Plan (ULB PGT C.T. MANGALAM)</t>
+          <t>Engagement of a Public Relations (PR) Agency on Retainer</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr"/>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E14" s="1" t="inlineStr"/>
       <c r="F14" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1095582/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-pgt-ct-mangalam-procurement-plan</t>
+          <t>https://www.developmentaid.org/tenders/view/1615368/sow-engagement-of-a-public-relations-pr-agency-on-retainer</t>
         </is>
       </c>
     </row>
@@ -792,19 +792,19 @@
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>P168633- Kerala Solid Waste Management Project (ULB TSR CHALAKUDY)</t>
+          <t>RFP - External organization/agency to undertake documentation and process evaluation of the Gen Equal Fellowship Programme</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr"/>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr"/>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1108720/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-tsr-chalakudy-procurement-plan-en</t>
+          <t>https://www.developmentaid.org/tenders/view/1615372/rfp-external-organizationagency-to-undertake-documentation-and-process-evaluation-of-the-gen-equal-f</t>
         </is>
       </c>
     </row>
@@ -816,19 +816,19 @@
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Enabling Pathways for Long-term Low Emission Development Strategies for the Built Environment in India</t>
+          <t>Consultant – Endline Evaluation (Menstrual Health &amp; Hygiene Project)</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr"/>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance, Safety</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr"/>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1614544/enabling-pathways-for-long-term-low-emission-development-strategies-for-the-built-environment-in-ind</t>
+          <t>https://www.developmentaid.org/tenders/view/1615395/consultant-endline-evaluation-menstrual-health-hygiene-project</t>
         </is>
       </c>
     </row>
@@ -840,7 +840,7 @@
       </c>
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>Skills: National ITI Upgradation Program - P507910</t>
+          <t>59395-001 - Support for Development and Implementation of the Private Capital Enabled Metric: Technical Assistance</t>
         </is>
       </c>
       <c r="C17" s="1" t="inlineStr"/>
@@ -852,7 +852,7 @@
       <c r="E17" s="1" t="inlineStr"/>
       <c r="F17" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1425157/skills-national-iti-upgradation-program-p507910</t>
+          <t>https://www.developmentaid.org/tenders/view/1601673/59395-001-support-for-development-and-implementation-of-the-private-capital-enabled-metric-technical</t>
         </is>
       </c>
     </row>
@@ -864,19 +864,19 @@
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>57230-001: Sikkim Integrated Urban Development Project: 04. SIUDP /DRY/THCC-01 - Design Build: Three Transit hubs cum community complex (THCCs) in Rangpo (Lot - 1), Ranipool (Lot - 2), and Pakyong (Lot - 3)</t>
+          <t>TA-6586 IND: Green Certification of Self Construction Housing (54340-001)</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr"/>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr"/>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1438614/57230-001-sikkim-integrated-urban-development-project</t>
+          <t>https://www.developmentaid.org/tenders/view/1512890/ta-6586-ind-green-certification-of-self-construction-housing-54340-001</t>
         </is>
       </c>
     </row>
@@ -888,19 +888,19 @@
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>LOAN 57262-001 IND: Assam Urban Sector Development Project - AUSDP/CMS/01 Project Management and Supervision Consultants (PMSC)</t>
+          <t>RFP - for Supply of Skill Lab Items</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr"/>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr"/>
       <c r="F19" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1266713/loan-57262-001-ind-assam-urban-sector-development-project-ausdpcms01-project-management-and-supervis</t>
+          <t>https://www.developmentaid.org/tenders/view/1614712/rfp-for-supply-of-skill-lab-items</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Hiring of an Agency for Development of an Operational &amp; Implementation Plan for Solar Global Capability Center (GCC)</t>
+          <t>EoI - Construction &amp; Infrastructure Works – Schools Of Pali And Jodhpur Districts, Rajasthan</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr"/>
@@ -924,7 +924,7 @@
       <c r="E20" s="1" t="inlineStr"/>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1614087/hiring-of-an-agency-for-development-of-an-operational-implementation-plan-for-solar-global-capabilit</t>
+          <t>https://www.developmentaid.org/tenders/view/1614736/eoi-construction-infrastructure-works-schools-of-pali-and-jodhpur-districts-rajasthan</t>
         </is>
       </c>
     </row>
@@ -936,19 +936,19 @@
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>TA-9844 IND: Supporting Education and Skills Development Facility - Financial Management Specialist (53277-001)</t>
+          <t>P168633- Kerala Solid Waste Management Project (ULB KOT ETTUMANOOR)</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr"/>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr"/>
       <c r="F21" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1613681/ta-9844-ind-supporting-education-and-skills-development-facility-financial-management-specialist-532</t>
+          <t>https://www.developmentaid.org/tenders/view/1095599/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-kot-ettumanoor-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -960,19 +960,19 @@
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>RFP-011-IND-2026 - Agency for Development of a Gender-Responsive SDG framework</t>
+          <t>P168633- Kerala Solid Waste Management Project - Procurement Plan (ULB TSR IRINJALAKKUDA)</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr"/>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Safety</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr"/>
       <c r="F22" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1614135/rfp-011-ind-2026-agency-for-development-of-a-gender-responsive-sdg-framework</t>
+          <t>https://www.developmentaid.org/tenders/view/1212406/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-tsr-irinjalakkuda-procurement-pla</t>
         </is>
       </c>
     </row>
@@ -984,19 +984,19 @@
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>TA-10416 IND: Promoting Disaster Risk Insurance (54081-001)</t>
+          <t>P178418 - Tripura Rural Economic Growth and Service Delivery Project - Procurement Plan (Public Works Department, Roads and Bridges)</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr"/>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr"/>
       <c r="F23" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1613677/ta-10416-ind-promoting-disaster-risk-insurance-54081-001</t>
+          <t>https://www.developmentaid.org/tenders/view/978729/india-south-asia-p178418-tripura-rural-economic-growth-and-service-delivery-project-public-works-dep</t>
         </is>
       </c>
     </row>
@@ -1008,19 +1008,19 @@
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>RFP for for Developing Integrated One Health Portal for enhanced collaborative Surveillance</t>
+          <t>P168633- Kerala Solid Waste Management Project (ULB TSR KODUNGALLUR)</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr"/>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr"/>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607851/rfp-for-for-developing-integrated-one-health-portal-for-enhanced-collaborative-s</t>
+          <t>https://www.developmentaid.org/tenders/view/1095626/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-tsr-kodungallur-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -1032,19 +1032,19 @@
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>Carpl.AI, Inc</t>
+          <t>P168633 - Kerala Solid Waste Management Project) - Procurement Plan (Ulb Mlp Thanur)</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr"/>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr"/>
       <c r="F25" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1614052/carplai-inc</t>
+          <t>https://www.developmentaid.org/tenders/view/1095788/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-mlp-thanur-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -1056,19 +1056,19 @@
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>RFQ - Final Evaluation of the UNESCO-Guerlain Women for Bees project</t>
+          <t>P168633- Kerala Solid Waste Management Project - Procurement Plan (ULB TSR Guruvayoor)</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr"/>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>Governance, Safety</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E26" s="1" t="inlineStr"/>
       <c r="F26" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1614000/rfq-final-evaluation-of-the-unesco-guerlain-women-for-bees-project</t>
+          <t>https://www.developmentaid.org/tenders/view/1202916/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-tsr-guruvayoor-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>TA-6742 REG: Building Coastal Resilience through Nature-Based and Integrated Solutions - Project Evaluation Specialist (54212-001)</t>
+          <t>P168633- Kerala Solid Waste Management Project - Procurement Plan (ULB PGT C.T. MANGALAM)</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr"/>
@@ -1092,7 +1092,7 @@
       <c r="E27" s="1" t="inlineStr"/>
       <c r="F27" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1613663/ta-6742-reg-building-coastal-resilience-through-nature-based-and-integrated-solutions-project-evalua</t>
+          <t>https://www.developmentaid.org/tenders/view/1095582/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-pgt-ct-mangalam-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -1104,19 +1104,19 @@
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>Call for External Collaborator – The ILO project ‘Strengthening Labour Dispute Resolution in Tamil Nadu’s Electronics Manufacturing Sector’ invites applications from consultants to support develop &amp; deliver capacity building programme for social partners</t>
+          <t>P168633- Kerala Solid Waste Management Project (ULB TSR CHALAKUDY)</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr"/>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E28" s="1" t="inlineStr"/>
       <c r="F28" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1610322/call-for-external-collaborator-the-ilo-project-strengthening-labour-dispute-resolution-in-tamil-nadu</t>
+          <t>https://www.developmentaid.org/tenders/view/1108720/india-south-asia-p168633-kerala-solid-waste-management-project-ulb-tsr-chalakudy-procurement-plan-en</t>
         </is>
       </c>
     </row>
@@ -1128,19 +1128,19 @@
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>P170873- Second Dam Rehabilitation and Improvement Project - Procurement Plan (Bhakra Beas Management Board)</t>
+          <t>Enabling Pathways for Long-term Low Emission Development Strategies for the Built Environment in India</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr"/>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning, Climate</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr"/>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611929/p170873-second-dam-rehabilitation-and-improvement-project-procurement-plan-bhakra-beas-management-bo</t>
+          <t>https://www.developmentaid.org/tenders/view/1614544/enabling-pathways-for-long-term-low-emission-development-strategies-for-the-built-environment-in-ind</t>
         </is>
       </c>
     </row>
@@ -1152,19 +1152,19 @@
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>LOAN-4166 IND: Assam Skill University Project - CS11 Project Management Support for Capacity Development of Assam Civil Service (53277-002)</t>
+          <t>Skills: National ITI Upgradation Program - P507910</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr"/>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E30" s="1" t="inlineStr"/>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1599394/loan-4166-ind-assam-skill-university-project-cs11-project-management-support-for-capacity-developmen</t>
+          <t>https://www.developmentaid.org/tenders/view/1425157/skills-national-iti-upgradation-program-p507910</t>
         </is>
       </c>
     </row>
@@ -1176,19 +1176,19 @@
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>56283-002 - Climate Resilient Brahmaputra Integrated Flood and Riverbank Erosion Risk Management Project in Assam - Additional Financing</t>
+          <t>57230-001: Sikkim Integrated Urban Development Project: 04. SIUDP /DRY/THCC-01 - Design Build: Three Transit hubs cum community complex (THCCs) in Rangpo (Lot - 1), Ranipool (Lot - 2), and Pakyong (Lot - 3)</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr"/>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr"/>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1543921/56283-002-climate-resilient-brahmaputra-integrated-flood-and-riverbank-erosion-risk-management-proje</t>
+          <t>https://www.developmentaid.org/tenders/view/1438614/57230-001-sikkim-integrated-urban-development-project</t>
         </is>
       </c>
     </row>
@@ -1200,19 +1200,19 @@
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>59459-001 - Building Knowledge-Based Innovative Solutions for Sustainable and Clean Energy in Asia and the Pacific: Technical Assistance</t>
+          <t>LOAN 57262-001 IND: Assam Urban Sector Development Project - AUSDP/CMS/01 Project Management and Supervision Consultants (PMSC)</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr"/>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E32" s="1" t="inlineStr"/>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1584578/59459-001-building-knowledge-based-innovative-solutions-for-sustainable-and-clean-energy-in-asia-and</t>
+          <t>https://www.developmentaid.org/tenders/view/1266713/loan-57262-001-ind-assam-urban-sector-development-project-ausdpcms01-project-management-and-supervis</t>
         </is>
       </c>
     </row>
@@ -1224,19 +1224,19 @@
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>59305-001 - Catalyzing Sustainable Transport Initiatives in Asia and the Pacific: Technical Assistance</t>
+          <t>Hiring of an Agency for Development of an Operational &amp; Implementation Plan for Solar Global Capability Center (GCC)</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr"/>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>Safety</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E33" s="1" t="inlineStr"/>
       <c r="F33" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1552965/59305-001-catalyzing-sustainable-transport-initiatives-in-asia-and-the-pacific-technical-assistance</t>
+          <t>https://www.developmentaid.org/tenders/view/1614087/hiring-of-an-agency-for-development-of-an-operational-implementation-plan-for-solar-global-capabilit</t>
         </is>
       </c>
     </row>
@@ -1248,19 +1248,19 @@
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>59388-001 - Accelerating and Sustaining Universal Health Coverage (UHC) through UHC Practitioners and Experts knowledge Exchange and Resources (UHC PEERS) Network: Technical Assistance</t>
+          <t>TA-9844 IND: Supporting Education and Skills Development Facility - Financial Management Specialist (53277-001)</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr"/>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>Governance, Safety</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E34" s="1" t="inlineStr"/>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1572727/59388-001-accelerating-and-sustaining-universal-health-coverage-uhc-through-uhc-practitioners-and-ex</t>
+          <t>https://www.developmentaid.org/tenders/view/1613681/ta-9844-ind-supporting-education-and-skills-development-facility-financial-management-specialist-532</t>
         </is>
       </c>
     </row>
@@ -1272,19 +1272,19 @@
       </c>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>59384-001 - Strengthening Quality, Sustainability and Value for Money through Implementation of the 2026 Procurement Directive for ADB Borrowers: Technical Assistance</t>
+          <t>RFP-011-IND-2026 - Agency for Development of a Gender-Responsive SDG framework</t>
         </is>
       </c>
       <c r="C35" s="1" t="inlineStr"/>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Learning, Safety</t>
         </is>
       </c>
       <c r="E35" s="1" t="inlineStr"/>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1613609/59384-001-strengthening-quality-sustainability-and-value-for-money-through-implementation-of-the-202</t>
+          <t>https://www.developmentaid.org/tenders/view/1614135/rfp-011-ind-2026-agency-for-development-of-a-gender-responsive-sdg-framework</t>
         </is>
       </c>
     </row>
@@ -1296,19 +1296,19 @@
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>Onboarding of a Consultancy / Research Firm for Economic Impact Analysis of Public Health Supply Chain Strengthening</t>
+          <t>TA-10416 IND: Promoting Disaster Risk Insurance (54081-001)</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr"/>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>Governance, Safety</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E36" s="1" t="inlineStr"/>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1613408/rfp-2026-in-01-agency-for-economic-impact-analysis</t>
+          <t>https://www.developmentaid.org/tenders/view/1613677/ta-10416-ind-promoting-disaster-risk-insurance-54081-001</t>
         </is>
       </c>
     </row>
@@ -1320,19 +1320,19 @@
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>57133-001 - Sustainable and Inclusive Tourism Development Project in Himachal Pradesh: Procurement Plan</t>
+          <t>RFP for for Developing Integrated One Health Portal for enhanced collaborative Surveillance</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr"/>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="E37" s="1" t="inlineStr"/>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1377325/57133-001-sustainable-and-inclusive-tourism-development-project-in-himachal-pradesh-procurement-plan</t>
+          <t>https://www.developmentaid.org/tenders/view/1607851/rfp-for-for-developing-integrated-one-health-portal-for-enhanced-collaborative-s</t>
         </is>
       </c>
     </row>
@@ -1344,19 +1344,19 @@
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>Evidence for AI in Health (EVAH)</t>
+          <t>Carpl.AI, Inc</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr"/>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>Learning, Safety</t>
+          <t>Learning</t>
         </is>
       </c>
       <c r="E38" s="1" t="inlineStr"/>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1613299/evidence-for-ai-in-health-evah</t>
+          <t>https://www.developmentaid.org/tenders/view/1614052/carplai-inc</t>
         </is>
       </c>
     </row>
@@ -1368,19 +1368,19 @@
       </c>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>P179749- Uttarakhand Disaster Preparedness and Resilience Project - Procurement Plan (PIU- Rural Works Department)</t>
+          <t>RFQ - Final Evaluation of the UNESCO-Guerlain Women for Bees project</t>
         </is>
       </c>
       <c r="C39" s="1" t="inlineStr"/>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance, Safety</t>
         </is>
       </c>
       <c r="E39" s="1" t="inlineStr"/>
       <c r="F39" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1485844/p179749-uttarakhand-disaster-preparedness-and-resilience-project-procurement-plan-piu-rural-works-de</t>
+          <t>https://www.developmentaid.org/tenders/view/1614000/rfq-final-evaluation-of-the-unesco-guerlain-women-for-bees-project</t>
         </is>
       </c>
     </row>
@@ -1392,19 +1392,19 @@
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>P178581 - Assam Resilient Rural Bridges Program - Procurement Plan (Public Works Roads Department, Assam)</t>
+          <t>TA-6742 REG: Building Coastal Resilience through Nature-Based and Integrated Solutions - Project Evaluation Specialist (54212-001)</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr"/>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr"/>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1189984/india-south-asia-p178581-assam-resilient-rural-bridges-program-procurement-plan</t>
+          <t>https://www.developmentaid.org/tenders/view/1613663/ta-6742-reg-building-coastal-resilience-through-nature-based-and-integrated-solutions-project-evalua</t>
         </is>
       </c>
     </row>
@@ -1416,19 +1416,19 @@
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>P180932 - Strengthening Coastal Resilience and the Economy - Procurement Plan (Tamil Nadu Green Climate Company (TNGCC))</t>
+          <t>Call for External Collaborator – The ILO project ‘Strengthening Labour Dispute Resolution in Tamil Nadu’s Electronics Manufacturing Sector’ invites applications from consultants to support develop &amp; deliver capacity building programme for social partners</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr"/>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E41" s="1" t="inlineStr"/>
       <c r="F41" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1326097/india-south-asia-p180932-strengthening-coastal-resilience-and-the-economy-tamil-nadu-green-climate-c</t>
+          <t>https://www.developmentaid.org/tenders/view/1610322/call-for-external-collaborator-the-ilo-project-strengthening-labour-dispute-resolution-in-tamil-nadu</t>
         </is>
       </c>
     </row>
@@ -1440,19 +1440,19 @@
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>P179935 - Enhancing Landscape and Ecosystem Management Project - Procurement Plan (Society for Climate Resilient Agriculture in Nagaland)</t>
+          <t>P170873- Second Dam Rehabilitation and Improvement Project - Procurement Plan (Bhakra Beas Management Board)</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr"/>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E42" s="1" t="inlineStr"/>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1145475/india-south-asia-p179935-enhancing-landscape-and-ecosystem-management-project-society-for-climate-re</t>
+          <t>https://www.developmentaid.org/tenders/view/1611929/p170873-second-dam-rehabilitation-and-improvement-project-procurement-plan-bhakra-beas-management-bo</t>
         </is>
       </c>
     </row>
@@ -1464,19 +1464,19 @@
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>P163533- Odisha Integrated Irrigation Project for Climate Resilient Agriculture - Procurement Plan (Odisha community Tank Development and Management Society)</t>
+          <t>LOAN-4166 IND: Assam Skill University Project - CS11 Project Management Support for Capacity Development of Assam Civil Service (53277-002)</t>
         </is>
       </c>
       <c r="C43" s="1" t="inlineStr"/>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Climate</t>
+          <t>Governance, Learning</t>
         </is>
       </c>
       <c r="E43" s="1" t="inlineStr"/>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/484340/india-south-asia-p163533-odisha-integrated-irrigation-project-for-climate-resilient-agriculture-proc</t>
+          <t>https://www.developmentaid.org/tenders/view/1599394/loan-4166-ind-assam-skill-university-project-cs11-project-management-support-for-capacity-developmen</t>
         </is>
       </c>
     </row>
@@ -1488,19 +1488,19 @@
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat, Rice and Millets under Public Distribution System - Agri-market Assessment Expert (55154-002)</t>
+          <t>56283-002 - Climate Resilient Brahmaputra Integrated Flood and Riverbank Erosion Risk Management Project in Assam - Additional Financing</t>
         </is>
       </c>
       <c r="C44" s="1" t="inlineStr"/>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E44" s="1" t="inlineStr"/>
       <c r="F44" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1607893/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
+          <t>https://www.developmentaid.org/tenders/view/1543921/56283-002-climate-resilient-brahmaputra-integrated-flood-and-riverbank-erosion-risk-management-proje</t>
         </is>
       </c>
     </row>
@@ -1512,19 +1512,19 @@
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>RFP - Final Evaluation of the Bhoomi Ka Programme</t>
+          <t>59459-001 - Building Knowledge-Based Innovative Solutions for Sustainable and Clean Energy in Asia and the Pacific: Technical Assistance</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr"/>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E45" s="1" t="inlineStr"/>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612729/rfp-final-evaluation-of-the-bhoomi-ka-programme</t>
+          <t>https://www.developmentaid.org/tenders/view/1584578/59459-001-building-knowledge-based-innovative-solutions-for-sustainable-and-clean-energy-in-asia-and</t>
         </is>
       </c>
     </row>
@@ -1536,19 +1536,19 @@
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>RFP- for Hiring a Resource Person/Agency Development of MEAL Questionnaires and Processes for CommCare Tool</t>
+          <t>59305-001 - Catalyzing Sustainable Transport Initiatives in Asia and the Pacific: Technical Assistance</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr"/>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning</t>
+          <t>Safety</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr"/>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612750/rfp-for-hiring-a-resource-personagency-development-of-meal-questionnaires-and-processes-for-commcare</t>
+          <t>https://www.developmentaid.org/tenders/view/1552965/59305-001-catalyzing-sustainable-transport-initiatives-in-asia-and-the-pacific-technical-assistance</t>
         </is>
       </c>
     </row>
@@ -1560,19 +1560,19 @@
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>P178254- Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project - Procurement Plan (State Project Management Unit (Kerala))</t>
+          <t>59388-001 - Accelerating and Sustaining Universal Health Coverage (UHC) through UHC Practitioners and Experts knowledge Exchange and Resources (UHC PEERS) Network: Technical Assistance</t>
         </is>
       </c>
       <c r="C47" s="1" t="inlineStr"/>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>Governance, Climate</t>
+          <t>Governance, Safety</t>
         </is>
       </c>
       <c r="E47" s="1" t="inlineStr"/>
       <c r="F47" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612677/p178254-kerala-climate-resilient-agri-value-chain-modernization-kera-project-procurement-plan-state</t>
+          <t>https://www.developmentaid.org/tenders/view/1572727/59388-001-accelerating-and-sustaining-universal-health-coverage-uhc-through-uhc-practitioners-and-ex</t>
         </is>
       </c>
     </row>
@@ -1584,19 +1584,19 @@
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>Printing of Collaterals’ for State Refresher Training</t>
+          <t>59384-001 - Strengthening Quality, Sustainability and Value for Money through Implementation of the 2026 Procurement Directive for ADB Borrowers: Technical Assistance</t>
         </is>
       </c>
       <c r="C48" s="1" t="inlineStr"/>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E48" s="1" t="inlineStr"/>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612222/printing-of-collaterals-for-state-refresher-training</t>
+          <t>https://www.developmentaid.org/tenders/view/1613609/59384-001-strengthening-quality-sustainability-and-value-for-money-through-implementation-of-the-202</t>
         </is>
       </c>
     </row>
@@ -1608,19 +1608,19 @@
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>Deutsch#indisches Programm für Green Skills IGGSP / German-Indian Green Skills Programme IGGSP</t>
+          <t>Onboarding of a Consultancy / Research Firm for Economic Impact Analysis of Public Health Supply Chain Strengthening</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr"/>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance, Safety</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr"/>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612146/deutschindisches-programm-fur-green-skills-iggsp-german-indian-green-skills-programme-iggsp</t>
+          <t>https://www.developmentaid.org/tenders/view/1613408/rfp-2026-in-01-agency-for-economic-impact-analysis</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B50" s="1" t="inlineStr">
         <is>
-          <t>EoI – Mobile Medical Units, Ai-Enabled Tb Screening &amp; Supply Of Medical And Nutritional Support</t>
+          <t>57133-001 - Sustainable and Inclusive Tourism Development Project in Himachal Pradesh: Procurement Plan</t>
         </is>
       </c>
       <c r="C50" s="1" t="inlineStr"/>
@@ -1644,7 +1644,7 @@
       <c r="E50" s="1" t="inlineStr"/>
       <c r="F50" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612050/eoi-mobile-medical-units-ai-enabled-tb-screening-supply-of-medical-and-nutritional-support</t>
+          <t>https://www.developmentaid.org/tenders/view/1377325/57133-001-sustainable-and-inclusive-tourism-development-project-in-himachal-pradesh-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -1656,19 +1656,19 @@
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>RFP - Onboarding Agency for Revamping Assam LMIS Dashboard</t>
+          <t>Evidence for AI in Health (EVAH)</t>
         </is>
       </c>
       <c r="C51" s="1" t="inlineStr"/>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Learning, Safety</t>
         </is>
       </c>
       <c r="E51" s="1" t="inlineStr"/>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612059/rfp-onboarding-agency-for-revamping-assam-lmis-dashboard</t>
+          <t>https://www.developmentaid.org/tenders/view/1613299/evidence-for-ai-in-health-evah</t>
         </is>
       </c>
     </row>
@@ -1680,19 +1680,19 @@
       </c>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in MP, MH and TG</t>
+          <t>P179749- Uttarakhand Disaster Preparedness and Resilience Project - Procurement Plan (PIU- Rural Works Department)</t>
         </is>
       </c>
       <c r="C52" s="1" t="inlineStr"/>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>Governance, Learning, Climate</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E52" s="1" t="inlineStr"/>
       <c r="F52" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1612065/rfp-long-term-monitoring-evaluation-me-partnership-for-environment-and-education-programme-in-mp-mh</t>
+          <t>https://www.developmentaid.org/tenders/view/1485844/p179749-uttarakhand-disaster-preparedness-and-resilience-project-procurement-plan-piu-rural-works-de</t>
         </is>
       </c>
     </row>
@@ -1704,19 +1704,19 @@
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>P178254- Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project (Agriculture Development and Farmers’ Welfare Department.)</t>
+          <t>P178581 - Assam Resilient Rural Bridges Program - Procurement Plan (Public Works Roads Department, Assam)</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr"/>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr"/>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1393178/p178254-kerala-climate-resilient-agri-value-chain-modernization-kera-project-agriculture-development</t>
+          <t>https://www.developmentaid.org/tenders/view/1189984/india-south-asia-p178581-assam-resilient-rural-bridges-program-procurement-plan</t>
         </is>
       </c>
     </row>
@@ -1728,19 +1728,19 @@
       </c>
       <c r="B54" s="1" t="inlineStr">
         <is>
-          <t>P179189- Tamil Nadu Climate Resilient Urban Development Program - Procurement Plan (Tamil Nadu Urban Infrastructure Financial Services Limited)</t>
+          <t>P180932 - Strengthening Coastal Resilience and the Economy - Procurement Plan (Tamil Nadu Green Climate Company (TNGCC))</t>
         </is>
       </c>
       <c r="C54" s="1" t="inlineStr"/>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>Learning, Climate</t>
+          <t>Climate</t>
         </is>
       </c>
       <c r="E54" s="1" t="inlineStr"/>
       <c r="F54" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1189983/india-south-asia-p179189-tamil-nadu-climate-resilient-urban-development-program-tamil-nadu-urban-inf</t>
+          <t>https://www.developmentaid.org/tenders/view/1326097/india-south-asia-p180932-strengthening-coastal-resilience-and-the-economy-tamil-nadu-green-climate-c</t>
         </is>
       </c>
     </row>
@@ -1752,19 +1752,19 @@
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>TA-10446 REG: Improving Governance for Urban and Water Service Providers - Capacity Building Coordination Specialist (Internationl) (58369-001)</t>
+          <t>P179935 - Enhancing Landscape and Ecosystem Management Project - Procurement Plan (Society for Climate Resilient Agriculture in Nagaland)</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr"/>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr"/>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611636/ta-10446-reg-improving-governance-for-urban-and-water-service-providers-capacity-building-coordinati</t>
+          <t>https://www.developmentaid.org/tenders/view/1145475/india-south-asia-p179935-enhancing-landscape-and-ecosystem-management-project-society-for-climate-re</t>
         </is>
       </c>
     </row>
@@ -1776,19 +1776,19 @@
       </c>
       <c r="B56" s="1" t="inlineStr">
         <is>
-          <t>Procurement of Laboratory Equipment &amp; Consumables for AMR laboratories in India, including delivery, installation, assembly, commissioning of equipment at the installation site and training services</t>
+          <t>P163533- Odisha Integrated Irrigation Project for Climate Resilient Agriculture - Procurement Plan (Odisha community Tank Development and Management Society)</t>
         </is>
       </c>
       <c r="C56" s="1" t="inlineStr"/>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance, Learning, Climate</t>
         </is>
       </c>
       <c r="E56" s="1" t="inlineStr"/>
       <c r="F56" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1604282/procurement-of-laboratory-equipment-consumables-for-amr-laboratories-in-india-including-delivery-ins</t>
+          <t>https://www.developmentaid.org/tenders/view/484340/india-south-asia-p163533-odisha-integrated-irrigation-project-for-climate-resilient-agriculture-proc</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>Non-Profit Organizations for Community Mobilization, Capacity Building, Training, Stakeholder Engagement, Convergence, Data Collection and Project Documentation</t>
+          <t>TA-6822 IND: Support for Strengthening Multimodal and Integrated Logistics Ecosystem - Development of Sectoral Plan for Efficient Logistics (SPEL) for Wheat, Rice and Millets under Public Distribution System - Agri-market Assessment Expert (55154-002)</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr"/>
@@ -1812,7 +1812,7 @@
       <c r="E57" s="1" t="inlineStr"/>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611610/community-mobilizationawareness-capacity-buildingdata-collectionconvergence</t>
+          <t>https://www.developmentaid.org/tenders/view/1607893/ta-6822-ind-support-for-strengthening-multimodal-and-integrated-logistics-ecosystem-development-of-s</t>
         </is>
       </c>
     </row>
@@ -1824,19 +1824,211 @@
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>RFP-009-IND-2026 RFP for Dissemination and Uptake of the Study ‘AI for Justice</t>
+          <t>RFP - Final Evaluation of the Bhoomi Ka Programme</t>
         </is>
       </c>
       <c r="C58" s="1" t="inlineStr"/>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>Learning</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="E58" s="1" t="inlineStr"/>
       <c r="F58" s="1" t="inlineStr">
         <is>
-          <t>https://www.developmentaid.org/tenders/view/1611609/rfp-009-ind-2026-rfp-for-dissemination-and-uptake-of-the-study-ai-for-justice</t>
+          <t>https://www.developmentaid.org/tenders/view/1612729/rfp-final-evaluation-of-the-bhoomi-ka-programme</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="80" customHeight="1">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>RFP- for Hiring a Resource Person/Agency Development of MEAL Questionnaires and Processes for CommCare Tool</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr"/>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Learning</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="inlineStr"/>
+      <c r="F59" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1612750/rfp-for-hiring-a-resource-personagency-development-of-meal-questionnaires-and-processes-for-commcare</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="80" customHeight="1">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>P178254- Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project - Procurement Plan (State Project Management Unit (Kerala))</t>
+        </is>
+      </c>
+      <c r="C60" s="1" t="inlineStr"/>
+      <c r="D60" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Climate</t>
+        </is>
+      </c>
+      <c r="E60" s="1" t="inlineStr"/>
+      <c r="F60" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1612677/p178254-kerala-climate-resilient-agri-value-chain-modernization-kera-project-procurement-plan-state</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="80" customHeight="1">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>Printing of Collaterals’ for State Refresher Training</t>
+        </is>
+      </c>
+      <c r="C61" s="1" t="inlineStr"/>
+      <c r="D61" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="E61" s="1" t="inlineStr"/>
+      <c r="F61" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1612222/printing-of-collaterals-for-state-refresher-training</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="80" customHeight="1">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>Deutsch#indisches Programm für Green Skills IGGSP / German-Indian Green Skills Programme IGGSP</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="inlineStr"/>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Climate</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr"/>
+      <c r="F62" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1612146/deutschindisches-programm-fur-green-skills-iggsp-german-indian-green-skills-programme-iggsp</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="80" customHeight="1">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>EoI – Mobile Medical Units, Ai-Enabled Tb Screening &amp; Supply Of Medical And Nutritional Support</t>
+        </is>
+      </c>
+      <c r="C63" s="1" t="inlineStr"/>
+      <c r="D63" s="1" t="inlineStr">
+        <is>
+          <t>Learning</t>
+        </is>
+      </c>
+      <c r="E63" s="1" t="inlineStr"/>
+      <c r="F63" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1612050/eoi-mobile-medical-units-ai-enabled-tb-screening-supply-of-medical-and-nutritional-support</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="80" customHeight="1">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Onboarding Agency for Revamping Assam LMIS Dashboard</t>
+        </is>
+      </c>
+      <c r="C64" s="1" t="inlineStr"/>
+      <c r="D64" s="1" t="inlineStr">
+        <is>
+          <t>Governance</t>
+        </is>
+      </c>
+      <c r="E64" s="1" t="inlineStr"/>
+      <c r="F64" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1612059/rfp-onboarding-agency-for-revamping-assam-lmis-dashboard</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="80" customHeight="1">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>RFP - Long-term Monitoring &amp; Evaluation (M&amp;E) Partnership for Environment and Education Programme in MP, MH and TG</t>
+        </is>
+      </c>
+      <c r="C65" s="1" t="inlineStr"/>
+      <c r="D65" s="1" t="inlineStr">
+        <is>
+          <t>Governance, Learning, Climate</t>
+        </is>
+      </c>
+      <c r="E65" s="1" t="inlineStr"/>
+      <c r="F65" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1612065/rfp-long-term-monitoring-evaluation-me-partnership-for-environment-and-education-programme-in-mp-mh</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="80" customHeight="1">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>DevelopmentAid</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>P178254- Kerala Climate Resilient Agri- Value Chain Modernization (KERA) Project (Agriculture Development and Farmers’ Welfare Department.)</t>
+        </is>
+      </c>
+      <c r="C66" s="1" t="inlineStr"/>
+      <c r="D66" s="1" t="inlineStr">
+        <is>
+          <t>Learning, Climate</t>
+        </is>
+      </c>
+      <c r="E66" s="1" t="inlineStr"/>
+      <c r="F66" s="1" t="inlineStr">
+        <is>
+          <t>https://www.developmentaid.org/tenders/view/1393178/p178254-kerala-climate-resilient-agri-value-chain-modernization-kera-project-agriculture-development</t>
         </is>
       </c>
     </row>

--- a/output/Combined.xlsx
+++ b/output/Combined.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -766,7 +766,7 @@
       <c r="C4" s="1" t="inlineStr"/>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>Safety, Climate, Governance</t>
+          <t>Safety, Governance, Climate</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr"/>
@@ -790,7 +790,7 @@
       <c r="C5" s="1" t="inlineStr"/>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>Safety, Climate, Governance</t>
+          <t>Safety, Governance, Climate</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr"/>
@@ -814,7 +814,7 @@
       <c r="C6" s="1" t="inlineStr"/>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>Safety, Climate, Governance</t>
+          <t>Safety, Governance, Climate</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr"/>
@@ -838,7 +838,7 @@
       <c r="C7" s="1" t="inlineStr"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>Safety, Climate, Governance</t>
+          <t>Safety, Governance, Climate</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr"/>
@@ -862,7 +862,7 @@
       <c r="C8" s="1" t="inlineStr"/>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Safety, Climate, Governance</t>
+          <t>Safety, Governance, Climate</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr"/>
@@ -886,7 +886,7 @@
       <c r="C9" s="1" t="inlineStr"/>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>Safety, Climate, Governance</t>
+          <t>Safety, Governance, Climate</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr"/>
@@ -910,7 +910,7 @@
       <c r="C10" s="1" t="inlineStr"/>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>Safety, Climate, Governance</t>
+          <t>Safety, Governance, Climate</t>
         </is>
       </c>
       <c r="E10" s="1" t="inlineStr"/>
@@ -934,7 +934,7 @@
       <c r="C11" s="1" t="inlineStr"/>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>Safety, Climate, Governance</t>
+          <t>Safety, Governance, Climate</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr"/>
@@ -1126,7 +1126,7 @@
       <c r="C18" s="1" t="inlineStr"/>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>Climate, Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr"/>
@@ -1150,7 +1150,7 @@
       <c r="C19" s="1" t="inlineStr"/>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>Climate, Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E19" s="1" t="inlineStr"/>
@@ -1198,7 +1198,7 @@
       <c r="C21" s="1" t="inlineStr"/>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>Climate, Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E21" s="1" t="inlineStr"/>
@@ -1222,7 +1222,7 @@
       <c r="C22" s="1" t="inlineStr"/>
       <c r="D22" s="1" t="inlineStr">
         <is>
-          <t>Climate, Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E22" s="1" t="inlineStr"/>
@@ -1246,7 +1246,7 @@
       <c r="C23" s="1" t="inlineStr"/>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>Climate, Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E23" s="1" t="inlineStr"/>
@@ -1270,7 +1270,7 @@
       <c r="C24" s="1" t="inlineStr"/>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>Climate, Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr"/>
@@ -1294,7 +1294,7 @@
       <c r="C25" s="1" t="inlineStr"/>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>Climate, Governance</t>
+          <t>Governance, Climate</t>
         </is>
       </c>
       <c r="E25" s="1" t="inlineStr"/>
@@ -1433,34 +1433,6 @@
       <c r="F30" s="1" t="inlineStr">
         <is>
           <t>https://www.developmentaid.org/tenders/view/1614135/rfp-011-ind-2026-agency-for-development-of-a-gender-responsive-sdg-framework</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="95" customHeight="1">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>DevelopmentAid</t>
-        </is>
-      </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>RFP for for Developing Integrated One Health Portal for enhanced collaborative Surveillance</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr"/>
-      <c r="D31" s="1" t="inlineStr">
-        <is>
-          <t>Safety</t>
-        </is>
-      </c>
-      <c r="E31" s="1" t="inlineStr">
-        <is>
-          <t>Mar 8, 2026</t>
-        </is>
-      </c>
-      <c r="F31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.developmentaid.org/tenders/view/1607851/rfp-for-for-developing-integrated-one-health-portal-for-enhanced-collaborative-s</t>
         </is>
       </c>
     </row>
